--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e048482\Desktop\Medipol\2018bahar\yazilimaraclari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\GIT\MY\MyCourses\SoftwareDevEnvAndTools\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="192">
   <si>
     <t>Adı</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>YUNUS EMRE</t>
+  </si>
+  <si>
+    <t>ELA</t>
+  </si>
+  <si>
+    <t>H5160070</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1118,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1121,13 +1129,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1307,66 +1403,6 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1684,8 +1720,8 @@
   <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1730,8 @@
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
@@ -1711,35 +1748,35 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="45" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="45" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="47"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
       <c r="W1" s="17" t="s">
         <v>96</v>
       </c>
@@ -1837,24 +1874,24 @@
       <c r="C3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="48">
-        <v>2</v>
-      </c>
-      <c r="E3" s="49">
-        <v>2</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="D3" s="45">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46">
+        <v>2</v>
+      </c>
+      <c r="F3" s="46">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="16">
-        <f>SUM(D3:J3)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L3" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" ref="K3:K40" si="0">SUM(D3:J3)*50/A$1</f>
+        <v>150</v>
+      </c>
+      <c r="L3" s="14"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1862,8 +1899,8 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="16">
-        <f>SUM(L3:R3)/A$1</f>
-        <v>100</v>
+        <f t="shared" ref="S3:S15" si="1">SUM(L3:R3)/A$1</f>
+        <v>0</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -1872,7 +1909,7 @@
       <c r="X3" s="44"/>
       <c r="Y3" s="21">
         <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,24 +1922,24 @@
       <c r="C4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="48">
-        <v>2</v>
-      </c>
-      <c r="E4" s="49">
-        <v>2</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="46">
+        <v>2</v>
+      </c>
+      <c r="F4" s="46">
+        <v>2</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="16">
-        <f>SUM(D4:J4)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L4" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1910,8 +1947,8 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="16">
-        <f>SUM(L4:R4)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -1920,7 +1957,7 @@
       <c r="X4" s="44"/>
       <c r="Y4" s="21">
         <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,24 +1970,24 @@
       <c r="C5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="48">
-        <v>2</v>
-      </c>
-      <c r="E5" s="49">
-        <v>2</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2</v>
+      </c>
+      <c r="F5" s="46">
+        <v>2</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="16">
-        <f>SUM(D5:J5)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L5" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1958,8 +1995,8 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="16">
-        <f>SUM(L5:R5)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1968,7 +2005,7 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="21">
         <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,24 +2018,24 @@
       <c r="C6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="48">
-        <v>2</v>
-      </c>
-      <c r="E6" s="49">
-        <v>2</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="D6" s="45">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>2</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="16">
-        <f>SUM(D6:J6)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L6" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2006,8 +2043,8 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="16">
-        <f>SUM(L6:R6)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -2016,7 +2053,7 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="21">
         <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,24 +2066,24 @@
       <c r="C7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="48">
-        <v>2</v>
-      </c>
-      <c r="E7" s="49">
-        <v>2</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="D7" s="45">
+        <v>2</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2</v>
+      </c>
+      <c r="F7" s="46">
+        <v>2</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="16">
-        <f>SUM(D7:J7)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L7" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2054,8 +2091,8 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="16">
-        <f>SUM(L7:R7)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -2064,7 +2101,7 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="21">
         <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,24 +2114,24 @@
       <c r="C8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="48">
-        <v>2</v>
-      </c>
-      <c r="E8" s="49">
-        <v>2</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="D8" s="45">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46">
+        <v>2</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="16">
-        <f>SUM(D8:J8)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L8" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -2102,8 +2139,8 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="16">
-        <f>SUM(L8:R8)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -2111,8 +2148,8 @@
       <c r="W8" s="6"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="21">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
-        <v>65</v>
+        <f t="shared" ref="Y8:Y15" si="2">K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,24 +2162,24 @@
       <c r="C9" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="48">
-        <v>2</v>
-      </c>
-      <c r="E9" s="49">
-        <v>2</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="D9" s="45">
+        <v>2</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+      <c r="F9" s="46">
+        <v>2</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="16">
-        <f>SUM(D9:J9)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L9" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L9" s="14"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -2150,8 +2187,8 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="16">
-        <f>SUM(L9:R9)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -2159,8 +2196,8 @@
       <c r="W9" s="6"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="21">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3+X9*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,24 +2210,24 @@
       <c r="C10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="48">
-        <v>2</v>
-      </c>
-      <c r="E10" s="49">
-        <v>2</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="D10" s="45">
+        <v>2</v>
+      </c>
+      <c r="E10" s="46">
+        <v>2</v>
+      </c>
+      <c r="F10" s="46">
+        <v>2</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="16">
-        <f>SUM(D10:J10)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L10" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2198,8 +2235,8 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="16">
-        <f>SUM(L10:R10)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -2207,8 +2244,8 @@
       <c r="W10" s="6"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="21">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3+X10*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,24 +2258,24 @@
       <c r="C11" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="48">
-        <v>2</v>
-      </c>
-      <c r="E11" s="49">
-        <v>2</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="46">
+        <v>2</v>
+      </c>
+      <c r="F11" s="46">
+        <v>2</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="16">
-        <f>SUM(D11:J11)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L11" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2246,8 +2283,8 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="16">
-        <f>SUM(L11:R11)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -2255,8 +2292,8 @@
       <c r="W11" s="6"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="21">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3+X11*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,24 +2306,24 @@
       <c r="C12" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="48">
-        <v>2</v>
-      </c>
-      <c r="E12" s="49">
-        <v>2</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="D12" s="45">
+        <v>2</v>
+      </c>
+      <c r="E12" s="46">
+        <v>2</v>
+      </c>
+      <c r="F12" s="46">
+        <v>2</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="16">
-        <f>SUM(D12:J12)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L12" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2294,8 +2331,8 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="16">
-        <f>SUM(L12:R12)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -2303,8 +2340,8 @@
       <c r="W12" s="6"/>
       <c r="X12" s="44"/>
       <c r="Y12" s="21">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3+X12*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,24 +2354,24 @@
       <c r="C13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="48">
-        <v>2</v>
-      </c>
-      <c r="E13" s="49">
-        <v>2</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="D13" s="45">
+        <v>2</v>
+      </c>
+      <c r="E13" s="46">
+        <v>2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="16">
-        <f>SUM(D13:J13)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L13" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L13" s="14"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2342,8 +2379,8 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16">
-        <f>SUM(L13:R13)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -2351,8 +2388,8 @@
       <c r="W13" s="6"/>
       <c r="X13" s="44"/>
       <c r="Y13" s="21">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3+X13*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,24 +2402,24 @@
       <c r="C14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="48">
-        <v>2</v>
-      </c>
-      <c r="E14" s="49">
-        <v>2</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="D14" s="45">
+        <v>2</v>
+      </c>
+      <c r="E14" s="46">
+        <v>2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="16">
-        <f>SUM(D14:J14)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L14" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L14" s="14"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2390,8 +2427,8 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="16">
-        <f>SUM(L14:R14)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
@@ -2399,8 +2436,8 @@
       <c r="W14" s="6"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="21">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3+X14*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,24 +2450,24 @@
       <c r="C15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="45">
         <v>2</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="16">
-        <f>SUM(D15:J15)*50/A$1</f>
-        <v>200</v>
-      </c>
-      <c r="L15" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L15" s="14"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2438,8 +2475,8 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="16">
-        <f>SUM(L15:R15)/A$1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -2447,8 +2484,8 @@
       <c r="W15" s="6"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="21">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3+X15*0.1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,24 +2498,24 @@
       <c r="C16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="48">
-        <v>2</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="D16" s="45">
+        <v>2</v>
+      </c>
+      <c r="E16" s="46">
         <v>1.7</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="16">
-        <f>SUM(D16:J16)*50/A$1</f>
-        <v>185</v>
-      </c>
-      <c r="L16" s="14">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="L16" s="14"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2492,8 +2529,8 @@
       <c r="W16" s="6"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="21">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
-        <v>37</v>
+        <f t="shared" ref="Y16:Y33" si="3">K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,19 +2543,21 @@
       <c r="C17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="48">
-        <v>0</v>
-      </c>
-      <c r="E17" s="49">
-        <v>2</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <v>2</v>
+      </c>
+      <c r="F17" s="46">
+        <v>2</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="16">
-        <f>SUM(D17:J17)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L17" s="14"/>
@@ -2535,7 +2574,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="21">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2549,24 +2588,24 @@
       <c r="C18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="48">
-        <v>0</v>
-      </c>
-      <c r="E18" s="49">
-        <v>2</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="46">
+        <v>2</v>
+      </c>
+      <c r="F18" s="46">
+        <v>2</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="16">
-        <f>SUM(D18:J18)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
+      <c r="L18" s="14"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2583,7 +2622,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="21">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2597,24 +2636,24 @@
       <c r="C19" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="48">
-        <v>0</v>
-      </c>
-      <c r="E19" s="49">
-        <v>2</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="D19" s="45">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>2</v>
+      </c>
+      <c r="F19" s="46">
+        <v>2</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="16">
-        <f>SUM(D19:J19)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
+      <c r="L19" s="14"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2631,7 +2670,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="21">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3+X19*0.15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2645,24 +2684,24 @@
       <c r="C20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="48">
-        <v>0</v>
-      </c>
-      <c r="E20" s="49">
-        <v>2</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>2</v>
+      </c>
+      <c r="F20" s="46">
+        <v>1</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="16">
-        <f>SUM(D20:J20)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2679,8 +2718,8 @@
       <c r="W20" s="6"/>
       <c r="X20" s="44"/>
       <c r="Y20" s="21">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3+X20*0.15</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,24 +2732,24 @@
       <c r="C21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="48">
-        <v>0</v>
-      </c>
-      <c r="E21" s="49">
-        <v>2</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="D21" s="45">
+        <v>0</v>
+      </c>
+      <c r="E21" s="46">
+        <v>2</v>
+      </c>
+      <c r="F21" s="46">
+        <v>2</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="16">
-        <f>SUM(D21:J21)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2727,7 +2766,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="44"/>
       <c r="Y21" s="21">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2741,24 +2780,24 @@
       <c r="C22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="48">
-        <v>0</v>
-      </c>
-      <c r="E22" s="48">
-        <v>2</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>2</v>
+      </c>
+      <c r="F22" s="46">
+        <v>2</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="16">
-        <f>SUM(D22:J22)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L22" s="14">
-        <v>0</v>
-      </c>
+      <c r="L22" s="14"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2775,7 +2814,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="44"/>
       <c r="Y22" s="21">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2789,15 +2828,15 @@
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="16">
-        <f>SUM(D23:J23)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="14"/>
@@ -2814,7 +2853,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="44"/>
       <c r="Y23" s="21">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3+X23*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2828,15 +2867,15 @@
       <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="16">
-        <f>SUM(D24:J24)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="14"/>
@@ -2853,7 +2892,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="44"/>
       <c r="Y24" s="21">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2867,15 +2906,15 @@
       <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="16">
-        <f>SUM(D25:J25)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="14"/>
@@ -2892,7 +2931,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="44"/>
       <c r="Y25" s="21">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3+X25*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,15 +2945,15 @@
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="16">
-        <f>SUM(D26:J26)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="14"/>
@@ -2931,7 +2970,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="44"/>
       <c r="Y26" s="21">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2945,15 +2984,15 @@
       <c r="C27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="16">
-        <f>SUM(D27:J27)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="14"/>
@@ -2970,7 +3009,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="44"/>
       <c r="Y27" s="21">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2984,15 +3023,15 @@
       <c r="C28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="16">
-        <f>SUM(D28:J28)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="14"/>
@@ -3009,7 +3048,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="44"/>
       <c r="Y28" s="21">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3023,15 +3062,15 @@
       <c r="C29" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="16">
-        <f>SUM(D29:J29)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="14"/>
@@ -3048,7 +3087,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="44"/>
       <c r="Y29" s="21">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3062,16 +3101,18 @@
       <c r="C30" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="16">
-        <f>SUM(D30:J30)*50/A$1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>37.5</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="6"/>
@@ -3087,8 +3128,8 @@
       <c r="W30" s="6"/>
       <c r="X30" s="44"/>
       <c r="Y30" s="21">
-        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,24 +3142,22 @@
       <c r="C31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="48">
-        <v>0</v>
-      </c>
-      <c r="E31" s="49">
-        <v>0</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="D31" s="45">
+        <v>0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="16">
-        <f>SUM(D31:J31)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="14"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -3126,7 +3165,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="16">
-        <f>SUM(L31:R31)/A$1</f>
+        <f t="shared" ref="S31:S44" si="4">SUM(L31:R31)/A$1</f>
         <v>0</v>
       </c>
       <c r="T31" s="14"/>
@@ -3135,7 +3174,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="44"/>
       <c r="Y31" s="21">
-        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,24 +3188,22 @@
       <c r="C32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="48">
-        <v>0</v>
-      </c>
-      <c r="E32" s="49">
-        <v>0</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="D32" s="45">
+        <v>0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="16">
-        <f>SUM(D32:J32)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="14"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -3174,7 +3211,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="16">
-        <f>SUM(L32:R32)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T32" s="14"/>
@@ -3183,7 +3220,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="44"/>
       <c r="Y32" s="21">
-        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3197,24 +3234,22 @@
       <c r="C33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="48">
-        <v>0</v>
-      </c>
-      <c r="E33" s="49">
-        <v>0</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="D33" s="45">
+        <v>0</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="16">
-        <f>SUM(D33:J33)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="14"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -3222,7 +3257,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="16">
-        <f>SUM(L33:R33)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T33" s="14"/>
@@ -3231,7 +3266,7 @@
       <c r="W33" s="6"/>
       <c r="X33" s="44"/>
       <c r="Y33" s="21">
-        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3245,24 +3280,22 @@
       <c r="C34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="48">
-        <v>0</v>
-      </c>
-      <c r="E34" s="49">
-        <v>0</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="D34" s="45">
+        <v>0</v>
+      </c>
+      <c r="E34" s="46">
+        <v>0</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="16">
-        <f>SUM(D34:J34)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="14"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -3270,7 +3303,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="16">
-        <f>SUM(L34:R34)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T34" s="14"/>
@@ -3279,7 +3312,7 @@
       <c r="W34" s="6"/>
       <c r="X34" s="44"/>
       <c r="Y34" s="21">
-        <f>K34*0.2+S34*0.25+V34*0.25+W34*0.3+X34*0.1</f>
+        <f t="shared" ref="Y34:Y55" si="5">K34*0.2+S34*0.25+V34*0.25+W34*0.3+X34*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3293,24 +3326,22 @@
       <c r="C35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="48">
-        <v>0</v>
-      </c>
-      <c r="E35" s="49">
-        <v>0</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="E35" s="46">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="16">
-        <f>SUM(D35:J35)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="14"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -3318,7 +3349,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="16">
-        <f>SUM(L35:R35)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T35" s="14"/>
@@ -3327,7 +3358,7 @@
       <c r="W35" s="6"/>
       <c r="X35" s="44"/>
       <c r="Y35" s="21">
-        <f>K35*0.2+S35*0.25+V35*0.25+W35*0.3+X35*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3341,24 +3372,22 @@
       <c r="C36" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="48">
-        <v>0</v>
-      </c>
-      <c r="E36" s="49">
-        <v>0</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="16">
-        <f>SUM(D36:J36)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="14"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -3366,7 +3395,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="16">
-        <f>SUM(L36:R36)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T36" s="14"/>
@@ -3375,7 +3404,7 @@
       <c r="W36" s="6"/>
       <c r="X36" s="44"/>
       <c r="Y36" s="21">
-        <f>K36*0.2+S36*0.25+V36*0.25+W36*0.3+X36*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3395,18 +3424,18 @@
       <c r="E37" s="7">
         <v>0</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="16">
-        <f>SUM(D37:J37)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L37" s="14"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -3414,7 +3443,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="16">
-        <f>SUM(L37:R37)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T37" s="14"/>
@@ -3423,8 +3452,8 @@
       <c r="W37" s="6"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="21">
-        <f>K37*0.2+S37*0.25+V37*0.25+W37*0.3+X37*0.1</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3443,18 +3472,18 @@
       <c r="E38" s="7">
         <v>2</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="16">
-        <f>SUM(D38:J38)*50/A$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L38" s="14">
-        <v>0</v>
-      </c>
+      <c r="L38" s="14"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -3462,7 +3491,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="16">
-        <f>SUM(L38:R38)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T38" s="14"/>
@@ -3471,7 +3500,7 @@
       <c r="W38" s="6"/>
       <c r="X38" s="44"/>
       <c r="Y38" s="21">
-        <f>K38*0.2+S38*0.25+V38*0.25+W38*0.3+X38*0.1</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -3497,12 +3526,10 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="16">
-        <f>SUM(D39:J39)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="14"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -3510,7 +3537,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="16">
-        <f>SUM(L39:R39)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T39" s="14"/>
@@ -3519,7 +3546,7 @@
       <c r="W39" s="6"/>
       <c r="X39" s="44"/>
       <c r="Y39" s="21">
-        <f>K39*0.2+S39*0.25+V39*0.25+W39*0.3+X39*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3545,12 +3572,10 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="16">
-        <f>SUM(D40:J40)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="14"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -3558,7 +3583,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="16">
-        <f>SUM(L40:R40)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T40" s="14"/>
@@ -3567,17 +3592,29 @@
       <c r="W40" s="6"/>
       <c r="X40" s="44"/>
       <c r="Y40" s="21">
-        <f>K40*0.2+S40*0.25+V40*0.25+W40*0.3+X40*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3591,7 +3628,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="16">
-        <f>SUM(L41:R41)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T41" s="14"/>
@@ -3600,7 +3637,7 @@
       <c r="W41" s="6"/>
       <c r="X41" s="44"/>
       <c r="Y41" s="21">
-        <f>K41*0.2+S41*0.25+V41*0.25+W41*0.3+X41*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +3661,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="16">
-        <f>SUM(L42:R42)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T42" s="14"/>
@@ -3633,7 +3670,7 @@
       <c r="W42" s="6"/>
       <c r="X42" s="44"/>
       <c r="Y42" s="21">
-        <f>K42*0.2+S42*0.25+V42*0.25+W42*0.3+X42*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3657,7 +3694,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="16">
-        <f>SUM(L43:R43)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T43" s="14"/>
@@ -3666,7 +3703,7 @@
       <c r="W43" s="6"/>
       <c r="X43" s="44"/>
       <c r="Y43" s="21">
-        <f>K43*0.2+S43*0.25+V43*0.25+W43*0.3+X43*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3690,7 +3727,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="16">
-        <f>SUM(L44:R44)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T44" s="14"/>
@@ -3699,7 +3736,7 @@
       <c r="W44" s="6"/>
       <c r="X44" s="44"/>
       <c r="Y44" s="21">
-        <f>K44*0.2+S44*0.25+V44*0.25+W44*0.3+X44*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3729,7 +3766,7 @@
       <c r="W45" s="6"/>
       <c r="X45" s="44"/>
       <c r="Y45" s="21">
-        <f>K45*0.2+S45*0.25+V45*0.25+W45*0.3+X45*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3759,7 +3796,7 @@
       <c r="W46" s="6"/>
       <c r="X46" s="44"/>
       <c r="Y46" s="21">
-        <f>K46*0.2+S46*0.25+V46*0.25+W46*0.3+X46*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3826,7 @@
       <c r="W47" s="6"/>
       <c r="X47" s="44"/>
       <c r="Y47" s="21">
-        <f>K47*0.2+S47*0.25+V47*0.25+W47*0.3+X47*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3856,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="44"/>
       <c r="Y48" s="21">
-        <f>K48*0.2+S48*0.25+V48*0.25+W48*0.3+X48*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3849,7 +3886,7 @@
       <c r="W49" s="6"/>
       <c r="X49" s="44"/>
       <c r="Y49" s="21">
-        <f>K49*0.2+S49*0.25+V49*0.25+W49*0.3+X49*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +3916,7 @@
       <c r="W50" s="6"/>
       <c r="X50" s="44"/>
       <c r="Y50" s="21">
-        <f>K50*0.2+S50*0.25+V50*0.25+W50*0.3+X50*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3909,7 +3946,7 @@
       <c r="W51" s="6"/>
       <c r="X51" s="44"/>
       <c r="Y51" s="21">
-        <f>K51*0.2+S51*0.25+V51*0.25+W51*0.3+X51*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +3976,7 @@
       <c r="W52" s="6"/>
       <c r="X52" s="44"/>
       <c r="Y52" s="21">
-        <f>K52*0.2+S52*0.25+V52*0.25+W52*0.3+X52*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3969,7 +4006,7 @@
       <c r="W53" s="6"/>
       <c r="X53" s="44"/>
       <c r="Y53" s="21">
-        <f>K53*0.2+S53*0.25+V53*0.25+W53*0.3+X53*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3999,7 +4036,7 @@
       <c r="W54" s="6"/>
       <c r="X54" s="44"/>
       <c r="Y54" s="21">
-        <f>K54*0.2+S54*0.25+V54*0.25+W54*0.3+X54*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4066,7 @@
       <c r="W55" s="6"/>
       <c r="X55" s="44"/>
       <c r="Y55" s="21">
-        <f>K55*0.2+S55*0.25+V55*0.25+W55*0.3+X55*0.1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4547,47 +4584,47 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J55">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R55 W3:X55">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U55">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4741,22 +4778,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
       <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>
@@ -7673,14 +7710,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7727,18 +7764,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7786,18 +7823,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="193">
   <si>
     <t>Adı</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>H5160070</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1133,97 +1136,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1720,8 +1633,8 @@
   <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
@@ -1866,13 +1779,13 @@
     </row>
     <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="D3" s="45">
         <v>2</v>
@@ -1888,10 +1801,12 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="16">
-        <f t="shared" ref="K3:K40" si="0">SUM(D3:J3)*50/A$1</f>
-        <v>150</v>
-      </c>
-      <c r="L3" s="14"/>
+        <f>SUM(D3:J3)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L3" s="14">
+        <v>100</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1899,8 +1814,8 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="16">
-        <f t="shared" ref="S3:S15" si="1">SUM(L3:R3)/A$1</f>
-        <v>0</v>
+        <f>SUM(L3:R3)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -1908,38 +1823,40 @@
       <c r="W3" s="6"/>
       <c r="X3" s="44"/>
       <c r="Y3" s="21">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
-        <v>30</v>
+        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.1</f>
+        <v>28.333333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="7">
         <v>2</v>
       </c>
       <c r="F4" s="46">
         <v>2</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L4" s="14"/>
+        <f>SUM(D4:J4)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="14">
+        <v>100</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1947,8 +1864,8 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L4:R4)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
@@ -1956,19 +1873,19 @@
       <c r="W4" s="6"/>
       <c r="X4" s="44"/>
       <c r="Y4" s="21">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
-        <v>30</v>
+        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.1</f>
+        <v>28.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="D5" s="45">
         <v>2</v>
@@ -1984,10 +1901,12 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L5" s="14"/>
+        <f>SUM(D5:J5)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L5" s="14">
+        <v>95</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1995,8 +1914,8 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L5:R5)/A$1</f>
+        <v>31.666666666666668</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -2005,18 +1924,18 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="21">
         <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
-        <v>30</v>
+        <v>27.916666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D6" s="45">
         <v>2</v>
@@ -2032,10 +1951,12 @@
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L6" s="14"/>
+        <f>SUM(D6:J6)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="14">
+        <v>85</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2043,8 +1964,8 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L6:R6)/A$1</f>
+        <v>28.333333333333332</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -2052,19 +1973,19 @@
       <c r="W6" s="6"/>
       <c r="X6" s="44"/>
       <c r="Y6" s="21">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
-        <v>30</v>
+        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.1</f>
+        <v>27.083333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
@@ -2080,10 +2001,12 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L7" s="14"/>
+        <f>SUM(D7:J7)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="14">
+        <v>85</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2091,8 +2014,8 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L7:R7)/A$1</f>
+        <v>28.333333333333332</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -2100,19 +2023,19 @@
       <c r="W7" s="6"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="21">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
-        <v>30</v>
+        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.1</f>
+        <v>27.083333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D8" s="45">
         <v>2</v>
@@ -2128,10 +2051,12 @@
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L8" s="14"/>
+        <f>SUM(D8:J8)*50/A$1</f>
+        <v>100</v>
+      </c>
+      <c r="L8" s="14">
+        <v>80</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -2139,8 +2064,8 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L8:R8)/A$1</f>
+        <v>26.666666666666668</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -2148,22 +2073,22 @@
       <c r="W8" s="6"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="21">
-        <f t="shared" ref="Y8:Y15" si="2">K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
-        <v>30</v>
+        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="D9" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="46">
         <v>2</v>
@@ -2176,10 +2101,12 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L9" s="14"/>
+        <f>SUM(D9:J9)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L9" s="14">
+        <v>100</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -2187,8 +2114,8 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L9:R9)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -2196,22 +2123,22 @@
       <c r="W9" s="6"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D10" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="46">
         <v>2</v>
@@ -2224,10 +2151,12 @@
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
       <c r="K10" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L10" s="14"/>
+        <f>SUM(D10:J10)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L10" s="14">
+        <v>100</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2235,8 +2164,8 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L10:R10)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -2244,22 +2173,22 @@
       <c r="W10" s="6"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="46">
         <v>2</v>
@@ -2272,10 +2201,12 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L11" s="14"/>
+        <f>SUM(D11:J11)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L11" s="14">
+        <v>100</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2283,8 +2214,8 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L11:R11)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -2292,22 +2223,22 @@
       <c r="W11" s="6"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="D12" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="46">
         <v>2</v>
@@ -2320,10 +2251,12 @@
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L12" s="14"/>
+        <f>SUM(D12:J12)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2331,8 +2264,8 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L12:R12)/A$1</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -2340,19 +2273,19 @@
       <c r="W12" s="6"/>
       <c r="X12" s="44"/>
       <c r="Y12" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D13" s="45">
         <v>2</v>
@@ -2368,8 +2301,8 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(D13:J13)*50/A$1</f>
+        <v>100</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="6"/>
@@ -2379,7 +2312,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(L13:R13)/A$1</f>
         <v>0</v>
       </c>
       <c r="T13" s="14"/>
@@ -2388,19 +2321,19 @@
       <c r="W13" s="6"/>
       <c r="X13" s="44"/>
       <c r="Y13" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D14" s="45">
         <v>2</v>
@@ -2411,13 +2344,15 @@
       <c r="F14" s="46">
         <v>2</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="46" t="s">
+        <v>192</v>
+      </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(D14:J14)*50/(A$1)</f>
+        <v>100</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="6"/>
@@ -2427,7 +2362,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(L14:R14)/A$1</f>
         <v>0</v>
       </c>
       <c r="T14" s="14"/>
@@ -2436,36 +2371,36 @@
       <c r="W14" s="6"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D15" s="45">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="46">
         <v>2</v>
       </c>
       <c r="F15" s="46">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(D15:J15)*50/A$1</f>
+        <v>100</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="6"/>
@@ -2475,7 +2410,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(L15:R15)/A$1</f>
         <v>0</v>
       </c>
       <c r="T15" s="14"/>
@@ -2484,36 +2419,36 @@
       <c r="W15" s="6"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="21">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D16" s="45">
         <v>2</v>
       </c>
       <c r="E16" s="46">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F16" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="16">
-        <f t="shared" si="0"/>
-        <v>92.5</v>
+        <f>SUM(D16:J16)*50/A$1</f>
+        <v>100</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="6"/>
@@ -2522,29 +2457,32 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16">
+        <f>SUM(L16:R16)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="16"/>
       <c r="W16" s="6"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="21">
-        <f t="shared" ref="Y16:Y33" si="3">K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
-        <v>18.5</v>
+        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D17" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="46">
         <v>2</v>
@@ -2557,7 +2495,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/A$1</f>
         <v>100</v>
       </c>
       <c r="L17" s="14"/>
@@ -2567,29 +2505,32 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="16">
+        <f>SUM(L17:R17)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="16"/>
       <c r="W17" s="6"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="21">
-        <f t="shared" si="3"/>
+        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3+X17*0.1</f>
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D18" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="46">
         <v>2</v>
@@ -2602,7 +2543,7 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:J18)*50/A$1</f>
         <v>100</v>
       </c>
       <c r="L18" s="14"/>
@@ -2622,22 +2563,22 @@
       <c r="W18" s="6"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="21">
-        <f t="shared" si="3"/>
+        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3+X18*0.1</f>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D19" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="46">
         <v>2</v>
@@ -2650,7 +2591,7 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:J19)*50/A$1</f>
         <v>100</v>
       </c>
       <c r="L19" s="14"/>
@@ -2670,38 +2611,40 @@
       <c r="W19" s="6"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="21">
-        <f t="shared" si="3"/>
+        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3+X19*0.1</f>
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="45">
-        <v>0</v>
-      </c>
-      <c r="E20" s="46">
-        <v>2</v>
-      </c>
-      <c r="F20" s="46">
-        <v>1</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="16">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="L20" s="14"/>
+        <f>SUM(D20:J20)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L20" s="14">
+        <v>80</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2710,7 +2653,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="16">
         <f>SUM(L20:R20)/A$1</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
@@ -2718,19 +2661,19 @@
       <c r="W20" s="6"/>
       <c r="X20" s="44"/>
       <c r="Y20" s="21">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3+X20*0.1</f>
+        <v>20.000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="D21" s="45">
         <v>0</v>
@@ -2739,17 +2682,19 @@
         <v>2</v>
       </c>
       <c r="F21" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L21" s="14"/>
+        <f>SUM(D21:J21)*50/A$1</f>
+        <v>50</v>
+      </c>
+      <c r="L21" s="14">
+        <v>50</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2758,7 +2703,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="16">
         <f>SUM(L21:R21)/A$1</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -2766,19 +2711,19 @@
       <c r="W21" s="6"/>
       <c r="X21" s="44"/>
       <c r="Y21" s="21">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
+        <v>14.166666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D22" s="45">
         <v>0</v>
@@ -2794,169 +2739,204 @@
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
       <c r="K22" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L22" s="14"/>
+        <f>SUM(D22:J22)*50/A$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L22" s="14">
+        <v>80</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="16">
-        <f>SUM(L22:R22)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="S22" s="16"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="16"/>
       <c r="W22" s="6"/>
       <c r="X22" s="44"/>
       <c r="Y22" s="21">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
+        <v>13.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14"/>
+        <f>SUM(D23:J23)*50/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L23" s="14">
+        <v>80</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="16"/>
+      <c r="S23" s="16">
+        <f>SUM(L23:R23)/A$1</f>
+        <v>26.666666666666668</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="16"/>
       <c r="W23" s="6"/>
       <c r="X23" s="44"/>
       <c r="Y23" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3+X23*0.1</f>
+        <v>13.333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+        <v>134</v>
+      </c>
+      <c r="D24" s="45">
+        <v>2</v>
+      </c>
+      <c r="E24" s="46">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0</v>
+      </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14"/>
+        <f>SUM(D24:J24)*50/A$1</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="16"/>
+      <c r="S24" s="16">
+        <f>SUM(L24:R24)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="16"/>
       <c r="W24" s="6"/>
       <c r="X24" s="44"/>
       <c r="Y24" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
+        <v>12.333333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14">
+        <v>100</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="16"/>
+      <c r="S25" s="16">
+        <f>SUM(L25:R25)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="16"/>
       <c r="W25" s="6"/>
       <c r="X25" s="44"/>
       <c r="Y25" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3+X25*0.1</f>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="46">
+        <v>1.5</v>
+      </c>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="14"/>
+        <f>SUM(D26:J26)*50/A$1</f>
+        <v>25</v>
+      </c>
+      <c r="L26" s="14">
+        <v>50</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -2970,19 +2950,19 @@
       <c r="W26" s="6"/>
       <c r="X26" s="44"/>
       <c r="Y26" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
@@ -2992,7 +2972,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L27" s="14"/>
@@ -3009,19 +2989,19 @@
       <c r="W27" s="6"/>
       <c r="X27" s="44"/>
       <c r="Y27" s="21">
-        <f t="shared" si="3"/>
+        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
@@ -3031,7 +3011,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L28" s="14"/>
@@ -3048,19 +3028,19 @@
       <c r="W28" s="6"/>
       <c r="X28" s="44"/>
       <c r="Y28" s="21">
-        <f t="shared" si="3"/>
+        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
@@ -3070,7 +3050,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L29" s="14"/>
@@ -3087,32 +3067,30 @@
       <c r="W29" s="6"/>
       <c r="X29" s="44"/>
       <c r="Y29" s="21">
-        <f t="shared" si="3"/>
+        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
-      <c r="F30" s="46">
-        <v>1.5</v>
-      </c>
+      <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="16">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+        <f>SUM(D30:J30)*50/A$1</f>
+        <v>0</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="6"/>
@@ -3128,33 +3106,29 @@
       <c r="W30" s="6"/>
       <c r="X30" s="44"/>
       <c r="Y30" s="21">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="46">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D31:J31)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L31" s="14"/>
@@ -3164,43 +3138,36 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="16">
-        <f t="shared" ref="S31:S44" si="4">SUM(L31:R31)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="S31" s="16"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="16"/>
       <c r="W31" s="6"/>
       <c r="X31" s="44"/>
       <c r="Y31" s="21">
-        <f t="shared" si="3"/>
+        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="45">
-        <v>0</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D32:J32)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L32" s="14"/>
@@ -3210,43 +3177,36 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="S32" s="16"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="16"/>
       <c r="W32" s="6"/>
       <c r="X32" s="44"/>
       <c r="Y32" s="21">
-        <f t="shared" si="3"/>
+        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="45">
-        <v>0</v>
-      </c>
-      <c r="E33" s="46">
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D33:J33)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L33" s="14"/>
@@ -3256,29 +3216,26 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="S33" s="16"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="16"/>
       <c r="W33" s="6"/>
       <c r="X33" s="44"/>
       <c r="Y33" s="21">
-        <f t="shared" si="3"/>
+        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="D34" s="45">
         <v>0</v>
@@ -3292,7 +3249,7 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D34:J34)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L34" s="14"/>
@@ -3303,7 +3260,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L34:R34)/A$1</f>
         <v>0</v>
       </c>
       <c r="T34" s="14"/>
@@ -3312,19 +3269,19 @@
       <c r="W34" s="6"/>
       <c r="X34" s="44"/>
       <c r="Y34" s="21">
-        <f t="shared" ref="Y34:Y55" si="5">K34*0.2+S34*0.25+V34*0.25+W34*0.3+X34*0.1</f>
+        <f>K34*0.2+S34*0.25+V34*0.25+W34*0.3+X34*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D35" s="45">
         <v>0</v>
@@ -3338,7 +3295,7 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D35:J35)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L35" s="14"/>
@@ -3349,7 +3306,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L35:R35)/A$1</f>
         <v>0</v>
       </c>
       <c r="T35" s="14"/>
@@ -3358,19 +3315,19 @@
       <c r="W35" s="6"/>
       <c r="X35" s="44"/>
       <c r="Y35" s="21">
-        <f t="shared" si="5"/>
+        <f>K35*0.2+S35*0.25+V35*0.25+W35*0.3+X35*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D36" s="45">
         <v>0</v>
@@ -3384,7 +3341,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D36:J36)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L36" s="14"/>
@@ -3395,7 +3352,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L36:R36)/A$1</f>
         <v>0</v>
       </c>
       <c r="T36" s="14"/>
@@ -3404,36 +3361,34 @@
       <c r="W36" s="6"/>
       <c r="X36" s="44"/>
       <c r="Y36" s="21">
-        <f t="shared" si="5"/>
+        <f>K36*0.2+S36*0.25+V36*0.25+W36*0.3+X36*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="46">
+        <v>0</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
       <c r="K37" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(D37:J37)*50/A$1</f>
+        <v>0</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="6"/>
@@ -3443,7 +3398,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L37:R37)/A$1</f>
         <v>0</v>
       </c>
       <c r="T37" s="14"/>
@@ -3452,36 +3407,34 @@
       <c r="W37" s="6"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="21">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>K37*0.2+S37*0.25+V37*0.25+W37*0.3+X37*0.1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>2</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>0</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
       <c r="K38" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D38:J38)*50/A$1</f>
+        <v>0</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="6"/>
@@ -3491,7 +3444,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L38:R38)/A$1</f>
         <v>0</v>
       </c>
       <c r="T38" s="14"/>
@@ -3500,33 +3453,33 @@
       <c r="W38" s="6"/>
       <c r="X38" s="44"/>
       <c r="Y38" s="21">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>K38*0.2+S38*0.25+V38*0.25+W38*0.3+X38*0.1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>0</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
       <c r="K39" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D39:J39)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L39" s="14"/>
@@ -3537,7 +3490,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L39:R39)/A$1</f>
         <v>0</v>
       </c>
       <c r="T39" s="14"/>
@@ -3546,19 +3499,19 @@
       <c r="W39" s="6"/>
       <c r="X39" s="44"/>
       <c r="Y39" s="21">
-        <f t="shared" si="5"/>
+        <f>K39*0.2+S39*0.25+V39*0.25+W39*0.3+X39*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="D40" s="12">
         <v>0</v>
@@ -3572,7 +3525,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D40:J40)*50/A$1</f>
         <v>0</v>
       </c>
       <c r="L40" s="14"/>
@@ -3583,7 +3536,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L40:R40)/A$1</f>
         <v>0</v>
       </c>
       <c r="T40" s="14"/>
@@ -3592,19 +3545,19 @@
       <c r="W40" s="6"/>
       <c r="X40" s="44"/>
       <c r="Y40" s="21">
-        <f t="shared" si="5"/>
+        <f>K40*0.2+S40*0.25+V40*0.25+W40*0.3+X40*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -3612,14 +3565,15 @@
       <c r="E41" s="7">
         <v>0</v>
       </c>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="16"/>
+      <c r="K41" s="16">
+        <f>SUM(D41:J41)*50/A$1</f>
+        <v>0</v>
+      </c>
       <c r="L41" s="14"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3628,7 +3582,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L41:R41)/A$1</f>
         <v>0</v>
       </c>
       <c r="T41" s="14"/>
@@ -3637,7 +3591,7 @@
       <c r="W41" s="6"/>
       <c r="X41" s="44"/>
       <c r="Y41" s="21">
-        <f t="shared" si="5"/>
+        <f>K41*0.2+S41*0.25+V41*0.25+W41*0.3+X41*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3661,7 +3615,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L42:R42)/A$1</f>
         <v>0</v>
       </c>
       <c r="T42" s="14"/>
@@ -3670,7 +3624,7 @@
       <c r="W42" s="6"/>
       <c r="X42" s="44"/>
       <c r="Y42" s="21">
-        <f t="shared" si="5"/>
+        <f>K42*0.2+S42*0.25+V42*0.25+W42*0.3+X42*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3648,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L43:R43)/A$1</f>
         <v>0</v>
       </c>
       <c r="T43" s="14"/>
@@ -3703,7 +3657,7 @@
       <c r="W43" s="6"/>
       <c r="X43" s="44"/>
       <c r="Y43" s="21">
-        <f t="shared" si="5"/>
+        <f>K43*0.2+S43*0.25+V43*0.25+W43*0.3+X43*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +3681,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(L44:R44)/A$1</f>
         <v>0</v>
       </c>
       <c r="T44" s="14"/>
@@ -3736,7 +3690,7 @@
       <c r="W44" s="6"/>
       <c r="X44" s="44"/>
       <c r="Y44" s="21">
-        <f t="shared" si="5"/>
+        <f>K44*0.2+S44*0.25+V44*0.25+W44*0.3+X44*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3766,7 +3720,7 @@
       <c r="W45" s="6"/>
       <c r="X45" s="44"/>
       <c r="Y45" s="21">
-        <f t="shared" si="5"/>
+        <f>K45*0.2+S45*0.25+V45*0.25+W45*0.3+X45*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3796,7 +3750,7 @@
       <c r="W46" s="6"/>
       <c r="X46" s="44"/>
       <c r="Y46" s="21">
-        <f t="shared" si="5"/>
+        <f>K46*0.2+S46*0.25+V46*0.25+W46*0.3+X46*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3826,7 +3780,7 @@
       <c r="W47" s="6"/>
       <c r="X47" s="44"/>
       <c r="Y47" s="21">
-        <f t="shared" si="5"/>
+        <f>K47*0.2+S47*0.25+V47*0.25+W47*0.3+X47*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3856,7 +3810,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="44"/>
       <c r="Y48" s="21">
-        <f t="shared" si="5"/>
+        <f>K48*0.2+S48*0.25+V48*0.25+W48*0.3+X48*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,7 +3840,7 @@
       <c r="W49" s="6"/>
       <c r="X49" s="44"/>
       <c r="Y49" s="21">
-        <f t="shared" si="5"/>
+        <f>K49*0.2+S49*0.25+V49*0.25+W49*0.3+X49*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3916,7 +3870,7 @@
       <c r="W50" s="6"/>
       <c r="X50" s="44"/>
       <c r="Y50" s="21">
-        <f t="shared" si="5"/>
+        <f>K50*0.2+S50*0.25+V50*0.25+W50*0.3+X50*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3946,7 +3900,7 @@
       <c r="W51" s="6"/>
       <c r="X51" s="44"/>
       <c r="Y51" s="21">
-        <f t="shared" si="5"/>
+        <f>K51*0.2+S51*0.25+V51*0.25+W51*0.3+X51*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -3976,7 +3930,7 @@
       <c r="W52" s="6"/>
       <c r="X52" s="44"/>
       <c r="Y52" s="21">
-        <f t="shared" si="5"/>
+        <f>K52*0.2+S52*0.25+V52*0.25+W52*0.3+X52*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4006,7 +3960,7 @@
       <c r="W53" s="6"/>
       <c r="X53" s="44"/>
       <c r="Y53" s="21">
-        <f t="shared" si="5"/>
+        <f>K53*0.2+S53*0.25+V53*0.25+W53*0.3+X53*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4036,7 +3990,7 @@
       <c r="W54" s="6"/>
       <c r="X54" s="44"/>
       <c r="Y54" s="21">
-        <f t="shared" si="5"/>
+        <f>K54*0.2+S54*0.25+V54*0.25+W54*0.3+X54*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4066,7 +4020,7 @@
       <c r="W55" s="6"/>
       <c r="X55" s="44"/>
       <c r="Y55" s="21">
-        <f t="shared" si="5"/>
+        <f>K55*0.2+S55*0.25+V55*0.25+W55*0.3+X55*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4584,47 +4538,47 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J55">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R55 W3:X55">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U55">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -7710,14 +7664,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7764,18 +7718,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7823,18 +7777,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
   <si>
     <t>Adı</t>
   </si>
@@ -698,7 +698,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1121,8 +1127,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1132,11 +1136,156 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1630,11 +1779,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1642,65 +1791,66 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="3.21875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="47" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="17" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>91</v>
       </c>
@@ -1710,74 +1860,71 @@
       <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="27">
-        <v>2</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="53">
+        <v>2</v>
+      </c>
+      <c r="F2" s="53">
         <v>3</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="53">
         <v>4</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="53">
         <v>5</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="53">
         <v>6</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="53">
         <v>7</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="26">
+      <c r="M2" s="26">
+        <v>3</v>
+      </c>
+      <c r="N2" s="27">
+        <v>4</v>
+      </c>
+      <c r="O2" s="27">
+        <v>5</v>
+      </c>
+      <c r="P2" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>7</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="27">
-        <v>2</v>
-      </c>
-      <c r="N2" s="27">
-        <v>3</v>
-      </c>
-      <c r="O2" s="27">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="27">
-        <v>6</v>
-      </c>
-      <c r="R2" s="27">
-        <v>7</v>
-      </c>
-      <c r="S2" s="28" t="s">
+      <c r="T2" s="27">
+        <v>2</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="26">
-        <v>1</v>
-      </c>
-      <c r="U2" s="27">
-        <v>2</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="W2" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>178</v>
       </c>
@@ -1787,47 +1934,48 @@
       <c r="C3" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="45">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46">
-        <v>2</v>
-      </c>
-      <c r="F3" s="46">
-        <v>2</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="16">
-        <f>SUM(D3:J3)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L3" s="14">
-        <v>100</v>
-      </c>
-      <c r="M3" s="6"/>
+      <c r="D3" s="54">
+        <v>2</v>
+      </c>
+      <c r="E3" s="55">
+        <v>2</v>
+      </c>
+      <c r="F3" s="55">
+        <v>2</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="49">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <f>SUM(D3:J3)*50/(A$1-K3)</f>
+        <v>100</v>
+      </c>
+      <c r="M3" s="14">
+        <v>100</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="16">
-        <f>SUM(L3:R3)/A$1</f>
+      <c r="R3" s="16">
+        <f>SUM(M3:Q3)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S3" s="14"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="21">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.1</f>
+      <c r="U3" s="16"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="21">
+        <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.1</f>
         <v>28.333333333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>188</v>
       </c>
@@ -1837,47 +1985,48 @@
       <c r="C4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="46">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="16">
-        <f>SUM(D4:J4)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L4" s="14">
-        <v>100</v>
-      </c>
-      <c r="M4" s="6"/>
+      <c r="D4" s="54">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56">
+        <v>2</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="49">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" ref="L4:L41" si="0">SUM(D4:J4)*50/(A$1-K4)</f>
+        <v>100</v>
+      </c>
+      <c r="M4" s="14">
+        <v>100</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="16">
-        <f>SUM(L4:R4)/A$1</f>
+      <c r="R4" s="16">
+        <f>SUM(M4:Q4)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="21">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.1</f>
+      <c r="U4" s="16"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="21">
+        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
         <v>28.333333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>150</v>
       </c>
@@ -1887,47 +2036,48 @@
       <c r="C5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="45">
-        <v>2</v>
-      </c>
-      <c r="E5" s="46">
-        <v>2</v>
-      </c>
-      <c r="F5" s="46">
-        <v>2</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="16">
-        <f>SUM(D5:J5)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="D5" s="54">
+        <v>2</v>
+      </c>
+      <c r="E5" s="55">
+        <v>2</v>
+      </c>
+      <c r="F5" s="55">
+        <v>2</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="49">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="14">
         <v>95</v>
       </c>
-      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="16">
-        <f>SUM(L5:R5)/A$1</f>
+      <c r="R5" s="16">
+        <f>SUM(M5:Q5)/A$1</f>
         <v>31.666666666666668</v>
       </c>
+      <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="21">
-        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
+      <c r="U5" s="16"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="21">
+        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
         <v>27.916666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>170</v>
       </c>
@@ -1937,47 +2087,48 @@
       <c r="C6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="45">
-        <v>2</v>
-      </c>
-      <c r="E6" s="46">
-        <v>2</v>
-      </c>
-      <c r="F6" s="46">
-        <v>2</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="16">
-        <f>SUM(D6:J6)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="D6" s="54">
+        <v>2</v>
+      </c>
+      <c r="E6" s="55">
+        <v>2</v>
+      </c>
+      <c r="F6" s="55">
+        <v>2</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="14">
         <v>85</v>
       </c>
-      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="16">
-        <f>SUM(L6:R6)/A$1</f>
+      <c r="R6" s="16">
+        <f>SUM(M6:Q6)/A$1</f>
         <v>28.333333333333332</v>
       </c>
+      <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="21">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.1</f>
+      <c r="U6" s="16"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="21">
+        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
         <v>27.083333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
@@ -1987,47 +2138,48 @@
       <c r="C7" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="45">
-        <v>2</v>
-      </c>
-      <c r="E7" s="46">
-        <v>2</v>
-      </c>
-      <c r="F7" s="46">
-        <v>2</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="16">
-        <f>SUM(D7:J7)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="D7" s="54">
+        <v>2</v>
+      </c>
+      <c r="E7" s="55">
+        <v>2</v>
+      </c>
+      <c r="F7" s="55">
+        <v>2</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="49">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="14">
         <v>85</v>
       </c>
-      <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="16">
-        <f>SUM(L7:R7)/A$1</f>
+      <c r="R7" s="16">
+        <f>SUM(M7:Q7)/A$1</f>
         <v>28.333333333333332</v>
       </c>
+      <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="21">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.1</f>
+      <c r="U7" s="16"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="21">
+        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.1</f>
         <v>27.083333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>175</v>
       </c>
@@ -2037,47 +2189,48 @@
       <c r="C8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="45">
-        <v>2</v>
-      </c>
-      <c r="E8" s="46">
-        <v>2</v>
-      </c>
-      <c r="F8" s="46">
-        <v>2</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="16">
-        <f>SUM(D8:J8)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="D8" s="54">
+        <v>2</v>
+      </c>
+      <c r="E8" s="55">
+        <v>2</v>
+      </c>
+      <c r="F8" s="55">
+        <v>2</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="14">
         <v>80</v>
       </c>
-      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="16">
-        <f>SUM(L8:R8)/A$1</f>
+      <c r="R8" s="16">
+        <f>SUM(M8:Q8)/A$1</f>
         <v>26.666666666666668</v>
       </c>
+      <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="21">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
+      <c r="U8" s="16"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="21">
+        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2087,47 +2240,48 @@
       <c r="C9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="45">
-        <v>0</v>
-      </c>
-      <c r="E9" s="46">
-        <v>2</v>
-      </c>
-      <c r="F9" s="46">
-        <v>2</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="16">
-        <f>SUM(D9:J9)*50/A$1</f>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55">
+        <v>2</v>
+      </c>
+      <c r="F9" s="55">
+        <v>2</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="49">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L9" s="14">
-        <v>100</v>
-      </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="14">
+        <v>100</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="16">
-        <f>SUM(L9:R9)/A$1</f>
+      <c r="R9" s="16">
+        <f>SUM(M9:Q9)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="21">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
+      <c r="U9" s="16"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="21">
+        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
         <v>21.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>144</v>
       </c>
@@ -2137,47 +2291,48 @@
       <c r="C10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="46">
-        <v>2</v>
-      </c>
-      <c r="F10" s="46">
-        <v>2</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="16">
-        <f>SUM(D10:J10)*50/A$1</f>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <v>2</v>
+      </c>
+      <c r="F10" s="55">
+        <v>2</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="49">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L10" s="14">
-        <v>100</v>
-      </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="14">
+        <v>100</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="16">
-        <f>SUM(L10:R10)/A$1</f>
+      <c r="R10" s="16">
+        <f>SUM(M10:Q10)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="21">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
+      <c r="U10" s="16"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="21">
+        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
         <v>21.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>122</v>
       </c>
@@ -2187,47 +2342,48 @@
       <c r="C11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="E11" s="46">
-        <v>2</v>
-      </c>
-      <c r="F11" s="46">
-        <v>2</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="16">
-        <f>SUM(D11:J11)*50/A$1</f>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>2</v>
+      </c>
+      <c r="F11" s="55">
+        <v>2</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="49">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L11" s="14">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="14">
+        <v>100</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="16">
-        <f>SUM(L11:R11)/A$1</f>
+      <c r="R11" s="16">
+        <f>SUM(M11:Q11)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="21">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
+      <c r="U11" s="16"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="21">
+        <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.15</f>
         <v>21.666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>156</v>
       </c>
@@ -2237,47 +2393,48 @@
       <c r="C12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="45">
-        <v>0</v>
-      </c>
-      <c r="E12" s="46">
-        <v>2</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="16">
-        <f>SUM(D12:J12)*50/A$1</f>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+      <c r="E12" s="55">
+        <v>2</v>
+      </c>
+      <c r="F12" s="55">
+        <v>2</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="49">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L12" s="14">
-        <v>100</v>
-      </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="14">
+        <v>100</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="16">
-        <f>SUM(L12:R12)/A$1</f>
+      <c r="R12" s="16">
+        <f>SUM(M12:Q12)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="21">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
+      <c r="U12" s="16"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="21">
+        <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.15</f>
         <v>21.666666666666671</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>116</v>
       </c>
@@ -2287,45 +2444,48 @@
       <c r="C13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="45">
-        <v>2</v>
-      </c>
-      <c r="E13" s="46">
-        <v>2</v>
-      </c>
-      <c r="F13" s="46">
-        <v>2</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="16">
-        <f>SUM(D13:J13)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="6"/>
+      <c r="D13" s="54">
+        <v>2</v>
+      </c>
+      <c r="E13" s="55">
+        <v>2</v>
+      </c>
+      <c r="F13" s="55">
+        <v>2</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="49">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="14">
+        <v>100</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="16">
-        <f>SUM(L13:R13)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R13" s="16">
+        <f>SUM(M13:Q13)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="21">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="16"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="21">
+        <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.15</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>147</v>
       </c>
@@ -2335,47 +2495,50 @@
       <c r="C14" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="45">
-        <v>2</v>
-      </c>
-      <c r="E14" s="46">
-        <v>2</v>
-      </c>
-      <c r="F14" s="46">
-        <v>2</v>
-      </c>
-      <c r="G14" s="46" t="s">
+      <c r="D14" s="54">
+        <v>2</v>
+      </c>
+      <c r="E14" s="55">
+        <v>2</v>
+      </c>
+      <c r="F14" s="55">
+        <v>2</v>
+      </c>
+      <c r="G14" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="16">
-        <f>SUM(D14:J14)*50/(A$1)</f>
-        <v>100</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="6"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="49">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M14" s="14">
+        <v>100</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="16">
-        <f>SUM(L14:R14)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R14" s="16">
+        <f>SUM(M14:Q14)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="21">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="16"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="21">
+        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>111</v>
       </c>
@@ -2385,45 +2548,48 @@
       <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45">
-        <v>2</v>
-      </c>
-      <c r="E15" s="46">
-        <v>2</v>
-      </c>
-      <c r="F15" s="46">
-        <v>2</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="16">
-        <f>SUM(D15:J15)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="6"/>
+      <c r="D15" s="54">
+        <v>2</v>
+      </c>
+      <c r="E15" s="55">
+        <v>2</v>
+      </c>
+      <c r="F15" s="55">
+        <v>2</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="49">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M15" s="14">
+        <v>100</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="16">
-        <f>SUM(L15:R15)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R15" s="16">
+        <f>SUM(M15:Q15)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="21">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="16"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="21">
+        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>114</v>
       </c>
@@ -2433,45 +2599,48 @@
       <c r="C16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="45">
-        <v>2</v>
-      </c>
-      <c r="E16" s="46">
-        <v>2</v>
-      </c>
-      <c r="F16" s="46">
-        <v>2</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="16">
-        <f>SUM(D16:J16)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="6"/>
+      <c r="D16" s="54">
+        <v>2</v>
+      </c>
+      <c r="E16" s="55">
+        <v>2</v>
+      </c>
+      <c r="F16" s="55">
+        <v>2</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="49">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M16" s="14">
+        <v>100</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="16">
-        <f>SUM(L16:R16)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R16" s="16">
+        <f>SUM(M16:Q16)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="21">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="16"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="21">
+        <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>158</v>
       </c>
@@ -2481,45 +2650,48 @@
       <c r="C17" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="45">
-        <v>2</v>
-      </c>
-      <c r="E17" s="46">
-        <v>2</v>
-      </c>
-      <c r="F17" s="46">
-        <v>2</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="16">
-        <f>SUM(D17:J17)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="6"/>
+      <c r="D17" s="54">
+        <v>2</v>
+      </c>
+      <c r="E17" s="55">
+        <v>2</v>
+      </c>
+      <c r="F17" s="55">
+        <v>2</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="49">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M17" s="14">
+        <v>100</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="16">
-        <f>SUM(L17:R17)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R17" s="16">
+        <f>SUM(M17:Q17)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="21">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3+X17*0.1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="16"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="21">
+        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.1</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>161</v>
       </c>
@@ -2529,45 +2701,48 @@
       <c r="C18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="45">
-        <v>2</v>
-      </c>
-      <c r="E18" s="46">
-        <v>2</v>
-      </c>
-      <c r="F18" s="46">
-        <v>2</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="16">
-        <f>SUM(D18:J18)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="6"/>
+      <c r="D18" s="54">
+        <v>2</v>
+      </c>
+      <c r="E18" s="55">
+        <v>2</v>
+      </c>
+      <c r="F18" s="55">
+        <v>2</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="49">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M18" s="14">
+        <v>100</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="16">
-        <f>SUM(L18:R18)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R18" s="16">
+        <f>SUM(M18:Q18)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="21">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3+X18*0.1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="16"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="21">
+        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.1</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>164</v>
       </c>
@@ -2577,45 +2752,48 @@
       <c r="C19" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="45">
-        <v>2</v>
-      </c>
-      <c r="E19" s="46">
-        <v>2</v>
-      </c>
-      <c r="F19" s="46">
-        <v>2</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="16">
-        <f>SUM(D19:J19)*50/A$1</f>
-        <v>100</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="6"/>
+      <c r="D19" s="54">
+        <v>2</v>
+      </c>
+      <c r="E19" s="55">
+        <v>2</v>
+      </c>
+      <c r="F19" s="55">
+        <v>2</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="49">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M19" s="14">
+        <v>100</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="16">
-        <f>SUM(L19:R19)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R19" s="16">
+        <f>SUM(M19:Q19)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="21">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3+X19*0.1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="16"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="21">
+        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
+        <v>28.333333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>85</v>
       </c>
@@ -2625,47 +2803,48 @@
       <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="16">
-        <f>SUM(D20:J20)*50/A$1</f>
+      <c r="D20" s="57">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>2</v>
+      </c>
+      <c r="F20" s="56">
+        <v>2</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="49">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L20" s="14">
+      <c r="M20" s="14">
         <v>80</v>
       </c>
-      <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="16">
-        <f>SUM(L20:R20)/A$1</f>
+      <c r="R20" s="16">
+        <f>SUM(M20:Q20)/A$1</f>
         <v>26.666666666666668</v>
       </c>
+      <c r="S20" s="14"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="21">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3+X20*0.1</f>
+      <c r="U20" s="16"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="21">
+        <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.1</f>
         <v>20.000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>52</v>
       </c>
@@ -2675,47 +2854,48 @@
       <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="45">
-        <v>0</v>
-      </c>
-      <c r="E21" s="46">
-        <v>2</v>
-      </c>
-      <c r="F21" s="46">
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>2</v>
+      </c>
+      <c r="F21" s="55">
         <v>1</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="16">
-        <f>SUM(D21:J21)*50/A$1</f>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="49">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L21" s="14">
+      <c r="M21" s="14">
         <v>50</v>
       </c>
-      <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="16">
-        <f>SUM(L21:R21)/A$1</f>
+      <c r="R21" s="16">
+        <f>SUM(M21:Q21)/A$1</f>
         <v>16.666666666666668</v>
       </c>
+      <c r="S21" s="14"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="21">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
+      <c r="U21" s="16"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="21">
+        <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
         <v>14.166666666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>129</v>
       </c>
@@ -2725,44 +2905,45 @@
       <c r="C22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="45">
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <v>2</v>
-      </c>
-      <c r="F22" s="46">
-        <v>2</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="16">
-        <f>SUM(D22:J22)*50/A$1</f>
+      <c r="D22" s="54">
+        <v>0</v>
+      </c>
+      <c r="E22" s="54">
+        <v>2</v>
+      </c>
+      <c r="F22" s="55">
+        <v>2</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="49">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L22" s="14">
+      <c r="M22" s="14">
         <v>80</v>
       </c>
-      <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="21">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
+      <c r="U22" s="16"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="21">
+        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
         <v>13.333333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>183</v>
       </c>
@@ -2772,49 +2953,50 @@
       <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="D23" s="57">
+        <v>0</v>
+      </c>
+      <c r="E23" s="56">
+        <v>0</v>
+      </c>
+      <c r="F23" s="56">
+        <v>2</v>
+      </c>
+      <c r="G23" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16">
-        <f>SUM(D23:J23)*50/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="L23" s="14">
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="49">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M23" s="14">
         <v>80</v>
       </c>
-      <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="16">
-        <f>SUM(L23:R23)/A$1</f>
+      <c r="R23" s="16">
+        <f>SUM(M23:Q23)/A$1</f>
         <v>26.666666666666668</v>
       </c>
+      <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="21">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3+X23*0.1</f>
-        <v>13.333333333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="16"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="21">
+        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>132</v>
       </c>
@@ -2824,47 +3006,48 @@
       <c r="C24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="45">
-        <v>2</v>
-      </c>
-      <c r="E24" s="46">
+      <c r="D24" s="54">
+        <v>2</v>
+      </c>
+      <c r="E24" s="55">
         <v>1.7</v>
       </c>
-      <c r="F24" s="46">
-        <v>0</v>
-      </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="16">
-        <f>SUM(D24:J24)*50/A$1</f>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="49">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="0"/>
         <v>61.666666666666664</v>
       </c>
-      <c r="L24" s="14">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="16">
-        <f>SUM(L24:R24)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R24" s="16">
+        <f>SUM(M24:Q24)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="21">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
+      <c r="U24" s="16"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="21">
+        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
         <v>12.333333333333334</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>191</v>
       </c>
@@ -2874,44 +3057,48 @@
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="14">
-        <v>100</v>
-      </c>
-      <c r="M25" s="6"/>
+      <c r="D25" s="57">
+        <v>0</v>
+      </c>
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
+        <v>2</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="49">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M25" s="14">
+        <v>100</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="16">
-        <f>SUM(L25:R25)/A$1</f>
+      <c r="R25" s="16">
+        <f>SUM(M25:Q25)/A$1</f>
         <v>33.333333333333336</v>
       </c>
+      <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="21">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3+X25*0.1</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="16"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="21">
+        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>141</v>
       </c>
@@ -2921,40 +3108,45 @@
       <c r="C26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46">
+      <c r="D26" s="54">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
         <v>1.5</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="16">
-        <f>SUM(D26:J26)*50/A$1</f>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="49">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L26" s="14">
+      <c r="M26" s="14">
         <v>50</v>
       </c>
-      <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="21">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+      <c r="U26" s="16"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="21">
+        <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>127</v>
       </c>
@@ -2964,36 +3156,37 @@
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="16">
-        <f>SUM(D27:J27)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="6"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="49">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="14"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="21">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="16"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="21">
+        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
@@ -3003,36 +3196,37 @@
       <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="16">
-        <f>SUM(D28:J28)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="6"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="49">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="14"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="21">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="16"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="21">
+        <f>L28*0.2+R28*0.25+U28*0.25+V28*0.3+W28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>16</v>
       </c>
@@ -3042,36 +3236,37 @@
       <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="16">
-        <f>SUM(D29:J29)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="6"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="49">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="14"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="21">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="16"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="21">
+        <f>L29*0.2+R29*0.25+U29*0.25+V29*0.3+W29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>28</v>
       </c>
@@ -3081,36 +3276,37 @@
       <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="16">
-        <f>SUM(D30:J30)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="6"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="49">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="14"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="21">
-        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="16"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="21">
+        <f>L30*0.2+R30*0.25+U30*0.25+V30*0.3+W30*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>31</v>
       </c>
@@ -3120,36 +3316,37 @@
       <c r="C31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="16">
-        <f>SUM(D31:J31)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="6"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="49">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="14"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="21">
-        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="16"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="21">
+        <f>L31*0.2+R31*0.25+U31*0.25+V31*0.3+W31*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>135</v>
       </c>
@@ -3159,36 +3356,37 @@
       <c r="C32" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="16">
-        <f>SUM(D32:J32)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="6"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="49">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="14"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="21">
-        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="16"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="21">
+        <f>L32*0.2+R32*0.25+U32*0.25+V32*0.3+W32*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>138</v>
       </c>
@@ -3198,36 +3396,37 @@
       <c r="C33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="16">
-        <f>SUM(D33:J33)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="6"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="49">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="14"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="21">
-        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="16"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="21">
+        <f>L33*0.2+R33*0.25+U33*0.25+V33*0.3+W33*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>61</v>
       </c>
@@ -3237,43 +3436,40 @@
       <c r="C34" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="46">
-        <v>0</v>
-      </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="16">
-        <f>SUM(D34:J34)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="6"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="49">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="14"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="16">
-        <f>SUM(L34:R34)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R34" s="16">
+        <f>SUM(M34:Q34)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="21">
-        <f>K34*0.2+S34*0.25+V34*0.25+W34*0.3+X34*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="16"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="21">
+        <f>L34*0.2+R34*0.25+U34*0.25+V34*0.3+W34*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>70</v>
       </c>
@@ -3283,43 +3479,40 @@
       <c r="C35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="46">
-        <v>0</v>
-      </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="16">
-        <f>SUM(D35:J35)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="6"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="49">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="14"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="16">
-        <f>SUM(L35:R35)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R35" s="16">
+        <f>SUM(M35:Q35)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="21">
-        <f>K35*0.2+S35*0.25+V35*0.25+W35*0.3+X35*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="16"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="21">
+        <f>L35*0.2+R35*0.25+U35*0.25+V35*0.3+W35*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>153</v>
       </c>
@@ -3329,43 +3522,40 @@
       <c r="C36" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="E36" s="46">
-        <v>0</v>
-      </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="16">
-        <f>SUM(D36:J36)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="6"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="49">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="14"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="16">
-        <f>SUM(L36:R36)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R36" s="16">
+        <f>SUM(M36:Q36)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="21">
-        <f>K36*0.2+S36*0.25+V36*0.25+W36*0.3+X36*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="16"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="21">
+        <f>L36*0.2+R36*0.25+U36*0.25+V36*0.3+W36*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>167</v>
       </c>
@@ -3375,43 +3565,40 @@
       <c r="C37" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="45">
-        <v>0</v>
-      </c>
-      <c r="E37" s="46">
-        <v>0</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="16">
-        <f>SUM(D37:J37)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="6"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="49">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="14"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="16">
-        <f>SUM(L37:R37)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R37" s="16">
+        <f>SUM(M37:Q37)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="21">
-        <f>K37*0.2+S37*0.25+V37*0.25+W37*0.3+X37*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="16"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="21">
+        <f>L37*0.2+R37*0.25+U37*0.25+V37*0.3+W37*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>174</v>
       </c>
@@ -3421,43 +3608,40 @@
       <c r="C38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="45">
-        <v>0</v>
-      </c>
-      <c r="E38" s="46">
-        <v>0</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="16">
-        <f>SUM(D38:J38)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="6"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="49">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="14"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="16">
-        <f>SUM(L38:R38)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R38" s="16">
+        <f>SUM(M38:Q38)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="21">
-        <f>K38*0.2+S38*0.25+V38*0.25+W38*0.3+X38*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="16"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="21">
+        <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>181</v>
       </c>
@@ -3467,43 +3651,40 @@
       <c r="C39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="45">
-        <v>0</v>
-      </c>
-      <c r="E39" s="46">
-        <v>0</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="16">
-        <f>SUM(D39:J39)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="6"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="49">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="14"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="16">
-        <f>SUM(L39:R39)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R39" s="16">
+        <f>SUM(M39:Q39)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="14"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="21">
-        <f>K39*0.2+S39*0.25+V39*0.25+W39*0.3+X39*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="16"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="21">
+        <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>185</v>
       </c>
@@ -3513,43 +3694,40 @@
       <c r="C40" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="16">
-        <f>SUM(D40:J40)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="6"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="49">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="14"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="16">
-        <f>SUM(L40:R40)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R40" s="16">
+        <f>SUM(M40:Q40)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="14"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="21">
-        <f>K40*0.2+S40*0.25+V40*0.25+W40*0.3+X40*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="16"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="21">
+        <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>124</v>
       </c>
@@ -3559,483 +3737,382 @@
       <c r="C41" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="16">
-        <f>SUM(D41:J41)*50/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="6"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="49">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="14"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="16">
-        <f>SUM(L41:R41)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R41" s="16">
+        <f>SUM(M41:Q41)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="21">
-        <f>K41*0.2+S41*0.25+V41*0.25+W41*0.3+X41*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="16"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="21">
+        <f>L41*0.2+R41*0.25+U41*0.25+V41*0.3+W41*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="6"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="14"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="16">
-        <f>SUM(L42:R42)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="R42" s="16">
+        <f>SUM(M42:Q42)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="21">
-        <f>K42*0.2+S42*0.25+V42*0.25+W42*0.3+X42*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="16">
-        <f>SUM(L43:R43)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="21">
-        <f>K43*0.2+S43*0.25+V43*0.25+W43*0.3+X43*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="16">
-        <f>SUM(L44:R44)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="21">
-        <f>K44*0.2+S44*0.25+V44*0.25+W44*0.3+X44*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="21">
-        <f>K45*0.2+S45*0.25+V45*0.25+W45*0.3+X45*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="21">
-        <f>K46*0.2+S46*0.25+V46*0.25+W46*0.3+X46*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="21">
-        <f>K47*0.2+S47*0.25+V47*0.25+W47*0.3+X47*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="21">
-        <f>K48*0.2+S48*0.25+V48*0.25+W48*0.3+X48*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="21">
-        <f>K49*0.2+S49*0.25+V49*0.25+W49*0.3+X49*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="21">
-        <f>K50*0.2+S50*0.25+V50*0.25+W50*0.3+X50*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="21">
-        <f>K51*0.2+S51*0.25+V51*0.25+W51*0.3+X51*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="21">
-        <f>K52*0.2+S52*0.25+V52*0.25+W52*0.3+X52*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="21">
-        <f>K53*0.2+S53*0.25+V53*0.25+W53*0.3+X53*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="21">
-        <f>K54*0.2+S54*0.25+V54*0.25+W54*0.3+X54*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="21">
-        <f>K55*0.2+S55*0.25+V55*0.25+W55*0.3+X55*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="16"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="21">
+        <f>L42*0.2+R42*0.25+U42*0.25+V42*0.3+W42*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+    </row>
+    <row r="50" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+    </row>
+    <row r="54" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+    </row>
+    <row r="55" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+    </row>
+    <row r="56" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -4046,20 +4123,19 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -4070,20 +4146,19 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -4094,20 +4169,19 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -4118,20 +4192,19 @@
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-    </row>
-    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -4142,20 +4215,19 @@
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-    </row>
-    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -4166,20 +4238,19 @@
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-    </row>
-    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -4190,20 +4261,19 @@
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-    </row>
-    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4214,330 +4284,17 @@
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-    </row>
-    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-    </row>
-    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-    </row>
-    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-    </row>
-    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-    </row>
-    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Y55">
-    <sortCondition descending="1" ref="Y2"/>
+  <sortState ref="A3:Z55">
+    <sortCondition descending="1" ref="X2"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="M1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J55">
+  <conditionalFormatting sqref="D3:J42">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
@@ -4549,7 +4306,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R55 W3:X55">
+  <conditionalFormatting sqref="V3:W42 M3:Q42">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4566,7 +4323,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U55">
+  <conditionalFormatting sqref="S3:T42">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4583,8 +4340,8 @@
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K55">
-    <cfRule type="dataBar" priority="167">
+  <conditionalFormatting sqref="L3:L42">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4597,8 +4354,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S55">
-    <cfRule type="dataBar" priority="168">
+  <conditionalFormatting sqref="R3:R42">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4611,8 +4368,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V55">
-    <cfRule type="dataBar" priority="169">
+  <conditionalFormatting sqref="U3:U42">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4625,8 +4382,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y55">
-    <cfRule type="dataBar" priority="170">
+  <conditionalFormatting sqref="X3:X42">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4654,7 +4411,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K55</xm:sqref>
+          <xm:sqref>L3:L42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4665,7 +4422,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S55</xm:sqref>
+          <xm:sqref>R3:R42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4676,7 +4433,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V55</xm:sqref>
+          <xm:sqref>U3:U42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4687,7 +4444,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y55</xm:sqref>
+          <xm:sqref>X3:X42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4732,22 +4489,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -657,7 +657,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +694,18 @@
     <font>
       <sz val="8"/>
       <color indexed="81"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1041,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1127,15 +1139,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,117 +1178,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1783,7 +1714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1791,12 +1722,11 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.21875" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.44140625" style="60" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.21875" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.88671875" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1816,30 +1746,30 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="45" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="45" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
       <c r="V1" s="17" t="s">
         <v>96</v>
       </c>
@@ -1860,28 +1790,28 @@
       <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="49">
         <v>1</v>
       </c>
-      <c r="E2" s="53">
-        <v>2</v>
-      </c>
-      <c r="F2" s="53">
+      <c r="E2" s="50">
+        <v>2</v>
+      </c>
+      <c r="F2" s="50">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="50">
         <v>4</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="50">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="50">
         <v>6</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="50">
         <v>7</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="45" t="s">
         <v>192</v>
       </c>
       <c r="L2" s="28" t="s">
@@ -1926,33 +1856,35 @@
     </row>
     <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="54">
-        <v>2</v>
-      </c>
-      <c r="E3" s="55">
-        <v>2</v>
-      </c>
-      <c r="F3" s="55">
-        <v>2</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="49">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="D3" s="51">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52">
+        <v>2</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="46">
+        <v>1</v>
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
@@ -1971,39 +1903,41 @@
       <c r="V3" s="6"/>
       <c r="W3" s="44"/>
       <c r="X3" s="21">
-        <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.1</f>
-        <v>28.333333333333336</v>
+        <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="54">
-        <v>2</v>
-      </c>
-      <c r="E4" s="56">
-        <v>2</v>
-      </c>
-      <c r="F4" s="55">
-        <v>2</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="49">
+        <v>177</v>
+      </c>
+      <c r="D4" s="51">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>2</v>
+      </c>
+      <c r="F4" s="52">
+        <v>2</v>
+      </c>
+      <c r="G4" s="52">
+        <v>2</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="46">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L41" si="0">SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>100</v>
+        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
@@ -2023,41 +1957,43 @@
       <c r="W4" s="44"/>
       <c r="X4" s="21">
         <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
-        <v>28.333333333333336</v>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="54">
-        <v>2</v>
-      </c>
-      <c r="E5" s="55">
-        <v>2</v>
-      </c>
-      <c r="F5" s="55">
-        <v>2</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="49">
+        <v>118</v>
+      </c>
+      <c r="D5" s="51">
+        <v>2</v>
+      </c>
+      <c r="E5" s="52">
+        <v>2</v>
+      </c>
+      <c r="F5" s="52">
+        <v>2</v>
+      </c>
+      <c r="G5" s="52">
+        <v>2</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="46">
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="M5" s="14">
         <v>100</v>
-      </c>
-      <c r="M5" s="14">
-        <v>95</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -2065,7 +2001,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="16">
         <f>SUM(M5:Q5)/A$1</f>
-        <v>31.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -2074,41 +2010,43 @@
       <c r="W5" s="44"/>
       <c r="X5" s="21">
         <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
-        <v>27.916666666666668</v>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="54">
-        <v>2</v>
-      </c>
-      <c r="E6" s="55">
-        <v>2</v>
-      </c>
-      <c r="F6" s="55">
-        <v>2</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="49">
+        <v>110</v>
+      </c>
+      <c r="D6" s="51">
+        <v>2</v>
+      </c>
+      <c r="E6" s="52">
+        <v>2</v>
+      </c>
+      <c r="F6" s="52">
+        <v>2</v>
+      </c>
+      <c r="G6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="46">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="M6" s="14">
         <v>100</v>
-      </c>
-      <c r="M6" s="14">
-        <v>85</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2116,7 +2054,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="16">
         <f>SUM(M6:Q6)/A$1</f>
-        <v>28.333333333333332</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -2124,42 +2062,44 @@
       <c r="V6" s="6"/>
       <c r="W6" s="44"/>
       <c r="X6" s="21">
-        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
-        <v>27.083333333333332</v>
+        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.15</f>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="54">
-        <v>2</v>
-      </c>
-      <c r="E7" s="55">
-        <v>2</v>
-      </c>
-      <c r="F7" s="55">
-        <v>2</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="49">
+        <v>113</v>
+      </c>
+      <c r="D7" s="51">
+        <v>2</v>
+      </c>
+      <c r="E7" s="52">
+        <v>2</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2</v>
+      </c>
+      <c r="G7" s="52">
+        <v>2</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="46">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="M7" s="14">
         <v>100</v>
-      </c>
-      <c r="M7" s="14">
-        <v>85</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2167,7 +2107,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="16">
         <f>SUM(M7:Q7)/A$1</f>
-        <v>28.333333333333332</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -2175,42 +2115,44 @@
       <c r="V7" s="6"/>
       <c r="W7" s="44"/>
       <c r="X7" s="21">
-        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.1</f>
-        <v>27.083333333333332</v>
+        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="54">
-        <v>2</v>
-      </c>
-      <c r="E8" s="55">
-        <v>2</v>
-      </c>
-      <c r="F8" s="55">
-        <v>2</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="49">
+        <v>160</v>
+      </c>
+      <c r="D8" s="51">
+        <v>2</v>
+      </c>
+      <c r="E8" s="52">
+        <v>2</v>
+      </c>
+      <c r="F8" s="52">
+        <v>2</v>
+      </c>
+      <c r="G8" s="52">
+        <v>2</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="46">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="M8" s="14">
         <v>100</v>
-      </c>
-      <c r="M8" s="14">
-        <v>80</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -2218,7 +2160,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="16">
         <f>SUM(M8:Q8)/A$1</f>
-        <v>26.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -2227,38 +2169,40 @@
       <c r="W8" s="44"/>
       <c r="X8" s="21">
         <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
-        <v>26.666666666666668</v>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="54">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55">
-        <v>2</v>
-      </c>
-      <c r="F9" s="55">
-        <v>2</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="49">
+        <v>163</v>
+      </c>
+      <c r="D9" s="51">
+        <v>2</v>
+      </c>
+      <c r="E9" s="52">
+        <v>2</v>
+      </c>
+      <c r="F9" s="52">
+        <v>2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>2</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="46">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D9:J9)*50/(A$1-K9)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M9" s="14">
         <v>100</v>
@@ -2277,39 +2221,41 @@
       <c r="V9" s="6"/>
       <c r="W9" s="44"/>
       <c r="X9" s="21">
-        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
-        <v>21.666666666666671</v>
+        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.1</f>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
-        <v>2</v>
-      </c>
-      <c r="F10" s="55">
-        <v>2</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="49">
+        <v>166</v>
+      </c>
+      <c r="D10" s="51">
+        <v>2</v>
+      </c>
+      <c r="E10" s="52">
+        <v>2</v>
+      </c>
+      <c r="F10" s="52">
+        <v>2</v>
+      </c>
+      <c r="G10" s="52">
+        <v>2</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="46">
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
@@ -2328,42 +2274,44 @@
       <c r="V10" s="6"/>
       <c r="W10" s="44"/>
       <c r="X10" s="21">
-        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
-        <v>21.666666666666671</v>
+        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.1</f>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="54">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55">
-        <v>2</v>
-      </c>
-      <c r="F11" s="55">
-        <v>2</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="49">
+        <v>152</v>
+      </c>
+      <c r="D11" s="51">
+        <v>2</v>
+      </c>
+      <c r="E11" s="52">
+        <v>2</v>
+      </c>
+      <c r="F11" s="52">
+        <v>2</v>
+      </c>
+      <c r="G11" s="52">
+        <v>2</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="46">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M11" s="14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2371,7 +2319,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="16">
         <f>SUM(M11:Q11)/A$1</f>
-        <v>33.333333333333336</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -2380,41 +2328,43 @@
       <c r="W11" s="44"/>
       <c r="X11" s="21">
         <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.15</f>
-        <v>21.666666666666671</v>
+        <v>34.583333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="54">
-        <v>0</v>
-      </c>
-      <c r="E12" s="55">
-        <v>2</v>
-      </c>
-      <c r="F12" s="55">
-        <v>2</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="49">
+        <v>172</v>
+      </c>
+      <c r="D12" s="51">
+        <v>2</v>
+      </c>
+      <c r="E12" s="52">
+        <v>2</v>
+      </c>
+      <c r="F12" s="52">
+        <v>2</v>
+      </c>
+      <c r="G12" s="52">
+        <v>2</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="46">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M12" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2422,7 +2372,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="16">
         <f>SUM(M12:Q12)/A$1</f>
-        <v>33.333333333333336</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -2430,42 +2380,44 @@
       <c r="V12" s="6"/>
       <c r="W12" s="44"/>
       <c r="X12" s="21">
-        <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.15</f>
-        <v>21.666666666666671</v>
+        <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
+        <v>33.750000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="54">
-        <v>2</v>
-      </c>
-      <c r="E13" s="55">
-        <v>2</v>
-      </c>
-      <c r="F13" s="55">
-        <v>2</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="49">
+        <v>180</v>
+      </c>
+      <c r="D13" s="51">
+        <v>2</v>
+      </c>
+      <c r="E13" s="52">
+        <v>2</v>
+      </c>
+      <c r="F13" s="52">
+        <v>2</v>
+      </c>
+      <c r="G13" s="52">
+        <v>2</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="46">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M13" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2473,7 +2425,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="16">
         <f>SUM(M13:Q13)/A$1</f>
-        <v>33.333333333333336</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -2481,44 +2433,44 @@
       <c r="V13" s="6"/>
       <c r="W13" s="44"/>
       <c r="X13" s="21">
-        <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.15</f>
-        <v>28.333333333333336</v>
+        <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
+        <v>33.750000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="54">
-        <v>2</v>
-      </c>
-      <c r="E14" s="55">
-        <v>2</v>
-      </c>
-      <c r="F14" s="55">
-        <v>2</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="49">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D14" s="51">
+        <v>2</v>
+      </c>
+      <c r="E14" s="52">
+        <v>2</v>
+      </c>
+      <c r="F14" s="52">
+        <v>2</v>
+      </c>
+      <c r="G14" s="52">
+        <v>2</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="46">
+        <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="M14" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2526,7 +2478,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="16">
         <f>SUM(M14:Q14)/A$1</f>
-        <v>33.333333333333336</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -2534,39 +2486,41 @@
       <c r="V14" s="6"/>
       <c r="W14" s="44"/>
       <c r="X14" s="21">
-        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
-        <v>38.333333333333336</v>
+        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="54">
-        <v>2</v>
-      </c>
-      <c r="E15" s="55">
-        <v>2</v>
-      </c>
-      <c r="F15" s="55">
-        <v>2</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="49">
+        <v>83</v>
+      </c>
+      <c r="D15" s="51">
+        <v>2</v>
+      </c>
+      <c r="E15" s="53">
+        <v>2</v>
+      </c>
+      <c r="F15" s="52">
+        <v>2</v>
+      </c>
+      <c r="G15" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="46">
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D15:J15)*50/(A$1-K15)</f>
+        <v>125</v>
       </c>
       <c r="M15" s="14">
         <v>100</v>
@@ -2585,38 +2539,40 @@
       <c r="V15" s="6"/>
       <c r="W15" s="44"/>
       <c r="X15" s="21">
-        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
-        <v>28.333333333333336</v>
+        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.1</f>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="54">
-        <v>2</v>
-      </c>
-      <c r="E16" s="55">
-        <v>2</v>
-      </c>
-      <c r="F16" s="55">
-        <v>2</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="49">
+        <v>121</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>2</v>
+      </c>
+      <c r="F16" s="52">
+        <v>2</v>
+      </c>
+      <c r="G16" s="52">
+        <v>2</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="46">
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:J16)*50/(A$1-K16)</f>
         <v>100</v>
       </c>
       <c r="M16" s="14">
@@ -2642,32 +2598,34 @@
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="54">
-        <v>2</v>
-      </c>
-      <c r="E17" s="55">
-        <v>2</v>
-      </c>
-      <c r="F17" s="55">
-        <v>2</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="49">
+        <v>146</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>2</v>
+      </c>
+      <c r="F17" s="52">
+        <v>2</v>
+      </c>
+      <c r="G17" s="52">
+        <v>2</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="46">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/(A$1-K17)</f>
         <v>100</v>
       </c>
       <c r="M17" s="14">
@@ -2687,38 +2645,40 @@
       <c r="V17" s="6"/>
       <c r="W17" s="44"/>
       <c r="X17" s="21">
-        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.1</f>
+        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
         <v>28.333333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="54">
-        <v>2</v>
-      </c>
-      <c r="E18" s="55">
-        <v>2</v>
-      </c>
-      <c r="F18" s="55">
-        <v>2</v>
-      </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="49">
+        <v>123</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>2</v>
+      </c>
+      <c r="F18" s="52">
+        <v>2</v>
+      </c>
+      <c r="G18" s="52">
+        <v>2</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="46">
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:J18)*50/(A$1-K18)</f>
         <v>100</v>
       </c>
       <c r="M18" s="14">
@@ -2738,38 +2698,40 @@
       <c r="V18" s="6"/>
       <c r="W18" s="44"/>
       <c r="X18" s="21">
-        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.1</f>
+        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
         <v>28.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="54">
-        <v>2</v>
-      </c>
-      <c r="E19" s="55">
-        <v>2</v>
-      </c>
-      <c r="F19" s="55">
-        <v>2</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="49">
+        <v>98</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>2</v>
+      </c>
+      <c r="F19" s="52">
+        <v>2</v>
+      </c>
+      <c r="G19" s="52">
+        <v>2</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="46">
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:J19)*50/(A$1-K19)</f>
         <v>100</v>
       </c>
       <c r="M19" s="14">
@@ -2789,7 +2751,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="44"/>
       <c r="X19" s="21">
-        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
+        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
         <v>28.333333333333336</v>
       </c>
     </row>
@@ -2803,25 +2765,27 @@
       <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="57">
-        <v>0</v>
-      </c>
-      <c r="E20" s="56">
-        <v>2</v>
-      </c>
-      <c r="F20" s="56">
-        <v>2</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="49">
+      <c r="D20" s="54">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>2</v>
+      </c>
+      <c r="F20" s="53">
+        <v>2</v>
+      </c>
+      <c r="G20" s="53">
+        <v>2</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="46">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <v>100</v>
       </c>
       <c r="M20" s="14">
         <v>80</v>
@@ -2841,41 +2805,43 @@
       <c r="W20" s="44"/>
       <c r="X20" s="21">
         <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.1</f>
-        <v>20.000000000000004</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="54">
-        <v>0</v>
-      </c>
-      <c r="E21" s="55">
-        <v>2</v>
-      </c>
-      <c r="F21" s="55">
-        <v>1</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="49">
+        <v>131</v>
+      </c>
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>2</v>
+      </c>
+      <c r="F21" s="52">
+        <v>2</v>
+      </c>
+      <c r="G21" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="46">
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(D21:J21)*50/(A$1-K21)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="M21" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2883,7 +2849,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="16">
         <f>SUM(M21:Q21)/A$1</f>
-        <v>16.666666666666668</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
@@ -2892,91 +2858,96 @@
       <c r="W21" s="44"/>
       <c r="X21" s="21">
         <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
-        <v>14.166666666666668</v>
+        <v>24.000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D22" s="54">
         <v>0</v>
       </c>
       <c r="E22" s="54">
-        <v>2</v>
-      </c>
-      <c r="F22" s="55">
-        <v>2</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53">
+        <v>2</v>
+      </c>
+      <c r="G22" s="53">
+        <v>2</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="46">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(A$1-K22)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="M22" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="16"/>
+      <c r="R22" s="16">
+        <f>SUM(M22:Q22)/A$1</f>
+        <v>33.333333333333336</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="16"/>
       <c r="V22" s="6"/>
       <c r="W22" s="44"/>
       <c r="X22" s="21">
-        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
-        <v>13.333333333333336</v>
+        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.1</f>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="57">
-        <v>0</v>
-      </c>
-      <c r="E23" s="56">
-        <v>0</v>
-      </c>
-      <c r="F23" s="56">
-        <v>2</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="49">
+        <v>54</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>2</v>
+      </c>
+      <c r="F23" s="52">
         <v>1</v>
       </c>
+      <c r="G23" s="52">
+        <v>2</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="46">
+        <v>0</v>
+      </c>
       <c r="L23" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(A$1-K23)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="M23" s="14">
         <v>50</v>
-      </c>
-      <c r="M23" s="14">
-        <v>80</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2984,7 +2955,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="16">
         <f>SUM(M23:Q23)/A$1</f>
-        <v>26.666666666666668</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -2992,8 +2963,8 @@
       <c r="V23" s="6"/>
       <c r="W23" s="44"/>
       <c r="X23" s="21">
-        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
-        <v>16.666666666666668</v>
+        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.15</f>
+        <v>20.833333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,25 +2977,27 @@
       <c r="C24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="54">
-        <v>2</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="D24" s="51">
+        <v>2</v>
+      </c>
+      <c r="E24" s="52">
         <v>1.7</v>
       </c>
-      <c r="F24" s="55">
-        <v>0</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="49">
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>2</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="46">
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
+        <f>SUM(D24:J24)*50/(A$1-K24)</f>
+        <v>95</v>
       </c>
       <c r="M24" s="14">
         <v>0</v>
@@ -3044,41 +3017,43 @@
       <c r="W24" s="44"/>
       <c r="X24" s="21">
         <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
-        <v>12.333333333333334</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="57">
-        <v>0</v>
-      </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56">
-        <v>2</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="49">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53">
+        <v>2</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="46">
+        <v>1</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <f>SUM(D25:J25)*50/(A$1-K25)</f>
+        <v>50</v>
       </c>
       <c r="M25" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3086,7 +3061,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="16">
         <f>SUM(M25:Q25)/A$1</f>
-        <v>33.333333333333336</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -3095,7 +3070,7 @@
       <c r="W25" s="44"/>
       <c r="X25" s="21">
         <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
-        <v>15.000000000000002</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,25 +3083,27 @@
       <c r="C26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="54">
-        <v>0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
+      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="52">
         <v>1.5</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="49">
+      <c r="G26" s="52">
+        <v>2</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="46">
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(D26:J26)*50/(A$1-K26)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="M26" s="14">
         <v>50</v>
@@ -3135,7 +3112,10 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="16"/>
+      <c r="R26" s="16">
+        <f>SUM(M26:Q26)/A$1</f>
+        <v>16.666666666666668</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="16"/>
@@ -3143,629 +3123,629 @@
       <c r="W26" s="44"/>
       <c r="X26" s="21">
         <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+        <v>15.833333333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="49">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="21">
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66">
+        <v>0</v>
+      </c>
+      <c r="L27" s="67">
+        <f>SUM(D27:J27)*50/(A$1-K27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="71">
         <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="49">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="21">
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66">
+        <v>0</v>
+      </c>
+      <c r="L28" s="67">
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71">
         <f>L28*0.2+R28*0.25+U28*0.25+V28*0.3+W28*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:24" s="73" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="49">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="21">
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66">
+        <v>0</v>
+      </c>
+      <c r="L29" s="67">
+        <f>SUM(D29:J29)*50/(A$1-K29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="71">
         <f>L29*0.2+R29*0.25+U29*0.25+V29*0.3+W29*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="49">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="21">
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66">
+        <v>0</v>
+      </c>
+      <c r="L30" s="67">
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="71">
         <f>L30*0.2+R30*0.25+U30*0.25+V30*0.3+W30*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="49">
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="21">
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66">
+        <v>0</v>
+      </c>
+      <c r="L31" s="67">
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="71">
         <f>L31*0.2+R31*0.25+U31*0.25+V31*0.3+W31*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="49">
-        <v>0</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="21">
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66">
+        <v>0</v>
+      </c>
+      <c r="L32" s="67">
+        <f>SUM(D32:J32)*50/(A$1-K32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="71">
         <f>L32*0.2+R32*0.25+U32*0.25+V32*0.3+W32*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="49">
-        <v>0</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="21">
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66">
+        <v>0</v>
+      </c>
+      <c r="L33" s="67">
+        <f>SUM(D33:J33)*50/(A$1-K33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="68"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="71">
         <f>L33*0.2+R33*0.25+U33*0.25+V33*0.3+W33*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="49">
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="16">
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66">
+        <v>0</v>
+      </c>
+      <c r="L34" s="67">
+        <f>SUM(D34:J34)*50/(A$1-K34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="67">
         <f>SUM(M34:Q34)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="21">
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="71">
         <f>L34*0.2+R34*0.25+U34*0.25+V34*0.3+W34*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="49">
-        <v>0</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="16">
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66">
+        <v>0</v>
+      </c>
+      <c r="L35" s="67">
+        <f>SUM(D35:J35)*50/(A$1-K35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="67">
         <f>SUM(M35:Q35)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="21">
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="71">
         <f>L35*0.2+R35*0.25+U35*0.25+V35*0.3+W35*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="49">
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="14"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="16">
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66">
+        <v>0</v>
+      </c>
+      <c r="L36" s="67">
+        <f>SUM(D36:J36)*50/(A$1-K36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="67">
         <f>SUM(M36:Q36)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="21">
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="71">
         <f>L36*0.2+R36*0.25+U36*0.25+V36*0.3+W36*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="49">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="16">
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
+      <c r="L37" s="67">
+        <f>SUM(D37:J37)*50/(A$1-K37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="68"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="67">
         <f>SUM(M37:Q37)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="21">
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="71">
         <f>L37*0.2+R37*0.25+U37*0.25+V37*0.3+W37*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="49">
-        <v>0</v>
-      </c>
-      <c r="L38" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="16">
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="66">
+        <v>0</v>
+      </c>
+      <c r="L38" s="67">
+        <f>SUM(D38:J38)*50/(A$1-K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="68"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="67">
         <f>SUM(M38:Q38)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="21">
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="71">
         <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="49">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="16">
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66">
+        <v>0</v>
+      </c>
+      <c r="L39" s="67">
+        <f>SUM(D39:J39)*50/(A$1-K39)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="68"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="67">
         <f>SUM(M39:Q39)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="21">
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="71">
         <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="49">
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="16">
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="66">
+        <v>0</v>
+      </c>
+      <c r="L40" s="67">
+        <f>SUM(D40:J40)*50/(A$1-K40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="67">
         <f>SUM(M40:Q40)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="21">
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="71">
         <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="49">
-        <v>0</v>
-      </c>
-      <c r="L41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="16">
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="66">
+        <v>0</v>
+      </c>
+      <c r="L41" s="67">
+        <f>SUM(D41:J41)*50/(A$1-K41)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="68"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="67">
         <f>SUM(M41:Q41)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="21">
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="71">
         <f>L41*0.2+R41*0.25+U41*0.25+V41*0.3+W41*0.1</f>
         <v>0</v>
       </c>
@@ -3774,14 +3754,14 @@
       <c r="A42" s="20"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="49"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
       <c r="N42" s="6"/>
@@ -3806,14 +3786,14 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="50"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -3829,14 +3809,14 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="50"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -3852,14 +3832,14 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="50"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="47"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3875,14 +3855,14 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="50"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="47"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -3898,14 +3878,14 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="50"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="47"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -3921,14 +3901,14 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="50"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -3944,14 +3924,14 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="50"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -3967,14 +3947,14 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="50"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -3990,14 +3970,14 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="50"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -4013,14 +3993,14 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="50"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="47"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -4036,14 +4016,14 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="50"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="47"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -4059,14 +4039,14 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="50"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="47"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -4082,14 +4062,14 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="50"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="47"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -4105,14 +4085,14 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="50"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="47"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -4128,14 +4108,14 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="50"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="47"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -4151,14 +4131,14 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="50"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="47"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -4174,14 +4154,14 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="50"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="47"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -4197,14 +4177,14 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="50"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="47"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -4220,14 +4200,14 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="50"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="47"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -4243,14 +4223,14 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="50"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="47"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -4266,14 +4246,14 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="50"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="47"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4286,8 +4266,8 @@
       <c r="U63" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Z55">
-    <sortCondition descending="1" ref="X2"/>
+  <sortState ref="A3:X42">
+    <sortCondition descending="1" ref="X3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="S1:U1"/>
@@ -4489,22 +4469,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
       <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1178,15 +1178,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1211,6 +1202,15 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,7 +1714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1724,8 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="57" customWidth="1"/>
     <col min="11" max="11" width="2.88671875" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
@@ -1733,7 +1734,7 @@
     <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
     <col min="19" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" customWidth="1"/>
     <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
@@ -1742,34 +1743,34 @@
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="58" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="58" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="75"/>
       <c r="V1" s="17" t="s">
         <v>96</v>
       </c>
@@ -1876,7 +1877,9 @@
       <c r="G3" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="52">
+        <v>2</v>
+      </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="46">
@@ -1884,7 +1887,7 @@
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>150</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
@@ -1895,27 +1898,32 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="16">
         <f>SUM(M3:Q3)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S3" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S3" s="14">
+        <v>60</v>
+      </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="16"/>
+      <c r="U3" s="16">
+        <f>SUM(S3:T3)/1</f>
+        <v>60</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="44"/>
       <c r="X3" s="21">
         <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
-        <v>38.333333333333336</v>
+        <v>47.916666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D4" s="51">
         <v>2</v>
@@ -1929,7 +1937,9 @@
       <c r="G4" s="52">
         <v>2</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="52">
+        <v>2</v>
+      </c>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="46">
@@ -1937,7 +1947,7 @@
       </c>
       <c r="L4" s="16">
         <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
@@ -1948,27 +1958,32 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="16">
         <f>SUM(M4:Q4)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S4" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S4" s="14">
+        <v>60</v>
+      </c>
       <c r="T4" s="14"/>
-      <c r="U4" s="16"/>
+      <c r="U4" s="16">
+        <f>SUM(S4:T4)/1</f>
+        <v>60</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="44"/>
       <c r="X4" s="21">
-        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
-        <v>35.000000000000007</v>
+        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.15</f>
+        <v>46.25</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D5" s="51">
         <v>2</v>
@@ -1982,7 +1997,9 @@
       <c r="G5" s="52">
         <v>2</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="52">
+        <v>2</v>
+      </c>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="46">
@@ -1990,7 +2007,7 @@
       </c>
       <c r="L5" s="16">
         <f>SUM(D5:J5)*50/(A$1-K5)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M5" s="14">
         <v>100</v>
@@ -2001,27 +2018,32 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="16">
         <f>SUM(M5:Q5)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S5" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S5" s="14">
+        <v>60</v>
+      </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="16">
+        <f>SUM(S5:T5)/1</f>
+        <v>60</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="44"/>
       <c r="X5" s="21">
-        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
-        <v>35.000000000000007</v>
+        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.1</f>
+        <v>46.25</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D6" s="51">
         <v>2</v>
@@ -2035,7 +2057,9 @@
       <c r="G6" s="52">
         <v>2</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="52">
+        <v>2</v>
+      </c>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="46">
@@ -2043,7 +2067,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUM(D6:J6)*50/(A$1-K6)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
@@ -2054,27 +2078,32 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="16">
         <f>SUM(M6:Q6)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S6" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S6" s="14">
+        <v>60</v>
+      </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <f>SUM(S6:T6)/1</f>
+        <v>60</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="44"/>
       <c r="X6" s="21">
-        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.15</f>
-        <v>35.000000000000007</v>
+        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
+        <v>46.25</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="D7" s="51">
         <v>2</v>
@@ -2088,7 +2117,9 @@
       <c r="G7" s="52">
         <v>2</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="52">
+        <v>2</v>
+      </c>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="46">
@@ -2096,7 +2127,7 @@
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M7" s="14">
         <v>100</v>
@@ -2107,27 +2138,32 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="16">
         <f>SUM(M7:Q7)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S7" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S7" s="14">
+        <v>60</v>
+      </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <f>SUM(S7:T7)/1</f>
+        <v>60</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="44"/>
       <c r="X7" s="21">
-        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
-        <v>35.000000000000007</v>
+        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.1</f>
+        <v>46.25</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D8" s="51">
         <v>2</v>
@@ -2141,7 +2177,9 @@
       <c r="G8" s="52">
         <v>2</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="52">
+        <v>1.9</v>
+      </c>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
       <c r="K8" s="46">
@@ -2149,7 +2187,7 @@
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>133.33333333333334</v>
+        <v>123.75</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
@@ -2160,27 +2198,32 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="16">
         <f>SUM(M8:Q8)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S8" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S8" s="14">
+        <v>60</v>
+      </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="16"/>
+      <c r="U8" s="16">
+        <f>SUM(S8:T8)/1</f>
+        <v>60</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="44"/>
       <c r="X8" s="21">
-        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
-        <v>35.000000000000007</v>
+        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.15</f>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D9" s="51">
         <v>2</v>
@@ -2194,7 +2237,9 @@
       <c r="G9" s="52">
         <v>2</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="52">
+        <v>1.9</v>
+      </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="46">
@@ -2202,7 +2247,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(A$1-K9)</f>
-        <v>133.33333333333334</v>
+        <v>123.75</v>
       </c>
       <c r="M9" s="14">
         <v>100</v>
@@ -2213,27 +2258,32 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="16">
         <f>SUM(M9:Q9)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S9" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S9" s="14">
+        <v>60</v>
+      </c>
       <c r="T9" s="14"/>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <f>SUM(S9:T9)/1</f>
+        <v>60</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="44"/>
       <c r="X9" s="21">
-        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.1</f>
-        <v>35.000000000000007</v>
+        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D10" s="51">
         <v>2</v>
@@ -2247,7 +2297,9 @@
       <c r="G10" s="52">
         <v>2</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="52">
+        <v>2</v>
+      </c>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="46">
@@ -2255,10 +2307,10 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M10" s="14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2266,27 +2318,32 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="16">
         <f>SUM(M10:Q10)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S10" s="14"/>
+        <v>23.75</v>
+      </c>
+      <c r="S10" s="14">
+        <v>60</v>
+      </c>
       <c r="T10" s="14"/>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <f>SUM(S10:T10)/1</f>
+        <v>60</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="44"/>
       <c r="X10" s="21">
-        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.1</f>
-        <v>35.000000000000007</v>
+        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
+        <v>45.9375</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D11" s="51">
         <v>2</v>
@@ -2300,7 +2357,9 @@
       <c r="G11" s="52">
         <v>2</v>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="52">
+        <v>1.8</v>
+      </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="46">
@@ -2308,10 +2367,10 @@
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>133.33333333333334</v>
+        <v>122.50000000000001</v>
       </c>
       <c r="M11" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2319,16 +2378,21 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="16">
         <f>SUM(M11:Q11)/A$1</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="S11" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S11" s="14">
+        <v>60</v>
+      </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="16"/>
+      <c r="U11" s="16">
+        <f>SUM(S11:T11)/1</f>
+        <v>60</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="44"/>
       <c r="X11" s="21">
-        <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.15</f>
-        <v>34.583333333333336</v>
+        <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
+        <v>45.75</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2417,9 @@
       <c r="G12" s="52">
         <v>2</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="52">
+        <v>2</v>
+      </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="46">
@@ -2361,7 +2427,7 @@
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M12" s="14">
         <v>85</v>
@@ -2372,27 +2438,32 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="16">
         <f>SUM(M12:Q12)/A$1</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="S12" s="14"/>
+        <v>21.25</v>
+      </c>
+      <c r="S12" s="14">
+        <v>60</v>
+      </c>
       <c r="T12" s="14"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <f>SUM(S12:T12)/1</f>
+        <v>60</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="44"/>
       <c r="X12" s="21">
         <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
-        <v>33.750000000000007</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" s="51">
         <v>2</v>
@@ -2406,7 +2477,9 @@
       <c r="G13" s="52">
         <v>2</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="52">
+        <v>2</v>
+      </c>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="46">
@@ -2414,10 +2487,10 @@
       </c>
       <c r="L13" s="16">
         <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>133.33333333333334</v>
+        <v>125</v>
       </c>
       <c r="M13" s="14">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2425,30 +2498,35 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="16">
         <f>SUM(M13:Q13)/A$1</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="S13" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="S13" s="14">
+        <v>60</v>
+      </c>
       <c r="T13" s="14"/>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <f>SUM(S13:T13)/1</f>
+        <v>60</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="44"/>
       <c r="X13" s="21">
         <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
-        <v>33.750000000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D14" s="51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="52">
         <v>2</v>
@@ -2459,7 +2537,9 @@
       <c r="G14" s="52">
         <v>2</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="52">
+        <v>2</v>
+      </c>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="46">
@@ -2467,10 +2547,10 @@
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>133.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="M14" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2478,49 +2558,56 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="16">
         <f>SUM(M14:Q14)/A$1</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="S14" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S14" s="14">
+        <v>60</v>
+      </c>
       <c r="T14" s="14"/>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <f>SUM(S14:T14)/1</f>
+        <v>60</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="44"/>
       <c r="X14" s="21">
-        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
-        <v>33.333333333333336</v>
+        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
+        <v>41.25</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D15" s="51">
-        <v>2</v>
-      </c>
-      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52">
         <v>2</v>
       </c>
       <c r="F15" s="52">
         <v>2</v>
       </c>
-      <c r="G15" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="52">
+        <v>2</v>
+      </c>
+      <c r="H15" s="52">
+        <v>2</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="46">
         <v>0</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M15" s="14">
         <v>100</v>
@@ -2531,27 +2618,32 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="16">
         <f>SUM(M15:Q15)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S15" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S15" s="14">
+        <v>60</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <f>SUM(S15:T15)/1</f>
+        <v>60</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="44"/>
       <c r="X15" s="21">
-        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.1</f>
-        <v>33.333333333333336</v>
+        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
+        <v>41.25</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D16" s="51">
         <v>0</v>
@@ -2565,7 +2657,9 @@
       <c r="G16" s="52">
         <v>2</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="52">
+        <v>2</v>
+      </c>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="46">
@@ -2584,52 +2678,59 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="16">
         <f>SUM(M16:Q16)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S16" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S16" s="14">
+        <v>60</v>
+      </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <f>SUM(S16:T16)/1</f>
+        <v>60</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="44"/>
       <c r="X16" s="21">
         <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>28.333333333333336</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52">
-        <v>2</v>
-      </c>
-      <c r="F17" s="52">
-        <v>2</v>
-      </c>
-      <c r="G17" s="52">
-        <v>2</v>
-      </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>2</v>
+      </c>
+      <c r="F17" s="53">
+        <v>2</v>
+      </c>
+      <c r="G17" s="53">
+        <v>2</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="46">
         <v>0</v>
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M17" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2637,27 +2738,32 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="16">
         <f>SUM(M17:Q17)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S17" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="S17" s="14">
+        <v>60</v>
+      </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="16"/>
+      <c r="U17" s="16">
+        <f>SUM(S17:T17)/1</f>
+        <v>60</v>
+      </c>
       <c r="V17" s="6"/>
       <c r="W17" s="44"/>
       <c r="X17" s="21">
-        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>28.333333333333336</v>
+        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.1</f>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="D18" s="51">
         <v>0</v>
@@ -2666,12 +2772,14 @@
         <v>2</v>
       </c>
       <c r="F18" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="52">
         <v>2</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="52">
+        <v>0</v>
+      </c>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
       <c r="K18" s="46">
@@ -2679,10 +2787,10 @@
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>100</v>
+        <v>62.5</v>
       </c>
       <c r="M18" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2690,49 +2798,56 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="16">
         <f>SUM(M18:Q18)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S18" s="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="S18" s="14">
+        <v>60</v>
+      </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <f>SUM(S18:T18)/1</f>
+        <v>60</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="44"/>
       <c r="X18" s="21">
         <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
-        <v>28.333333333333336</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="52">
+        <v>2</v>
+      </c>
+      <c r="E19" s="53">
         <v>2</v>
       </c>
       <c r="F19" s="52">
         <v>2</v>
       </c>
-      <c r="G19" s="52">
-        <v>2</v>
-      </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="G19" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="53">
+        <v>2</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="46">
         <v>0</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>100</v>
+        <v>118.75</v>
       </c>
       <c r="M19" s="14">
         <v>100</v>
@@ -2743,43 +2858,50 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="16">
         <f>SUM(M19:Q19)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S19" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="16"/>
+      <c r="U19" s="16">
+        <f>SUM(S19:T19)/1</f>
+        <v>0</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="44"/>
       <c r="X19" s="21">
-        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
-        <v>28.333333333333336</v>
+        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="54">
-        <v>0</v>
-      </c>
-      <c r="E20" s="53">
-        <v>2</v>
-      </c>
-      <c r="F20" s="53">
-        <v>2</v>
-      </c>
-      <c r="G20" s="53">
-        <v>2</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
+        <v>180</v>
+      </c>
+      <c r="D20" s="51">
+        <v>2</v>
+      </c>
+      <c r="E20" s="52">
+        <v>2</v>
+      </c>
+      <c r="F20" s="52">
+        <v>2</v>
+      </c>
+      <c r="G20" s="52">
+        <v>2</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0</v>
+      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="46">
         <v>0</v>
       </c>
@@ -2788,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="14">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2796,27 +2918,32 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="16">
         <f>SUM(M20:Q20)/A$1</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="S20" s="14"/>
+        <v>21.25</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="16"/>
+      <c r="U20" s="16">
+        <f>SUM(S20:T20)/1</f>
+        <v>0</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="44"/>
       <c r="X20" s="21">
         <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.1</f>
-        <v>26.666666666666668</v>
+        <v>25.3125</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -2828,9 +2955,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="52">
-        <v>1.2</v>
-      </c>
-      <c r="H21" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="52">
+        <v>0</v>
+      </c>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
       <c r="K21" s="46">
@@ -2838,10 +2967,10 @@
       </c>
       <c r="L21" s="16">
         <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>86.666666666666671</v>
+        <v>75</v>
       </c>
       <c r="M21" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2849,27 +2978,32 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="16">
         <f>SUM(M21:Q21)/A$1</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="S21" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="16"/>
+      <c r="U21" s="16">
+        <f>SUM(S21:T21)/1</f>
+        <v>0</v>
+      </c>
       <c r="V21" s="6"/>
       <c r="W21" s="44"/>
       <c r="X21" s="21">
         <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
-        <v>24.000000000000004</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="54">
         <v>0</v>
@@ -2880,21 +3014,23 @@
       <c r="F22" s="53">
         <v>2</v>
       </c>
-      <c r="G22" s="53">
-        <v>2</v>
-      </c>
-      <c r="H22" s="53"/>
+      <c r="G22" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="53">
+        <v>2</v>
+      </c>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
       <c r="K22" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="16">
         <f>SUM(D22:J22)*50/(A$1-K22)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="M22" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2902,27 +3038,32 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="16">
         <f>SUM(M22:Q22)/A$1</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="S22" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
       <c r="T22" s="14"/>
-      <c r="U22" s="16"/>
+      <c r="U22" s="16">
+        <f>SUM(S22:T22)/1</f>
+        <v>0</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="44"/>
       <c r="X22" s="21">
         <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.1</f>
-        <v>21.666666666666671</v>
+        <v>18.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D23" s="51">
         <v>0</v>
@@ -2931,12 +3072,14 @@
         <v>2</v>
       </c>
       <c r="F23" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="52">
-        <v>2</v>
-      </c>
-      <c r="H23" s="52"/>
+        <v>1.2</v>
+      </c>
+      <c r="H23" s="52">
+        <v>0</v>
+      </c>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
       <c r="K23" s="46">
@@ -2944,10 +3087,10 @@
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>83.333333333333329</v>
+        <v>65</v>
       </c>
       <c r="M23" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2955,52 +3098,59 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="16">
         <f>SUM(M23:Q23)/A$1</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="S23" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
       <c r="T23" s="14"/>
-      <c r="U23" s="16"/>
+      <c r="U23" s="16">
+        <f>SUM(S23:T23)/1</f>
+        <v>0</v>
+      </c>
       <c r="V23" s="6"/>
       <c r="W23" s="44"/>
       <c r="X23" s="21">
         <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.15</f>
-        <v>20.833333333333336</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="51">
-        <v>2</v>
-      </c>
-      <c r="E24" s="52">
-        <v>1.7</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
-        <v>2</v>
-      </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53">
+        <v>2</v>
+      </c>
+      <c r="G24" s="53">
+        <v>2</v>
+      </c>
+      <c r="H24" s="53">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="46">
         <v>0</v>
       </c>
       <c r="L24" s="16">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M24" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3008,52 +3158,59 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="16">
         <f>SUM(M24:Q24)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
       <c r="T24" s="14"/>
-      <c r="U24" s="16"/>
+      <c r="U24" s="16">
+        <f>SUM(S24:T24)/1</f>
+        <v>0</v>
+      </c>
       <c r="V24" s="6"/>
       <c r="W24" s="44"/>
       <c r="X24" s="21">
-        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
-        <v>19</v>
+        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.1</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="54">
-        <v>0</v>
-      </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53">
-        <v>2</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="D25" s="51">
+        <v>2</v>
+      </c>
+      <c r="E25" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="F25" s="52">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <v>2</v>
+      </c>
+      <c r="H25" s="52">
+        <v>0</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>50</v>
+        <v>71.25</v>
       </c>
       <c r="M25" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3061,16 +3218,21 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="16">
         <f>SUM(M25:Q25)/A$1</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="S25" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="16"/>
+      <c r="U25" s="16">
+        <f>SUM(S25:T25)/1</f>
+        <v>0</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="44"/>
       <c r="X25" s="21">
-        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
-        <v>16.666666666666668</v>
+        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.15</f>
+        <v>14.25</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3257,9 @@
       <c r="G26" s="52">
         <v>2</v>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="52">
+        <v>0</v>
+      </c>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
       <c r="K26" s="46">
@@ -3103,7 +3267,7 @@
       </c>
       <c r="L26" s="16">
         <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>58.333333333333336</v>
+        <v>43.75</v>
       </c>
       <c r="M26" s="14">
         <v>50</v>
@@ -3114,638 +3278,660 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="16">
         <f>SUM(M26:Q26)/A$1</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="S26" s="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
       <c r="T26" s="14"/>
-      <c r="U26" s="16"/>
+      <c r="U26" s="16">
+        <f>SUM(S26:T26)/1</f>
+        <v>0</v>
+      </c>
       <c r="V26" s="6"/>
       <c r="W26" s="44"/>
       <c r="X26" s="21">
         <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
-        <v>15.833333333333336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="54">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
+        <v>1.7</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="46">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <f>SUM(D27:J27)*50/(A$1-K27)</f>
+        <v>21.25</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="16">
+        <f>SUM(M27:Q27)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="14"/>
+      <c r="U27" s="16">
+        <f>SUM(S27:T27)/1</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="21">
+        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.1</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B28" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C28" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66">
-        <v>0</v>
-      </c>
-      <c r="L27" s="67">
-        <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="71">
-        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63">
+        <v>0</v>
+      </c>
+      <c r="L28" s="64">
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="68">
+        <f>L28*0.2+R28*0.25+U28*0.25+V28*0.3+W28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="70" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B29" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66">
-        <v>0</v>
-      </c>
-      <c r="L28" s="67">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="71">
-        <f>L28*0.2+R28*0.25+U28*0.25+V28*0.3+W28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="73" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63">
+        <v>0</v>
+      </c>
+      <c r="L29" s="64">
+        <f>SUM(D29:J29)*50/(A$1-K29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="65"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="68">
+        <f>L29*0.2+R29*0.25+U29*0.25+V29*0.3+W29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B30" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66">
-        <v>0</v>
-      </c>
-      <c r="L29" s="67">
-        <f>SUM(D29:J29)*50/(A$1-K29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="71">
-        <f>L29*0.2+R29*0.25+U29*0.25+V29*0.3+W29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63">
+        <v>0</v>
+      </c>
+      <c r="L30" s="64">
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="65"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="68">
+        <f>L30*0.2+R30*0.25+U30*0.25+V30*0.3+W30*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B31" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C31" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66">
-        <v>0</v>
-      </c>
-      <c r="L30" s="67">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="71">
-        <f>L30*0.2+R30*0.25+U30*0.25+V30*0.3+W30*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63">
+        <v>0</v>
+      </c>
+      <c r="L31" s="64">
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="68">
+        <f>L31*0.2+R31*0.25+U31*0.25+V31*0.3+W31*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B32" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C32" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66">
-        <v>0</v>
-      </c>
-      <c r="L31" s="67">
-        <f>SUM(D31:J31)*50/(A$1-K31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="71">
-        <f>L31*0.2+R31*0.25+U31*0.25+V31*0.3+W31*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63">
+        <v>0</v>
+      </c>
+      <c r="L32" s="64">
+        <f>SUM(D32:J32)*50/(A$1-K32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="68">
+        <f>L32*0.2+R32*0.25+U32*0.25+V32*0.3+W32*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B33" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C33" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66">
-        <v>0</v>
-      </c>
-      <c r="L32" s="67">
-        <f>SUM(D32:J32)*50/(A$1-K32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="71">
-        <f>L32*0.2+R32*0.25+U32*0.25+V32*0.3+W32*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63">
+        <v>0</v>
+      </c>
+      <c r="L33" s="64">
+        <f>SUM(D33:J33)*50/(A$1-K33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="65"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="68">
+        <f>L33*0.2+R33*0.25+U33*0.25+V33*0.3+W33*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B34" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C34" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66">
-        <v>0</v>
-      </c>
-      <c r="L33" s="67">
-        <f>SUM(D33:J33)*50/(A$1-K33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="71">
-        <f>L33*0.2+R33*0.25+U33*0.25+V33*0.3+W33*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63">
+        <v>0</v>
+      </c>
+      <c r="L34" s="64">
+        <f>SUM(D34:J34)*50/(A$1-K34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="65"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="68">
+        <f>L34*0.2+R34*0.25+U34*0.25+V34*0.3+W34*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B35" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66">
-        <v>0</v>
-      </c>
-      <c r="L34" s="67">
-        <f>SUM(D34:J34)*50/(A$1-K34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="67">
-        <f>SUM(M34:Q34)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="71">
-        <f>L34*0.2+R34*0.25+U34*0.25+V34*0.3+W34*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63">
+        <v>0</v>
+      </c>
+      <c r="L35" s="64">
+        <f>SUM(D35:J35)*50/(A$1-K35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="64">
+        <f>SUM(M35:Q35)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="68">
+        <f>L35*0.2+R35*0.25+U35*0.25+V35*0.3+W35*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B36" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C36" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="66">
-        <v>0</v>
-      </c>
-      <c r="L35" s="67">
-        <f>SUM(D35:J35)*50/(A$1-K35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="67">
-        <f>SUM(M35:Q35)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="71">
-        <f>L35*0.2+R35*0.25+U35*0.25+V35*0.3+W35*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63">
+        <v>0</v>
+      </c>
+      <c r="L36" s="64">
+        <f>SUM(D36:J36)*50/(A$1-K36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="64">
+        <f>SUM(M36:Q36)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="68">
+        <f>L36*0.2+R36*0.25+U36*0.25+V36*0.3+W36*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B37" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C37" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66">
-        <v>0</v>
-      </c>
-      <c r="L36" s="67">
-        <f>SUM(D36:J36)*50/(A$1-K36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="67">
-        <f>SUM(M36:Q36)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="71">
-        <f>L36*0.2+R36*0.25+U36*0.25+V36*0.3+W36*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63">
+        <v>0</v>
+      </c>
+      <c r="L37" s="64">
+        <f>SUM(D37:J37)*50/(A$1-K37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="64">
+        <f>SUM(M37:Q37)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="68">
+        <f>L37*0.2+R37*0.25+U37*0.25+V37*0.3+W37*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B38" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="66">
-        <v>0</v>
-      </c>
-      <c r="L37" s="67">
-        <f>SUM(D37:J37)*50/(A$1-K37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="67">
-        <f>SUM(M37:Q37)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="70"/>
-      <c r="X37" s="71">
-        <f>L37*0.2+R37*0.25+U37*0.25+V37*0.3+W37*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63">
+        <v>0</v>
+      </c>
+      <c r="L38" s="64">
+        <f>SUM(D38:J38)*50/(A$1-K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="65"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="64">
+        <f>SUM(M38:Q38)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="68">
+        <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B39" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C39" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="66">
-        <v>0</v>
-      </c>
-      <c r="L38" s="67">
-        <f>SUM(D38:J38)*50/(A$1-K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="67">
-        <f>SUM(M38:Q38)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="71">
-        <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63">
+        <v>0</v>
+      </c>
+      <c r="L39" s="64">
+        <f>SUM(D39:J39)*50/(A$1-K39)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="64">
+        <f>SUM(M39:Q39)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="68">
+        <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B40" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C40" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="66">
-        <v>0</v>
-      </c>
-      <c r="L39" s="67">
-        <f>SUM(D39:J39)*50/(A$1-K39)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="67">
-        <f>SUM(M39:Q39)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="71">
-        <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="63">
+        <v>0</v>
+      </c>
+      <c r="L40" s="64">
+        <f>SUM(D40:J40)*50/(A$1-K40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="65"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="64">
+        <f>SUM(M40:Q40)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="68">
+        <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B41" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C41" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="66">
-        <v>0</v>
-      </c>
-      <c r="L40" s="67">
-        <f>SUM(D40:J40)*50/(A$1-K40)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="68"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="67">
-        <f>SUM(M40:Q40)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="71">
-        <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="72" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="66">
-        <v>0</v>
-      </c>
-      <c r="L41" s="67">
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="63">
+        <v>0</v>
+      </c>
+      <c r="L41" s="64">
         <f>SUM(D41:J41)*50/(A$1-K41)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="67">
+      <c r="M41" s="65"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="64">
         <f>SUM(M41:Q41)/A$1</f>
         <v>0</v>
       </c>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="71">
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="68">
         <f>L41*0.2+R41*0.25+U41*0.25+V41*0.3+W41*0.1</f>
         <v>0</v>
       </c>
@@ -4469,22 +4655,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="58" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
       <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
   <si>
     <t>Adı</t>
   </si>
@@ -710,7 +710,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1212,11 +1218,133 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1714,7 +1842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1858,9 @@
     <col min="11" max="11" width="2.88671875" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
     <col min="19" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1822,16 +1952,16 @@
         <v>3</v>
       </c>
       <c r="N2" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="27">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="27">
         <v>7</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>192</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>92</v>
@@ -1892,13 +2022,17 @@
       <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="78">
+        <v>100</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="77">
+        <v>0</v>
+      </c>
       <c r="R3" s="16">
-        <f>SUM(M3:Q3)/A$1</f>
-        <v>25</v>
+        <f>SUM(M3:P3)/(2-Q3)</f>
+        <v>100</v>
       </c>
       <c r="S3" s="14">
         <v>60</v>
@@ -1912,18 +2046,18 @@
       <c r="W3" s="44"/>
       <c r="X3" s="21">
         <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
-        <v>47.916666666666671</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D4" s="51">
         <v>2</v>
@@ -1952,13 +2086,17 @@
       <c r="M4" s="14">
         <v>100</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="78">
+        <v>100</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="77">
+        <v>0</v>
+      </c>
       <c r="R4" s="16">
-        <f>SUM(M4:Q4)/A$1</f>
-        <v>25</v>
+        <f>SUM(M4:P4)/(2-Q4)</f>
+        <v>100</v>
       </c>
       <c r="S4" s="14">
         <v>60</v>
@@ -1971,19 +2109,19 @@
       <c r="V4" s="6"/>
       <c r="W4" s="44"/>
       <c r="X4" s="21">
-        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.15</f>
-        <v>46.25</v>
+        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D5" s="51">
         <v>2</v>
@@ -2012,13 +2150,17 @@
       <c r="M5" s="14">
         <v>100</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="78">
+        <v>95</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="77">
+        <v>0</v>
+      </c>
       <c r="R5" s="16">
-        <f>SUM(M5:Q5)/A$1</f>
-        <v>25</v>
+        <f>SUM(M5:P5)/(2-Q5)</f>
+        <v>97.5</v>
       </c>
       <c r="S5" s="14">
         <v>60</v>
@@ -2031,19 +2173,19 @@
       <c r="V5" s="6"/>
       <c r="W5" s="44"/>
       <c r="X5" s="21">
-        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.1</f>
-        <v>46.25</v>
+        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
+        <v>64.375</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" s="51">
         <v>2</v>
@@ -2072,13 +2214,17 @@
       <c r="M6" s="14">
         <v>100</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="78">
+        <v>95</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="77">
+        <v>0</v>
+      </c>
       <c r="R6" s="16">
-        <f>SUM(M6:Q6)/A$1</f>
-        <v>25</v>
+        <f>SUM(M6:P6)/(2-Q6)</f>
+        <v>97.5</v>
       </c>
       <c r="S6" s="14">
         <v>60</v>
@@ -2092,18 +2238,18 @@
       <c r="W6" s="44"/>
       <c r="X6" s="21">
         <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
-        <v>46.25</v>
+        <v>64.375</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D7" s="51">
         <v>2</v>
@@ -2130,15 +2276,19 @@
         <v>125</v>
       </c>
       <c r="M7" s="14">
-        <v>100</v>
-      </c>
-      <c r="N7" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="N7" s="78">
+        <v>100</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="77">
+        <v>0</v>
+      </c>
       <c r="R7" s="16">
-        <f>SUM(M7:Q7)/A$1</f>
-        <v>25</v>
+        <f>SUM(M7:P7)/(2-Q7)</f>
+        <v>97.5</v>
       </c>
       <c r="S7" s="14">
         <v>60</v>
@@ -2151,19 +2301,19 @@
       <c r="V7" s="6"/>
       <c r="W7" s="44"/>
       <c r="X7" s="21">
-        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.1</f>
-        <v>46.25</v>
+        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
+        <v>64.375</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="D8" s="51">
         <v>2</v>
@@ -2178,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
@@ -2187,18 +2337,22 @@
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>123.75</v>
+        <v>122.50000000000001</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="78">
+        <v>95</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="77">
+        <v>0</v>
+      </c>
       <c r="R8" s="16">
-        <f>SUM(M8:Q8)/A$1</f>
-        <v>25</v>
+        <f>SUM(M8:P8)/(2-Q8)</f>
+        <v>97.5</v>
       </c>
       <c r="S8" s="14">
         <v>60</v>
@@ -2211,19 +2365,19 @@
       <c r="V8" s="6"/>
       <c r="W8" s="44"/>
       <c r="X8" s="21">
-        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.15</f>
-        <v>46</v>
+        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
+        <v>63.875</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="51">
         <v>2</v>
@@ -2252,13 +2406,17 @@
       <c r="M9" s="14">
         <v>100</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="78">
+        <v>90</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="77">
+        <v>0</v>
+      </c>
       <c r="R9" s="16">
-        <f>SUM(M9:Q9)/A$1</f>
-        <v>25</v>
+        <f>SUM(M9:P9)/(2-Q9)</f>
+        <v>95</v>
       </c>
       <c r="S9" s="14">
         <v>60</v>
@@ -2272,18 +2430,18 @@
       <c r="W9" s="44"/>
       <c r="X9" s="21">
         <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
-        <v>46</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D10" s="51">
         <v>2</v>
@@ -2298,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -2307,18 +2465,22 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>125</v>
+        <v>123.75</v>
       </c>
       <c r="M10" s="14">
-        <v>95</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="N10" s="78">
+        <v>90</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="77">
+        <v>0</v>
+      </c>
       <c r="R10" s="16">
-        <f>SUM(M10:Q10)/A$1</f>
-        <v>23.75</v>
+        <f>SUM(M10:P10)/(2-Q10)</f>
+        <v>95</v>
       </c>
       <c r="S10" s="14">
         <v>60</v>
@@ -2332,18 +2494,18 @@
       <c r="W10" s="44"/>
       <c r="X10" s="21">
         <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
-        <v>45.9375</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D11" s="51">
         <v>2</v>
@@ -2358,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -2367,18 +2529,22 @@
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>122.50000000000001</v>
+        <v>125</v>
       </c>
       <c r="M11" s="14">
-        <v>100</v>
-      </c>
-      <c r="N11" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="N11" s="78">
+        <v>100</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="77">
+        <v>0</v>
+      </c>
       <c r="R11" s="16">
-        <f>SUM(M11:Q11)/A$1</f>
-        <v>25</v>
+        <f>SUM(M11:P11)/(2-Q11)</f>
+        <v>92.5</v>
       </c>
       <c r="S11" s="14">
         <v>60</v>
@@ -2392,53 +2558,57 @@
       <c r="W11" s="44"/>
       <c r="X11" s="21">
         <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
-        <v>45.75</v>
+        <v>63.125</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D12" s="51">
         <v>2</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="53">
         <v>2</v>
       </c>
       <c r="F12" s="52">
         <v>2</v>
       </c>
-      <c r="G12" s="52">
-        <v>2</v>
-      </c>
-      <c r="H12" s="52">
-        <v>2</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="G12" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="53">
+        <v>2</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="46">
         <v>0</v>
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>125</v>
+        <v>118.75</v>
       </c>
       <c r="M12" s="14">
-        <v>85</v>
-      </c>
-      <c r="N12" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="N12" s="78">
+        <v>95</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="77">
+        <v>0</v>
+      </c>
       <c r="R12" s="16">
-        <f>SUM(M12:Q12)/A$1</f>
-        <v>21.25</v>
+        <f>SUM(M12:P12)/(2-Q12)</f>
+        <v>97.5</v>
       </c>
       <c r="S12" s="14">
         <v>60</v>
@@ -2452,15 +2622,15 @@
       <c r="W12" s="44"/>
       <c r="X12" s="21">
         <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
-        <v>45.3125</v>
+        <v>63.125</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>177</v>
@@ -2490,15 +2660,19 @@
         <v>125</v>
       </c>
       <c r="M13" s="14">
+        <v>100</v>
+      </c>
+      <c r="N13" s="78">
         <v>80</v>
       </c>
-      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="77">
+        <v>0</v>
+      </c>
       <c r="R13" s="16">
-        <f>SUM(M13:Q13)/A$1</f>
-        <v>20</v>
+        <f>SUM(M13:P13)/(2-Q13)</f>
+        <v>90</v>
       </c>
       <c r="S13" s="14">
         <v>60</v>
@@ -2512,21 +2686,21 @@
       <c r="W13" s="44"/>
       <c r="X13" s="21">
         <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
-        <v>45</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D14" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="52">
         <v>2</v>
@@ -2547,18 +2721,22 @@
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M14" s="14">
-        <v>100</v>
-      </c>
-      <c r="N14" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="N14" s="78">
+        <v>80</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="77">
+        <v>0</v>
+      </c>
       <c r="R14" s="16">
-        <f>SUM(M14:Q14)/A$1</f>
-        <v>25</v>
+        <f>SUM(M14:P14)/(2-Q14)</f>
+        <v>80</v>
       </c>
       <c r="S14" s="14">
         <v>60</v>
@@ -2571,8 +2749,8 @@
       <c r="V14" s="6"/>
       <c r="W14" s="44"/>
       <c r="X14" s="21">
-        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
-        <v>41.25</v>
+        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,13 +2790,17 @@
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="78">
+        <v>100</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="77">
+        <v>0</v>
+      </c>
       <c r="R15" s="16">
-        <f>SUM(M15:Q15)/A$1</f>
-        <v>25</v>
+        <f>SUM(M15:P15)/(2-Q15)</f>
+        <v>100</v>
       </c>
       <c r="S15" s="14">
         <v>60</v>
@@ -2632,7 +2814,7 @@
       <c r="W15" s="44"/>
       <c r="X15" s="21">
         <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
-        <v>41.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,13 +2854,17 @@
       <c r="M16" s="14">
         <v>100</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="78">
+        <v>95</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="77">
+        <v>0</v>
+      </c>
       <c r="R16" s="16">
-        <f>SUM(M16:Q16)/A$1</f>
-        <v>25</v>
+        <f>SUM(M16:P16)/(2-Q16)</f>
+        <v>97.5</v>
       </c>
       <c r="S16" s="14">
         <v>60</v>
@@ -2692,53 +2878,57 @@
       <c r="W16" s="44"/>
       <c r="X16" s="21">
         <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>41.25</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="54">
-        <v>0</v>
-      </c>
-      <c r="E17" s="53">
-        <v>2</v>
-      </c>
-      <c r="F17" s="53">
-        <v>2</v>
-      </c>
-      <c r="G17" s="53">
-        <v>2</v>
-      </c>
-      <c r="H17" s="53">
-        <v>0</v>
-      </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+        <v>146</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>2</v>
+      </c>
+      <c r="F17" s="52">
+        <v>2</v>
+      </c>
+      <c r="G17" s="52">
+        <v>2</v>
+      </c>
+      <c r="H17" s="52">
+        <v>2</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="46">
         <v>0</v>
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M17" s="14">
+        <v>100</v>
+      </c>
+      <c r="N17" s="78">
         <v>80</v>
       </c>
-      <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="77">
+        <v>0</v>
+      </c>
       <c r="R17" s="16">
-        <f>SUM(M17:Q17)/A$1</f>
-        <v>20</v>
+        <f>SUM(M17:P17)/(2-Q17)</f>
+        <v>90</v>
       </c>
       <c r="S17" s="14">
         <v>60</v>
@@ -2751,54 +2941,58 @@
       <c r="V17" s="6"/>
       <c r="W17" s="44"/>
       <c r="X17" s="21">
-        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.1</f>
-        <v>35</v>
+        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="51">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52">
-        <v>2</v>
-      </c>
-      <c r="F18" s="52">
+        <v>87</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53">
+        <v>2</v>
+      </c>
+      <c r="F18" s="53">
+        <v>2</v>
+      </c>
+      <c r="G18" s="53">
+        <v>2</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="46">
         <v>1</v>
-      </c>
-      <c r="G18" s="52">
-        <v>2</v>
-      </c>
-      <c r="H18" s="52">
-        <v>0</v>
-      </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="46">
-        <v>0</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="M18" s="14">
-        <v>50</v>
-      </c>
-      <c r="N18" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="N18" s="78" t="s">
+        <v>192</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="77">
+        <v>1</v>
+      </c>
       <c r="R18" s="16">
-        <f>SUM(M18:Q18)/A$1</f>
-        <v>12.5</v>
+        <f>SUM(M18:P18)/(2-Q18)</f>
+        <v>80</v>
       </c>
       <c r="S18" s="14">
         <v>60</v>
@@ -2811,54 +3005,58 @@
       <c r="V18" s="6"/>
       <c r="W18" s="44"/>
       <c r="X18" s="21">
-        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
-        <v>30.625</v>
+        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.1</f>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D19" s="51">
-        <v>2</v>
-      </c>
-      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
         <v>2</v>
       </c>
       <c r="F19" s="52">
         <v>2</v>
       </c>
-      <c r="G19" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="53">
-        <v>2</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
+      <c r="G19" s="52">
+        <v>2</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>118.75</v>
+        <v>100</v>
       </c>
       <c r="M19" s="14">
         <v>100</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="78" t="s">
+        <v>192</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="77">
+        <v>1</v>
+      </c>
       <c r="R19" s="16">
-        <f>SUM(M19:Q19)/A$1</f>
-        <v>25</v>
+        <f>SUM(M19:P19)/(2-Q19)</f>
+        <v>100</v>
       </c>
       <c r="S19" s="14">
         <v>0</v>
@@ -2871,22 +3069,22 @@
       <c r="V19" s="6"/>
       <c r="W19" s="44"/>
       <c r="X19" s="21">
-        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
-        <v>30</v>
+        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D20" s="51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="52">
         <v>2</v>
@@ -2895,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="52">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H20" s="52">
         <v>0</v>
@@ -2907,18 +3105,22 @@
       </c>
       <c r="L20" s="16">
         <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M20" s="14">
-        <v>85</v>
-      </c>
-      <c r="N20" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="N20" s="78">
+        <v>100</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="77">
+        <v>0</v>
+      </c>
       <c r="R20" s="16">
-        <f>SUM(M20:Q20)/A$1</f>
-        <v>21.25</v>
+        <f>SUM(M20:P20)/(2-Q20)</f>
+        <v>90</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -2931,54 +3133,58 @@
       <c r="V20" s="6"/>
       <c r="W20" s="44"/>
       <c r="X20" s="21">
-        <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.1</f>
-        <v>25.3125</v>
+        <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
+        <v>35.5</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52">
-        <v>2</v>
-      </c>
-      <c r="F21" s="52">
-        <v>2</v>
-      </c>
-      <c r="G21" s="52">
-        <v>2</v>
-      </c>
-      <c r="H21" s="52">
-        <v>0</v>
-      </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53">
+        <v>2</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="53">
+        <v>2</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="16">
         <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>75</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="M21" s="14">
-        <v>100</v>
-      </c>
-      <c r="N21" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="N21" s="78">
+        <v>85</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="77">
+        <v>0</v>
+      </c>
       <c r="R21" s="16">
-        <f>SUM(M21:Q21)/A$1</f>
-        <v>25</v>
+        <f>SUM(M21:P21)/(2-Q21)</f>
+        <v>82.5</v>
       </c>
       <c r="S21" s="14">
         <v>0</v>
@@ -2991,82 +3197,86 @@
       <c r="V21" s="6"/>
       <c r="W21" s="44"/>
       <c r="X21" s="21">
-        <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
-        <v>21.25</v>
+        <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.1</f>
+        <v>33.958333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="54">
-        <v>0</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53">
-        <v>2</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="53">
-        <v>2</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51">
+        <v>2</v>
+      </c>
+      <c r="F22" s="52">
+        <v>1</v>
+      </c>
+      <c r="G22" s="52">
+        <v>2</v>
+      </c>
+      <c r="H22" s="52">
+        <v>0</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
         <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>66.666666666666671</v>
+        <v>62.5</v>
       </c>
       <c r="M22" s="14">
-        <v>80</v>
-      </c>
-      <c r="N22" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="N22" s="78">
+        <v>0</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="77">
+        <v>0</v>
+      </c>
       <c r="R22" s="16">
-        <f>SUM(M22:Q22)/A$1</f>
-        <v>20</v>
+        <f>SUM(M22:P22)/(2-Q22)</f>
+        <v>25</v>
       </c>
       <c r="S22" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="16">
         <f>SUM(S22:T22)/1</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V22" s="6"/>
       <c r="W22" s="44"/>
       <c r="X22" s="21">
-        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.1</f>
-        <v>18.333333333333336</v>
+        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
+        <v>33.75</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D23" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="52">
         <v>2</v>
@@ -3075,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="52">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H23" s="52">
         <v>0</v>
@@ -3087,18 +3297,22 @@
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M23" s="14">
-        <v>80</v>
-      </c>
-      <c r="N23" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="N23" s="78">
+        <v>0</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="77">
+        <v>0</v>
+      </c>
       <c r="R23" s="16">
-        <f>SUM(M23:Q23)/A$1</f>
-        <v>20</v>
+        <f>SUM(M23:P23)/(2-Q23)</f>
+        <v>42.5</v>
       </c>
       <c r="S23" s="14">
         <v>0</v>
@@ -3111,54 +3325,58 @@
       <c r="V23" s="6"/>
       <c r="W23" s="44"/>
       <c r="X23" s="21">
-        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.15</f>
-        <v>18</v>
+        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
+        <v>30.625</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="54">
-        <v>0</v>
-      </c>
-      <c r="E24" s="53">
-        <v>0</v>
-      </c>
-      <c r="F24" s="53">
-        <v>2</v>
-      </c>
-      <c r="G24" s="53">
-        <v>2</v>
-      </c>
-      <c r="H24" s="53">
-        <v>0</v>
-      </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="D24" s="51">
+        <v>2</v>
+      </c>
+      <c r="E24" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>2</v>
+      </c>
+      <c r="H24" s="52">
+        <v>0</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="46">
         <v>0</v>
       </c>
       <c r="L24" s="16">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>50</v>
+        <v>71.25</v>
       </c>
       <c r="M24" s="14">
-        <v>100</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="78">
+        <v>100</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="77">
+        <v>0</v>
+      </c>
       <c r="R24" s="16">
-        <f>SUM(M24:Q24)/A$1</f>
-        <v>25</v>
+        <f>SUM(M24:P24)/(2-Q24)</f>
+        <v>50</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
@@ -3171,54 +3389,58 @@
       <c r="V24" s="6"/>
       <c r="W24" s="44"/>
       <c r="X24" s="21">
-        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.1</f>
-        <v>16.25</v>
+        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
+        <v>26.75</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="51">
-        <v>2</v>
-      </c>
-      <c r="E25" s="52">
-        <v>1.7</v>
-      </c>
-      <c r="F25" s="52">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
-        <v>2</v>
-      </c>
-      <c r="H25" s="52">
-        <v>0</v>
-      </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+        <v>12</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53">
+        <v>2</v>
+      </c>
+      <c r="G25" s="53">
+        <v>2</v>
+      </c>
+      <c r="H25" s="53">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="46">
         <v>0</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>71.25</v>
+        <v>50</v>
       </c>
       <c r="M25" s="14">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="N25" s="78">
+        <v>0</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="77">
+        <v>0</v>
+      </c>
       <c r="R25" s="16">
-        <f>SUM(M25:Q25)/A$1</f>
-        <v>0</v>
+        <f>SUM(M25:P25)/(2-Q25)</f>
+        <v>50</v>
       </c>
       <c r="S25" s="14">
         <v>0</v>
@@ -3231,54 +3453,58 @@
       <c r="V25" s="6"/>
       <c r="W25" s="44"/>
       <c r="X25" s="21">
-        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.15</f>
-        <v>14.25</v>
+        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="51">
-        <v>0</v>
-      </c>
-      <c r="E26" s="52">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="G26" s="52">
-        <v>2</v>
-      </c>
-      <c r="H26" s="52">
-        <v>0</v>
-      </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
+        <v>126</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53">
+        <v>0</v>
+      </c>
+      <c r="G26" s="53">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53">
+        <v>1.7</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="46">
         <v>0</v>
       </c>
       <c r="L26" s="16">
         <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>43.75</v>
+        <v>21.25</v>
       </c>
       <c r="M26" s="14">
-        <v>50</v>
-      </c>
-      <c r="N26" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="78">
+        <v>100</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="77">
+        <v>0</v>
+      </c>
       <c r="R26" s="16">
-        <f>SUM(M26:Q26)/A$1</f>
-        <v>12.5</v>
+        <f>SUM(M26:P26)/(2-Q26)</f>
+        <v>50</v>
       </c>
       <c r="S26" s="14">
         <v>0</v>
@@ -3291,54 +3517,58 @@
       <c r="V26" s="6"/>
       <c r="W26" s="44"/>
       <c r="X26" s="21">
-        <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
-        <v>11.875</v>
+        <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.1</f>
+        <v>16.75</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="54">
-        <v>0</v>
-      </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53">
-        <v>1.7</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
+        <v>143</v>
+      </c>
+      <c r="D27" s="51">
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0</v>
+      </c>
+      <c r="F27" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="52">
+        <v>2</v>
+      </c>
+      <c r="H27" s="52">
+        <v>0</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="46">
         <v>0</v>
       </c>
       <c r="L27" s="16">
         <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>21.25</v>
+        <v>43.75</v>
       </c>
       <c r="M27" s="14">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="N27" s="78">
+        <v>0</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="77">
+        <v>0</v>
+      </c>
       <c r="R27" s="16">
-        <f>SUM(M27:Q27)/A$1</f>
-        <v>0</v>
+        <f>SUM(M27:P27)/(2-Q27)</f>
+        <v>25</v>
       </c>
       <c r="S27" s="14">
         <v>0</v>
@@ -3351,8 +3581,8 @@
       <c r="V27" s="6"/>
       <c r="W27" s="44"/>
       <c r="X27" s="21">
-        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.1</f>
-        <v>4.25</v>
+        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,18 +3602,16 @@
       <c r="H28" s="62"/>
       <c r="I28" s="62"/>
       <c r="J28" s="62"/>
-      <c r="K28" s="63">
-        <v>0</v>
-      </c>
+      <c r="K28" s="63"/>
       <c r="L28" s="64">
         <f>SUM(D28:J28)*50/(A$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
+      <c r="N28" s="79"/>
       <c r="O28" s="66"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="64"/>
       <c r="S28" s="65"/>
       <c r="T28" s="65"/>
@@ -3412,18 +3640,16 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
-      <c r="K29" s="63">
-        <v>0</v>
-      </c>
+      <c r="K29" s="63"/>
       <c r="L29" s="64">
         <f>SUM(D29:J29)*50/(A$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
+      <c r="N29" s="79"/>
       <c r="O29" s="66"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="64"/>
       <c r="S29" s="65"/>
       <c r="T29" s="65"/>
@@ -3452,18 +3678,16 @@
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
-      <c r="K30" s="63">
-        <v>0</v>
-      </c>
+      <c r="K30" s="63"/>
       <c r="L30" s="64">
         <f>SUM(D30:J30)*50/(A$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
+      <c r="N30" s="79"/>
       <c r="O30" s="66"/>
       <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="64"/>
       <c r="S30" s="65"/>
       <c r="T30" s="65"/>
@@ -3492,18 +3716,16 @@
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
-      <c r="K31" s="63">
-        <v>0</v>
-      </c>
+      <c r="K31" s="63"/>
       <c r="L31" s="64">
         <f>SUM(D31:J31)*50/(A$1-K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="66"/>
       <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
+      <c r="Q31" s="77"/>
       <c r="R31" s="64"/>
       <c r="S31" s="65"/>
       <c r="T31" s="65"/>
@@ -3532,18 +3754,16 @@
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="62"/>
-      <c r="K32" s="63">
-        <v>0</v>
-      </c>
+      <c r="K32" s="63"/>
       <c r="L32" s="64">
         <f>SUM(D32:J32)*50/(A$1-K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
+      <c r="N32" s="79"/>
       <c r="O32" s="66"/>
       <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
+      <c r="Q32" s="77"/>
       <c r="R32" s="64"/>
       <c r="S32" s="65"/>
       <c r="T32" s="65"/>
@@ -3572,18 +3792,16 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
       <c r="J33" s="62"/>
-      <c r="K33" s="63">
-        <v>0</v>
-      </c>
+      <c r="K33" s="63"/>
       <c r="L33" s="64">
         <f>SUM(D33:J33)*50/(A$1-K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="65"/>
-      <c r="N33" s="66"/>
+      <c r="N33" s="79"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
+      <c r="Q33" s="77"/>
       <c r="R33" s="64"/>
       <c r="S33" s="65"/>
       <c r="T33" s="65"/>
@@ -3612,18 +3830,16 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
-      <c r="K34" s="63">
-        <v>0</v>
-      </c>
+      <c r="K34" s="63"/>
       <c r="L34" s="64">
         <f>SUM(D34:J34)*50/(A$1-K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="65"/>
-      <c r="N34" s="66"/>
+      <c r="N34" s="79"/>
       <c r="O34" s="66"/>
       <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
+      <c r="Q34" s="77"/>
       <c r="R34" s="64"/>
       <c r="S34" s="65"/>
       <c r="T34" s="65"/>
@@ -3652,18 +3868,16 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
-      <c r="K35" s="63">
-        <v>0</v>
-      </c>
+      <c r="K35" s="63"/>
       <c r="L35" s="64">
         <f>SUM(D35:J35)*50/(A$1-K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
+      <c r="N35" s="79"/>
       <c r="O35" s="66"/>
       <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
+      <c r="Q35" s="77"/>
       <c r="R35" s="64">
         <f>SUM(M35:Q35)/A$1</f>
         <v>0</v>
@@ -3695,18 +3909,16 @@
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
-      <c r="K36" s="63">
-        <v>0</v>
-      </c>
+      <c r="K36" s="63"/>
       <c r="L36" s="64">
         <f>SUM(D36:J36)*50/(A$1-K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
+      <c r="N36" s="79"/>
       <c r="O36" s="66"/>
       <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="64">
         <f>SUM(M36:Q36)/A$1</f>
         <v>0</v>
@@ -3738,18 +3950,16 @@
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
       <c r="J37" s="62"/>
-      <c r="K37" s="63">
-        <v>0</v>
-      </c>
+      <c r="K37" s="63"/>
       <c r="L37" s="64">
         <f>SUM(D37:J37)*50/(A$1-K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
+      <c r="N37" s="79"/>
       <c r="O37" s="66"/>
       <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
+      <c r="Q37" s="77"/>
       <c r="R37" s="64">
         <f>SUM(M37:Q37)/A$1</f>
         <v>0</v>
@@ -3781,18 +3991,16 @@
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
       <c r="J38" s="62"/>
-      <c r="K38" s="63">
-        <v>0</v>
-      </c>
+      <c r="K38" s="63"/>
       <c r="L38" s="64">
         <f>SUM(D38:J38)*50/(A$1-K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
+      <c r="N38" s="79"/>
       <c r="O38" s="66"/>
       <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
+      <c r="Q38" s="77"/>
       <c r="R38" s="64">
         <f>SUM(M38:Q38)/A$1</f>
         <v>0</v>
@@ -3824,18 +4032,16 @@
       <c r="H39" s="62"/>
       <c r="I39" s="62"/>
       <c r="J39" s="62"/>
-      <c r="K39" s="63">
-        <v>0</v>
-      </c>
+      <c r="K39" s="63"/>
       <c r="L39" s="64">
         <f>SUM(D39:J39)*50/(A$1-K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="65"/>
-      <c r="N39" s="66"/>
+      <c r="N39" s="79"/>
       <c r="O39" s="66"/>
       <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
+      <c r="Q39" s="77"/>
       <c r="R39" s="64">
         <f>SUM(M39:Q39)/A$1</f>
         <v>0</v>
@@ -3867,18 +4073,16 @@
       <c r="H40" s="62"/>
       <c r="I40" s="62"/>
       <c r="J40" s="62"/>
-      <c r="K40" s="63">
-        <v>0</v>
-      </c>
+      <c r="K40" s="63"/>
       <c r="L40" s="64">
         <f>SUM(D40:J40)*50/(A$1-K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="65"/>
-      <c r="N40" s="66"/>
+      <c r="N40" s="79"/>
       <c r="O40" s="66"/>
       <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
+      <c r="Q40" s="77"/>
       <c r="R40" s="64">
         <f>SUM(M40:Q40)/A$1</f>
         <v>0</v>
@@ -3910,18 +4114,16 @@
       <c r="H41" s="72"/>
       <c r="I41" s="72"/>
       <c r="J41" s="72"/>
-      <c r="K41" s="63">
-        <v>0</v>
-      </c>
+      <c r="K41" s="63"/>
       <c r="L41" s="64">
         <f>SUM(D41:J41)*50/(A$1-K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="65"/>
-      <c r="N41" s="66"/>
+      <c r="N41" s="79"/>
       <c r="O41" s="66"/>
       <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
+      <c r="Q41" s="77"/>
       <c r="R41" s="64">
         <f>SUM(M41:Q41)/A$1</f>
         <v>0</v>
@@ -3950,10 +4152,10 @@
       <c r="K42" s="46"/>
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="6"/>
+      <c r="N42" s="78"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="Q42" s="77"/>
       <c r="R42" s="16">
         <f>SUM(M42:Q42)/A$1</f>
         <v>0</v>
@@ -3982,7 +4184,7 @@
       <c r="K43" s="47"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="N43" s="80"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -4005,7 +4207,7 @@
       <c r="K44" s="47"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="N44" s="80"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -4028,7 +4230,7 @@
       <c r="K45" s="47"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="N45" s="80"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -4051,7 +4253,7 @@
       <c r="K46" s="47"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="N46" s="80"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -4074,7 +4276,7 @@
       <c r="K47" s="47"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="N47" s="80"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -4097,7 +4299,7 @@
       <c r="K48" s="47"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
+      <c r="N48" s="80"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -4120,7 +4322,7 @@
       <c r="K49" s="47"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="N49" s="80"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -4143,7 +4345,7 @@
       <c r="K50" s="47"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="N50" s="80"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -4166,7 +4368,7 @@
       <c r="K51" s="47"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+      <c r="N51" s="80"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -4189,7 +4391,7 @@
       <c r="K52" s="47"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+      <c r="N52" s="80"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -4212,7 +4414,7 @@
       <c r="K53" s="47"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
+      <c r="N53" s="80"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -4235,7 +4437,7 @@
       <c r="K54" s="47"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
+      <c r="N54" s="80"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -4258,7 +4460,7 @@
       <c r="K55" s="47"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
+      <c r="N55" s="80"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -4281,7 +4483,7 @@
       <c r="K56" s="47"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
+      <c r="N56" s="80"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -4304,7 +4506,7 @@
       <c r="K57" s="47"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
+      <c r="N57" s="80"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -4327,7 +4529,7 @@
       <c r="K58" s="47"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
+      <c r="N58" s="80"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -4350,7 +4552,7 @@
       <c r="K59" s="47"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
+      <c r="N59" s="80"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -4373,7 +4575,7 @@
       <c r="K60" s="47"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
+      <c r="N60" s="80"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -4396,7 +4598,7 @@
       <c r="K61" s="47"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
+      <c r="N61" s="80"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -4419,7 +4621,7 @@
       <c r="K62" s="47"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
+      <c r="N62" s="80"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -4442,7 +4644,7 @@
       <c r="K63" s="47"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
+      <c r="N63" s="80"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
@@ -4461,47 +4663,47 @@
     <mergeCell ref="M1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W42 M3:Q42">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+  <conditionalFormatting sqref="V3:W42 M3:P42">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T42">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -7587,14 +7789,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7641,18 +7843,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7700,18 +7902,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1209,15 +1209,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1234,117 +1225,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1842,7 +1736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1752,7 @@
     <col min="11" max="11" width="2.88671875" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="78" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.77734375" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
@@ -1877,30 +1771,30 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="73" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="75"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="81"/>
       <c r="V1" s="17" t="s">
         <v>96</v>
       </c>
@@ -1960,7 +1854,7 @@
       <c r="P2" s="27">
         <v>7</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="73" t="s">
         <v>192</v>
       </c>
       <c r="R2" s="28" t="s">
@@ -2022,12 +1916,12 @@
       <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="75">
         <v>100</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="77">
+      <c r="Q3" s="74">
         <v>0</v>
       </c>
       <c r="R3" s="16">
@@ -2086,12 +1980,12 @@
       <c r="M4" s="14">
         <v>100</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="75">
         <v>100</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <v>0</v>
       </c>
       <c r="R4" s="16">
@@ -2150,12 +2044,12 @@
       <c r="M5" s="14">
         <v>100</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="75">
         <v>95</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="77">
+      <c r="Q5" s="74">
         <v>0</v>
       </c>
       <c r="R5" s="16">
@@ -2214,12 +2108,12 @@
       <c r="M6" s="14">
         <v>100</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="75">
         <v>95</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="77">
+      <c r="Q6" s="74">
         <v>0</v>
       </c>
       <c r="R6" s="16">
@@ -2278,12 +2172,12 @@
       <c r="M7" s="14">
         <v>95</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="75">
         <v>100</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="77">
+      <c r="Q7" s="74">
         <v>0</v>
       </c>
       <c r="R7" s="16">
@@ -2342,12 +2236,12 @@
       <c r="M8" s="14">
         <v>100</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="75">
         <v>95</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="77">
+      <c r="Q8" s="74">
         <v>0</v>
       </c>
       <c r="R8" s="16">
@@ -2406,12 +2300,12 @@
       <c r="M9" s="14">
         <v>100</v>
       </c>
-      <c r="N9" s="78">
+      <c r="N9" s="75">
         <v>90</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="77">
+      <c r="Q9" s="74">
         <v>0</v>
       </c>
       <c r="R9" s="16">
@@ -2470,12 +2364,12 @@
       <c r="M10" s="14">
         <v>100</v>
       </c>
-      <c r="N10" s="78">
+      <c r="N10" s="75">
         <v>90</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="77">
+      <c r="Q10" s="74">
         <v>0</v>
       </c>
       <c r="R10" s="16">
@@ -2534,12 +2428,12 @@
       <c r="M11" s="14">
         <v>85</v>
       </c>
-      <c r="N11" s="78">
+      <c r="N11" s="75">
         <v>100</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="77">
+      <c r="Q11" s="74">
         <v>0</v>
       </c>
       <c r="R11" s="16">
@@ -2598,12 +2492,12 @@
       <c r="M12" s="14">
         <v>100</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="75">
         <v>95</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="77">
+      <c r="Q12" s="74">
         <v>0</v>
       </c>
       <c r="R12" s="16">
@@ -2662,12 +2556,12 @@
       <c r="M13" s="14">
         <v>100</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="75">
         <v>80</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="77">
+      <c r="Q13" s="74">
         <v>0</v>
       </c>
       <c r="R13" s="16">
@@ -2726,12 +2620,12 @@
       <c r="M14" s="14">
         <v>80</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="75">
         <v>80</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="77">
+      <c r="Q14" s="74">
         <v>0</v>
       </c>
       <c r="R14" s="16">
@@ -2790,12 +2684,12 @@
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="78">
+      <c r="N15" s="75">
         <v>100</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="77">
+      <c r="Q15" s="74">
         <v>0</v>
       </c>
       <c r="R15" s="16">
@@ -2819,13 +2713,13 @@
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D16" s="51">
         <v>0</v>
@@ -2839,13 +2733,13 @@
       <c r="G16" s="52">
         <v>2</v>
       </c>
-      <c r="H16" s="52">
-        <v>2</v>
+      <c r="H16" s="52" t="s">
+        <v>192</v>
       </c>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(A$1-K16)</f>
@@ -2854,17 +2748,17 @@
       <c r="M16" s="14">
         <v>100</v>
       </c>
-      <c r="N16" s="78">
-        <v>95</v>
+      <c r="N16" s="75" t="s">
+        <v>192</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="77">
-        <v>0</v>
+      <c r="Q16" s="74">
+        <v>1</v>
       </c>
       <c r="R16" s="16">
         <f>SUM(M16:P16)/(2-Q16)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="S16" s="14">
         <v>60</v>
@@ -2878,18 +2772,18 @@
       <c r="W16" s="44"/>
       <c r="X16" s="21">
         <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>59.375</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D17" s="51">
         <v>0</v>
@@ -2918,17 +2812,17 @@
       <c r="M17" s="14">
         <v>100</v>
       </c>
-      <c r="N17" s="78">
-        <v>80</v>
+      <c r="N17" s="75">
+        <v>95</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="77">
+      <c r="Q17" s="74">
         <v>0</v>
       </c>
       <c r="R17" s="16">
         <f>SUM(M17:P17)/(2-Q17)</f>
-        <v>90</v>
+        <v>97.5</v>
       </c>
       <c r="S17" s="14">
         <v>60</v>
@@ -2942,57 +2836,57 @@
       <c r="W17" s="44"/>
       <c r="X17" s="21">
         <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>57.5</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="54">
-        <v>0</v>
-      </c>
-      <c r="E18" s="53">
-        <v>2</v>
-      </c>
-      <c r="F18" s="53">
-        <v>2</v>
-      </c>
-      <c r="G18" s="53">
-        <v>2</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
+        <v>146</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>2</v>
+      </c>
+      <c r="F18" s="52">
+        <v>2</v>
+      </c>
+      <c r="G18" s="52">
+        <v>2</v>
+      </c>
+      <c r="H18" s="52">
+        <v>2</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
         <v>100</v>
       </c>
       <c r="M18" s="14">
+        <v>100</v>
+      </c>
+      <c r="N18" s="75">
         <v>80</v>
-      </c>
-      <c r="N18" s="78" t="s">
-        <v>192</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="77">
-        <v>1</v>
+      <c r="Q18" s="74">
+        <v>0</v>
       </c>
       <c r="R18" s="16">
         <f>SUM(M18:P18)/(2-Q18)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S18" s="14">
         <v>60</v>
@@ -3005,37 +2899,37 @@
       <c r="V18" s="6"/>
       <c r="W18" s="44"/>
       <c r="X18" s="21">
-        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.1</f>
-        <v>55</v>
+        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="52">
-        <v>2</v>
-      </c>
-      <c r="F19" s="52">
-        <v>2</v>
-      </c>
-      <c r="G19" s="52">
-        <v>2</v>
-      </c>
-      <c r="H19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>2</v>
+      </c>
+      <c r="F19" s="53">
+        <v>2</v>
+      </c>
+      <c r="G19" s="53">
+        <v>2</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="46">
         <v>1</v>
       </c>
@@ -3044,33 +2938,33 @@
         <v>100</v>
       </c>
       <c r="M19" s="14">
-        <v>100</v>
-      </c>
-      <c r="N19" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="75" t="s">
         <v>192</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="77">
+      <c r="Q19" s="74">
         <v>1</v>
       </c>
       <c r="R19" s="16">
         <f>SUM(M19:P19)/(2-Q19)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S19" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="16">
         <f>SUM(S19:T19)/1</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="44"/>
       <c r="X19" s="21">
-        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
-        <v>45</v>
+        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,12 +3004,12 @@
       <c r="M20" s="14">
         <v>80</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="75">
         <v>100</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="77">
+      <c r="Q20" s="74">
         <v>0</v>
       </c>
       <c r="R20" s="16">
@@ -3174,12 +3068,12 @@
       <c r="M21" s="14">
         <v>80</v>
       </c>
-      <c r="N21" s="78">
+      <c r="N21" s="75">
         <v>85</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="77">
+      <c r="Q21" s="74">
         <v>0</v>
       </c>
       <c r="R21" s="16">
@@ -3238,12 +3132,12 @@
       <c r="M22" s="14">
         <v>50</v>
       </c>
-      <c r="N22" s="78">
+      <c r="N22" s="75">
         <v>0</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="77">
+      <c r="Q22" s="74">
         <v>0</v>
       </c>
       <c r="R22" s="16">
@@ -3302,12 +3196,12 @@
       <c r="M23" s="14">
         <v>85</v>
       </c>
-      <c r="N23" s="78">
+      <c r="N23" s="75">
         <v>0</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="77">
+      <c r="Q23" s="74">
         <v>0</v>
       </c>
       <c r="R23" s="16">
@@ -3366,12 +3260,12 @@
       <c r="M24" s="14">
         <v>0</v>
       </c>
-      <c r="N24" s="78">
+      <c r="N24" s="75">
         <v>100</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="77">
+      <c r="Q24" s="74">
         <v>0</v>
       </c>
       <c r="R24" s="16">
@@ -3430,12 +3324,12 @@
       <c r="M25" s="14">
         <v>100</v>
       </c>
-      <c r="N25" s="78">
+      <c r="N25" s="75">
         <v>0</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="77">
+      <c r="Q25" s="74">
         <v>0</v>
       </c>
       <c r="R25" s="16">
@@ -3494,12 +3388,12 @@
       <c r="M26" s="14">
         <v>0</v>
       </c>
-      <c r="N26" s="78">
+      <c r="N26" s="75">
         <v>100</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="77">
+      <c r="Q26" s="74">
         <v>0</v>
       </c>
       <c r="R26" s="16">
@@ -3558,12 +3452,12 @@
       <c r="M27" s="14">
         <v>50</v>
       </c>
-      <c r="N27" s="78">
+      <c r="N27" s="75">
         <v>0</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="77">
+      <c r="Q27" s="74">
         <v>0</v>
       </c>
       <c r="R27" s="16">
@@ -3608,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="65"/>
-      <c r="N28" s="79"/>
+      <c r="N28" s="76"/>
       <c r="O28" s="66"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="77"/>
+      <c r="Q28" s="74"/>
       <c r="R28" s="64"/>
       <c r="S28" s="65"/>
       <c r="T28" s="65"/>
@@ -3646,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="65"/>
-      <c r="N29" s="79"/>
+      <c r="N29" s="76"/>
       <c r="O29" s="66"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="77"/>
+      <c r="Q29" s="74"/>
       <c r="R29" s="64"/>
       <c r="S29" s="65"/>
       <c r="T29" s="65"/>
@@ -3684,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="65"/>
-      <c r="N30" s="79"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="66"/>
       <c r="P30" s="66"/>
-      <c r="Q30" s="77"/>
+      <c r="Q30" s="74"/>
       <c r="R30" s="64"/>
       <c r="S30" s="65"/>
       <c r="T30" s="65"/>
@@ -3722,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="65"/>
-      <c r="N31" s="79"/>
+      <c r="N31" s="76"/>
       <c r="O31" s="66"/>
       <c r="P31" s="66"/>
-      <c r="Q31" s="77"/>
+      <c r="Q31" s="74"/>
       <c r="R31" s="64"/>
       <c r="S31" s="65"/>
       <c r="T31" s="65"/>
@@ -3760,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="65"/>
-      <c r="N32" s="79"/>
+      <c r="N32" s="76"/>
       <c r="O32" s="66"/>
       <c r="P32" s="66"/>
-      <c r="Q32" s="77"/>
+      <c r="Q32" s="74"/>
       <c r="R32" s="64"/>
       <c r="S32" s="65"/>
       <c r="T32" s="65"/>
@@ -3798,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="65"/>
-      <c r="N33" s="79"/>
+      <c r="N33" s="76"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
-      <c r="Q33" s="77"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="64"/>
       <c r="S33" s="65"/>
       <c r="T33" s="65"/>
@@ -3836,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="65"/>
-      <c r="N34" s="79"/>
+      <c r="N34" s="76"/>
       <c r="O34" s="66"/>
       <c r="P34" s="66"/>
-      <c r="Q34" s="77"/>
+      <c r="Q34" s="74"/>
       <c r="R34" s="64"/>
       <c r="S34" s="65"/>
       <c r="T34" s="65"/>
@@ -3874,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="65"/>
-      <c r="N35" s="79"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="66"/>
       <c r="P35" s="66"/>
-      <c r="Q35" s="77"/>
+      <c r="Q35" s="74"/>
       <c r="R35" s="64">
         <f>SUM(M35:Q35)/A$1</f>
         <v>0</v>
@@ -3915,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="65"/>
-      <c r="N36" s="79"/>
+      <c r="N36" s="76"/>
       <c r="O36" s="66"/>
       <c r="P36" s="66"/>
-      <c r="Q36" s="77"/>
+      <c r="Q36" s="74"/>
       <c r="R36" s="64">
         <f>SUM(M36:Q36)/A$1</f>
         <v>0</v>
@@ -3956,10 +3850,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="65"/>
-      <c r="N37" s="79"/>
+      <c r="N37" s="76"/>
       <c r="O37" s="66"/>
       <c r="P37" s="66"/>
-      <c r="Q37" s="77"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="64">
         <f>SUM(M37:Q37)/A$1</f>
         <v>0</v>
@@ -3997,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="65"/>
-      <c r="N38" s="79"/>
+      <c r="N38" s="76"/>
       <c r="O38" s="66"/>
       <c r="P38" s="66"/>
-      <c r="Q38" s="77"/>
+      <c r="Q38" s="74"/>
       <c r="R38" s="64">
         <f>SUM(M38:Q38)/A$1</f>
         <v>0</v>
@@ -4038,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="65"/>
-      <c r="N39" s="79"/>
+      <c r="N39" s="76"/>
       <c r="O39" s="66"/>
       <c r="P39" s="66"/>
-      <c r="Q39" s="77"/>
+      <c r="Q39" s="74"/>
       <c r="R39" s="64">
         <f>SUM(M39:Q39)/A$1</f>
         <v>0</v>
@@ -4079,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="65"/>
-      <c r="N40" s="79"/>
+      <c r="N40" s="76"/>
       <c r="O40" s="66"/>
       <c r="P40" s="66"/>
-      <c r="Q40" s="77"/>
+      <c r="Q40" s="74"/>
       <c r="R40" s="64">
         <f>SUM(M40:Q40)/A$1</f>
         <v>0</v>
@@ -4120,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="65"/>
-      <c r="N41" s="79"/>
+      <c r="N41" s="76"/>
       <c r="O41" s="66"/>
       <c r="P41" s="66"/>
-      <c r="Q41" s="77"/>
+      <c r="Q41" s="74"/>
       <c r="R41" s="64">
         <f>SUM(M41:Q41)/A$1</f>
         <v>0</v>
@@ -4152,10 +4046,10 @@
       <c r="K42" s="46"/>
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="78"/>
+      <c r="N42" s="75"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="77"/>
+      <c r="Q42" s="74"/>
       <c r="R42" s="16">
         <f>SUM(M42:Q42)/A$1</f>
         <v>0</v>
@@ -4184,7 +4078,7 @@
       <c r="K43" s="47"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="80"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -4207,7 +4101,7 @@
       <c r="K44" s="47"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="80"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -4230,7 +4124,7 @@
       <c r="K45" s="47"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="80"/>
+      <c r="N45" s="77"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -4253,7 +4147,7 @@
       <c r="K46" s="47"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="80"/>
+      <c r="N46" s="77"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -4276,7 +4170,7 @@
       <c r="K47" s="47"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="80"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -4299,7 +4193,7 @@
       <c r="K48" s="47"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="80"/>
+      <c r="N48" s="77"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -4322,7 +4216,7 @@
       <c r="K49" s="47"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="80"/>
+      <c r="N49" s="77"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -4345,7 +4239,7 @@
       <c r="K50" s="47"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="80"/>
+      <c r="N50" s="77"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -4368,7 +4262,7 @@
       <c r="K51" s="47"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="80"/>
+      <c r="N51" s="77"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -4391,7 +4285,7 @@
       <c r="K52" s="47"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="80"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -4414,7 +4308,7 @@
       <c r="K53" s="47"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="80"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -4437,7 +4331,7 @@
       <c r="K54" s="47"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="80"/>
+      <c r="N54" s="77"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -4460,7 +4354,7 @@
       <c r="K55" s="47"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="80"/>
+      <c r="N55" s="77"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -4483,7 +4377,7 @@
       <c r="K56" s="47"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="80"/>
+      <c r="N56" s="77"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -4506,7 +4400,7 @@
       <c r="K57" s="47"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="80"/>
+      <c r="N57" s="77"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -4529,7 +4423,7 @@
       <c r="K58" s="47"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="80"/>
+      <c r="N58" s="77"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -4552,7 +4446,7 @@
       <c r="K59" s="47"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="80"/>
+      <c r="N59" s="77"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -4575,7 +4469,7 @@
       <c r="K60" s="47"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="80"/>
+      <c r="N60" s="77"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -4598,7 +4492,7 @@
       <c r="K61" s="47"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="80"/>
+      <c r="N61" s="77"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -4621,7 +4515,7 @@
       <c r="K62" s="47"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="80"/>
+      <c r="N62" s="77"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -4644,7 +4538,7 @@
       <c r="K63" s="47"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="80"/>
+      <c r="N63" s="77"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
@@ -4663,47 +4557,47 @@
     <mergeCell ref="M1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W42 M3:P42">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T42">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4857,22 +4751,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="73" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
       <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>
@@ -7789,14 +7683,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7843,18 +7737,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7902,18 +7796,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="130">
   <si>
     <t>Adı</t>
   </si>
@@ -76,48 +76,12 @@
     <t>Soyadı</t>
   </si>
   <si>
-    <t>H5150011</t>
-  </si>
-  <si>
-    <t>MUHARREM ÜMİT</t>
-  </si>
-  <si>
-    <t>SUCUOĞLU</t>
-  </si>
-  <si>
-    <t>H5150012</t>
-  </si>
-  <si>
-    <t>ERTAN</t>
-  </si>
-  <si>
-    <t>KARAASLAN</t>
-  </si>
-  <si>
-    <t>H5150015</t>
-  </si>
-  <si>
-    <t>HASAN</t>
-  </si>
-  <si>
-    <t>SOMUNCU</t>
-  </si>
-  <si>
     <t>H5150017</t>
   </si>
   <si>
     <t>ÇELİK</t>
   </si>
   <si>
-    <t>H5150025</t>
-  </si>
-  <si>
-    <t>ERHAN</t>
-  </si>
-  <si>
-    <t>KILIÇ</t>
-  </si>
-  <si>
     <t>H5150037</t>
   </si>
   <si>
@@ -127,33 +91,12 @@
     <t>YILMAZ</t>
   </si>
   <si>
-    <t>H5150038</t>
-  </si>
-  <si>
     <t>EMRE</t>
   </si>
   <si>
     <t>ÖZCAN</t>
   </si>
   <si>
-    <t>H5150054</t>
-  </si>
-  <si>
-    <t>NESLİHAN</t>
-  </si>
-  <si>
-    <t>DALKILIÇ</t>
-  </si>
-  <si>
-    <t>H5150056</t>
-  </si>
-  <si>
-    <t>MUHAMMED KERİM</t>
-  </si>
-  <si>
-    <t>KILIÇÖZ</t>
-  </si>
-  <si>
     <t>H5150057</t>
   </si>
   <si>
@@ -172,60 +115,6 @@
     <t>KÖYSÜREN</t>
   </si>
   <si>
-    <t>H5150063</t>
-  </si>
-  <si>
-    <t>FUAT</t>
-  </si>
-  <si>
-    <t>SEKİZKARDEŞ</t>
-  </si>
-  <si>
-    <t>H5150067</t>
-  </si>
-  <si>
-    <t>HAVVA</t>
-  </si>
-  <si>
-    <t>AKBAŞ</t>
-  </si>
-  <si>
-    <t>H5150069</t>
-  </si>
-  <si>
-    <t>MUSA</t>
-  </si>
-  <si>
-    <t>SOYSAL</t>
-  </si>
-  <si>
-    <t>H5160001</t>
-  </si>
-  <si>
-    <t>ATAKAN</t>
-  </si>
-  <si>
-    <t>TALAY</t>
-  </si>
-  <si>
-    <t>H5160011</t>
-  </si>
-  <si>
-    <t>EMİNE</t>
-  </si>
-  <si>
-    <t>AYÇİÇEK</t>
-  </si>
-  <si>
-    <t>H5160018</t>
-  </si>
-  <si>
-    <t>RECEP SEZER</t>
-  </si>
-  <si>
-    <t>AYDOĞAN</t>
-  </si>
-  <si>
     <t>H5160019</t>
   </si>
   <si>
@@ -235,24 +124,6 @@
     <t>ÖKSÜZ</t>
   </si>
   <si>
-    <t>H5160022</t>
-  </si>
-  <si>
-    <t>GAMZE NUR</t>
-  </si>
-  <si>
-    <t>KESKİN</t>
-  </si>
-  <si>
-    <t>H5160031</t>
-  </si>
-  <si>
-    <t>ÇAĞLA</t>
-  </si>
-  <si>
-    <t>ÖZ</t>
-  </si>
-  <si>
     <t>H5160032</t>
   </si>
   <si>
@@ -262,24 +133,9 @@
     <t>ERİM</t>
   </si>
   <si>
-    <t>H5160035</t>
-  </si>
-  <si>
     <t>YUSUF</t>
   </si>
   <si>
-    <t>ERGİN</t>
-  </si>
-  <si>
-    <t>H5160036</t>
-  </si>
-  <si>
-    <t>CEM</t>
-  </si>
-  <si>
-    <t>HANOĞLU</t>
-  </si>
-  <si>
     <t>H5160040</t>
   </si>
   <si>
@@ -289,42 +145,9 @@
     <t>ÇAKIN</t>
   </si>
   <si>
-    <t>H5160057</t>
-  </si>
-  <si>
-    <t>MERTCAN</t>
-  </si>
-  <si>
-    <t>ARICI</t>
-  </si>
-  <si>
-    <t>H5160065</t>
-  </si>
-  <si>
-    <t>HATİCE</t>
-  </si>
-  <si>
-    <t>ERDEM</t>
-  </si>
-  <si>
-    <t>HR160007</t>
-  </si>
-  <si>
-    <t>CİHAN</t>
-  </si>
-  <si>
-    <t>GÜNAÇTI</t>
-  </si>
-  <si>
-    <t>HR160032</t>
-  </si>
-  <si>
     <t>DOĞAN</t>
   </si>
   <si>
-    <t>KOÇ</t>
-  </si>
-  <si>
     <t>HR160037</t>
   </si>
   <si>
@@ -334,15 +157,6 @@
     <t>LALOĞLU</t>
   </si>
   <si>
-    <t>HR160040</t>
-  </si>
-  <si>
-    <t>İBRAHİM</t>
-  </si>
-  <si>
-    <t>KANDEMİR</t>
-  </si>
-  <si>
     <t>Öğrenci No</t>
   </si>
   <si>
@@ -359,9 +173,6 @@
   </si>
   <si>
     <t>SINAV (%30)</t>
-  </si>
-  <si>
-    <t>RÜMEYSA</t>
   </si>
   <si>
     <t>YILDIRIM</t>
@@ -742,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -881,40 +692,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1059,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1079,9 +862,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1089,14 +872,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,29 +892,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1141,7 +916,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1200,7 +975,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1003,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1238,7 +1016,257 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1736,7 +1764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
+      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1744,15 +1772,14 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.21875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.44140625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.21875" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="72" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.77734375" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
@@ -1766,166 +1793,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30">
+      <c r="A1" s="28">
         <v>4</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="80"/>
-      <c r="U1" s="81"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="75"/>
+      <c r="U1" s="76"/>
       <c r="V1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>91</v>
+      <c r="A2" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="43">
         <v>1</v>
       </c>
-      <c r="E2" s="50">
-        <v>2</v>
-      </c>
-      <c r="F2" s="50">
+      <c r="E2" s="44">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44">
         <v>3</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="44">
         <v>4</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="44">
         <v>5</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="44">
         <v>6</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="44">
         <v>7</v>
       </c>
-      <c r="K2" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="26">
+      <c r="K2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="24">
         <v>3</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="25">
         <v>5</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="25">
         <v>6</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="25">
         <v>7</v>
       </c>
-      <c r="Q2" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="26">
+      <c r="Q2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="24">
         <v>1</v>
       </c>
-      <c r="T2" s="27">
-        <v>2</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>104</v>
+      <c r="T2" s="25">
+        <v>2</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="51">
-        <v>2</v>
-      </c>
-      <c r="E3" s="52">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52">
-        <v>2</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="52">
-        <v>2</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="46">
+        <v>86</v>
+      </c>
+      <c r="D3" s="45">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46">
+        <v>2</v>
+      </c>
+      <c r="F3" s="46">
+        <v>2</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="46">
+        <v>2</v>
+      </c>
+      <c r="I3" s="46">
+        <v>2</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="40">
         <v>1</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>133.33333333333334</v>
+        <f t="shared" ref="L3:L41" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="69">
         <v>100</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="74">
+      <c r="Q3" s="68">
         <v>0</v>
       </c>
       <c r="R3" s="16">
-        <f>SUM(M3:P3)/(2-Q3)</f>
+        <f t="shared" ref="R3:R27" si="1">SUM(M3:P3)/(2-Q3)</f>
         <v>100</v>
       </c>
       <c r="S3" s="14">
@@ -1933,63 +1962,65 @@
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="16">
-        <f>SUM(S3:T3)/1</f>
+        <f t="shared" ref="U3:U27" si="2">SUM(S3:T3)/1</f>
         <v>60</v>
       </c>
       <c r="V3" s="6"/>
-      <c r="W3" s="44"/>
+      <c r="W3" s="38"/>
       <c r="X3" s="21">
         <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
-        <v>66.666666666666671</v>
+        <v>73.333333333333343</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="51">
-        <v>2</v>
-      </c>
-      <c r="E4" s="52">
-        <v>2</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52">
-        <v>2</v>
-      </c>
-      <c r="H4" s="52">
-        <v>2</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="46">
+        <v>103</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="46">
+        <v>2</v>
+      </c>
+      <c r="F4" s="46">
+        <v>2</v>
+      </c>
+      <c r="G4" s="46">
+        <v>2</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="40">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
       </c>
-      <c r="N4" s="75">
+      <c r="N4" s="69">
         <v>100</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="74">
+      <c r="Q4" s="68">
         <v>0</v>
       </c>
       <c r="R4" s="16">
-        <f>SUM(M4:P4)/(2-Q4)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S4" s="14">
@@ -1997,63 +2028,65 @@
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="16">
-        <f>SUM(S4:T4)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="44"/>
+      <c r="W4" s="38"/>
       <c r="X4" s="21">
         <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="51">
-        <v>2</v>
-      </c>
-      <c r="E5" s="52">
-        <v>2</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="52">
-        <v>2</v>
-      </c>
-      <c r="H5" s="52">
-        <v>2</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="46">
+        <v>55</v>
+      </c>
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2</v>
+      </c>
+      <c r="F5" s="46">
+        <v>2</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2</v>
+      </c>
+      <c r="H5" s="46">
+        <v>2</v>
+      </c>
+      <c r="I5" s="46">
+        <v>2</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="40">
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(A$1-K5)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="M5" s="14">
         <v>100</v>
       </c>
-      <c r="N5" s="75">
+      <c r="N5" s="69">
         <v>95</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="74">
+      <c r="Q5" s="68">
         <v>0</v>
       </c>
       <c r="R5" s="16">
-        <f>SUM(M5:P5)/(2-Q5)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S5" s="14">
@@ -2061,63 +2094,65 @@
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="16">
-        <f>SUM(S5:T5)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V5" s="6"/>
-      <c r="W5" s="44"/>
+      <c r="W5" s="38"/>
       <c r="X5" s="21">
         <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
-        <v>64.375</v>
+        <v>69.375</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="51">
-        <v>2</v>
-      </c>
-      <c r="E6" s="52">
-        <v>2</v>
-      </c>
-      <c r="F6" s="52">
-        <v>2</v>
-      </c>
-      <c r="G6" s="52">
-        <v>2</v>
-      </c>
-      <c r="H6" s="52">
-        <v>2</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="46">
+        <v>97</v>
+      </c>
+      <c r="D6" s="45">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>2</v>
+      </c>
+      <c r="F6" s="46">
+        <v>2</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>2</v>
+      </c>
+      <c r="I6" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(A$1-K6)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>148.75</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
       </c>
-      <c r="N6" s="75">
+      <c r="N6" s="69">
         <v>95</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="74">
+      <c r="Q6" s="68">
         <v>0</v>
       </c>
       <c r="R6" s="16">
-        <f>SUM(M6:P6)/(2-Q6)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S6" s="14">
@@ -2125,63 +2160,65 @@
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="16">
-        <f>SUM(S6:T6)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V6" s="6"/>
-      <c r="W6" s="44"/>
+      <c r="W6" s="38"/>
       <c r="X6" s="21">
         <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
-        <v>64.375</v>
+        <v>69.125</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="45">
+        <v>2</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2</v>
+      </c>
+      <c r="F7" s="46">
+        <v>2</v>
+      </c>
+      <c r="G7" s="46">
+        <v>2</v>
+      </c>
+      <c r="H7" s="46">
+        <v>2</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
         <v>150</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="51">
-        <v>2</v>
-      </c>
-      <c r="E7" s="52">
-        <v>2</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52">
-        <v>2</v>
-      </c>
-      <c r="H7" s="52">
-        <v>2</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="46">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>125</v>
       </c>
       <c r="M7" s="14">
         <v>95</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="69">
         <v>100</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="74">
+      <c r="Q7" s="68">
         <v>0</v>
       </c>
       <c r="R7" s="16">
-        <f>SUM(M7:P7)/(2-Q7)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S7" s="14">
@@ -2189,63 +2226,65 @@
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="16">
-        <f>SUM(S7:T7)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V7" s="6"/>
-      <c r="W7" s="44"/>
+      <c r="W7" s="38"/>
       <c r="X7" s="21">
         <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
-        <v>64.375</v>
+        <v>69.375</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="51">
-        <v>2</v>
-      </c>
-      <c r="E8" s="52">
-        <v>2</v>
-      </c>
-      <c r="F8" s="52">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52">
-        <v>2</v>
-      </c>
-      <c r="H8" s="52">
+        <v>100</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46">
+        <v>2</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2</v>
+      </c>
+      <c r="G8" s="46">
+        <v>2</v>
+      </c>
+      <c r="H8" s="46">
         <v>1.8</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="46">
+      <c r="I8" s="46">
+        <v>2</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>122.50000000000001</v>
+        <f t="shared" si="0"/>
+        <v>147.5</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
       </c>
-      <c r="N8" s="75">
+      <c r="N8" s="69">
         <v>95</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="74">
+      <c r="Q8" s="68">
         <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>SUM(M8:P8)/(2-Q8)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S8" s="14">
@@ -2253,63 +2292,65 @@
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="16">
-        <f>SUM(S8:T8)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V8" s="6"/>
-      <c r="W8" s="44"/>
+      <c r="W8" s="38"/>
       <c r="X8" s="21">
         <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
-        <v>63.875</v>
+        <v>68.875</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="51">
-        <v>2</v>
-      </c>
-      <c r="E9" s="52">
-        <v>2</v>
-      </c>
-      <c r="F9" s="52">
-        <v>2</v>
-      </c>
-      <c r="G9" s="52">
-        <v>2</v>
-      </c>
-      <c r="H9" s="52">
+        <v>47</v>
+      </c>
+      <c r="D9" s="45">
+        <v>2</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+      <c r="F9" s="46">
+        <v>2</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2</v>
+      </c>
+      <c r="H9" s="46">
         <v>1.9</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="46">
+      <c r="I9" s="46">
+        <v>2</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="40">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(A$1-K9)</f>
-        <v>123.75</v>
+        <f t="shared" si="0"/>
+        <v>148.75</v>
       </c>
       <c r="M9" s="14">
         <v>100</v>
       </c>
-      <c r="N9" s="75">
+      <c r="N9" s="69">
         <v>90</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="74">
+      <c r="Q9" s="68">
         <v>0</v>
       </c>
       <c r="R9" s="16">
-        <f>SUM(M9:P9)/(2-Q9)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S9" s="14">
@@ -2317,63 +2358,65 @@
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="16">
-        <f>SUM(S9:T9)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="44"/>
+      <c r="W9" s="38"/>
       <c r="X9" s="21">
         <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
-        <v>63.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="51">
-        <v>2</v>
-      </c>
-      <c r="E10" s="52">
-        <v>2</v>
-      </c>
-      <c r="F10" s="52">
-        <v>2</v>
-      </c>
-      <c r="G10" s="52">
-        <v>2</v>
-      </c>
-      <c r="H10" s="52">
+        <v>50</v>
+      </c>
+      <c r="D10" s="45">
+        <v>2</v>
+      </c>
+      <c r="E10" s="46">
+        <v>2</v>
+      </c>
+      <c r="F10" s="46">
+        <v>2</v>
+      </c>
+      <c r="G10" s="46">
+        <v>2</v>
+      </c>
+      <c r="H10" s="46">
         <v>1.9</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="46">
+      <c r="I10" s="46">
+        <v>2</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="40">
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>123.75</v>
+        <f t="shared" si="0"/>
+        <v>148.75</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="69">
         <v>90</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="74">
+      <c r="Q10" s="68">
         <v>0</v>
       </c>
       <c r="R10" s="16">
-        <f>SUM(M10:P10)/(2-Q10)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S10" s="14">
@@ -2381,63 +2424,65 @@
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="16">
-        <f>SUM(S10:T10)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V10" s="6"/>
-      <c r="W10" s="44"/>
+      <c r="W10" s="38"/>
       <c r="X10" s="21">
         <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
-        <v>63.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="51">
-        <v>2</v>
-      </c>
-      <c r="E11" s="52">
-        <v>2</v>
-      </c>
-      <c r="F11" s="52">
-        <v>2</v>
-      </c>
-      <c r="G11" s="52">
-        <v>2</v>
-      </c>
-      <c r="H11" s="52">
-        <v>2</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="46">
+        <v>109</v>
+      </c>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="46">
+        <v>2</v>
+      </c>
+      <c r="F11" s="46">
+        <v>2</v>
+      </c>
+      <c r="G11" s="46">
+        <v>2</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2</v>
+      </c>
+      <c r="I11" s="46">
+        <v>2</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="40">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="M11" s="14">
         <v>85</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="69">
         <v>100</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="74">
+      <c r="Q11" s="68">
         <v>0</v>
       </c>
       <c r="R11" s="16">
-        <f>SUM(M11:P11)/(2-Q11)</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="S11" s="14">
@@ -2445,63 +2490,65 @@
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="16">
-        <f>SUM(S11:T11)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V11" s="6"/>
-      <c r="W11" s="44"/>
+      <c r="W11" s="38"/>
       <c r="X11" s="21">
         <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
-        <v>63.125</v>
+        <v>68.125</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="51">
-        <v>2</v>
-      </c>
-      <c r="E12" s="53">
-        <v>2</v>
-      </c>
-      <c r="F12" s="52">
-        <v>2</v>
-      </c>
-      <c r="G12" s="53">
+        <v>25</v>
+      </c>
+      <c r="D12" s="45">
+        <v>2</v>
+      </c>
+      <c r="E12" s="47">
+        <v>2</v>
+      </c>
+      <c r="F12" s="46">
+        <v>2</v>
+      </c>
+      <c r="G12" s="47">
         <v>1.5</v>
       </c>
-      <c r="H12" s="53">
-        <v>2</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="46">
+      <c r="H12" s="47">
+        <v>2</v>
+      </c>
+      <c r="I12" s="47">
+        <v>2</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="40">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>118.75</v>
+        <f t="shared" si="0"/>
+        <v>143.75</v>
       </c>
       <c r="M12" s="14">
         <v>100</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="69">
         <v>95</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="74">
+      <c r="Q12" s="68">
         <v>0</v>
       </c>
       <c r="R12" s="16">
-        <f>SUM(M12:P12)/(2-Q12)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S12" s="14">
@@ -2509,63 +2556,65 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="16">
-        <f>SUM(S12:T12)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V12" s="6"/>
-      <c r="W12" s="44"/>
+      <c r="W12" s="38"/>
       <c r="X12" s="21">
         <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
-        <v>63.125</v>
+        <v>68.125</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="51">
-        <v>2</v>
-      </c>
-      <c r="E13" s="52">
-        <v>2</v>
-      </c>
-      <c r="F13" s="52">
-        <v>2</v>
-      </c>
-      <c r="G13" s="52">
-        <v>2</v>
-      </c>
-      <c r="H13" s="52">
-        <v>2</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="46">
+        <v>114</v>
+      </c>
+      <c r="D13" s="45">
+        <v>2</v>
+      </c>
+      <c r="E13" s="46">
+        <v>2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2</v>
+      </c>
+      <c r="G13" s="46">
+        <v>2</v>
+      </c>
+      <c r="H13" s="46">
+        <v>2</v>
+      </c>
+      <c r="I13" s="46">
+        <v>2</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="40">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="M13" s="14">
         <v>100</v>
       </c>
-      <c r="N13" s="75">
+      <c r="N13" s="69">
         <v>80</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="74">
+      <c r="Q13" s="68">
         <v>0</v>
       </c>
       <c r="R13" s="16">
-        <f>SUM(M13:P13)/(2-Q13)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S13" s="14">
@@ -2573,63 +2622,65 @@
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="16">
-        <f>SUM(S13:T13)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V13" s="6"/>
-      <c r="W13" s="44"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="21">
         <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="51">
-        <v>2</v>
-      </c>
-      <c r="E14" s="52">
-        <v>2</v>
-      </c>
-      <c r="F14" s="52">
-        <v>2</v>
-      </c>
-      <c r="G14" s="52">
-        <v>2</v>
-      </c>
-      <c r="H14" s="52">
-        <v>2</v>
-      </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="46">
+        <v>114</v>
+      </c>
+      <c r="D14" s="45">
+        <v>2</v>
+      </c>
+      <c r="E14" s="46">
+        <v>2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2</v>
+      </c>
+      <c r="H14" s="46">
+        <v>2</v>
+      </c>
+      <c r="I14" s="46">
+        <v>2</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="40">
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="M14" s="14">
         <v>80</v>
       </c>
-      <c r="N14" s="75">
+      <c r="N14" s="69">
         <v>80</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="74">
+      <c r="Q14" s="68">
         <v>0</v>
       </c>
       <c r="R14" s="16">
-        <f>SUM(M14:P14)/(2-Q14)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="S14" s="14">
@@ -2637,63 +2688,65 @@
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="16">
-        <f>SUM(S14:T14)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="44"/>
+      <c r="W14" s="38"/>
       <c r="X14" s="21">
         <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="51">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52">
-        <v>2</v>
-      </c>
-      <c r="F15" s="52">
-        <v>2</v>
-      </c>
-      <c r="G15" s="52">
-        <v>2</v>
-      </c>
-      <c r="H15" s="52">
-        <v>2</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="46">
+        <v>60</v>
+      </c>
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="E15" s="46">
+        <v>2</v>
+      </c>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2</v>
+      </c>
+      <c r="H15" s="46">
+        <v>2</v>
+      </c>
+      <c r="I15" s="46">
+        <v>2</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="40">
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(A$1-K15)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="69">
         <v>100</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="74">
+      <c r="Q15" s="68">
         <v>0</v>
       </c>
       <c r="R15" s="16">
-        <f>SUM(M15:P15)/(2-Q15)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S15" s="14">
@@ -2701,63 +2754,65 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="16">
-        <f>SUM(S15:T15)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V15" s="6"/>
-      <c r="W15" s="44"/>
+      <c r="W15" s="38"/>
       <c r="X15" s="21">
         <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="51">
-        <v>0</v>
-      </c>
-      <c r="E16" s="52">
-        <v>2</v>
-      </c>
-      <c r="F16" s="52">
-        <v>2</v>
-      </c>
-      <c r="G16" s="52">
-        <v>2</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="46">
+        <v>58</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="E16" s="46">
+        <v>2</v>
+      </c>
+      <c r="F16" s="46">
+        <v>2</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="46">
+        <v>2</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="40">
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(A$1-K16)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
       </c>
       <c r="M16" s="14">
         <v>100</v>
       </c>
-      <c r="N16" s="75" t="s">
-        <v>192</v>
+      <c r="N16" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="74">
+      <c r="Q16" s="68">
         <v>1</v>
       </c>
       <c r="R16" s="16">
-        <f>SUM(M16:P16)/(2-Q16)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S16" s="14">
@@ -2765,63 +2820,65 @@
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="16">
-        <f>SUM(S16:T16)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V16" s="6"/>
-      <c r="W16" s="44"/>
+      <c r="W16" s="38"/>
       <c r="X16" s="21">
         <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52">
-        <v>2</v>
-      </c>
-      <c r="F17" s="52">
-        <v>2</v>
-      </c>
-      <c r="G17" s="52">
-        <v>2</v>
-      </c>
-      <c r="H17" s="52">
-        <v>2</v>
-      </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="46">
+        <v>35</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <v>2</v>
+      </c>
+      <c r="F17" s="46">
+        <v>2</v>
+      </c>
+      <c r="G17" s="46">
+        <v>2</v>
+      </c>
+      <c r="H17" s="46">
+        <v>2</v>
+      </c>
+      <c r="I17" s="46">
+        <v>2</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="40">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="M17" s="14">
         <v>100</v>
       </c>
-      <c r="N17" s="75">
+      <c r="N17" s="69">
         <v>95</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="74">
+      <c r="Q17" s="68">
         <v>0</v>
       </c>
       <c r="R17" s="16">
-        <f>SUM(M17:P17)/(2-Q17)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S17" s="14">
@@ -2829,63 +2886,65 @@
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="16">
-        <f>SUM(S17:T17)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V17" s="6"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="38"/>
       <c r="X17" s="21">
         <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>59.375</v>
+        <v>64.375</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="51">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52">
-        <v>2</v>
-      </c>
-      <c r="F18" s="52">
-        <v>2</v>
-      </c>
-      <c r="G18" s="52">
-        <v>2</v>
-      </c>
-      <c r="H18" s="52">
-        <v>2</v>
-      </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="46">
+        <v>83</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="46">
+        <v>2</v>
+      </c>
+      <c r="F18" s="46">
+        <v>2</v>
+      </c>
+      <c r="G18" s="46">
+        <v>2</v>
+      </c>
+      <c r="H18" s="46">
+        <v>2</v>
+      </c>
+      <c r="I18" s="46">
+        <v>2</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="40">
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="M18" s="14">
         <v>100</v>
       </c>
-      <c r="N18" s="75">
+      <c r="N18" s="69">
         <v>80</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="74">
+      <c r="Q18" s="68">
         <v>0</v>
       </c>
       <c r="R18" s="16">
-        <f>SUM(M18:P18)/(2-Q18)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S18" s="14">
@@ -2893,63 +2952,65 @@
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="16">
-        <f>SUM(S18:T18)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V18" s="6"/>
-      <c r="W18" s="44"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="21">
         <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="54">
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <v>2</v>
-      </c>
-      <c r="F19" s="53">
-        <v>2</v>
-      </c>
-      <c r="G19" s="53">
-        <v>2</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="46">
+        <v>28</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0</v>
+      </c>
+      <c r="E19" s="47">
+        <v>2</v>
+      </c>
+      <c r="F19" s="47">
+        <v>2</v>
+      </c>
+      <c r="G19" s="47">
+        <v>2</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="40">
         <v>1</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(A$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M19" s="14">
         <v>80</v>
       </c>
-      <c r="N19" s="75" t="s">
-        <v>192</v>
+      <c r="N19" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="74">
+      <c r="Q19" s="68">
         <v>1</v>
       </c>
       <c r="R19" s="16">
-        <f>SUM(M19:P19)/(2-Q19)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="S19" s="14">
@@ -2957,11 +3018,11 @@
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="16">
-        <f>SUM(S19:T19)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="44"/>
+      <c r="W19" s="38"/>
       <c r="X19" s="21">
         <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
         <v>55</v>
@@ -2969,51 +3030,53 @@
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="52">
-        <v>2</v>
-      </c>
-      <c r="F20" s="52">
-        <v>2</v>
-      </c>
-      <c r="G20" s="52">
+        <v>68</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>2</v>
+      </c>
+      <c r="F20" s="46">
+        <v>2</v>
+      </c>
+      <c r="G20" s="46">
         <v>1.2</v>
       </c>
-      <c r="H20" s="52">
-        <v>0</v>
-      </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="46">
+      <c r="H20" s="46">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="40">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="M20" s="14">
         <v>80</v>
       </c>
-      <c r="N20" s="75">
+      <c r="N20" s="69">
         <v>100</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="74">
+      <c r="Q20" s="68">
         <v>0</v>
       </c>
       <c r="R20" s="16">
-        <f>SUM(M20:P20)/(2-Q20)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S20" s="14">
@@ -3021,11 +3084,11 @@
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="16">
-        <f>SUM(S20:T20)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V20" s="6"/>
-      <c r="W20" s="44"/>
+      <c r="W20" s="38"/>
       <c r="X20" s="21">
         <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
         <v>35.5</v>
@@ -3033,51 +3096,53 @@
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="54">
-        <v>0</v>
-      </c>
-      <c r="E21" s="53">
-        <v>0</v>
-      </c>
-      <c r="F21" s="53">
-        <v>2</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="53">
-        <v>2</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="46">
+        <v>6</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>2</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="47">
+        <v>2</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="40">
         <v>1</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(A$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M21" s="14">
         <v>80</v>
       </c>
-      <c r="N21" s="75">
+      <c r="N21" s="69">
         <v>85</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="74">
+      <c r="Q21" s="68">
         <v>0</v>
       </c>
       <c r="R21" s="16">
-        <f>SUM(M21:P21)/(2-Q21)</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="S21" s="14">
@@ -3085,11 +3150,11 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="16">
-        <f>SUM(S21:T21)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V21" s="6"/>
-      <c r="W21" s="44"/>
+      <c r="W21" s="38"/>
       <c r="X21" s="21">
         <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.1</f>
         <v>33.958333333333336</v>
@@ -3097,51 +3162,53 @@
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51">
-        <v>2</v>
-      </c>
-      <c r="F22" s="52">
+        <v>17</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>2</v>
+      </c>
+      <c r="F22" s="46">
         <v>1</v>
       </c>
-      <c r="G22" s="52">
-        <v>2</v>
-      </c>
-      <c r="H22" s="52">
-        <v>0</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="46">
+      <c r="G22" s="46">
+        <v>2</v>
+      </c>
+      <c r="H22" s="46">
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
+        <v>2</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="40">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>62.5</v>
+        <f t="shared" si="0"/>
+        <v>87.5</v>
       </c>
       <c r="M22" s="14">
         <v>50</v>
       </c>
-      <c r="N22" s="75">
+      <c r="N22" s="69">
         <v>0</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="74">
+      <c r="Q22" s="68">
         <v>0</v>
       </c>
       <c r="R22" s="16">
-        <f>SUM(M22:P22)/(2-Q22)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S22" s="14">
@@ -3149,63 +3216,65 @@
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="16">
-        <f>SUM(S22:T22)/1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V22" s="6"/>
-      <c r="W22" s="44"/>
+      <c r="W22" s="38"/>
       <c r="X22" s="21">
         <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
-        <v>33.75</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="51">
-        <v>2</v>
-      </c>
-      <c r="E23" s="52">
-        <v>2</v>
-      </c>
-      <c r="F23" s="52">
-        <v>2</v>
-      </c>
-      <c r="G23" s="52">
-        <v>2</v>
-      </c>
-      <c r="H23" s="52">
-        <v>0</v>
-      </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="46">
+        <v>117</v>
+      </c>
+      <c r="D23" s="45">
+        <v>2</v>
+      </c>
+      <c r="E23" s="46">
+        <v>2</v>
+      </c>
+      <c r="F23" s="46">
+        <v>2</v>
+      </c>
+      <c r="G23" s="46">
+        <v>2</v>
+      </c>
+      <c r="H23" s="46">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46">
+        <v>2</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="40">
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="M23" s="14">
         <v>85</v>
       </c>
-      <c r="N23" s="75">
+      <c r="N23" s="69">
         <v>0</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="74">
+      <c r="Q23" s="68">
         <v>0</v>
       </c>
       <c r="R23" s="16">
-        <f>SUM(M23:P23)/(2-Q23)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="S23" s="14">
@@ -3213,63 +3282,65 @@
       </c>
       <c r="T23" s="14"/>
       <c r="U23" s="16">
-        <f>SUM(S23:T23)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V23" s="6"/>
-      <c r="W23" s="44"/>
+      <c r="W23" s="38"/>
       <c r="X23" s="21">
         <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
-        <v>30.625</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="51">
-        <v>2</v>
-      </c>
-      <c r="E24" s="52">
+        <v>71</v>
+      </c>
+      <c r="D24" s="45">
+        <v>2</v>
+      </c>
+      <c r="E24" s="46">
         <v>1.7</v>
       </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
-        <v>2</v>
-      </c>
-      <c r="H24" s="52">
-        <v>0</v>
-      </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="46">
+      <c r="F24" s="46">
+        <v>0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>2</v>
+      </c>
+      <c r="H24" s="46">
+        <v>0</v>
+      </c>
+      <c r="I24" s="46">
+        <v>2</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="40">
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>71.25</v>
+        <f t="shared" si="0"/>
+        <v>96.25</v>
       </c>
       <c r="M24" s="14">
         <v>0</v>
       </c>
-      <c r="N24" s="75">
+      <c r="N24" s="69">
         <v>100</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="74">
+      <c r="Q24" s="68">
         <v>0</v>
       </c>
       <c r="R24" s="16">
-        <f>SUM(M24:P24)/(2-Q24)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S24" s="14">
@@ -3277,63 +3348,65 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="16">
-        <f>SUM(S24:T24)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="44"/>
+      <c r="W24" s="38"/>
       <c r="X24" s="21">
         <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
-        <v>26.75</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="54">
-        <v>0</v>
-      </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53">
-        <v>2</v>
-      </c>
-      <c r="G25" s="53">
-        <v>2</v>
-      </c>
-      <c r="H25" s="53">
-        <v>0</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="46">
+        <v>3</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>2</v>
+      </c>
+      <c r="G25" s="47">
+        <v>2</v>
+      </c>
+      <c r="H25" s="47">
+        <v>0</v>
+      </c>
+      <c r="I25" s="47">
+        <v>0</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="40">
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f>SUM(D25:J25)*50/(A$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M25" s="14">
         <v>100</v>
       </c>
-      <c r="N25" s="75">
+      <c r="N25" s="69">
         <v>0</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="74">
+      <c r="Q25" s="68">
         <v>0</v>
       </c>
       <c r="R25" s="16">
-        <f>SUM(M25:P25)/(2-Q25)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S25" s="14">
@@ -3341,11 +3414,11 @@
       </c>
       <c r="T25" s="14"/>
       <c r="U25" s="16">
-        <f>SUM(S25:T25)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V25" s="6"/>
-      <c r="W25" s="44"/>
+      <c r="W25" s="38"/>
       <c r="X25" s="21">
         <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
         <v>22.5</v>
@@ -3353,51 +3426,53 @@
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="54">
-        <v>0</v>
-      </c>
-      <c r="E26" s="53">
-        <v>0</v>
-      </c>
-      <c r="F26" s="53">
-        <v>0</v>
-      </c>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53">
+        <v>63</v>
+      </c>
+      <c r="D26" s="48">
+        <v>0</v>
+      </c>
+      <c r="E26" s="47">
+        <v>0</v>
+      </c>
+      <c r="F26" s="47">
+        <v>0</v>
+      </c>
+      <c r="G26" s="47">
+        <v>0</v>
+      </c>
+      <c r="H26" s="47">
         <v>1.7</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="46">
+      <c r="I26" s="47">
+        <v>2</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="40">
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>21.25</v>
+        <f t="shared" si="0"/>
+        <v>46.25</v>
       </c>
       <c r="M26" s="14">
         <v>0</v>
       </c>
-      <c r="N26" s="75">
+      <c r="N26" s="69">
         <v>100</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="74">
+      <c r="Q26" s="68">
         <v>0</v>
       </c>
       <c r="R26" s="16">
-        <f>SUM(M26:P26)/(2-Q26)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S26" s="14">
@@ -3405,63 +3480,65 @@
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="16">
-        <f>SUM(S26:T26)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V26" s="6"/>
-      <c r="W26" s="44"/>
+      <c r="W26" s="38"/>
       <c r="X26" s="21">
         <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.1</f>
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="51">
-        <v>0</v>
-      </c>
-      <c r="E27" s="52">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52">
+        <v>80</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0</v>
+      </c>
+      <c r="F27" s="46">
         <v>1.5</v>
       </c>
-      <c r="G27" s="52">
-        <v>2</v>
-      </c>
-      <c r="H27" s="52">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="46">
+      <c r="G27" s="46">
+        <v>2</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0</v>
+      </c>
+      <c r="I27" s="46">
+        <v>2</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="40">
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>43.75</v>
+        <f t="shared" si="0"/>
+        <v>68.75</v>
       </c>
       <c r="M27" s="14">
         <v>50</v>
       </c>
-      <c r="N27" s="75">
+      <c r="N27" s="69">
         <v>0</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="74">
+      <c r="Q27" s="68">
         <v>0</v>
       </c>
       <c r="R27" s="16">
-        <f>SUM(M27:P27)/(2-Q27)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S27" s="14">
@@ -3469,565 +3546,565 @@
       </c>
       <c r="T27" s="14"/>
       <c r="U27" s="16">
-        <f>SUM(S27:T27)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V27" s="6"/>
-      <c r="W27" s="44"/>
+      <c r="W27" s="38"/>
       <c r="X27" s="21">
-        <f>L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="65"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="68">
-        <f>L28*0.2+R28*0.25+U28*0.25+V28*0.3+W28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="70" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+        <f t="shared" ref="X27:X37" si="3">L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="59"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="64" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="59"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="59"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="60" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="59"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64">
-        <f>SUM(D29:J29)*50/(A$1-K29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="65"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="68">
-        <f>L29*0.2+R29*0.25+U29*0.25+V29*0.3+W29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="60" t="s">
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="59"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="59"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="59"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="68">
-        <f>L30*0.2+R30*0.25+U30*0.25+V30*0.3+W30*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64">
-        <f>SUM(D31:J31)*50/(A$1-K31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="68">
-        <f>L31*0.2+R31*0.25+U31*0.25+V31*0.3+W31*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64">
-        <f>SUM(D32:J32)*50/(A$1-K32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="65"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="68">
-        <f>L32*0.2+R32*0.25+U32*0.25+V32*0.3+W32*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64">
-        <f>SUM(D33:J33)*50/(A$1-K33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="68">
-        <f>L33*0.2+R33*0.25+U33*0.25+V33*0.3+W33*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64">
-        <f>SUM(D34:J34)*50/(A$1-K34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="68">
-        <f>L34*0.2+R34*0.25+U34*0.25+V34*0.3+W34*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64">
-        <f>SUM(D35:J35)*50/(A$1-K35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="65"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="64">
-        <f>SUM(M35:Q35)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="68">
-        <f>L35*0.2+R35*0.25+U35*0.25+V35*0.3+W35*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64">
-        <f>SUM(D36:J36)*50/(A$1-K36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="65"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="64">
-        <f>SUM(M36:Q36)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="68">
-        <f>L36*0.2+R36*0.25+U36*0.25+V36*0.3+W36*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64">
-        <f>SUM(D37:J37)*50/(A$1-K37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="65"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="64">
-        <f>SUM(M37:Q37)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="68">
-        <f>L37*0.2+R37*0.25+U37*0.25+V37*0.3+W37*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="64">
-        <f>SUM(D38:J38)*50/(A$1-K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="64">
-        <f>SUM(M38:Q38)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="68">
+      <c r="B35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="59"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="58">
+        <f t="shared" ref="R35:R42" si="4">SUM(M35:Q35)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="59"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="59"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="59"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="62">
         <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="60" t="s">
+    <row r="39" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64">
-        <f>SUM(D39:J39)*50/(A$1-K39)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="64">
-        <f>SUM(M39:Q39)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="68">
+      <c r="C39" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="62">
         <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64">
-        <f>SUM(D40:J40)*50/(A$1-K40)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="65"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="64">
-        <f>SUM(M40:Q40)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="68">
+    <row r="40" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="59"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="62">
         <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64">
-        <f>SUM(D41:J41)*50/(A$1-K41)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="65"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="64">
-        <f>SUM(M41:Q41)/A$1</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="68">
+      <c r="A41" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="59"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="62">
         <f>L41*0.2+R41*0.25+U41*0.25+V41*0.3+W41*0.1</f>
         <v>0</v>
       </c>
@@ -4036,29 +4113,29 @@
       <c r="A42" s="20"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="46"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="40"/>
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="75"/>
+      <c r="N42" s="69"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="74"/>
+      <c r="Q42" s="68"/>
       <c r="R42" s="16">
-        <f>SUM(M42:Q42)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
       <c r="U42" s="16"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="44"/>
+      <c r="W42" s="38"/>
       <c r="X42" s="21">
         <f>L42*0.2+R42*0.25+U42*0.25+V42*0.3+W42*0.1</f>
         <v>0</v>
@@ -4068,17 +4145,17 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="41"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="77"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -4091,17 +4168,17 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="47"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="41"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="77"/>
+      <c r="N44" s="71"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -4114,17 +4191,17 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="47"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="41"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="77"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -4137,17 +4214,17 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="41"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="77"/>
+      <c r="N46" s="71"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -4160,17 +4237,17 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="41"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="77"/>
+      <c r="N47" s="71"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -4183,17 +4260,17 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="47"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="77"/>
+      <c r="N48" s="71"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -4206,17 +4283,17 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="41"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="77"/>
+      <c r="N49" s="71"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -4229,17 +4306,17 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="47"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="77"/>
+      <c r="N50" s="71"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -4252,17 +4329,17 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="47"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="41"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="77"/>
+      <c r="N51" s="71"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -4275,17 +4352,17 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="47"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="41"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="77"/>
+      <c r="N52" s="71"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -4298,17 +4375,17 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="47"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="41"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="77"/>
+      <c r="N53" s="71"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -4321,17 +4398,17 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="47"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="41"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="77"/>
+      <c r="N54" s="71"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -4344,17 +4421,17 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="47"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="41"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="77"/>
+      <c r="N55" s="71"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -4367,17 +4444,17 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="47"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="41"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="77"/>
+      <c r="N56" s="71"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -4390,17 +4467,17 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="47"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="41"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="77"/>
+      <c r="N57" s="71"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -4413,17 +4490,17 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="47"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="41"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="77"/>
+      <c r="N58" s="71"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -4436,17 +4513,17 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="47"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="41"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="77"/>
+      <c r="N59" s="71"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -4459,17 +4536,17 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="47"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="41"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="77"/>
+      <c r="N60" s="71"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -4482,17 +4559,17 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="47"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="41"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="77"/>
+      <c r="N61" s="71"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -4505,17 +4582,17 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="41"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="77"/>
+      <c r="N62" s="71"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -4528,17 +4605,17 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="47"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="41"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="77"/>
+      <c r="N63" s="71"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
@@ -4557,47 +4634,47 @@
     <mergeCell ref="M1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W42 M3:P42">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T42">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4723,7 +4800,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
+      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4745,111 +4822,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30">
+      <c r="A1" s="28">
         <v>5</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="33" t="s">
-        <v>107</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="73" t="s">
+        <v>44</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="37">
+      <c r="D2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="31">
         <v>1</v>
       </c>
-      <c r="F2" s="27">
-        <v>2</v>
-      </c>
-      <c r="G2" s="27">
+      <c r="F2" s="25">
+        <v>2</v>
+      </c>
+      <c r="G2" s="25">
         <v>3</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="25">
         <v>4</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="25">
         <v>5</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="26">
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="24">
         <v>1</v>
       </c>
-      <c r="L2" s="27">
-        <v>2</v>
-      </c>
-      <c r="M2" s="27">
+      <c r="L2" s="25">
+        <v>2</v>
+      </c>
+      <c r="M2" s="25">
         <v>3</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="25">
         <v>4</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="25">
         <v>5</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>95</v>
+      <c r="P2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="21">
         <v>100.34166666666667</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="32">
         <v>1.4</v>
       </c>
       <c r="F3" s="7">
@@ -4902,18 +4979,18 @@
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D4" s="21">
         <v>96.333333333333329</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="32">
         <v>2</v>
       </c>
       <c r="F4" s="7">
@@ -4966,18 +5043,18 @@
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="21">
         <v>90.866666666666674</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>2</v>
       </c>
       <c r="F5" s="7">
@@ -5030,18 +5107,18 @@
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="21">
         <v>84.85</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
       <c r="F6" s="7">
@@ -5094,18 +5171,18 @@
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="21">
         <v>83.98333333333332</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="32">
         <v>1.9</v>
       </c>
       <c r="F7" s="7">
@@ -5158,18 +5235,18 @@
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D8" s="21">
         <v>83.98333333333332</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>1</v>
       </c>
       <c r="F8" s="7">
@@ -5222,18 +5299,18 @@
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="21">
         <v>90.766666666666666</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
       <c r="F9" s="7">
@@ -5286,18 +5363,18 @@
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="21">
         <v>72.858333333333334</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
       <c r="F10" s="7">
@@ -5350,18 +5427,18 @@
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>39</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="21">
         <v>75.38333333333334</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>2</v>
       </c>
       <c r="F11" s="7">
@@ -5414,18 +5491,18 @@
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>69</v>
+        <v>125</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="21">
         <v>68.375</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
       <c r="F12" s="7">
@@ -5478,18 +5555,18 @@
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>45</v>
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D13" s="21">
         <v>59.625</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="32">
         <v>2</v>
       </c>
       <c r="F13" s="7">
@@ -5542,18 +5619,18 @@
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="21">
         <v>51.533333333333331</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="32">
         <v>2</v>
       </c>
       <c r="F14" s="7">
@@ -5606,18 +5683,18 @@
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="21">
         <v>38.891666666666673</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="32">
         <v>2</v>
       </c>
       <c r="F15" s="7">
@@ -5670,18 +5747,18 @@
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="21">
         <v>59.833333333333336</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="32">
         <v>2</v>
       </c>
       <c r="F16" s="7">
@@ -5734,18 +5811,18 @@
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="21">
         <v>49.333333333333336</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="32">
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -5798,18 +5875,18 @@
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D18" s="21">
         <v>47.125</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="32">
         <v>2</v>
       </c>
       <c r="F18" s="7">
@@ -5862,21 +5939,21 @@
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="21">
         <v>41.041666666666664</v>
       </c>
-      <c r="E19" s="38">
-        <v>2</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
+      <c r="F19" s="36">
         <v>0</v>
       </c>
       <c r="G19" s="7">
@@ -5926,18 +6003,18 @@
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="21">
         <v>31.208333333333336</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>1.9</v>
       </c>
       <c r="F20" s="7">
@@ -5990,18 +6067,18 @@
     </row>
     <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="21">
         <v>37.583333333333336</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="32">
         <v>0</v>
       </c>
       <c r="F21" s="7">
@@ -6053,17 +6130,19 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>98</v>
+      <c r="A22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="21">
         <v>11.25</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="32">
         <v>0</v>
       </c>
       <c r="F22" s="7">
@@ -6116,18 +6195,18 @@
     </row>
     <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D23" s="21">
         <v>7.7083333333333339</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="32">
         <v>0</v>
       </c>
       <c r="F23" s="7">
@@ -6180,18 +6259,18 @@
     </row>
     <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="21">
         <v>7.5</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="32">
         <v>0</v>
       </c>
       <c r="F24" s="7">
@@ -6244,18 +6323,18 @@
     </row>
     <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="D25" s="21">
         <v>5.8333333333333339</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="32">
         <v>0</v>
       </c>
       <c r="F25" s="12">
@@ -6308,18 +6387,18 @@
     </row>
     <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="32">
         <v>0</v>
       </c>
       <c r="F26" s="7">
@@ -6372,18 +6451,18 @@
     </row>
     <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="32">
         <v>0</v>
       </c>
       <c r="F27" s="7">
@@ -6435,19 +6514,19 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>7</v>
-      </c>
       <c r="D28" s="21">
         <v>0</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="32">
         <v>0</v>
       </c>
       <c r="F28" s="7">
@@ -6499,19 +6578,19 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>63</v>
+      <c r="A29" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>3</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="32">
         <v>0</v>
       </c>
       <c r="F29" s="7">
@@ -6563,19 +6642,19 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>36</v>
+      <c r="A30" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="32">
         <v>0</v>
       </c>
       <c r="F30" s="7">
@@ -6627,19 +6706,19 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>78</v>
+      <c r="A31" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="32">
         <v>0</v>
       </c>
       <c r="F31" s="7">
@@ -6691,19 +6770,19 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>72</v>
+      <c r="A32" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="32">
         <v>0</v>
       </c>
       <c r="F32" s="7">
@@ -6755,19 +6834,19 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>66</v>
+      <c r="A33" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="D33" s="21">
         <v>0</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="33">
         <v>0</v>
       </c>
       <c r="F33" s="13">
@@ -6818,159 +6897,575 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" ref="J34:J42" si="7">100*SUM(E34:I34)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:O42" si="8">I34*35</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" ref="P34:P42" si="9">SUM(K34:O34)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
+        <f t="shared" ref="R34:R42" si="10">J34*0.2+P34*0.3+Q34*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" ref="S34:S42" si="11">D34*0.4+R34*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="33">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="33">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="33">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="33">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="33">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="33">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="33">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -7682,19 +8177,19 @@
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+  <conditionalFormatting sqref="E3:I42">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J33">
+  <conditionalFormatting sqref="J3:J42">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -7708,7 +8203,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P33">
+  <conditionalFormatting sqref="P3:P42">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -7722,7 +8217,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R33">
+  <conditionalFormatting sqref="R3:R42">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -7736,24 +8231,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+  <conditionalFormatting sqref="K3:O42">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S33">
+  <conditionalFormatting sqref="S3:S42">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -7767,7 +8262,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D8:D33">
+  <conditionalFormatting sqref="D3:D6 D8:D42">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -7795,19 +8290,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+  <conditionalFormatting sqref="Q3:Q42">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7826,7 +8321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:J33</xm:sqref>
+          <xm:sqref>J3:J42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
@@ -7837,7 +8332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P3:P33</xm:sqref>
+          <xm:sqref>P3:P42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -7848,7 +8343,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R33</xm:sqref>
+          <xm:sqref>R3:R42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -7859,7 +8354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S33</xm:sqref>
+          <xm:sqref>S3:S42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
@@ -7870,7 +8365,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:D6 D8:D33</xm:sqref>
+          <xm:sqref>D3:D6 D8:D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>Adı</t>
   </si>
@@ -1016,257 +1016,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1764,7 +1514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="27"/>
@@ -1940,7 +1690,7 @@
       </c>
       <c r="L3" s="16">
         <f t="shared" ref="L3:L41" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>166.66666666666666</v>
+        <v>125</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
@@ -1969,7 +1719,7 @@
       <c r="W3" s="38"/>
       <c r="X3" s="21">
         <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
-        <v>73.333333333333343</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,7 +1756,7 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
@@ -2035,7 +1785,7 @@
       <c r="W4" s="38"/>
       <c r="X4" s="21">
         <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,7 +1822,7 @@
       </c>
       <c r="L5" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M5" s="14">
         <v>100</v>
@@ -2101,7 +1851,7 @@
       <c r="W5" s="38"/>
       <c r="X5" s="21">
         <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
-        <v>69.375</v>
+        <v>63.375</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,7 +1888,7 @@
       </c>
       <c r="L6" s="16">
         <f t="shared" si="0"/>
-        <v>148.75</v>
+        <v>119</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
@@ -2167,7 +1917,7 @@
       <c r="W6" s="38"/>
       <c r="X6" s="21">
         <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
-        <v>69.125</v>
+        <v>63.174999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,7 +1954,7 @@
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M7" s="14">
         <v>95</v>
@@ -2233,7 +1983,7 @@
       <c r="W7" s="38"/>
       <c r="X7" s="21">
         <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
-        <v>69.375</v>
+        <v>63.375</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,7 +2020,7 @@
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>147.5</v>
+        <v>118</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
@@ -2299,7 +2049,7 @@
       <c r="W8" s="38"/>
       <c r="X8" s="21">
         <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
-        <v>68.875</v>
+        <v>62.975000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,7 +2086,7 @@
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>148.75</v>
+        <v>119</v>
       </c>
       <c r="M9" s="14">
         <v>100</v>
@@ -2365,7 +2115,7 @@
       <c r="W9" s="38"/>
       <c r="X9" s="21">
         <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
-        <v>68.5</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2152,7 @@
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>148.75</v>
+        <v>119</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
@@ -2431,7 +2181,7 @@
       <c r="W10" s="38"/>
       <c r="X10" s="21">
         <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
-        <v>68.5</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2218,7 @@
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M11" s="14">
         <v>85</v>
@@ -2497,7 +2247,7 @@
       <c r="W11" s="38"/>
       <c r="X11" s="21">
         <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
-        <v>68.125</v>
+        <v>62.125</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2284,7 @@
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>143.75</v>
+        <v>115</v>
       </c>
       <c r="M12" s="14">
         <v>100</v>
@@ -2563,7 +2313,7 @@
       <c r="W12" s="38"/>
       <c r="X12" s="21">
         <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
-        <v>68.125</v>
+        <v>62.375</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,7 +2350,7 @@
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M13" s="14">
         <v>100</v>
@@ -2629,7 +2379,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="21">
         <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
-        <v>67.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2416,7 @@
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M14" s="14">
         <v>80</v>
@@ -2695,7 +2445,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="21">
         <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,7 +2482,7 @@
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M15" s="14">
         <v>100</v>
@@ -2761,7 +2511,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="21">
         <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,7 +2548,7 @@
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="M16" s="14">
         <v>100</v>
@@ -2827,7 +2577,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="21">
         <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>66.666666666666671</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2614,7 @@
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M17" s="14">
         <v>100</v>
@@ -2893,7 +2643,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="21">
         <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>64.375</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2680,7 @@
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M18" s="14">
         <v>100</v>
@@ -2959,7 +2709,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="21">
         <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2996,7 +2746,7 @@
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M19" s="14">
         <v>80</v>
@@ -3025,7 +2775,7 @@
       <c r="W19" s="38"/>
       <c r="X19" s="21">
         <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3062,7 +2812,7 @@
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M20" s="14">
         <v>80</v>
@@ -3091,7 +2841,7 @@
       <c r="W20" s="38"/>
       <c r="X20" s="21">
         <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
-        <v>35.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3128,7 +2878,7 @@
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>50</v>
       </c>
       <c r="M21" s="14">
         <v>80</v>
@@ -3157,7 +2907,7 @@
       <c r="W21" s="38"/>
       <c r="X21" s="21">
         <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.1</f>
-        <v>33.958333333333336</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +2944,7 @@
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="M22" s="14">
         <v>50</v>
@@ -3223,7 +2973,7 @@
       <c r="W22" s="38"/>
       <c r="X22" s="21">
         <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
-        <v>38.75</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,7 +3010,7 @@
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M23" s="14">
         <v>85</v>
@@ -3289,7 +3039,7 @@
       <c r="W23" s="38"/>
       <c r="X23" s="21">
         <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
-        <v>35.625</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,15 +3064,15 @@
       <c r="G24" s="46">
         <v>2</v>
       </c>
-      <c r="H24" s="46">
-        <v>0</v>
+      <c r="H24" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I24" s="46">
         <v>2</v>
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
@@ -3392,7 +3142,7 @@
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M25" s="14">
         <v>100</v>
@@ -3421,7 +3171,7 @@
       <c r="W25" s="38"/>
       <c r="X25" s="21">
         <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,7 +3208,7 @@
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
-        <v>46.25</v>
+        <v>37</v>
       </c>
       <c r="M26" s="14">
         <v>0</v>
@@ -3487,7 +3237,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="21">
         <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.1</f>
-        <v>21.75</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3524,7 +3274,7 @@
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
-        <v>68.75</v>
+        <v>55</v>
       </c>
       <c r="M27" s="14">
         <v>50</v>
@@ -3553,7 +3303,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="21">
         <f t="shared" ref="X27:X37" si="3">L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
-        <v>20</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,47 +4384,47 @@
     <mergeCell ref="M1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W42 M3:P42">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T42">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -8178,14 +7928,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I42">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8232,18 +7982,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O42">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8291,18 +8041,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q42">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>Adı</t>
   </si>
@@ -1510,11 +1510,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1530,19 +1530,18 @@
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.77734375" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="2.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.77734375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
         <v>5</v>
       </c>
@@ -1565,24 +1564,23 @@
       <c r="N1" s="75"/>
       <c r="O1" s="75"/>
       <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="74" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="17" t="s">
+      <c r="S1" s="75"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
@@ -1626,37 +1624,34 @@
         <v>5</v>
       </c>
       <c r="O2" s="25">
-        <v>6</v>
-      </c>
-      <c r="P2" s="25">
         <v>7</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="P2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="24">
+      <c r="R2" s="24">
         <v>1</v>
       </c>
-      <c r="T2" s="25">
-        <v>2</v>
-      </c>
-      <c r="U2" s="26" t="s">
+      <c r="S2" s="25">
+        <v>2</v>
+      </c>
+      <c r="T2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>84</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L41" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
+        <f>SUM(D3:J3)*50/(A$1-K3)</f>
         <v>125</v>
       </c>
       <c r="M3" s="14">
@@ -1699,30 +1694,29 @@
         <v>100</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="68">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <f t="shared" ref="R3:R27" si="1">SUM(M3:P3)/(2-Q3)</f>
-        <v>100</v>
-      </c>
-      <c r="S3" s="14">
+      <c r="P3" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <f>SUM(M3:O3)/(2-P3)</f>
+        <v>100</v>
+      </c>
+      <c r="R3" s="14">
         <v>60</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="16">
-        <f t="shared" ref="U3:U27" si="2">SUM(S3:T3)/1</f>
+      <c r="S3" s="14"/>
+      <c r="T3" s="16">
+        <f>SUM(R3:S3)/1</f>
         <v>60</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="21">
-        <f>L3*0.2+R3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
+      <c r="U3" s="6"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="21">
+        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:J4)*50/(A$1-K4)</f>
         <v>120</v>
       </c>
       <c r="M4" s="14">
@@ -1765,30 +1759,29 @@
         <v>100</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="68">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S4" s="14">
+      <c r="P4" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>SUM(M4:O4)/(2-P4)</f>
+        <v>100</v>
+      </c>
+      <c r="R4" s="14">
         <v>60</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="16">
-        <f t="shared" si="2"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="16">
+        <f>SUM(R4:S4)/1</f>
         <v>60</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="21">
-        <f>L4*0.2+R4*0.25+U4*0.25+V4*0.3+W4*0.1</f>
+      <c r="U4" s="6"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="21">
+        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>53</v>
       </c>
@@ -1821,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(A$1-K5)</f>
         <v>120</v>
       </c>
       <c r="M5" s="14">
@@ -1831,38 +1824,37 @@
         <v>95</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="68">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
-        <f t="shared" si="1"/>
+      <c r="P5" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>SUM(M5:O5)/(2-P5)</f>
         <v>97.5</v>
       </c>
-      <c r="S5" s="14">
+      <c r="R5" s="14">
         <v>60</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="16">
-        <f t="shared" si="2"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="16">
+        <f>SUM(R5:S5)/1</f>
         <v>60</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="21">
-        <f>L5*0.2+R5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
+      <c r="U5" s="6"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="21">
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
         <v>63.375</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D6" s="45">
         <v>2</v>
@@ -1880,55 +1872,54 @@
         <v>2</v>
       </c>
       <c r="I6" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <v>120</v>
       </c>
       <c r="M6" s="14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N6" s="69">
+        <v>100</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>SUM(M6:O6)/(2-P6)</f>
+        <v>97.5</v>
+      </c>
+      <c r="R6" s="14">
+        <v>60</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="16">
+        <f>SUM(R6:S6)/1</f>
+        <v>60</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="21">
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <v>63.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="68">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-      <c r="S6" s="14">
-        <v>60</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="21">
-        <f>L6*0.2+R6*0.25+U6*0.25+V6*0.3+W6*0.1</f>
-        <v>63.174999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
@@ -1946,47 +1937,46 @@
         <v>2</v>
       </c>
       <c r="I7" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="40">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <v>119</v>
       </c>
       <c r="M7" s="14">
+        <v>100</v>
+      </c>
+      <c r="N7" s="69">
         <v>95</v>
       </c>
-      <c r="N7" s="69">
-        <v>100</v>
-      </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="68">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" si="1"/>
+      <c r="P7" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SUM(M7:O7)/(2-P7)</f>
         <v>97.5</v>
       </c>
-      <c r="S7" s="14">
+      <c r="R7" s="14">
         <v>60</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="16">
-        <f t="shared" si="2"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="16">
+        <f>SUM(R7:S7)/1</f>
         <v>60</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="21">
-        <f>L7*0.2+R7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
-        <v>63.375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="6"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="21">
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
+        <v>63.174999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>98</v>
       </c>
@@ -2019,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:J8)*50/(A$1-K8)</f>
         <v>118</v>
       </c>
       <c r="M8" s="14">
@@ -2029,30 +2019,29 @@
         <v>95</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="68">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" si="1"/>
+      <c r="P8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUM(M8:O8)/(2-P8)</f>
         <v>97.5</v>
       </c>
-      <c r="S8" s="14">
+      <c r="R8" s="14">
         <v>60</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="16">
-        <f t="shared" si="2"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="16">
+        <f>SUM(R8:S8)/1</f>
         <v>60</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="21">
-        <f>L8*0.2+R8*0.25+U8*0.25+V8*0.3+W8*0.1</f>
+      <c r="U8" s="6"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="21">
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
         <v>62.975000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:J9)*50/(A$1-K9)</f>
         <v>119</v>
       </c>
       <c r="M9" s="14">
@@ -2095,30 +2084,29 @@
         <v>90</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="68">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="1"/>
+      <c r="P9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>SUM(M9:O9)/(2-P9)</f>
         <v>95</v>
       </c>
-      <c r="S9" s="14">
+      <c r="R9" s="14">
         <v>60</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="16">
-        <f t="shared" si="2"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="16">
+        <f>SUM(R9:S9)/1</f>
         <v>60</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="21">
-        <f>L9*0.2+R9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
+      <c r="U9" s="6"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="21">
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
         <v>62.55</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
@@ -2151,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:J10)*50/(A$1-K10)</f>
         <v>119</v>
       </c>
       <c r="M10" s="14">
@@ -2161,162 +2149,159 @@
         <v>90</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="68">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <f t="shared" si="1"/>
+      <c r="P10" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>SUM(M10:O10)/(2-P10)</f>
         <v>95</v>
       </c>
-      <c r="S10" s="14">
+      <c r="R10" s="14">
         <v>60</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="16">
-        <f t="shared" si="2"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="16">
+        <f>SUM(R10:S10)/1</f>
         <v>60</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="21">
-        <f>L10*0.2+R10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
+      <c r="U10" s="6"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="21">
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
         <v>62.55</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="47">
+        <v>2</v>
+      </c>
+      <c r="F11" s="46">
+        <v>2</v>
+      </c>
+      <c r="G11" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="47">
+        <v>2</v>
+      </c>
+      <c r="I11" s="47">
+        <v>2</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <v>115</v>
+      </c>
+      <c r="M11" s="14">
+        <v>100</v>
+      </c>
+      <c r="N11" s="69">
+        <v>95</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <f>SUM(M11:O11)/(2-P11)</f>
+        <v>97.5</v>
+      </c>
+      <c r="R11" s="14">
+        <v>60</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="16">
+        <f>SUM(R11:S11)/1</f>
+        <v>60</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="21">
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
+        <v>62.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="45">
-        <v>2</v>
-      </c>
-      <c r="E11" s="46">
-        <v>2</v>
-      </c>
-      <c r="F11" s="46">
-        <v>2</v>
-      </c>
-      <c r="G11" s="46">
-        <v>2</v>
-      </c>
-      <c r="H11" s="46">
-        <v>2</v>
-      </c>
-      <c r="I11" s="46">
-        <v>2</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="0"/>
+      <c r="D12" s="45">
+        <v>2</v>
+      </c>
+      <c r="E12" s="46">
+        <v>2</v>
+      </c>
+      <c r="F12" s="46">
+        <v>2</v>
+      </c>
+      <c r="G12" s="46">
+        <v>2</v>
+      </c>
+      <c r="H12" s="46">
+        <v>2</v>
+      </c>
+      <c r="I12" s="46">
+        <v>2</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <f>SUM(D12:J12)*50/(A$1-K12)</f>
         <v>120</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>85</v>
       </c>
-      <c r="N11" s="69">
-        <v>100</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="68">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <f t="shared" si="1"/>
+      <c r="N12" s="69">
+        <v>100</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <f>SUM(M12:O12)/(2-P12)</f>
         <v>92.5</v>
       </c>
-      <c r="S11" s="14">
+      <c r="R12" s="14">
         <v>60</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="16">
-        <f t="shared" si="2"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="16">
+        <f>SUM(R12:S12)/1</f>
         <v>60</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="21">
-        <f>L11*0.2+R11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
+      <c r="U12" s="6"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="21">
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
         <v>62.125</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="45">
-        <v>2</v>
-      </c>
-      <c r="E12" s="47">
-        <v>2</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="47">
-        <v>2</v>
-      </c>
-      <c r="I12" s="47">
-        <v>2</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="40">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="M12" s="14">
-        <v>100</v>
-      </c>
-      <c r="N12" s="69">
-        <v>95</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="68">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-      <c r="S12" s="14">
-        <v>60</v>
-      </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="21">
-        <f>L12*0.2+R12*0.25+U12*0.25+V12*0.3+W12*0.1</f>
-        <v>62.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>115</v>
       </c>
@@ -2349,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D13:J13)*50/(A$1-K13)</f>
         <v>120</v>
       </c>
       <c r="M13" s="14">
@@ -2359,41 +2344,40 @@
         <v>80</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="68">
-        <v>0</v>
-      </c>
-      <c r="R13" s="16">
-        <f t="shared" si="1"/>
+      <c r="P13" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>SUM(M13:O13)/(2-P13)</f>
         <v>90</v>
       </c>
-      <c r="S13" s="14">
+      <c r="R13" s="14">
         <v>60</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="16">
-        <f t="shared" si="2"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="16">
+        <f>SUM(R13:S13)/1</f>
         <v>60</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="21">
-        <f>L13*0.2+R13*0.25+U13*0.25+V13*0.3+W13*0.1</f>
+      <c r="U13" s="6"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="21">
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
         <v>61.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D14" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
@@ -2415,48 +2399,47 @@
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <v>100</v>
       </c>
       <c r="M14" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N14" s="69">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="68">
-        <v>0</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="P14" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>SUM(M14:O14)/(2-P14)</f>
+        <v>100</v>
+      </c>
+      <c r="R14" s="14">
         <v>60</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="16">
-        <f t="shared" si="2"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="16">
+        <f>SUM(R14:S14)/1</f>
         <v>60</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="21">
-        <f>L14*0.2+R14*0.25+U14*0.25+V14*0.3+W14*0.1</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="6"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="21">
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="45">
         <v>0</v>
@@ -2470,59 +2453,58 @@
       <c r="G15" s="46">
         <v>2</v>
       </c>
-      <c r="H15" s="46">
-        <v>2</v>
+      <c r="H15" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I15" s="46">
         <v>2</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:J15)*50/(A$1-K15)</f>
         <v>100</v>
       </c>
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="69">
-        <v>100</v>
+      <c r="N15" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="68">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S15" s="14">
+      <c r="P15" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>SUM(M15:O15)/(2-P15)</f>
+        <v>100</v>
+      </c>
+      <c r="R15" s="14">
         <v>60</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="16">
-        <f t="shared" si="2"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="16">
+        <f>SUM(R15:S15)/1</f>
         <v>60</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="21">
-        <f>L15*0.2+R15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
+      <c r="U15" s="6"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="21">
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D16" s="45">
         <v>0</v>
@@ -2536,62 +2518,61 @@
       <c r="G16" s="46">
         <v>2</v>
       </c>
-      <c r="H16" s="46" t="s">
-        <v>129</v>
+      <c r="H16" s="46">
+        <v>2</v>
       </c>
       <c r="I16" s="46">
         <v>2</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:J16)*50/(A$1-K16)</f>
         <v>100</v>
       </c>
       <c r="M16" s="14">
         <v>100</v>
       </c>
-      <c r="N16" s="69" t="s">
-        <v>129</v>
+      <c r="N16" s="69">
+        <v>95</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="68">
-        <v>1</v>
-      </c>
-      <c r="R16" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S16" s="14">
+      <c r="P16" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUM(M16:O16)/(2-P16)</f>
+        <v>97.5</v>
+      </c>
+      <c r="R16" s="14">
         <v>60</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="16">
-        <f t="shared" si="2"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="16">
+        <f>SUM(R16:S16)/1</f>
         <v>60</v>
       </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="21">
-        <f>L16*0.2+R16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="6"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="21">
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D17" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="46">
         <v>2</v>
@@ -2613,40 +2594,39 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D17:J17)*50/(A$1-K17)</f>
+        <v>120</v>
       </c>
       <c r="M17" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N17" s="69">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="68">
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-      <c r="S17" s="14">
+      <c r="P17" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f>SUM(M17:O17)/(2-P17)</f>
+        <v>80</v>
+      </c>
+      <c r="R17" s="14">
         <v>60</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="16">
-        <f t="shared" si="2"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="16">
+        <f>SUM(R17:S17)/1</f>
         <v>60</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="21">
-        <f>L17*0.2+R17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>59.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="6"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="21">
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:J18)*50/(A$1-K18)</f>
         <v>100</v>
       </c>
       <c r="M18" s="14">
@@ -2689,30 +2669,29 @@
         <v>80</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="68">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <f t="shared" si="1"/>
+      <c r="P18" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUM(M18:O18)/(2-P18)</f>
         <v>90</v>
       </c>
-      <c r="S18" s="14">
+      <c r="R18" s="14">
         <v>60</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="16">
-        <f t="shared" si="2"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="16">
+        <f>SUM(R18:S18)/1</f>
         <v>60</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="21">
-        <f>L18*0.2+R18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
+      <c r="U18" s="6"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="21">
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
         <v>57.5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
@@ -2745,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:J19)*50/(A$1-K19)</f>
         <v>75</v>
       </c>
       <c r="M19" s="14">
@@ -2755,38 +2734,37 @@
         <v>129</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="68">
+      <c r="P19" s="68">
         <v>1</v>
       </c>
-      <c r="R19" s="16">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="16">
+        <f>SUM(M19:O19)/(2-P19)</f>
         <v>80</v>
       </c>
-      <c r="S19" s="14">
+      <c r="R19" s="14">
         <v>60</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="16">
-        <f t="shared" si="2"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="16">
+        <f>SUM(R19:S19)/1</f>
         <v>60</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="21">
-        <f>L19*0.2+R19*0.25+U19*0.25+V19*0.3+W19*0.1</f>
+      <c r="U19" s="6"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="21">
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D20" s="45">
         <v>0</v>
@@ -2795,56 +2773,55 @@
         <v>2</v>
       </c>
       <c r="F20" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="46">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H20" s="46">
         <v>0</v>
       </c>
       <c r="I20" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="40">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <v>70</v>
       </c>
       <c r="M20" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N20" s="69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="68">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S20" s="14">
-        <v>0</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="21">
-        <f>L20*0.2+R20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUM(M20:O20)/(2-P20)</f>
+        <v>25</v>
+      </c>
+      <c r="R20" s="14">
+        <v>60</v>
+      </c>
+      <c r="S20" s="14"/>
+      <c r="T20" s="16">
+        <f>SUM(R20:S20)/1</f>
+        <v>60</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="21">
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>120</v>
       </c>
@@ -2869,16 +2846,16 @@
       <c r="H21" s="47">
         <v>2</v>
       </c>
-      <c r="I21" s="47">
-        <v>0</v>
+      <c r="I21" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="J21" s="47"/>
       <c r="K21" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(D21:J21)*50/(A$1-K21)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="M21" s="14">
         <v>80</v>
@@ -2887,38 +2864,37 @@
         <v>85</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="68">
-        <v>0</v>
-      </c>
-      <c r="R21" s="16">
-        <f t="shared" si="1"/>
+      <c r="P21" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>SUM(M21:O21)/(2-P21)</f>
         <v>82.5</v>
       </c>
-      <c r="S21" s="14">
-        <v>0</v>
-      </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="21">
-        <f>L21*0.2+R21*0.25+U21*0.25+V21*0.3+W21*0.1</f>
-        <v>30.625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14"/>
+      <c r="T21" s="16">
+        <f>SUM(R21:S21)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="21">
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
+        <v>33.958333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D22" s="45">
         <v>0</v>
@@ -2927,188 +2903,185 @@
         <v>2</v>
       </c>
       <c r="F22" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="46">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H22" s="46">
         <v>0</v>
       </c>
       <c r="I22" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="40">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(A$1-K22)</f>
+        <v>52</v>
+      </c>
+      <c r="M22" s="14">
+        <v>80</v>
+      </c>
+      <c r="N22" s="69">
+        <v>100</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>SUM(M22:O22)/(2-P22)</f>
+        <v>90</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="16">
+        <f>SUM(R22:S22)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="21">
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="14">
-        <v>50</v>
-      </c>
-      <c r="N22" s="69">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="68">
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S22" s="14">
-        <v>60</v>
-      </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="21">
-        <f>L22*0.2+R22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D23" s="45">
         <v>2</v>
       </c>
       <c r="E23" s="46">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F23" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="46">
         <v>2</v>
       </c>
-      <c r="H23" s="46">
-        <v>0</v>
+      <c r="H23" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I23" s="46">
         <v>2</v>
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D23:J23)*50/(A$1-K23)</f>
+        <v>96.25</v>
       </c>
       <c r="M23" s="14">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N23" s="69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="68">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="21">
-        <f>L23*0.2+R23*0.25+U23*0.25+V23*0.3+W23*0.1</f>
-        <v>30.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>SUM(M23:O23)/(2-P23)</f>
+        <v>50</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14"/>
+      <c r="T23" s="16">
+        <f>SUM(R23:S23)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="21">
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D24" s="45">
         <v>2</v>
       </c>
       <c r="E24" s="46">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F24" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="46">
         <v>2</v>
       </c>
-      <c r="H24" s="46" t="s">
-        <v>129</v>
+      <c r="H24" s="46">
+        <v>0</v>
       </c>
       <c r="I24" s="46">
         <v>2</v>
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="0"/>
-        <v>96.25</v>
+        <f>SUM(D24:J24)*50/(A$1-K24)</f>
+        <v>100</v>
       </c>
       <c r="M24" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N24" s="69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="68">
-        <v>0</v>
-      </c>
-      <c r="R24" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S24" s="14">
-        <v>0</v>
-      </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="21">
-        <f>L24*0.2+R24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <f>SUM(M24:O24)/(2-P24)</f>
+        <v>42.5</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14"/>
+      <c r="T24" s="16">
+        <f>SUM(R24:S24)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="21">
+        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>128</v>
       </c>
@@ -3141,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(A$1-K25)</f>
         <v>40</v>
       </c>
       <c r="M25" s="14">
@@ -3151,30 +3124,29 @@
         <v>0</v>
       </c>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="68">
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
-        <f t="shared" si="1"/>
+      <c r="P25" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>SUM(M25:O25)/(2-P25)</f>
         <v>50</v>
       </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="21">
-        <f>L25*0.2+R25*0.25+U25*0.25+V25*0.3+W25*0.1</f>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="16">
+        <f>SUM(R25:S25)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="21">
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.1</f>
         <v>20.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -3207,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(A$1-K26)</f>
         <v>37</v>
       </c>
       <c r="M26" s="14">
@@ -3217,30 +3189,29 @@
         <v>100</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="68">
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="1"/>
+      <c r="P26" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f>SUM(M26:O26)/(2-P26)</f>
         <v>50</v>
       </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="21">
-        <f>L26*0.2+R26*0.25+U26*0.25+V26*0.3+W26*0.1</f>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="16">
+        <f>SUM(R26:S26)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="21">
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.1</f>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>78</v>
       </c>
@@ -3273,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(A$1-K27)</f>
         <v>55</v>
       </c>
       <c r="M27" s="14">
@@ -3283,30 +3254,29 @@
         <v>0</v>
       </c>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="68">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <f t="shared" si="1"/>
+      <c r="P27" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>SUM(M27:O27)/(2-P27)</f>
         <v>25</v>
       </c>
-      <c r="S27" s="14">
-        <v>0</v>
-      </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="21">
-        <f t="shared" ref="X27:X37" si="3">L27*0.2+R27*0.25+U27*0.25+V27*0.3+W27*0.15</f>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="16">
+        <f>SUM(R27:S27)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="21">
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>17.25</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>64</v>
       </c>
@@ -3325,26 +3295,25 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="59"/>
       <c r="N28" s="70"/>
       <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="58"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
       <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="64" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="58"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="62">
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="64" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>2</v>
       </c>
@@ -3363,26 +3332,25 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(A$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="70"/>
       <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="58"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="59"/>
       <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="58"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="62">
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>4</v>
       </c>
@@ -3401,26 +3369,25 @@
       <c r="J30" s="56"/>
       <c r="K30" s="57"/>
       <c r="L30" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="70"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="58"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
       <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="58"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="62">
+        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>9</v>
       </c>
@@ -3439,26 +3406,25 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="70"/>
       <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="58"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="59"/>
       <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="58"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="62">
+        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>12</v>
       </c>
@@ -3477,26 +3443,25 @@
       <c r="J32" s="56"/>
       <c r="K32" s="57"/>
       <c r="L32" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D32:J32)*50/(A$1-K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="70"/>
       <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="58"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="59"/>
       <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32" s="58"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="62">
+        <f>L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>72</v>
       </c>
@@ -3515,26 +3480,25 @@
       <c r="J33" s="56"/>
       <c r="K33" s="57"/>
       <c r="L33" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D33:J33)*50/(A$1-K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="70"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="58"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="58"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="62">
+        <f>L33*0.2+Q33*0.25+T33*0.25+U33*0.3+V33*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>75</v>
       </c>
@@ -3553,26 +3517,25 @@
       <c r="J34" s="56"/>
       <c r="K34" s="57"/>
       <c r="L34" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D34:J34)*50/(A$1-K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="70"/>
       <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="58"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="59"/>
       <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="58"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="62">
+        <f>L34*0.2+Q34*0.25+T34*0.25+U34*0.3+V34*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>18</v>
       </c>
@@ -3591,29 +3554,28 @@
       <c r="J35" s="56"/>
       <c r="K35" s="57"/>
       <c r="L35" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D35:J35)*50/(A$1-K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="70"/>
       <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="58">
-        <f t="shared" ref="R35:R42" si="4">SUM(M35:Q35)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="58">
+        <f>SUM(M35:P35)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="59"/>
       <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="58"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="62">
+        <f>L35*0.2+Q35*0.25+T35*0.25+U35*0.3+V35*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>22</v>
       </c>
@@ -3632,29 +3594,28 @@
       <c r="J36" s="56"/>
       <c r="K36" s="57"/>
       <c r="L36" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D36:J36)*50/(A$1-K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="70"/>
       <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="58">
+        <f>SUM(M36:P36)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="59"/>
       <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T36" s="58"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="62">
+        <f>L36*0.2+Q36*0.25+T36*0.25+U36*0.3+V36*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>90</v>
       </c>
@@ -3673,29 +3634,28 @@
       <c r="J37" s="56"/>
       <c r="K37" s="57"/>
       <c r="L37" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D37:J37)*50/(A$1-K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="70"/>
       <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="58">
+        <f>SUM(M37:P37)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="59"/>
       <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="58"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="62">
+        <f>L37*0.2+Q37*0.25+T37*0.25+U37*0.3+V37*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>104</v>
       </c>
@@ -3714,29 +3674,28 @@
       <c r="J38" s="56"/>
       <c r="K38" s="57"/>
       <c r="L38" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D38:J38)*50/(A$1-K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="59"/>
       <c r="N38" s="70"/>
       <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="58">
+        <f>SUM(M38:P38)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="59"/>
       <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="62">
-        <f>L38*0.2+R38*0.25+U38*0.25+V38*0.3+W38*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="58"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="62">
+        <f>L38*0.2+Q38*0.25+T38*0.25+U38*0.3+V38*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>111</v>
       </c>
@@ -3755,29 +3714,28 @@
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
       <c r="L39" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D39:J39)*50/(A$1-K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="70"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="58">
+        <f>SUM(M39:P39)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="59"/>
       <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="62">
-        <f>L39*0.2+R39*0.25+U39*0.25+V39*0.3+W39*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T39" s="58"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="62">
+        <f>L39*0.2+Q39*0.25+T39*0.25+U39*0.3+V39*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>118</v>
       </c>
@@ -3796,29 +3754,28 @@
       <c r="J40" s="56"/>
       <c r="K40" s="57"/>
       <c r="L40" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D40:J40)*50/(A$1-K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="70"/>
       <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="58">
+        <f>SUM(M40:P40)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="59"/>
       <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="62">
-        <f>L40*0.2+R40*0.25+U40*0.25+V40*0.3+W40*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="58"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="62">
+        <f>L40*0.2+Q40*0.25+T40*0.25+U40*0.3+V40*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
         <v>122</v>
       </c>
@@ -3837,29 +3794,28 @@
       <c r="J41" s="66"/>
       <c r="K41" s="57"/>
       <c r="L41" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D41:J41)*50/(A$1-K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="59"/>
       <c r="N41" s="70"/>
       <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="58">
+        <f>SUM(M41:P41)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="59"/>
       <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="62">
-        <f>L41*0.2+R41*0.25+U41*0.25+V41*0.3+W41*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T41" s="58"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="62">
+        <f>L41*0.2+Q41*0.25+T41*0.25+U41*0.3+V41*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="3"/>
       <c r="C42" s="11"/>
@@ -3875,23 +3831,22 @@
       <c r="M42" s="14"/>
       <c r="N42" s="69"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="16">
+        <f>SUM(M42:P42)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="21">
-        <f>L42*0.2+R42*0.25+U42*0.25+V42*0.3+W42*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="16"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="21">
+        <f>L42*0.2+Q42*0.25+T42*0.25+U42*0.3+V42*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3912,9 +3867,8 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3935,9 +3889,8 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3958,9 +3911,8 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3981,9 +3933,8 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4004,9 +3955,8 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-    </row>
-    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4027,9 +3977,8 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-    </row>
-    <row r="49" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4050,9 +3999,8 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-    </row>
-    <row r="50" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4073,9 +4021,8 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4096,9 +4043,8 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4119,9 +4065,8 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4142,9 +4087,8 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4165,9 +4109,8 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-    </row>
-    <row r="55" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4188,9 +4131,8 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-    </row>
-    <row r="56" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4211,9 +4153,8 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-    </row>
-    <row r="57" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4234,9 +4175,8 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-    </row>
-    <row r="58" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4257,9 +4197,8 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4280,9 +4219,8 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4303,9 +4241,8 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4326,9 +4263,8 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4349,9 +4285,8 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4372,16 +4307,15 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:X42">
-    <sortCondition descending="1" ref="X3"/>
+  <sortState ref="A3:W42">
+    <sortCondition descending="1" ref="W3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
@@ -4395,7 +4329,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W42 M3:P42">
+  <conditionalFormatting sqref="U3:V42 M3:O42">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4412,7 +4346,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T42">
+  <conditionalFormatting sqref="R3:S42">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4443,7 +4377,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R42">
+  <conditionalFormatting sqref="Q3:Q42">
     <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
@@ -4457,7 +4391,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U42">
+  <conditionalFormatting sqref="T3:T42">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
@@ -4471,7 +4405,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X42">
+  <conditionalFormatting sqref="W3:W42">
     <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
@@ -4511,7 +4445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R42</xm:sqref>
+          <xm:sqref>Q3:Q42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4522,7 +4456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U42</xm:sqref>
+          <xm:sqref>T3:T42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4533,7 +4467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>X3:X42</xm:sqref>
+          <xm:sqref>W3:W42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t>Adı</t>
   </si>
@@ -842,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1011,6 +1011,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1524,13 +1530,12 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="50" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.44140625" style="51" customWidth="1"/>
+    <col min="8" max="10" width="2.88671875" style="51" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.88671875" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.77734375" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" style="51" customWidth="1"/>
     <col min="16" max="16" width="2.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
     <col min="18" max="19" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1543,7 +1548,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="27"/>
@@ -1623,7 +1628,7 @@
       <c r="N2" s="25">
         <v>5</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="44">
         <v>7</v>
       </c>
       <c r="P2" s="67" t="s">
@@ -1679,13 +1684,15 @@
       <c r="I3" s="46">
         <v>2</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="46">
+        <v>2</v>
+      </c>
       <c r="K3" s="40">
         <v>1</v>
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
@@ -1693,12 +1700,14 @@
       <c r="N3" s="69">
         <v>100</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="77">
+        <v>100</v>
+      </c>
       <c r="P3" s="68">
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(2-P3)</f>
+        <f>SUM(M3:O3)/(3-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1713,7 +1722,7 @@
       <c r="V3" s="38"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,13 +1753,15 @@
       <c r="I4" s="46">
         <v>2</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="46">
+        <v>2</v>
+      </c>
       <c r="K4" s="40">
         <v>0</v>
       </c>
       <c r="L4" s="16">
         <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>120</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
@@ -1758,12 +1769,14 @@
       <c r="N4" s="69">
         <v>100</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="77">
+        <v>100</v>
+      </c>
       <c r="P4" s="68">
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(2-P4)</f>
+        <f>SUM(M4:O4)/(3-P4)</f>
         <v>100</v>
       </c>
       <c r="R4" s="14">
@@ -1778,18 +1791,18 @@
       <c r="V4" s="38"/>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
-        <v>64</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D5" s="45">
         <v>2</v>
@@ -1809,27 +1822,31 @@
       <c r="I5" s="46">
         <v>2</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="46">
+        <v>2</v>
+      </c>
       <c r="K5" s="40">
         <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(D5:J5)*50/(A$1-K5)</f>
-        <v>120</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M5" s="14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N5" s="69">
-        <v>95</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O5" s="77">
+        <v>100</v>
+      </c>
       <c r="P5" s="68">
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(2-P5)</f>
-        <v>97.5</v>
+        <f>SUM(M5:O5)/(3-P5)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R5" s="14">
         <v>60</v>
@@ -1843,18 +1860,18 @@
       <c r="V5" s="38"/>
       <c r="W5" s="21">
         <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>63.375</v>
+        <v>62.916666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D6" s="45">
         <v>2</v>
@@ -1872,29 +1889,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="46">
-        <v>2</v>
-      </c>
-      <c r="J6" s="46"/>
+        <v>1.9</v>
+      </c>
+      <c r="J6" s="46">
+        <v>2</v>
+      </c>
       <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="16">
         <f>SUM(D6:J6)*50/(A$1-K6)</f>
-        <v>120</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M6" s="14">
+        <v>100</v>
+      </c>
+      <c r="N6" s="69">
         <v>95</v>
       </c>
-      <c r="N6" s="69">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="77">
+        <v>100</v>
+      </c>
       <c r="P6" s="68">
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(2-P6)</f>
-        <v>97.5</v>
+        <f>SUM(M6:O6)/(3-P6)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R6" s="14">
         <v>60</v>
@@ -1907,19 +1928,19 @@
       <c r="U6" s="6"/>
       <c r="V6" s="38"/>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>63.375</v>
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.1</f>
+        <v>62.75</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
@@ -1934,18 +1955,20 @@
         <v>2</v>
       </c>
       <c r="H7" s="46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I7" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="J7" s="46"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="46">
+        <v>2</v>
+      </c>
       <c r="K7" s="40">
         <v>0</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M7" s="14">
         <v>100</v>
@@ -1953,13 +1976,15 @@
       <c r="N7" s="69">
         <v>95</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="77">
+        <v>100</v>
+      </c>
       <c r="P7" s="68">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(2-P7)</f>
-        <v>97.5</v>
+        <f>SUM(M7:O7)/(3-P7)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R7" s="14">
         <v>60</v>
@@ -1973,18 +1998,18 @@
       <c r="V7" s="38"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
-        <v>63.174999999999997</v>
+        <v>62.583333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D8" s="45">
         <v>2</v>
@@ -1999,32 +2024,36 @@
         <v>2</v>
       </c>
       <c r="H8" s="46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="46">
+        <v>2</v>
+      </c>
       <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>118</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
       </c>
       <c r="N8" s="69">
-        <v>95</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="O8" s="77">
+        <v>100</v>
+      </c>
       <c r="P8" s="68">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(2-P8)</f>
-        <v>97.5</v>
+        <f>SUM(M8:O8)/(3-P8)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R8" s="14">
         <v>60</v>
@@ -2037,19 +2066,19 @@
       <c r="U8" s="6"/>
       <c r="V8" s="38"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
-        <v>62.975000000000001</v>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <v>62.333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D9" s="45">
         <v>2</v>
@@ -2064,31 +2093,35 @@
         <v>2</v>
       </c>
       <c r="H9" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I9" s="46">
         <v>2</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="46">
+        <v>2</v>
+      </c>
       <c r="K9" s="40">
         <v>0</v>
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(A$1-K9)</f>
-        <v>119</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M9" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N9" s="69">
-        <v>90</v>
-      </c>
-      <c r="O9" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="77">
+        <v>100</v>
+      </c>
       <c r="P9" s="68">
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(2-P9)</f>
+        <f>SUM(M9:O9)/(3-P9)</f>
         <v>95</v>
       </c>
       <c r="R9" s="14">
@@ -2102,8 +2135,8 @@
       <c r="U9" s="6"/>
       <c r="V9" s="38"/>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>62.55</v>
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.1</f>
+        <v>62.083333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,13 +2167,15 @@
       <c r="I10" s="46">
         <v>2</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="46">
+        <v>2</v>
+      </c>
       <c r="K10" s="40">
         <v>0</v>
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>119</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
@@ -2148,13 +2183,15 @@
       <c r="N10" s="69">
         <v>90</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="77">
+        <v>90</v>
+      </c>
       <c r="P10" s="68">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(2-P10)</f>
-        <v>95</v>
+        <f>SUM(M10:O10)/(3-P10)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
         <v>60</v>
@@ -2168,7 +2205,7 @@
       <c r="V10" s="38"/>
       <c r="W10" s="21">
         <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>62.55</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,13 +2236,15 @@
       <c r="I11" s="47">
         <v>2</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="47">
+        <v>2</v>
+      </c>
       <c r="K11" s="40">
         <v>0</v>
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>115</v>
+        <v>112.5</v>
       </c>
       <c r="M11" s="14">
         <v>100</v>
@@ -2213,13 +2252,15 @@
       <c r="N11" s="69">
         <v>95</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="77">
+        <v>90</v>
+      </c>
       <c r="P11" s="68">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(2-P11)</f>
-        <v>97.5</v>
+        <f>SUM(M11:O11)/(3-P11)</f>
+        <v>95</v>
       </c>
       <c r="R11" s="14">
         <v>60</v>
@@ -2233,21 +2274,21 @@
       <c r="V11" s="38"/>
       <c r="W11" s="21">
         <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
-        <v>62.375</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D12" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="46">
         <v>2</v>
@@ -2264,27 +2305,31 @@
       <c r="I12" s="46">
         <v>2</v>
       </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="46">
+        <v>2</v>
+      </c>
       <c r="K12" s="40">
         <v>0</v>
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M12" s="14">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N12" s="69">
-        <v>100</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="O12" s="77">
+        <v>100</v>
+      </c>
       <c r="P12" s="68">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(2-P12)</f>
-        <v>92.5</v>
+        <f>SUM(M12:O12)/(3-P12)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R12" s="14">
         <v>60</v>
@@ -2297,19 +2342,19 @@
       <c r="U12" s="6"/>
       <c r="V12" s="38"/>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
-        <v>62.125</v>
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <v>59.583333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D13" s="45">
         <v>2</v>
@@ -2329,27 +2374,31 @@
       <c r="I13" s="46">
         <v>2</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="46" t="s">
+        <v>129</v>
+      </c>
       <c r="K13" s="40">
         <v>0</v>
       </c>
       <c r="L13" s="16">
         <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M13" s="14">
         <v>100</v>
       </c>
       <c r="N13" s="69">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>129</v>
+      </c>
       <c r="P13" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(2-P13)</f>
-        <v>90</v>
+        <f>SUM(M13:O13)/(3-P13)</f>
+        <v>97.5</v>
       </c>
       <c r="R13" s="14">
         <v>60</v>
@@ -2362,22 +2411,22 @@
       <c r="U13" s="6"/>
       <c r="V13" s="38"/>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
-        <v>61.5</v>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <v>59.375</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D14" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
@@ -2394,27 +2443,31 @@
       <c r="I14" s="46">
         <v>2</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="46">
+        <v>2</v>
+      </c>
       <c r="K14" s="40">
         <v>0</v>
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M14" s="14">
         <v>100</v>
       </c>
       <c r="N14" s="69">
-        <v>100</v>
-      </c>
-      <c r="O14" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="O14" s="77">
+        <v>80</v>
+      </c>
       <c r="P14" s="68">
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(2-P14)</f>
-        <v>100</v>
+        <f>SUM(M14:O14)/(3-P14)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R14" s="14">
         <v>60</v>
@@ -2427,19 +2480,19 @@
       <c r="U14" s="6"/>
       <c r="V14" s="38"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="45">
         <v>0</v>
@@ -2453,15 +2506,17 @@
       <c r="G15" s="46">
         <v>2</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>129</v>
+      <c r="H15" s="46">
+        <v>2</v>
       </c>
       <c r="I15" s="46">
         <v>2</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="46">
+        <v>2</v>
+      </c>
       <c r="K15" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
@@ -2470,16 +2525,18 @@
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="6"/>
+      <c r="N15" s="69">
+        <v>100</v>
+      </c>
+      <c r="O15" s="77">
+        <v>90</v>
+      </c>
       <c r="P15" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(2-P15)</f>
-        <v>100</v>
+        <f>SUM(M15:O15)/(3-P15)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R15" s="14">
         <v>60</v>
@@ -2493,18 +2550,18 @@
       <c r="V15" s="38"/>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>60</v>
+        <v>59.166666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D16" s="45">
         <v>0</v>
@@ -2518,15 +2575,17 @@
       <c r="G16" s="46">
         <v>2</v>
       </c>
-      <c r="H16" s="46">
-        <v>2</v>
+      <c r="H16" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I16" s="46">
         <v>2</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="46">
+        <v>2</v>
+      </c>
       <c r="K16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(A$1-K16)</f>
@@ -2535,16 +2594,18 @@
       <c r="M16" s="14">
         <v>100</v>
       </c>
-      <c r="N16" s="69">
-        <v>95</v>
-      </c>
-      <c r="O16" s="6"/>
+      <c r="N16" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" s="77">
+        <v>85</v>
+      </c>
       <c r="P16" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(2-P16)</f>
-        <v>97.5</v>
+        <f>SUM(M16:O16)/(3-P16)</f>
+        <v>92.5</v>
       </c>
       <c r="R16" s="14">
         <v>60</v>
@@ -2558,21 +2619,21 @@
       <c r="V16" s="38"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>59.375</v>
+        <v>58.125</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D17" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="46">
         <v>2</v>
@@ -2589,27 +2650,31 @@
       <c r="I17" s="46">
         <v>2</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="46">
+        <v>2</v>
+      </c>
       <c r="K17" s="40">
         <v>0</v>
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M17" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N17" s="69">
         <v>80</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="77">
+        <v>95</v>
+      </c>
       <c r="P17" s="68">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(2-P17)</f>
-        <v>80</v>
+        <f>SUM(M17:O17)/(3-P17)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R17" s="14">
         <v>60</v>
@@ -2622,22 +2687,22 @@
       <c r="U17" s="6"/>
       <c r="V17" s="38"/>
       <c r="W17" s="21">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
-        <v>59</v>
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
+        <v>57.916666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D18" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="46">
         <v>2</v>
@@ -2654,27 +2719,31 @@
       <c r="I18" s="46">
         <v>2</v>
       </c>
-      <c r="J18" s="46"/>
+      <c r="J18" s="46">
+        <v>2</v>
+      </c>
       <c r="K18" s="40">
         <v>0</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M18" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N18" s="69">
         <v>80</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="77">
+        <v>80</v>
+      </c>
       <c r="P18" s="68">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(2-P18)</f>
-        <v>90</v>
+        <f>SUM(M18:O18)/(3-P18)</f>
+        <v>80</v>
       </c>
       <c r="R18" s="14">
         <v>60</v>
@@ -2687,8 +2756,8 @@
       <c r="U18" s="6"/>
       <c r="V18" s="38"/>
       <c r="W18" s="21">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
-        <v>57.5</v>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,13 +2788,15 @@
       <c r="I19" s="47">
         <v>0</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="47">
+        <v>2</v>
+      </c>
       <c r="K19" s="40">
         <v>1</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M19" s="14">
         <v>80</v>
@@ -2733,12 +2804,14 @@
       <c r="N19" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="77">
+        <v>80</v>
+      </c>
       <c r="P19" s="68">
         <v>1</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(2-P19)</f>
+        <f>SUM(M19:O19)/(3-P19)</f>
         <v>80</v>
       </c>
       <c r="R19" s="14">
@@ -2753,18 +2826,18 @@
       <c r="V19" s="38"/>
       <c r="W19" s="21">
         <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D20" s="45">
         <v>0</v>
@@ -2773,103 +2846,111 @@
         <v>2</v>
       </c>
       <c r="F20" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="46">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H20" s="46">
         <v>0</v>
       </c>
       <c r="I20" s="46">
-        <v>2</v>
-      </c>
-      <c r="J20" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>2</v>
+      </c>
       <c r="K20" s="40">
         <v>0</v>
       </c>
       <c r="L20" s="16">
         <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M20" s="14">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N20" s="69">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O20" s="77">
+        <v>80</v>
+      </c>
       <c r="P20" s="68">
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(2-P20)</f>
-        <v>25</v>
+        <f>SUM(M20:O20)/(3-P20)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R20" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="16">
         <f>SUM(R20:S20)/1</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="38"/>
       <c r="W20" s="21">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
-        <v>35.25</v>
+        <v>33.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="48">
-        <v>0</v>
-      </c>
-      <c r="E21" s="47">
-        <v>0</v>
-      </c>
-      <c r="F21" s="47">
-        <v>2</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="47">
-        <v>2</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="47"/>
+        <v>117</v>
+      </c>
+      <c r="D21" s="45">
+        <v>2</v>
+      </c>
+      <c r="E21" s="46">
+        <v>2</v>
+      </c>
+      <c r="F21" s="46">
+        <v>2</v>
+      </c>
+      <c r="G21" s="46">
+        <v>2</v>
+      </c>
+      <c r="H21" s="46">
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <v>2</v>
+      </c>
+      <c r="J21" s="46">
+        <v>2</v>
+      </c>
       <c r="K21" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
         <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="M21" s="14">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N21" s="69">
-        <v>85</v>
-      </c>
-      <c r="O21" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="77">
+        <v>75</v>
+      </c>
       <c r="P21" s="68">
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(2-P21)</f>
-        <v>82.5</v>
+        <f>SUM(M21:O21)/(3-P21)</f>
+        <v>53.333333333333336</v>
       </c>
       <c r="R21" s="14">
         <v>0</v>
@@ -2883,18 +2964,18 @@
       <c r="V21" s="38"/>
       <c r="W21" s="21">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
-        <v>33.958333333333336</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D22" s="45">
         <v>0</v>
@@ -2903,52 +2984,56 @@
         <v>2</v>
       </c>
       <c r="F22" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="46">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H22" s="46">
         <v>0</v>
       </c>
       <c r="I22" s="46">
-        <v>0</v>
-      </c>
-      <c r="J22" s="46"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0</v>
+      </c>
       <c r="K22" s="40">
         <v>0</v>
       </c>
       <c r="L22" s="16">
         <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>52</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="M22" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N22" s="69">
-        <v>100</v>
-      </c>
-      <c r="O22" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
       <c r="P22" s="68">
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f>SUM(M22:O22)/(2-P22)</f>
-        <v>90</v>
+        <f>SUM(M22:O22)/(3-P22)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="R22" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="16">
         <f>SUM(R22:S22)/1</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="38"/>
       <c r="W22" s="21">
         <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
-        <v>32.9</v>
+        <v>30.833333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,13 +3064,15 @@
       <c r="I23" s="46">
         <v>2</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="46">
+        <v>2</v>
+      </c>
       <c r="K23" s="40">
         <v>1</v>
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>96.25</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="M23" s="14">
         <v>0</v>
@@ -2993,13 +3080,15 @@
       <c r="N23" s="69">
         <v>100</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="77">
+        <v>0</v>
+      </c>
       <c r="P23" s="68">
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f>SUM(M23:O23)/(2-P23)</f>
-        <v>50</v>
+        <f>SUM(M23:O23)/(3-P23)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="R23" s="14">
         <v>0</v>
@@ -3013,58 +3102,62 @@
       <c r="V23" s="38"/>
       <c r="W23" s="21">
         <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>31.75</v>
+        <v>27.733333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="45">
-        <v>2</v>
-      </c>
-      <c r="E24" s="46">
-        <v>2</v>
-      </c>
-      <c r="F24" s="46">
-        <v>2</v>
-      </c>
-      <c r="G24" s="46">
-        <v>2</v>
-      </c>
-      <c r="H24" s="46">
-        <v>0</v>
-      </c>
-      <c r="I24" s="46">
-        <v>2</v>
-      </c>
-      <c r="J24" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="48">
+        <v>0</v>
+      </c>
+      <c r="E24" s="47">
+        <v>0</v>
+      </c>
+      <c r="F24" s="47">
+        <v>2</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="47">
+        <v>2</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="47">
+        <v>0</v>
+      </c>
       <c r="K24" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="16">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M24" s="14">
+        <v>80</v>
+      </c>
+      <c r="N24" s="69">
         <v>85</v>
       </c>
-      <c r="N24" s="69">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="77">
+        <v>0</v>
+      </c>
       <c r="P24" s="68">
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f>SUM(M24:O24)/(2-P24)</f>
-        <v>42.5</v>
+        <f>SUM(M24:O24)/(3-P24)</f>
+        <v>55</v>
       </c>
       <c r="R24" s="14">
         <v>0</v>
@@ -3078,18 +3171,18 @@
       <c r="V24" s="38"/>
       <c r="W24" s="21">
         <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>30.625</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -3098,38 +3191,42 @@
         <v>0</v>
       </c>
       <c r="F25" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="47">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I25" s="47">
-        <v>0</v>
-      </c>
-      <c r="J25" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="47">
+        <v>0.5</v>
+      </c>
       <c r="K25" s="40">
         <v>0</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M25" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N25" s="69">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O25" s="77">
+        <v>100</v>
+      </c>
       <c r="P25" s="68">
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f>SUM(M25:O25)/(2-P25)</f>
-        <v>50</v>
+        <f>SUM(M25:O25)/(3-P25)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="R25" s="14">
         <v>0</v>
@@ -3143,18 +3240,18 @@
       <c r="V25" s="38"/>
       <c r="W25" s="21">
         <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.1</f>
-        <v>20.5</v>
+        <v>23.666666666666668</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D26" s="48">
         <v>0</v>
@@ -3163,38 +3260,42 @@
         <v>0</v>
       </c>
       <c r="F26" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="47">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I26" s="47">
-        <v>2</v>
-      </c>
-      <c r="J26" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="47">
+        <v>0</v>
+      </c>
       <c r="K26" s="40">
         <v>0</v>
       </c>
       <c r="L26" s="16">
         <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>37</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M26" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="69">
-        <v>100</v>
-      </c>
-      <c r="O26" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="77">
+        <v>0</v>
+      </c>
       <c r="P26" s="68">
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f>SUM(M26:O26)/(2-P26)</f>
-        <v>50</v>
+        <f>SUM(M26:O26)/(3-P26)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="R26" s="14">
         <v>0</v>
@@ -3208,7 +3309,7 @@
       <c r="V26" s="38"/>
       <c r="W26" s="21">
         <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.1</f>
-        <v>19.899999999999999</v>
+        <v>15.000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3239,13 +3340,15 @@
       <c r="I27" s="46">
         <v>2</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="46">
+        <v>0</v>
+      </c>
       <c r="K27" s="40">
         <v>0</v>
       </c>
       <c r="L27" s="16">
         <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>55</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="M27" s="14">
         <v>50</v>
@@ -3253,13 +3356,15 @@
       <c r="N27" s="69">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="77">
+        <v>0</v>
+      </c>
       <c r="P27" s="68">
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f>SUM(M27:O27)/(2-P27)</f>
-        <v>25</v>
+        <f>SUM(M27:O27)/(3-P27)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="R27" s="14">
         <v>0</v>
@@ -3273,7 +3378,7 @@
       <c r="V27" s="38"/>
       <c r="W27" s="21">
         <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
-        <v>17.25</v>
+        <v>13.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,7 +3405,7 @@
       </c>
       <c r="M28" s="59"/>
       <c r="N28" s="70"/>
-      <c r="O28" s="60"/>
+      <c r="O28" s="78"/>
       <c r="P28" s="68"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="59"/>
@@ -3337,7 +3442,7 @@
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="70"/>
-      <c r="O29" s="60"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="68"/>
       <c r="Q29" s="58"/>
       <c r="R29" s="59"/>
@@ -3374,7 +3479,7 @@
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="70"/>
-      <c r="O30" s="60"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="58"/>
       <c r="R30" s="59"/>
@@ -3411,7 +3516,7 @@
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="70"/>
-      <c r="O31" s="60"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="68"/>
       <c r="Q31" s="58"/>
       <c r="R31" s="59"/>
@@ -3448,7 +3553,7 @@
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="70"/>
-      <c r="O32" s="60"/>
+      <c r="O32" s="78"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="58"/>
       <c r="R32" s="59"/>
@@ -3485,7 +3590,7 @@
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="70"/>
-      <c r="O33" s="60"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="68"/>
       <c r="Q33" s="58"/>
       <c r="R33" s="59"/>
@@ -3522,7 +3627,7 @@
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="70"/>
-      <c r="O34" s="60"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="68"/>
       <c r="Q34" s="58"/>
       <c r="R34" s="59"/>
@@ -3559,7 +3664,7 @@
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="70"/>
-      <c r="O35" s="60"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="58">
         <f>SUM(M35:P35)/A$1</f>
@@ -3599,7 +3704,7 @@
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="60"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="58">
         <f>SUM(M36:P36)/A$1</f>
@@ -3639,7 +3744,7 @@
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="70"/>
-      <c r="O37" s="60"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="58">
         <f>SUM(M37:P37)/A$1</f>
@@ -3679,7 +3784,7 @@
       </c>
       <c r="M38" s="59"/>
       <c r="N38" s="70"/>
-      <c r="O38" s="60"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="58">
         <f>SUM(M38:P38)/A$1</f>
@@ -3719,7 +3824,7 @@
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="70"/>
-      <c r="O39" s="60"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="58">
         <f>SUM(M39:P39)/A$1</f>
@@ -3759,7 +3864,7 @@
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="70"/>
-      <c r="O40" s="60"/>
+      <c r="O40" s="78"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="58">
         <f>SUM(M40:P40)/A$1</f>
@@ -3799,7 +3904,7 @@
       </c>
       <c r="M41" s="59"/>
       <c r="N41" s="70"/>
-      <c r="O41" s="60"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="58">
         <f>SUM(M41:P41)/A$1</f>
@@ -3830,7 +3935,7 @@
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
       <c r="N42" s="69"/>
-      <c r="O42" s="6"/>
+      <c r="O42" s="77"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="16">
         <f>SUM(M42:P42)/A$1</f>
@@ -3861,7 +3966,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="71"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="49"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
@@ -3883,7 +3988,7 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="71"/>
-      <c r="O44" s="9"/>
+      <c r="O44" s="49"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -3905,7 +4010,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="71"/>
-      <c r="O45" s="9"/>
+      <c r="O45" s="49"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
@@ -3927,7 +4032,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="71"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="49"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
@@ -3949,7 +4054,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="71"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
@@ -3971,7 +4076,7 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="71"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="49"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
@@ -3993,7 +4098,7 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="71"/>
-      <c r="O49" s="9"/>
+      <c r="O49" s="49"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
@@ -4015,7 +4120,7 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="71"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="49"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -4037,7 +4142,7 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="71"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="49"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
@@ -4059,7 +4164,7 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="71"/>
-      <c r="O52" s="9"/>
+      <c r="O52" s="49"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
@@ -4081,7 +4186,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="71"/>
-      <c r="O53" s="9"/>
+      <c r="O53" s="49"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
@@ -4103,7 +4208,7 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="71"/>
-      <c r="O54" s="9"/>
+      <c r="O54" s="49"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
@@ -4125,7 +4230,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="71"/>
-      <c r="O55" s="9"/>
+      <c r="O55" s="49"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -4147,7 +4252,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="71"/>
-      <c r="O56" s="9"/>
+      <c r="O56" s="49"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
@@ -4169,7 +4274,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="71"/>
-      <c r="O57" s="9"/>
+      <c r="O57" s="49"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
@@ -4191,7 +4296,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="71"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="49"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
@@ -4213,7 +4318,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="71"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="49"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
@@ -4235,7 +4340,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="71"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="49"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
@@ -4257,7 +4362,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="71"/>
-      <c r="O61" s="9"/>
+      <c r="O61" s="49"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
@@ -4279,7 +4384,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="71"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="49"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -4301,7 +4406,7 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="71"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="49"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1520,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3065,14 +3065,14 @@
         <v>2</v>
       </c>
       <c r="J23" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="40">
         <v>1</v>
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>96.999999999999986</v>
+        <v>86.999999999999986</v>
       </c>
       <c r="M23" s="14">
         <v>0</v>
@@ -3102,7 +3102,7 @@
       <c r="V23" s="38"/>
       <c r="W23" s="21">
         <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>27.733333333333334</v>
+        <v>25.733333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1003,6 +1003,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1012,17 +1018,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1520,7 +1558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1552,29 +1590,29 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="27"/>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="74" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="74" t="s">
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="76"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="78"/>
       <c r="U1" s="17" t="s">
         <v>34</v>
       </c>
@@ -1658,13 +1696,13 @@
     </row>
     <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D3" s="45">
         <v>2</v>
@@ -1675,11 +1713,11 @@
       <c r="F3" s="46">
         <v>2</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>129</v>
+      <c r="G3" s="46">
+        <v>2</v>
       </c>
       <c r="H3" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I3" s="46">
         <v>2</v>
@@ -1688,19 +1726,19 @@
         <v>2</v>
       </c>
       <c r="K3" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>120</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
       </c>
       <c r="N3" s="69">
-        <v>100</v>
-      </c>
-      <c r="O3" s="77">
+        <v>90</v>
+      </c>
+      <c r="O3" s="74">
         <v>100</v>
       </c>
       <c r="P3" s="68">
@@ -1708,32 +1746,34 @@
       </c>
       <c r="Q3" s="16">
         <f>SUM(M3:O3)/(3-P3)</f>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="R3" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="16">
         <f>SUM(R3:S3)/1</f>
+        <v>80</v>
+      </c>
+      <c r="U3" s="6">
         <v>60</v>
       </c>
-      <c r="U3" s="6"/>
       <c r="V3" s="38"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>64</v>
+        <v>85.333333333333343</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D4" s="45">
         <v>2</v>
@@ -1744,8 +1784,8 @@
       <c r="F4" s="46">
         <v>2</v>
       </c>
-      <c r="G4" s="46">
-        <v>2</v>
+      <c r="G4" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="H4" s="46">
         <v>2</v>
@@ -1757,11 +1797,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="16">
         <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>116.66666666666667</v>
+        <v>120</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
@@ -1769,7 +1809,7 @@
       <c r="N4" s="69">
         <v>100</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="74">
         <v>100</v>
       </c>
       <c r="P4" s="68">
@@ -1780,29 +1820,31 @@
         <v>100</v>
       </c>
       <c r="R4" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="16">
         <f>SUM(R4:S4)/1</f>
+        <v>61</v>
+      </c>
+      <c r="U4" s="6">
         <v>60</v>
       </c>
-      <c r="U4" s="6"/>
       <c r="V4" s="38"/>
       <c r="W4" s="21">
-        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
-        <v>63.333333333333336</v>
+        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
+        <v>82.25</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D5" s="45">
         <v>2</v>
@@ -1817,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I5" s="46">
         <v>2</v>
@@ -1830,68 +1872,70 @@
       </c>
       <c r="L5" s="16">
         <f>SUM(D5:J5)*50/(A$1-K5)</f>
-        <v>116.66666666666667</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M5" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N5" s="69">
-        <v>100</v>
-      </c>
-      <c r="O5" s="77">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="O5" s="74">
+        <v>90</v>
       </c>
       <c r="P5" s="68">
         <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>SUM(M5:O5)/(3-P5)</f>
-        <v>98.333333333333329</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R5" s="14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="16">
         <f>SUM(R5:S5)/1</f>
+        <v>50</v>
+      </c>
+      <c r="U5" s="6">
         <v>60</v>
       </c>
-      <c r="U5" s="6"/>
       <c r="V5" s="38"/>
       <c r="W5" s="21">
         <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>62.916666666666671</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="D6" s="45">
         <v>2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="47">
         <v>2</v>
       </c>
       <c r="F6" s="46">
         <v>2</v>
       </c>
-      <c r="G6" s="46">
-        <v>2</v>
-      </c>
-      <c r="H6" s="46">
-        <v>2</v>
-      </c>
-      <c r="I6" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="J6" s="46">
+      <c r="G6" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="47">
+        <v>2</v>
+      </c>
+      <c r="I6" s="47">
+        <v>2</v>
+      </c>
+      <c r="J6" s="47">
         <v>2</v>
       </c>
       <c r="K6" s="40">
@@ -1899,7 +1943,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUM(D6:J6)*50/(A$1-K6)</f>
-        <v>115.83333333333333</v>
+        <v>112.5</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
@@ -1907,40 +1951,42 @@
       <c r="N6" s="69">
         <v>95</v>
       </c>
-      <c r="O6" s="77">
-        <v>100</v>
+      <c r="O6" s="74">
+        <v>90</v>
       </c>
       <c r="P6" s="68">
         <v>0</v>
       </c>
       <c r="Q6" s="16">
         <f>SUM(M6:O6)/(3-P6)</f>
-        <v>98.333333333333329</v>
+        <v>95</v>
       </c>
       <c r="R6" s="14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="16">
         <f>SUM(R6:S6)/1</f>
+        <v>50</v>
+      </c>
+      <c r="U6" s="6">
         <v>60</v>
       </c>
-      <c r="U6" s="6"/>
       <c r="V6" s="38"/>
       <c r="W6" s="21">
         <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.1</f>
-        <v>62.75</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
@@ -1955,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I7" s="46">
         <v>2</v>
@@ -1968,15 +2014,15 @@
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N7" s="69">
-        <v>95</v>
-      </c>
-      <c r="O7" s="77">
+        <v>100</v>
+      </c>
+      <c r="O7" s="74">
         <v>100</v>
       </c>
       <c r="P7" s="68">
@@ -1984,32 +2030,34 @@
       </c>
       <c r="Q7" s="16">
         <f>SUM(M7:O7)/(3-P7)</f>
-        <v>98.333333333333329</v>
+        <v>95</v>
       </c>
       <c r="R7" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="16">
         <f>SUM(R7:S7)/1</f>
+        <v>45</v>
+      </c>
+      <c r="U7" s="6">
         <v>60</v>
       </c>
-      <c r="U7" s="6"/>
       <c r="V7" s="38"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
-        <v>62.583333333333329</v>
+        <v>76.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D8" s="45">
         <v>2</v>
@@ -2024,64 +2072,66 @@
         <v>2</v>
       </c>
       <c r="H8" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="46">
-        <v>2</v>
+      <c r="J8" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>115.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="M8" s="14">
         <v>100</v>
       </c>
       <c r="N8" s="69">
-        <v>90</v>
-      </c>
-      <c r="O8" s="77">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="P8" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="16">
         <f>SUM(M8:O8)/(3-P8)</f>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
       <c r="R8" s="14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="16">
         <f>SUM(R8:S8)/1</f>
+        <v>50</v>
+      </c>
+      <c r="U8" s="6">
         <v>60</v>
       </c>
-      <c r="U8" s="6"/>
       <c r="V8" s="38"/>
       <c r="W8" s="21">
         <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>62.333333333333336</v>
+        <v>74.875</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D9" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="46">
         <v>2</v>
@@ -2106,48 +2156,50 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(A$1-K9)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M9" s="14">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N9" s="69">
         <v>100</v>
       </c>
-      <c r="O9" s="77">
-        <v>100</v>
+      <c r="O9" s="74">
+        <v>90</v>
       </c>
       <c r="P9" s="68">
         <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f>SUM(M9:O9)/(3-P9)</f>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="R9" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="16">
         <f>SUM(R9:S9)/1</f>
+        <v>30</v>
+      </c>
+      <c r="U9" s="6">
         <v>60</v>
       </c>
-      <c r="U9" s="6"/>
       <c r="V9" s="38"/>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.1</f>
-        <v>62.083333333333336</v>
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <v>69.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D10" s="45">
         <v>2</v>
@@ -2162,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I10" s="46">
         <v>2</v>
@@ -2175,68 +2227,70 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>115.83333333333333</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
       </c>
       <c r="N10" s="69">
-        <v>90</v>
-      </c>
-      <c r="O10" s="77">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="O10" s="74">
+        <v>100</v>
       </c>
       <c r="P10" s="68">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
         <f>SUM(M10:O10)/(3-P10)</f>
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="R10" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="16">
         <f>SUM(R10:S10)/1</f>
+        <v>2</v>
+      </c>
+      <c r="U10" s="6">
         <v>60</v>
       </c>
-      <c r="U10" s="6"/>
       <c r="V10" s="38"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>61.5</v>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.1</f>
+        <v>66.833333333333343</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D11" s="45">
         <v>2</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>2</v>
       </c>
       <c r="F11" s="46">
         <v>2</v>
       </c>
-      <c r="G11" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="47">
-        <v>2</v>
-      </c>
-      <c r="I11" s="47">
-        <v>2</v>
-      </c>
-      <c r="J11" s="47">
+      <c r="G11" s="46">
+        <v>2</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2</v>
+      </c>
+      <c r="I11" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="J11" s="46">
         <v>2</v>
       </c>
       <c r="K11" s="40">
@@ -2244,7 +2298,7 @@
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>112.5</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M11" s="14">
         <v>100</v>
@@ -2252,29 +2306,31 @@
       <c r="N11" s="69">
         <v>95</v>
       </c>
-      <c r="O11" s="77">
-        <v>90</v>
+      <c r="O11" s="74">
+        <v>100</v>
       </c>
       <c r="P11" s="68">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
         <f>SUM(M11:O11)/(3-P11)</f>
-        <v>95</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R11" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="16">
         <f>SUM(R11:S11)/1</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
         <v>60</v>
       </c>
-      <c r="U11" s="6"/>
       <c r="V11" s="38"/>
       <c r="W11" s="21">
         <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
-        <v>61.25</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,7 +2377,7 @@
       <c r="N12" s="69">
         <v>95</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="74">
         <v>100</v>
       </c>
       <c r="P12" s="68">
@@ -2332,101 +2388,105 @@
         <v>98.333333333333329</v>
       </c>
       <c r="R12" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="16">
         <f>SUM(R12:S12)/1</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="6">
         <v>60</v>
       </c>
-      <c r="U12" s="6"/>
       <c r="V12" s="38"/>
       <c r="W12" s="21">
         <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
-        <v>59.583333333333329</v>
+        <v>63.083333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="45">
-        <v>2</v>
-      </c>
-      <c r="E13" s="46">
-        <v>2</v>
-      </c>
-      <c r="F13" s="46">
-        <v>2</v>
-      </c>
-      <c r="G13" s="46">
-        <v>2</v>
-      </c>
-      <c r="H13" s="46">
-        <v>2</v>
-      </c>
-      <c r="I13" s="46">
-        <v>2</v>
-      </c>
-      <c r="J13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="48">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2</v>
+      </c>
+      <c r="G13" s="47">
+        <v>2</v>
+      </c>
+      <c r="H13" s="47" t="s">
         <v>129</v>
       </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <v>2</v>
+      </c>
       <c r="K13" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="16">
         <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M13" s="14">
-        <v>100</v>
-      </c>
-      <c r="N13" s="69">
-        <v>95</v>
-      </c>
-      <c r="O13" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="69" t="s">
         <v>129</v>
+      </c>
+      <c r="O13" s="74">
+        <v>80</v>
       </c>
       <c r="P13" s="68">
         <v>1</v>
       </c>
       <c r="Q13" s="16">
         <f>SUM(M13:O13)/(3-P13)</f>
-        <v>97.5</v>
+        <v>80</v>
       </c>
       <c r="R13" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="16">
         <f>SUM(R13:S13)/1</f>
+        <v>30</v>
+      </c>
+      <c r="U13" s="6">
         <v>60</v>
       </c>
-      <c r="U13" s="6"/>
       <c r="V13" s="38"/>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
-        <v>59.375</v>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D14" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
@@ -2451,7 +2511,7 @@
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M14" s="14">
         <v>100</v>
@@ -2459,40 +2519,42 @@
       <c r="N14" s="69">
         <v>80</v>
       </c>
-      <c r="O14" s="77">
-        <v>80</v>
+      <c r="O14" s="74">
+        <v>95</v>
       </c>
       <c r="P14" s="68">
         <v>0</v>
       </c>
       <c r="Q14" s="16">
         <f>SUM(M14:O14)/(3-P14)</f>
-        <v>86.666666666666671</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="R14" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="16">
         <f>SUM(R14:S14)/1</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="6">
         <v>60</v>
       </c>
-      <c r="U14" s="6"/>
       <c r="V14" s="38"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>60</v>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <v>61.416666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="45">
         <v>0</v>
@@ -2506,8 +2568,8 @@
       <c r="G15" s="46">
         <v>2</v>
       </c>
-      <c r="H15" s="46">
-        <v>2</v>
+      <c r="H15" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I15" s="46">
         <v>2</v>
@@ -2516,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
@@ -2525,46 +2587,48 @@
       <c r="M15" s="14">
         <v>100</v>
       </c>
-      <c r="N15" s="69">
-        <v>100</v>
-      </c>
-      <c r="O15" s="77">
-        <v>90</v>
+      <c r="N15" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="74">
+        <v>85</v>
       </c>
       <c r="P15" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="16">
         <f>SUM(M15:O15)/(3-P15)</f>
-        <v>96.666666666666671</v>
+        <v>92.5</v>
       </c>
       <c r="R15" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="16">
         <f>SUM(R15:S15)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
         <v>60</v>
       </c>
-      <c r="U15" s="6"/>
       <c r="V15" s="38"/>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>59.166666666666671</v>
+        <v>61.125</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D16" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="46">
         <v>2</v>
@@ -2575,8 +2639,8 @@
       <c r="G16" s="46">
         <v>2</v>
       </c>
-      <c r="H16" s="46" t="s">
-        <v>129</v>
+      <c r="H16" s="46">
+        <v>2</v>
       </c>
       <c r="I16" s="46">
         <v>2</v>
@@ -2585,55 +2649,57 @@
         <v>2</v>
       </c>
       <c r="K16" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(A$1-K16)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M16" s="14">
-        <v>100</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="77">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="N16" s="69">
+        <v>100</v>
+      </c>
+      <c r="O16" s="74">
+        <v>100</v>
       </c>
       <c r="P16" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <f>SUM(M16:O16)/(3-P16)</f>
-        <v>92.5</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R16" s="14">
-        <v>60</v>
+        <v>-25</v>
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="16">
         <f>SUM(R16:S16)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="U16" s="6">
         <v>60</v>
       </c>
-      <c r="U16" s="6"/>
       <c r="V16" s="38"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>58.125</v>
+        <v>59.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D17" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="46">
         <v>2</v>
@@ -2645,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I17" s="46">
         <v>2</v>
@@ -2658,45 +2724,47 @@
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M17" s="14">
         <v>100</v>
       </c>
       <c r="N17" s="69">
-        <v>80</v>
-      </c>
-      <c r="O17" s="77">
         <v>95</v>
+      </c>
+      <c r="O17" s="74">
+        <v>100</v>
       </c>
       <c r="P17" s="68">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
         <f>SUM(M17:O17)/(3-P17)</f>
-        <v>91.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R17" s="14">
-        <v>60</v>
+        <v>-25</v>
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="16">
         <f>SUM(R17:S17)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="U17" s="6">
         <v>60</v>
       </c>
-      <c r="U17" s="6"/>
       <c r="V17" s="38"/>
       <c r="W17" s="21">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>57.916666666666671</v>
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
+        <v>59.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>114</v>
@@ -2730,12 +2798,12 @@
         <v>116.66666666666667</v>
       </c>
       <c r="M18" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N18" s="69">
         <v>80</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="74">
         <v>80</v>
       </c>
       <c r="P18" s="68">
@@ -2743,90 +2811,94 @@
       </c>
       <c r="Q18" s="16">
         <f>SUM(M18:O18)/(3-P18)</f>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R18" s="14">
-        <v>60</v>
+        <v>-25</v>
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="16">
         <f>SUM(R18:S18)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="U18" s="6">
         <v>60</v>
       </c>
-      <c r="U18" s="6"/>
       <c r="V18" s="38"/>
       <c r="W18" s="21">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>58.333333333333336</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="48">
-        <v>0</v>
-      </c>
-      <c r="E19" s="47">
-        <v>2</v>
-      </c>
-      <c r="F19" s="47">
-        <v>2</v>
-      </c>
-      <c r="G19" s="47">
-        <v>2</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47">
+        <v>114</v>
+      </c>
+      <c r="D19" s="45">
+        <v>2</v>
+      </c>
+      <c r="E19" s="46">
+        <v>2</v>
+      </c>
+      <c r="F19" s="46">
+        <v>2</v>
+      </c>
+      <c r="G19" s="46">
+        <v>2</v>
+      </c>
+      <c r="H19" s="46">
+        <v>2</v>
+      </c>
+      <c r="I19" s="46">
+        <v>2</v>
+      </c>
+      <c r="J19" s="46">
         <v>2</v>
       </c>
       <c r="K19" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>80</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M19" s="14">
         <v>80</v>
       </c>
-      <c r="N19" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="O19" s="77">
+      <c r="N19" s="69">
         <v>80</v>
       </c>
+      <c r="O19" s="74">
+        <v>80</v>
+      </c>
       <c r="P19" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="16">
         <f>SUM(M19:O19)/(3-P19)</f>
         <v>80</v>
       </c>
       <c r="R19" s="14">
-        <v>60</v>
+        <v>-25</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="16">
         <f>SUM(R19:S19)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="U19" s="6">
         <v>60</v>
       </c>
-      <c r="U19" s="6"/>
       <c r="V19" s="38"/>
       <c r="W19" s="21">
         <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>51</v>
+        <v>55.083333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,7 +2945,7 @@
       <c r="N20" s="69">
         <v>100</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="74">
         <v>80</v>
       </c>
       <c r="P20" s="68">
@@ -2891,11 +2963,13 @@
         <f>SUM(R20:S20)/1</f>
         <v>0</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6">
+        <v>60</v>
+      </c>
       <c r="V20" s="38"/>
       <c r="W20" s="21">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
-        <v>33.666666666666671</v>
+        <v>51.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,7 +3016,7 @@
       <c r="N21" s="69">
         <v>0</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="74">
         <v>75</v>
       </c>
       <c r="P21" s="68">
@@ -2960,58 +3034,60 @@
         <f>SUM(R21:S21)/1</f>
         <v>0</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <v>60</v>
+      </c>
       <c r="V21" s="38"/>
       <c r="W21" s="21">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
-        <v>33.333333333333336</v>
+        <v>51.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D22" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="45">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
+        <v>2</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="46">
+        <v>2</v>
+      </c>
+      <c r="J22" s="46">
         <v>1</v>
       </c>
-      <c r="G22" s="46">
-        <v>2</v>
-      </c>
-      <c r="H22" s="46">
-        <v>0</v>
-      </c>
-      <c r="I22" s="46">
-        <v>2</v>
-      </c>
-      <c r="J22" s="46">
-        <v>0</v>
-      </c>
       <c r="K22" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="16">
         <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>58.333333333333336</v>
+        <v>86.999999999999986</v>
       </c>
       <c r="M22" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N22" s="69">
-        <v>0</v>
-      </c>
-      <c r="O22" s="77">
+        <v>100</v>
+      </c>
+      <c r="O22" s="74">
         <v>0</v>
       </c>
       <c r="P22" s="68">
@@ -3019,68 +3095,70 @@
       </c>
       <c r="Q22" s="16">
         <f>SUM(M22:O22)/(3-P22)</f>
-        <v>16.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R22" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="16">
         <f>SUM(R22:S22)/1</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
         <v>60</v>
       </c>
-      <c r="U22" s="6"/>
       <c r="V22" s="38"/>
       <c r="W22" s="21">
         <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
-        <v>30.833333333333336</v>
+        <v>43.733333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="45">
-        <v>2</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1.7</v>
-      </c>
-      <c r="F23" s="46">
-        <v>0</v>
-      </c>
-      <c r="G23" s="46">
-        <v>2</v>
-      </c>
-      <c r="H23" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <v>2</v>
+      </c>
+      <c r="G23" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="46">
-        <v>2</v>
-      </c>
-      <c r="J23" s="46">
-        <v>1</v>
+      <c r="H23" s="47">
+        <v>2</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="47">
+        <v>0</v>
       </c>
       <c r="K23" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>86.999999999999986</v>
+        <v>50</v>
       </c>
       <c r="M23" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N23" s="69">
-        <v>100</v>
-      </c>
-      <c r="O23" s="77">
+        <v>85</v>
+      </c>
+      <c r="O23" s="74">
         <v>0</v>
       </c>
       <c r="P23" s="68">
@@ -3088,7 +3166,7 @@
       </c>
       <c r="Q23" s="16">
         <f>SUM(M23:O23)/(3-P23)</f>
-        <v>33.333333333333336</v>
+        <v>55</v>
       </c>
       <c r="R23" s="14">
         <v>0</v>
@@ -3098,22 +3176,24 @@
         <f>SUM(R23:S23)/1</f>
         <v>0</v>
       </c>
-      <c r="U23" s="6"/>
+      <c r="U23" s="6">
+        <v>60</v>
+      </c>
       <c r="V23" s="38"/>
       <c r="W23" s="21">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>25.733333333333334</v>
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.1</f>
+        <v>41.75</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -3122,42 +3202,42 @@
         <v>0</v>
       </c>
       <c r="F24" s="47">
-        <v>2</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="47">
+        <v>0</v>
       </c>
       <c r="H24" s="47">
-        <v>2</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>129</v>
+        <v>1.7</v>
+      </c>
+      <c r="I24" s="47">
+        <v>2</v>
       </c>
       <c r="J24" s="47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K24" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M24" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N24" s="69">
-        <v>85</v>
-      </c>
-      <c r="O24" s="77">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O24" s="74">
+        <v>100</v>
       </c>
       <c r="P24" s="68">
         <v>0</v>
       </c>
       <c r="Q24" s="16">
         <f>SUM(M24:O24)/(3-P24)</f>
-        <v>55</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="R24" s="14">
         <v>0</v>
@@ -3167,80 +3247,84 @@
         <f>SUM(R24:S24)/1</f>
         <v>0</v>
       </c>
-      <c r="U24" s="6"/>
+      <c r="U24" s="6">
+        <v>60</v>
+      </c>
       <c r="V24" s="38"/>
       <c r="W24" s="21">
         <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>23.75</v>
+        <v>41.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="48">
-        <v>0</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0</v>
-      </c>
-      <c r="G25" s="47">
-        <v>0</v>
-      </c>
-      <c r="H25" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="I25" s="47">
-        <v>2</v>
-      </c>
-      <c r="J25" s="47">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0</v>
+      </c>
+      <c r="E25" s="46">
+        <v>2</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="46">
+        <v>2</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46">
+        <v>2</v>
+      </c>
+      <c r="J25" s="46">
+        <v>0</v>
       </c>
       <c r="K25" s="40">
         <v>0</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>35</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="M25" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N25" s="69">
-        <v>100</v>
-      </c>
-      <c r="O25" s="77">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="O25" s="74">
+        <v>0</v>
       </c>
       <c r="P25" s="68">
         <v>0</v>
       </c>
       <c r="Q25" s="16">
         <f>SUM(M25:O25)/(3-P25)</f>
-        <v>66.666666666666671</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="R25" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="16">
         <f>SUM(R25:S25)/1</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="U25" s="6">
+        <v>60</v>
+      </c>
       <c r="V25" s="38"/>
       <c r="W25" s="21">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.1</f>
-        <v>23.666666666666668</v>
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
+        <v>34.333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3371,7 @@
       <c r="N26" s="69">
         <v>0</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="74">
         <v>0</v>
       </c>
       <c r="P26" s="68">
@@ -3305,11 +3389,13 @@
         <f>SUM(R26:S26)/1</f>
         <v>0</v>
       </c>
-      <c r="U26" s="6"/>
+      <c r="U26" s="6">
+        <v>60</v>
+      </c>
       <c r="V26" s="38"/>
       <c r="W26" s="21">
         <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.1</f>
-        <v>15.000000000000002</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3442,7 @@
       <c r="N27" s="69">
         <v>0</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="74">
         <v>0</v>
       </c>
       <c r="P27" s="68">
@@ -3374,11 +3460,13 @@
         <f>SUM(R27:S27)/1</f>
         <v>0</v>
       </c>
-      <c r="U27" s="6"/>
+      <c r="U27" s="6">
+        <v>60</v>
+      </c>
       <c r="V27" s="38"/>
       <c r="W27" s="21">
         <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
-        <v>13.333333333333336</v>
+        <v>31.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,7 +3493,7 @@
       </c>
       <c r="M28" s="59"/>
       <c r="N28" s="70"/>
-      <c r="O28" s="78"/>
+      <c r="O28" s="75"/>
       <c r="P28" s="68"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="59"/>
@@ -3442,7 +3530,7 @@
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="70"/>
-      <c r="O29" s="78"/>
+      <c r="O29" s="75"/>
       <c r="P29" s="68"/>
       <c r="Q29" s="58"/>
       <c r="R29" s="59"/>
@@ -3479,7 +3567,7 @@
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="70"/>
-      <c r="O30" s="78"/>
+      <c r="O30" s="75"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="58"/>
       <c r="R30" s="59"/>
@@ -3516,7 +3604,7 @@
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="70"/>
-      <c r="O31" s="78"/>
+      <c r="O31" s="75"/>
       <c r="P31" s="68"/>
       <c r="Q31" s="58"/>
       <c r="R31" s="59"/>
@@ -3553,7 +3641,7 @@
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="70"/>
-      <c r="O32" s="78"/>
+      <c r="O32" s="75"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="58"/>
       <c r="R32" s="59"/>
@@ -3590,7 +3678,7 @@
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="70"/>
-      <c r="O33" s="78"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="68"/>
       <c r="Q33" s="58"/>
       <c r="R33" s="59"/>
@@ -3627,7 +3715,7 @@
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="70"/>
-      <c r="O34" s="78"/>
+      <c r="O34" s="75"/>
       <c r="P34" s="68"/>
       <c r="Q34" s="58"/>
       <c r="R34" s="59"/>
@@ -3664,7 +3752,7 @@
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="70"/>
-      <c r="O35" s="78"/>
+      <c r="O35" s="75"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="58">
         <f>SUM(M35:P35)/A$1</f>
@@ -3704,7 +3792,7 @@
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="70"/>
-      <c r="O36" s="78"/>
+      <c r="O36" s="75"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="58">
         <f>SUM(M36:P36)/A$1</f>
@@ -3744,7 +3832,7 @@
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="70"/>
-      <c r="O37" s="78"/>
+      <c r="O37" s="75"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="58">
         <f>SUM(M37:P37)/A$1</f>
@@ -3784,7 +3872,7 @@
       </c>
       <c r="M38" s="59"/>
       <c r="N38" s="70"/>
-      <c r="O38" s="78"/>
+      <c r="O38" s="75"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="58">
         <f>SUM(M38:P38)/A$1</f>
@@ -3824,7 +3912,7 @@
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="70"/>
-      <c r="O39" s="78"/>
+      <c r="O39" s="75"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="58">
         <f>SUM(M39:P39)/A$1</f>
@@ -3864,7 +3952,7 @@
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="70"/>
-      <c r="O40" s="78"/>
+      <c r="O40" s="75"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="58">
         <f>SUM(M40:P40)/A$1</f>
@@ -3904,7 +3992,7 @@
       </c>
       <c r="M41" s="59"/>
       <c r="N41" s="70"/>
-      <c r="O41" s="78"/>
+      <c r="O41" s="75"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="58">
         <f>SUM(M41:P41)/A$1</f>
@@ -3935,7 +4023,7 @@
       <c r="L42" s="16"/>
       <c r="M42" s="14"/>
       <c r="N42" s="69"/>
-      <c r="O42" s="77"/>
+      <c r="O42" s="74"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="16">
         <f>SUM(M42:P42)/A$1</f>
@@ -4423,47 +4511,47 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:V42 M3:O42">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+  <conditionalFormatting sqref="M3:O42 U3:V42">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S42">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4617,22 +4705,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="74" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="76"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="78"/>
       <c r="Q1" s="73" t="s">
         <v>44</v>
       </c>
@@ -7967,14 +8055,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I42">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8021,18 +8109,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O42">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8080,18 +8168,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1022,45 +1022,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1558,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(A$1-K3)</f>
+        <f t="shared" ref="L3:L41" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
         <v>115.83333333333333</v>
       </c>
       <c r="M3" s="14">
@@ -1745,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(3-P3)</f>
+        <f t="shared" ref="Q3:Q27" si="1">SUM(M3:O3)/(3-P3)</f>
         <v>96.666666666666671</v>
       </c>
       <c r="R3" s="14">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="16">
-        <f>SUM(R3:S3)/1</f>
-        <v>80</v>
+        <f t="shared" ref="T3:T27" si="2">SUM(R3:S3)/1</f>
+        <v>70</v>
       </c>
       <c r="U3" s="6">
         <v>60</v>
@@ -1762,7 +1724,7 @@
       <c r="V3" s="38"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>85.333333333333343</v>
+        <v>82.833333333333343</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="M4" s="14">
@@ -1816,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(3-P4)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R4" s="14">
@@ -1824,7 +1786,7 @@
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="16">
-        <f>SUM(R4:S4)/1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="U4" s="6">
@@ -1871,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
       <c r="M5" s="14">
@@ -1887,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(3-P5)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R5" s="14">
@@ -1895,7 +1857,7 @@
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="16">
-        <f>SUM(R5:S5)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U5" s="6">
@@ -1942,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
       <c r="M6" s="14">
@@ -1958,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(3-P6)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R6" s="14">
@@ -1966,7 +1928,7 @@
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="16">
-        <f>SUM(R6:S6)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U6" s="6">
@@ -2013,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
@@ -2029,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(3-P7)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R7" s="14">
@@ -2037,7 +1999,7 @@
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="16">
-        <f>SUM(R7:S7)/1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="U7" s="6">
@@ -2084,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M8" s="14">
@@ -2100,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(3-P8)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="R8" s="14">
@@ -2108,7 +2070,7 @@
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="16">
-        <f>SUM(R8:S8)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U8" s="6">
@@ -2155,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(A$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M9" s="14">
@@ -2171,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(3-P9)</f>
+        <f t="shared" si="1"/>
         <v>96.666666666666671</v>
       </c>
       <c r="R9" s="14">
@@ -2179,7 +2141,7 @@
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="16">
-        <f>SUM(R9:S9)/1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U9" s="6">
@@ -2226,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M10" s="14">
@@ -2242,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(3-P10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R10" s="14">
@@ -2250,7 +2212,7 @@
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="16">
-        <f>SUM(R10:S10)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U10" s="6">
@@ -2297,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
       <c r="M11" s="14">
@@ -2313,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(3-P11)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R11" s="14">
@@ -2321,7 +2283,7 @@
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="16">
-        <f>SUM(R11:S11)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U11" s="6">
@@ -2368,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M12" s="14">
@@ -2384,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(3-P12)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R12" s="14">
@@ -2392,7 +2354,7 @@
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="16">
-        <f>SUM(R12:S12)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U12" s="6">
@@ -2439,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="M13" s="14">
@@ -2455,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(3-P13)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R13" s="14">
@@ -2463,7 +2425,7 @@
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="16">
-        <f>SUM(R13:S13)/1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U13" s="6">
@@ -2510,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M14" s="14">
@@ -2526,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(3-P14)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="R14" s="14">
@@ -2534,7 +2496,7 @@
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="16">
-        <f>SUM(R14:S14)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U14" s="6">
@@ -2581,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(A$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M15" s="14">
@@ -2597,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(3-P15)</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="R15" s="14">
@@ -2605,7 +2567,7 @@
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="16">
-        <f>SUM(R15:S15)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="6">
@@ -2652,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(A$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M16" s="14">
@@ -2668,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(3-P16)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R16" s="14">
@@ -2676,7 +2638,7 @@
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="16">
-        <f>SUM(R16:S16)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U16" s="6">
@@ -2723,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(A$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M17" s="14">
@@ -2739,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(3-P17)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R17" s="14">
@@ -2747,7 +2709,7 @@
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="16">
-        <f>SUM(R17:S17)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U17" s="6">
@@ -2794,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(A$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M18" s="14">
@@ -2810,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(3-P18)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R18" s="14">
@@ -2818,7 +2780,7 @@
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="16">
-        <f>SUM(R18:S18)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U18" s="6">
@@ -2865,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(A$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M19" s="14">
@@ -2881,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(3-P19)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R19" s="14">
@@ -2889,7 +2851,7 @@
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="16">
-        <f>SUM(R19:S19)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
@@ -2936,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="M20" s="14">
@@ -2952,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(3-P20)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R20" s="14">
@@ -2960,7 +2922,7 @@
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="16">
-        <f>SUM(R20:S20)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="6">
@@ -3007,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(A$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M21" s="14">
@@ -3023,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(3-P21)</f>
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
       <c r="R21" s="14">
@@ -3031,7 +2993,7 @@
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="16">
-        <f>SUM(R21:S21)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="6">
@@ -3078,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="16">
-        <f>SUM(D22:J22)*50/(A$1-K22)</f>
+        <f t="shared" si="0"/>
         <v>86.999999999999986</v>
       </c>
       <c r="M22" s="14">
@@ -3094,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f>SUM(M22:O22)/(3-P22)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R22" s="14">
@@ -3102,7 +3064,7 @@
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="16">
-        <f>SUM(R22:S22)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="6">
@@ -3149,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="16">
-        <f>SUM(D23:J23)*50/(A$1-K23)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M23" s="14">
@@ -3165,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f>SUM(M23:O23)/(3-P23)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="R23" s="14">
@@ -3173,7 +3135,7 @@
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="16">
-        <f>SUM(R23:S23)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="6">
@@ -3220,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f>SUM(D24:J24)*50/(A$1-K24)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M24" s="14">
@@ -3236,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f>SUM(M24:O24)/(3-P24)</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="R24" s="14">
@@ -3244,7 +3206,7 @@
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="16">
-        <f>SUM(R24:S24)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="6">
@@ -3291,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f>SUM(D25:J25)*50/(A$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
       <c r="M25" s="14">
@@ -3307,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f>SUM(M25:O25)/(3-P25)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="R25" s="14">
@@ -3315,7 +3277,7 @@
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="16">
-        <f>SUM(R25:S25)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U25" s="6">
@@ -3362,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f>SUM(D26:J26)*50/(A$1-K26)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="M26" s="14">
@@ -3378,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f>SUM(M26:O26)/(3-P26)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R26" s="14">
@@ -3386,7 +3348,7 @@
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="16">
-        <f>SUM(R26:S26)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="6">
@@ -3433,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <f>SUM(D27:J27)*50/(A$1-K27)</f>
+        <f t="shared" si="0"/>
         <v>45.833333333333336</v>
       </c>
       <c r="M27" s="14">
@@ -3449,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f>SUM(M27:O27)/(3-P27)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="R27" s="14">
@@ -3457,7 +3419,7 @@
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="16">
-        <f>SUM(R27:S27)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="6">
@@ -3465,7 +3427,7 @@
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="21">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <f t="shared" ref="W27:W37" si="3">L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>31.333333333333336</v>
       </c>
     </row>
@@ -3488,7 +3450,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="58">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="59"/>
@@ -3502,7 +3464,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="61"/>
       <c r="W28" s="62">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3487,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="58">
-        <f>SUM(D29:J29)*50/(A$1-K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="59"/>
@@ -3539,7 +3501,7 @@
       <c r="U29" s="60"/>
       <c r="V29" s="61"/>
       <c r="W29" s="62">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3524,7 @@
       <c r="J30" s="56"/>
       <c r="K30" s="57"/>
       <c r="L30" s="58">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="59"/>
@@ -3576,7 +3538,7 @@
       <c r="U30" s="60"/>
       <c r="V30" s="61"/>
       <c r="W30" s="62">
-        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3561,7 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="58">
-        <f>SUM(D31:J31)*50/(A$1-K31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="59"/>
@@ -3613,7 +3575,7 @@
       <c r="U31" s="60"/>
       <c r="V31" s="61"/>
       <c r="W31" s="62">
-        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3636,7 +3598,7 @@
       <c r="J32" s="56"/>
       <c r="K32" s="57"/>
       <c r="L32" s="58">
-        <f>SUM(D32:J32)*50/(A$1-K32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="59"/>
@@ -3650,7 +3612,7 @@
       <c r="U32" s="60"/>
       <c r="V32" s="61"/>
       <c r="W32" s="62">
-        <f>L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3673,7 +3635,7 @@
       <c r="J33" s="56"/>
       <c r="K33" s="57"/>
       <c r="L33" s="58">
-        <f>SUM(D33:J33)*50/(A$1-K33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="59"/>
@@ -3687,7 +3649,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="61"/>
       <c r="W33" s="62">
-        <f>L33*0.2+Q33*0.25+T33*0.25+U33*0.3+V33*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +3672,7 @@
       <c r="J34" s="56"/>
       <c r="K34" s="57"/>
       <c r="L34" s="58">
-        <f>SUM(D34:J34)*50/(A$1-K34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="59"/>
@@ -3724,7 +3686,7 @@
       <c r="U34" s="60"/>
       <c r="V34" s="61"/>
       <c r="W34" s="62">
-        <f>L34*0.2+Q34*0.25+T34*0.25+U34*0.3+V34*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3747,7 +3709,7 @@
       <c r="J35" s="56"/>
       <c r="K35" s="57"/>
       <c r="L35" s="58">
-        <f>SUM(D35:J35)*50/(A$1-K35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="59"/>
@@ -3755,7 +3717,7 @@
       <c r="O35" s="75"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="58">
-        <f>SUM(M35:P35)/A$1</f>
+        <f t="shared" ref="Q35:Q42" si="4">SUM(M35:P35)/A$1</f>
         <v>0</v>
       </c>
       <c r="R35" s="59"/>
@@ -3764,7 +3726,7 @@
       <c r="U35" s="60"/>
       <c r="V35" s="61"/>
       <c r="W35" s="62">
-        <f>L35*0.2+Q35*0.25+T35*0.25+U35*0.3+V35*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +3749,7 @@
       <c r="J36" s="56"/>
       <c r="K36" s="57"/>
       <c r="L36" s="58">
-        <f>SUM(D36:J36)*50/(A$1-K36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="59"/>
@@ -3795,7 +3757,7 @@
       <c r="O36" s="75"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="58">
-        <f>SUM(M36:P36)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R36" s="59"/>
@@ -3804,7 +3766,7 @@
       <c r="U36" s="60"/>
       <c r="V36" s="61"/>
       <c r="W36" s="62">
-        <f>L36*0.2+Q36*0.25+T36*0.25+U36*0.3+V36*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3827,7 +3789,7 @@
       <c r="J37" s="56"/>
       <c r="K37" s="57"/>
       <c r="L37" s="58">
-        <f>SUM(D37:J37)*50/(A$1-K37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="59"/>
@@ -3835,7 +3797,7 @@
       <c r="O37" s="75"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="58">
-        <f>SUM(M37:P37)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R37" s="59"/>
@@ -3844,7 +3806,7 @@
       <c r="U37" s="60"/>
       <c r="V37" s="61"/>
       <c r="W37" s="62">
-        <f>L37*0.2+Q37*0.25+T37*0.25+U37*0.3+V37*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3867,7 +3829,7 @@
       <c r="J38" s="56"/>
       <c r="K38" s="57"/>
       <c r="L38" s="58">
-        <f>SUM(D38:J38)*50/(A$1-K38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="59"/>
@@ -3875,7 +3837,7 @@
       <c r="O38" s="75"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="58">
-        <f>SUM(M38:P38)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38" s="59"/>
@@ -3907,7 +3869,7 @@
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
       <c r="L39" s="58">
-        <f>SUM(D39:J39)*50/(A$1-K39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="59"/>
@@ -3915,7 +3877,7 @@
       <c r="O39" s="75"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="58">
-        <f>SUM(M39:P39)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R39" s="59"/>
@@ -3947,7 +3909,7 @@
       <c r="J40" s="56"/>
       <c r="K40" s="57"/>
       <c r="L40" s="58">
-        <f>SUM(D40:J40)*50/(A$1-K40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="59"/>
@@ -3955,7 +3917,7 @@
       <c r="O40" s="75"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="58">
-        <f>SUM(M40:P40)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R40" s="59"/>
@@ -3987,7 +3949,7 @@
       <c r="J41" s="66"/>
       <c r="K41" s="57"/>
       <c r="L41" s="58">
-        <f>SUM(D41:J41)*50/(A$1-K41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="59"/>
@@ -3995,7 +3957,7 @@
       <c r="O41" s="75"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="58">
-        <f>SUM(M41:P41)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R41" s="59"/>
@@ -4026,7 +3988,7 @@
       <c r="O42" s="74"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="16">
-        <f>SUM(M42:P42)/A$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R42" s="14"/>
@@ -4511,47 +4473,47 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:O42 U3:V42">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S42">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -8055,14 +8017,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I42">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8109,18 +8071,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O42">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8168,18 +8130,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q42">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1520,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1658,16 +1658,16 @@
     </row>
     <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D3" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="46">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I3" s="46">
         <v>2</v>
@@ -1691,14 +1691,14 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L41" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>115.83333333333333</v>
+        <f>SUM(D3:J3)*50/(A$1-K3)</f>
+        <v>100</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
       </c>
       <c r="N3" s="69">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O3" s="74">
         <v>100</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q27" si="1">SUM(M3:O3)/(3-P3)</f>
-        <v>96.666666666666671</v>
+        <f>SUM(M3:O3)/(3-P3)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R3" s="14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T27" si="2">SUM(R3:S3)/1</f>
-        <v>70</v>
+        <f>SUM(R3:S3)/1</f>
+        <v>85</v>
       </c>
       <c r="U3" s="6">
         <v>60</v>
@@ -1724,18 +1724,18 @@
       <c r="V3" s="38"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>82.833333333333343</v>
+        <v>83.833333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D4" s="45">
         <v>2</v>
@@ -1746,11 +1746,11 @@
       <c r="F4" s="46">
         <v>2</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>129</v>
+      <c r="G4" s="46">
+        <v>2</v>
       </c>
       <c r="H4" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I4" s="46">
         <v>2</v>
@@ -1759,17 +1759,17 @@
         <v>2</v>
       </c>
       <c r="K4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <v>115.83333333333333</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
       </c>
       <c r="N4" s="69">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O4" s="74">
         <v>100</v>
@@ -1778,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(M4:O4)/(3-P4)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R4" s="14">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="16">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f>SUM(R4:S4)/1</f>
+        <v>70</v>
       </c>
       <c r="U4" s="6">
         <v>60</v>
@@ -1795,18 +1795,18 @@
       <c r="V4" s="38"/>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>82.25</v>
+        <v>82.833333333333343</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D5" s="45">
         <v>2</v>
@@ -1817,11 +1817,11 @@
       <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="46">
-        <v>2</v>
+      <c r="G5" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="H5" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I5" s="46">
         <v>2</v>
@@ -1830,35 +1830,35 @@
         <v>2</v>
       </c>
       <c r="K5" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
-        <v>115.83333333333333</v>
+        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <v>120</v>
       </c>
       <c r="M5" s="14">
         <v>100</v>
       </c>
       <c r="N5" s="69">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O5" s="74">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P5" s="68">
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>SUM(M5:O5)/(3-P5)</f>
+        <v>100</v>
       </c>
       <c r="R5" s="14">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R5:S5)/1</f>
+        <v>61</v>
       </c>
       <c r="U5" s="6">
         <v>60</v>
@@ -1866,52 +1866,52 @@
       <c r="V5" s="38"/>
       <c r="W5" s="21">
         <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>77</v>
+        <v>82.25</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D6" s="45">
         <v>2</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>2</v>
       </c>
       <c r="F6" s="46">
         <v>2</v>
       </c>
-      <c r="G6" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="47">
-        <v>2</v>
-      </c>
-      <c r="I6" s="47">
-        <v>2</v>
-      </c>
-      <c r="J6" s="47">
+      <c r="G6" s="46">
+        <v>2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="I6" s="46">
+        <v>2</v>
+      </c>
+      <c r="J6" s="46">
         <v>2</v>
       </c>
       <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
+        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <v>115.83333333333333</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
       </c>
       <c r="N6" s="69">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O6" s="74">
         <v>90</v>
@@ -1920,15 +1920,15 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>SUM(M6:O6)/(3-P6)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R6" s="14">
         <v>50</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R6:S6)/1</f>
         <v>50</v>
       </c>
       <c r="U6" s="6">
@@ -1936,71 +1936,71 @@
       </c>
       <c r="V6" s="38"/>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.1</f>
-        <v>76.75</v>
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="47">
         <v>2</v>
       </c>
       <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G7" s="46">
-        <v>2</v>
-      </c>
-      <c r="H7" s="46">
-        <v>2</v>
-      </c>
-      <c r="I7" s="46">
-        <v>2</v>
-      </c>
-      <c r="J7" s="46">
+      <c r="G7" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="47">
+        <v>2</v>
+      </c>
+      <c r="I7" s="47">
+        <v>2</v>
+      </c>
+      <c r="J7" s="47">
         <v>2</v>
       </c>
       <c r="K7" s="40">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <v>112.5</v>
       </c>
       <c r="M7" s="14">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N7" s="69">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O7" s="74">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P7" s="68">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M7:O7)/(3-P7)</f>
         <v>95</v>
       </c>
       <c r="R7" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="16">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f>SUM(R7:S7)/1</f>
+        <v>50</v>
       </c>
       <c r="U7" s="6">
         <v>60</v>
@@ -2008,18 +2008,18 @@
       <c r="V7" s="38"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
-        <v>76.333333333333343</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="D8" s="45">
         <v>2</v>
@@ -2039,61 +2039,61 @@
       <c r="I8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>129</v>
+      <c r="J8" s="46">
+        <v>2</v>
       </c>
       <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M8" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N8" s="69">
+        <v>100</v>
+      </c>
+      <c r="O8" s="74">
+        <v>100</v>
+      </c>
+      <c r="P8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>SUM(M8:O8)/(3-P8)</f>
         <v>95</v>
       </c>
-      <c r="O8" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="P8" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
       <c r="R8" s="14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R8:S8)/1</f>
+        <v>45</v>
       </c>
       <c r="U8" s="6">
         <v>60</v>
       </c>
       <c r="V8" s="38"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>74.875</v>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
+        <v>76.333333333333343</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="46">
         <v>2</v>
@@ -2110,39 +2110,39 @@
       <c r="I9" s="46">
         <v>2</v>
       </c>
-      <c r="J9" s="46">
-        <v>2</v>
+      <c r="J9" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="K9" s="40">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:J9)*50/(A$1-K9)</f>
         <v>100</v>
       </c>
       <c r="M9" s="14">
         <v>100</v>
       </c>
       <c r="N9" s="69">
-        <v>100</v>
-      </c>
-      <c r="O9" s="74">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="O9" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="P9" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
-        <v>96.666666666666671</v>
+        <f>SUM(M9:O9)/(3-P9)</f>
+        <v>97.5</v>
       </c>
       <c r="R9" s="14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>SUM(R9:S9)/1</f>
+        <v>50</v>
       </c>
       <c r="U9" s="6">
         <v>60</v>
@@ -2150,21 +2150,21 @@
       <c r="V9" s="38"/>
       <c r="W9" s="21">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>69.666666666666671</v>
+        <v>74.875</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D10" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="46">
         <v>2</v>
@@ -2188,54 +2188,54 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <v>100</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
       </c>
       <c r="N10" s="69">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O10" s="74">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P10" s="68">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(M10:O10)/(3-P10)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R10" s="14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(R10:S10)/1</f>
+        <v>40</v>
       </c>
       <c r="U10" s="6">
         <v>60</v>
       </c>
       <c r="V10" s="38"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.1</f>
-        <v>66.833333333333343</v>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <v>70.916666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="46">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J11" s="46">
         <v>2</v>
@@ -2259,54 +2259,54 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>115.83333333333333</v>
+        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <v>100</v>
       </c>
       <c r="M11" s="14">
         <v>100</v>
       </c>
       <c r="N11" s="69">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O11" s="74">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P11" s="68">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <f>SUM(M11:O11)/(3-P11)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R11" s="14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(R11:S11)/1</f>
+        <v>30</v>
       </c>
       <c r="U11" s="6">
         <v>60</v>
       </c>
       <c r="V11" s="38"/>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
-        <v>66.25</v>
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>69.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D12" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="46">
         <v>2</v>
@@ -2330,14 +2330,14 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M12" s="14">
         <v>100</v>
       </c>
       <c r="N12" s="69">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O12" s="74">
         <v>100</v>
@@ -2346,15 +2346,15 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <f>SUM(M12:O12)/(3-P12)</f>
+        <v>100</v>
       </c>
       <c r="R12" s="14">
         <v>2</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R12:S12)/1</f>
         <v>2</v>
       </c>
       <c r="U12" s="6">
@@ -2362,71 +2362,71 @@
       </c>
       <c r="V12" s="38"/>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
-        <v>63.083333333333329</v>
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
+        <v>66.833333333333343</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="48">
-        <v>0</v>
-      </c>
-      <c r="E13" s="47">
-        <v>2</v>
-      </c>
-      <c r="F13" s="47">
-        <v>2</v>
-      </c>
-      <c r="G13" s="47">
-        <v>2</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="47">
+        <v>97</v>
+      </c>
+      <c r="D13" s="45">
+        <v>2</v>
+      </c>
+      <c r="E13" s="46">
+        <v>2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2</v>
+      </c>
+      <c r="G13" s="46">
+        <v>2</v>
+      </c>
+      <c r="H13" s="46">
+        <v>2</v>
+      </c>
+      <c r="I13" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="J13" s="46">
         <v>2</v>
       </c>
       <c r="K13" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <v>115.83333333333333</v>
       </c>
       <c r="M13" s="14">
-        <v>80</v>
-      </c>
-      <c r="N13" s="69" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="N13" s="69">
+        <v>95</v>
       </c>
       <c r="O13" s="74">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P13" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(M13:O13)/(3-P13)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R13" s="14">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>SUM(R13:S13)/1</f>
+        <v>2</v>
       </c>
       <c r="U13" s="6">
         <v>60</v>
@@ -2434,78 +2434,78 @@
       <c r="V13" s="38"/>
       <c r="W13" s="21">
         <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
-        <v>61.5</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0</v>
-      </c>
-      <c r="E14" s="46">
-        <v>2</v>
-      </c>
-      <c r="F14" s="46">
-        <v>2</v>
-      </c>
-      <c r="G14" s="46">
-        <v>2</v>
-      </c>
-      <c r="H14" s="46">
-        <v>2</v>
-      </c>
-      <c r="I14" s="46">
-        <v>2</v>
-      </c>
-      <c r="J14" s="46">
+        <v>28</v>
+      </c>
+      <c r="D14" s="48">
+        <v>0</v>
+      </c>
+      <c r="E14" s="47">
+        <v>2</v>
+      </c>
+      <c r="F14" s="47">
+        <v>2</v>
+      </c>
+      <c r="G14" s="47">
+        <v>2</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="47">
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
         <v>2</v>
       </c>
       <c r="K14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <v>80</v>
       </c>
       <c r="M14" s="14">
-        <v>100</v>
-      </c>
-      <c r="N14" s="69">
         <v>80</v>
       </c>
+      <c r="N14" s="69" t="s">
+        <v>129</v>
+      </c>
       <c r="O14" s="74">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P14" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
+        <f>SUM(M14:O14)/(3-P14)</f>
+        <v>80</v>
       </c>
       <c r="R14" s="14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(R14:S14)/1</f>
+        <v>30</v>
       </c>
       <c r="U14" s="6">
         <v>60</v>
       </c>
       <c r="V14" s="38"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
-        <v>61.416666666666671</v>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:J15)*50/(A$1-K15)</f>
         <v>100</v>
       </c>
       <c r="M15" s="14">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M15:O15)/(3-P15)</f>
         <v>92.5</v>
       </c>
       <c r="R15" s="14">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R15:S15)/1</f>
         <v>0</v>
       </c>
       <c r="U15" s="6">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:J16)*50/(A$1-K16)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M16" s="14">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M16:O16)/(3-P16)</f>
         <v>98.333333333333329</v>
       </c>
       <c r="R16" s="14">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R16:S16)/1</f>
         <v>-25</v>
       </c>
       <c r="U16" s="6">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/(A$1-K17)</f>
         <v>115</v>
       </c>
       <c r="M17" s="14">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:O17)/(3-P17)</f>
         <v>98.333333333333329</v>
       </c>
       <c r="R17" s="14">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R17:S17)/1</f>
         <v>-25</v>
       </c>
       <c r="U17" s="6">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:J18)*50/(A$1-K18)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M18" s="14">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M18:O18)/(3-P18)</f>
         <v>86.666666666666671</v>
       </c>
       <c r="R18" s="14">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R18:S18)/1</f>
         <v>-25</v>
       </c>
       <c r="U18" s="6">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:J19)*50/(A$1-K19)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M19" s="14">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M19:O19)/(3-P19)</f>
         <v>80</v>
       </c>
       <c r="R19" s="14">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R19:S19)/1</f>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:J20)*50/(A$1-K20)</f>
         <v>60</v>
       </c>
       <c r="M20" s="14">
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M20:O20)/(3-P20)</f>
         <v>86.666666666666671</v>
       </c>
       <c r="R20" s="14">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R20:S20)/1</f>
         <v>0</v>
       </c>
       <c r="U20" s="6">
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:J21)*50/(A$1-K21)</f>
         <v>100</v>
       </c>
       <c r="M21" s="14">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:O21)/(3-P21)</f>
         <v>53.333333333333336</v>
       </c>
       <c r="R21" s="14">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R21:S21)/1</f>
         <v>0</v>
       </c>
       <c r="U21" s="6">
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(A$1-K22)</f>
         <v>86.999999999999986</v>
       </c>
       <c r="M22" s="14">
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:O22)/(3-P22)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R22" s="14">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R22:S22)/1</f>
         <v>0</v>
       </c>
       <c r="U22" s="6">
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(A$1-K23)</f>
         <v>50</v>
       </c>
       <c r="M23" s="14">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:O23)/(3-P23)</f>
         <v>55</v>
       </c>
       <c r="R23" s="14">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R23:S23)/1</f>
         <v>0</v>
       </c>
       <c r="U23" s="6">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(A$1-K24)</f>
         <v>35</v>
       </c>
       <c r="M24" s="14">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:O24)/(3-P24)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="R24" s="14">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R24:S24)/1</f>
         <v>0</v>
       </c>
       <c r="U24" s="6">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(A$1-K25)</f>
         <v>58.333333333333336</v>
       </c>
       <c r="M25" s="14">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:O25)/(3-P25)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="R25" s="14">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R25:S25)/1</f>
         <v>2</v>
       </c>
       <c r="U25" s="6">
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(A$1-K26)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="M26" s="14">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:O26)/(3-P26)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R26" s="14">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)/1</f>
         <v>0</v>
       </c>
       <c r="U26" s="6">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(A$1-K27)</f>
         <v>45.833333333333336</v>
       </c>
       <c r="M27" s="14">
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:O27)/(3-P27)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="R27" s="14">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R27:S27)/1</f>
         <v>0</v>
       </c>
       <c r="U27" s="6">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="21">
-        <f t="shared" ref="W27:W37" si="3">L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>31.333333333333336</v>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="59"/>
@@ -3464,7 +3464,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="61"/>
       <c r="W28" s="62">
-        <f t="shared" si="3"/>
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(A$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="59"/>
@@ -3501,7 +3501,7 @@
       <c r="U29" s="60"/>
       <c r="V29" s="61"/>
       <c r="W29" s="62">
-        <f t="shared" si="3"/>
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="J30" s="56"/>
       <c r="K30" s="57"/>
       <c r="L30" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="59"/>
@@ -3538,7 +3538,7 @@
       <c r="U30" s="60"/>
       <c r="V30" s="61"/>
       <c r="W30" s="62">
-        <f t="shared" si="3"/>
+        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="59"/>
@@ -3575,7 +3575,7 @@
       <c r="U31" s="60"/>
       <c r="V31" s="61"/>
       <c r="W31" s="62">
-        <f t="shared" si="3"/>
+        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="J32" s="56"/>
       <c r="K32" s="57"/>
       <c r="L32" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D32:J32)*50/(A$1-K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="59"/>
@@ -3612,7 +3612,7 @@
       <c r="U32" s="60"/>
       <c r="V32" s="61"/>
       <c r="W32" s="62">
-        <f t="shared" si="3"/>
+        <f>L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       <c r="J33" s="56"/>
       <c r="K33" s="57"/>
       <c r="L33" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D33:J33)*50/(A$1-K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="59"/>
@@ -3649,7 +3649,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="61"/>
       <c r="W33" s="62">
-        <f t="shared" si="3"/>
+        <f>L33*0.2+Q33*0.25+T33*0.25+U33*0.3+V33*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       <c r="J34" s="56"/>
       <c r="K34" s="57"/>
       <c r="L34" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D34:J34)*50/(A$1-K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="59"/>
@@ -3686,7 +3686,7 @@
       <c r="U34" s="60"/>
       <c r="V34" s="61"/>
       <c r="W34" s="62">
-        <f t="shared" si="3"/>
+        <f>L34*0.2+Q34*0.25+T34*0.25+U34*0.3+V34*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="J35" s="56"/>
       <c r="K35" s="57"/>
       <c r="L35" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D35:J35)*50/(A$1-K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="59"/>
@@ -3717,7 +3717,7 @@
       <c r="O35" s="75"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="58">
-        <f t="shared" ref="Q35:Q42" si="4">SUM(M35:P35)/A$1</f>
+        <f>SUM(M35:P35)/A$1</f>
         <v>0</v>
       </c>
       <c r="R35" s="59"/>
@@ -3726,7 +3726,7 @@
       <c r="U35" s="60"/>
       <c r="V35" s="61"/>
       <c r="W35" s="62">
-        <f t="shared" si="3"/>
+        <f>L35*0.2+Q35*0.25+T35*0.25+U35*0.3+V35*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="J36" s="56"/>
       <c r="K36" s="57"/>
       <c r="L36" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D36:J36)*50/(A$1-K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="59"/>
@@ -3757,7 +3757,7 @@
       <c r="O36" s="75"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M36:P36)/A$1</f>
         <v>0</v>
       </c>
       <c r="R36" s="59"/>
@@ -3766,7 +3766,7 @@
       <c r="U36" s="60"/>
       <c r="V36" s="61"/>
       <c r="W36" s="62">
-        <f t="shared" si="3"/>
+        <f>L36*0.2+Q36*0.25+T36*0.25+U36*0.3+V36*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       <c r="J37" s="56"/>
       <c r="K37" s="57"/>
       <c r="L37" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D37:J37)*50/(A$1-K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="59"/>
@@ -3797,7 +3797,7 @@
       <c r="O37" s="75"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M37:P37)/A$1</f>
         <v>0</v>
       </c>
       <c r="R37" s="59"/>
@@ -3806,7 +3806,7 @@
       <c r="U37" s="60"/>
       <c r="V37" s="61"/>
       <c r="W37" s="62">
-        <f t="shared" si="3"/>
+        <f>L37*0.2+Q37*0.25+T37*0.25+U37*0.3+V37*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       <c r="J38" s="56"/>
       <c r="K38" s="57"/>
       <c r="L38" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D38:J38)*50/(A$1-K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="59"/>
@@ -3837,7 +3837,7 @@
       <c r="O38" s="75"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M38:P38)/A$1</f>
         <v>0</v>
       </c>
       <c r="R38" s="59"/>
@@ -3869,7 +3869,7 @@
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
       <c r="L39" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D39:J39)*50/(A$1-K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="59"/>
@@ -3877,7 +3877,7 @@
       <c r="O39" s="75"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M39:P39)/A$1</f>
         <v>0</v>
       </c>
       <c r="R39" s="59"/>
@@ -3909,7 +3909,7 @@
       <c r="J40" s="56"/>
       <c r="K40" s="57"/>
       <c r="L40" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D40:J40)*50/(A$1-K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="59"/>
@@ -3917,7 +3917,7 @@
       <c r="O40" s="75"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M40:P40)/A$1</f>
         <v>0</v>
       </c>
       <c r="R40" s="59"/>
@@ -3949,7 +3949,7 @@
       <c r="J41" s="66"/>
       <c r="K41" s="57"/>
       <c r="L41" s="58">
-        <f t="shared" si="0"/>
+        <f>SUM(D41:J41)*50/(A$1-K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="59"/>
@@ -3957,7 +3957,7 @@
       <c r="O41" s="75"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="58">
-        <f t="shared" si="4"/>
+        <f>SUM(M41:P41)/A$1</f>
         <v>0</v>
       </c>
       <c r="R41" s="59"/>
@@ -3988,7 +3988,7 @@
       <c r="O42" s="74"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(M42:P42)/A$1</f>
         <v>0</v>
       </c>
       <c r="R42" s="14"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1520,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y31" sqref="Y31"/>
+      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2439,65 +2439,65 @@
     </row>
     <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D14" s="48">
         <v>0</v>
       </c>
       <c r="E14" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="47">
-        <v>2</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <v>1.7</v>
       </c>
       <c r="I14" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="47">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M14" s="14">
-        <v>80</v>
-      </c>
-      <c r="N14" s="69" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
+        <v>100</v>
       </c>
       <c r="O14" s="74">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P14" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="16">
         <f>SUM(M14:O14)/(3-P14)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="R14" s="14">
         <v>80</v>
-      </c>
-      <c r="R14" s="14">
-        <v>30</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="16">
         <f>SUM(R14:S14)/1</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="U14" s="6">
         <v>60</v>
@@ -2505,38 +2505,38 @@
       <c r="V14" s="38"/>
       <c r="W14" s="21">
         <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>61.5</v>
+        <v>61.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="45">
-        <v>0</v>
-      </c>
-      <c r="E15" s="46">
-        <v>2</v>
-      </c>
-      <c r="F15" s="46">
-        <v>2</v>
-      </c>
-      <c r="G15" s="46">
-        <v>2</v>
-      </c>
-      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>2</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
+      </c>
+      <c r="G15" s="47">
+        <v>2</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="46">
-        <v>2</v>
-      </c>
-      <c r="J15" s="46">
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
         <v>2</v>
       </c>
       <c r="K15" s="40">
@@ -2544,53 +2544,53 @@
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M15" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N15" s="69" t="s">
         <v>129</v>
       </c>
       <c r="O15" s="74">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P15" s="68">
         <v>1</v>
       </c>
       <c r="Q15" s="16">
         <f>SUM(M15:O15)/(3-P15)</f>
-        <v>92.5</v>
+        <v>80</v>
       </c>
       <c r="R15" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="16">
         <f>SUM(R15:S15)/1</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U15" s="6">
         <v>60</v>
       </c>
       <c r="V15" s="38"/>
       <c r="W15" s="21">
-        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>61.125</v>
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D16" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="46">
         <v>2</v>
@@ -2601,8 +2601,8 @@
       <c r="G16" s="46">
         <v>2</v>
       </c>
-      <c r="H16" s="46">
-        <v>2</v>
+      <c r="H16" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I16" s="46">
         <v>2</v>
@@ -2611,35 +2611,35 @@
         <v>2</v>
       </c>
       <c r="K16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(A$1-K16)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M16" s="14">
-        <v>95</v>
-      </c>
-      <c r="N16" s="69">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="N16" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O16" s="74">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P16" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <f>SUM(M16:O16)/(3-P16)</f>
-        <v>98.333333333333329</v>
+        <v>92.5</v>
       </c>
       <c r="R16" s="14">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="16">
         <f>SUM(R16:S16)/1</f>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="U16" s="6">
         <v>60</v>
@@ -2647,18 +2647,18 @@
       <c r="V16" s="38"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>59.666666666666671</v>
+        <v>61.125</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D17" s="45">
         <v>2</v>
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I17" s="46">
         <v>2</v>
@@ -2686,13 +2686,13 @@
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(A$1-K17)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M17" s="14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N17" s="69">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O17" s="74">
         <v>100</v>
@@ -2717,19 +2717,19 @@
       </c>
       <c r="V17" s="38"/>
       <c r="W17" s="21">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
-        <v>59.333333333333329</v>
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
+        <v>59.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" s="45">
         <v>2</v>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I18" s="46">
         <v>2</v>
@@ -2757,23 +2757,23 @@
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>116.66666666666667</v>
+        <v>115</v>
       </c>
       <c r="M18" s="14">
         <v>100</v>
       </c>
       <c r="N18" s="69">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O18" s="74">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P18" s="68">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
         <f>SUM(M18:O18)/(3-P18)</f>
-        <v>86.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R18" s="14">
         <v>-25</v>
@@ -2789,15 +2789,15 @@
       <c r="V18" s="38"/>
       <c r="W18" s="21">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>56.75</v>
+        <v>59.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>114</v>
@@ -2831,7 +2831,7 @@
         <v>116.66666666666667</v>
       </c>
       <c r="M19" s="14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N19" s="69">
         <v>80</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="Q19" s="16">
         <f>SUM(M19:O19)/(3-P19)</f>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R19" s="14">
         <v>-25</v>
@@ -2860,21 +2860,21 @@
       <c r="V19" s="38"/>
       <c r="W19" s="21">
         <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>55.083333333333336</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D20" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="46">
         <v>2</v>
@@ -2883,13 +2883,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="46">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H20" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="46">
         <v>2</v>
@@ -2899,13 +2899,13 @@
       </c>
       <c r="L20" s="16">
         <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>60</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M20" s="14">
         <v>80</v>
       </c>
       <c r="N20" s="69">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O20" s="74">
         <v>80</v>
@@ -2915,37 +2915,37 @@
       </c>
       <c r="Q20" s="16">
         <f>SUM(M20:O20)/(3-P20)</f>
-        <v>86.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="R20" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="16">
         <f>SUM(R20:S20)/1</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="U20" s="6">
         <v>60</v>
       </c>
       <c r="V20" s="38"/>
       <c r="W20" s="21">
-        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
-        <v>51.666666666666671</v>
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
+        <v>55.083333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D21" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="46">
         <v>2</v>
@@ -2954,13 +2954,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="46">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H21" s="46">
         <v>0</v>
       </c>
       <c r="I21" s="46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="46">
         <v>2</v>
@@ -2970,23 +2970,23 @@
       </c>
       <c r="L21" s="16">
         <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M21" s="14">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N21" s="69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="74">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P21" s="68">
         <v>0</v>
       </c>
       <c r="Q21" s="16">
         <f>SUM(M21:O21)/(3-P21)</f>
-        <v>53.333333333333336</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R21" s="14">
         <v>0</v>
@@ -3001,63 +3001,63 @@
       </c>
       <c r="V21" s="38"/>
       <c r="W21" s="21">
-        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
-        <v>51.333333333333336</v>
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
+        <v>51.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D22" s="45">
         <v>2</v>
       </c>
       <c r="E22" s="45">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F22" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="46">
         <v>2</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>129</v>
+      <c r="H22" s="46">
+        <v>0</v>
       </c>
       <c r="I22" s="46">
         <v>2</v>
       </c>
       <c r="J22" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
         <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>86.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="M22" s="14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N22" s="69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="74">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P22" s="68">
         <v>0</v>
       </c>
       <c r="Q22" s="16">
         <f>SUM(M22:O22)/(3-P22)</f>
-        <v>33.333333333333336</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="R22" s="14">
         <v>0</v>
@@ -3072,53 +3072,53 @@
       </c>
       <c r="V22" s="38"/>
       <c r="W22" s="21">
-        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
-        <v>43.733333333333334</v>
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.1</f>
+        <v>51.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="48">
-        <v>0</v>
-      </c>
-      <c r="E23" s="47">
-        <v>0</v>
-      </c>
-      <c r="F23" s="47">
-        <v>2</v>
-      </c>
-      <c r="G23" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="45">
+        <v>2</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1.7</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>2</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="47">
-        <v>2</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="47">
-        <v>0</v>
+      <c r="I23" s="46">
+        <v>2</v>
+      </c>
+      <c r="J23" s="46">
+        <v>1</v>
       </c>
       <c r="K23" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="16">
         <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>50</v>
+        <v>86.999999999999986</v>
       </c>
       <c r="M23" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N23" s="69">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O23" s="74">
         <v>0</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="Q23" s="16">
         <f>SUM(M23:O23)/(3-P23)</f>
-        <v>55</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R23" s="14">
         <v>0</v>
@@ -3143,19 +3143,19 @@
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="21">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.1</f>
-        <v>41.75</v>
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <v>43.733333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -3164,42 +3164,42 @@
         <v>0</v>
       </c>
       <c r="F24" s="47">
-        <v>0</v>
-      </c>
-      <c r="G24" s="47">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="H24" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="I24" s="47">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="J24" s="47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K24" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="16">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M24" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N24" s="69">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O24" s="74">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="68">
         <v>0</v>
       </c>
       <c r="Q24" s="16">
         <f>SUM(M24:O24)/(3-P24)</f>
-        <v>66.666666666666671</v>
+        <v>55</v>
       </c>
       <c r="R24" s="14">
         <v>0</v>
@@ -3215,7 +3215,7 @@
       <c r="V24" s="38"/>
       <c r="W24" s="21">
         <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>41.666666666666671</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -39,6 +39,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sari, Ozkan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Herkese +23 puan verildi</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -68,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>Adı</t>
   </si>
@@ -458,6 +482,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>HR160052</t>
+  </si>
+  <si>
+    <t>ÖMER FARUK</t>
+  </si>
+  <si>
+    <t>SÖNMEZ</t>
   </si>
 </sst>
 </file>
@@ -468,7 +501,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +551,19 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -842,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1018,11 +1064,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1126,44 +1249,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1516,11 +1601,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1631,7 @@
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
         <v>6</v>
       </c>
@@ -1585,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
@@ -1656,18 +1741,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D3" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="46">
         <v>2</v>
@@ -1679,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I3" s="46">
         <v>2</v>
@@ -1692,13 +1777,13 @@
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(A$1-K3)</f>
-        <v>100</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
       </c>
       <c r="N3" s="69">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O3" s="74">
         <v>100</v>
@@ -1708,37 +1793,38 @@
       </c>
       <c r="Q3" s="16">
         <f>SUM(M3:O3)/(3-P3)</f>
-        <v>98.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="R3" s="14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="16">
         <f>SUM(R3:S3)/1</f>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="U3" s="6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="V3" s="38"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>83.833333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93.333333333333343</v>
+      </c>
+      <c r="Y3" s="79"/>
+    </row>
+    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D4" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="46">
         <v>2</v>
@@ -1750,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="46">
         <v>2</v>
@@ -1763,13 +1849,13 @@
       </c>
       <c r="L4" s="16">
         <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>115.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="M4" s="14">
         <v>100</v>
       </c>
       <c r="N4" s="69">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O4" s="74">
         <v>100</v>
@@ -1779,26 +1865,27 @@
       </c>
       <c r="Q4" s="16">
         <f>SUM(M4:O4)/(3-P4)</f>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R4" s="14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="16">
         <f>SUM(R4:S4)/1</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="U4" s="6">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="V4" s="38"/>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>82.833333333333343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91.033333333333331</v>
+      </c>
+      <c r="Y4" s="79"/>
+    </row>
+    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>84</v>
       </c>
@@ -1861,15 +1948,16 @@
         <v>61</v>
       </c>
       <c r="U5" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="V5" s="38"/>
       <c r="W5" s="21">
         <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>82.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88.25</v>
+      </c>
+      <c r="Y5" s="79"/>
+    </row>
+    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>51</v>
       </c>
@@ -1932,43 +2020,44 @@
         <v>50</v>
       </c>
       <c r="U6" s="6">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="V6" s="38"/>
       <c r="W6" s="21">
         <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84.8</v>
+      </c>
+      <c r="Y6" s="79"/>
+    </row>
+    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>2</v>
       </c>
       <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G7" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="47">
-        <v>2</v>
-      </c>
-      <c r="I7" s="47">
-        <v>2</v>
-      </c>
-      <c r="J7" s="47">
+      <c r="G7" s="46">
+        <v>2</v>
+      </c>
+      <c r="H7" s="46">
+        <v>2</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46">
         <v>2</v>
       </c>
       <c r="K7" s="40">
@@ -1976,16 +2065,16 @@
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>112.5</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N7" s="69">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O7" s="74">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P7" s="68">
         <v>0</v>
@@ -1995,34 +2084,35 @@
         <v>95</v>
       </c>
       <c r="R7" s="14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="16">
         <f>SUM(R7:S7)/1</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U7" s="6">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="V7" s="38"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84.433333333333337</v>
+      </c>
+      <c r="Y7" s="79"/>
+    </row>
+    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D8" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="46">
         <v>2</v>
@@ -2047,42 +2137,43 @@
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M8" s="14">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N8" s="69">
         <v>100</v>
       </c>
       <c r="O8" s="74">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P8" s="68">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
         <f>SUM(M8:O8)/(3-P8)</f>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="R8" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="16">
         <f>SUM(R8:S8)/1</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="U8" s="6">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="V8" s="38"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
-        <v>76.333333333333343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <v>79.866666666666674</v>
+      </c>
+      <c r="Y8" s="79"/>
+    </row>
+    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
@@ -2145,43 +2236,44 @@
         <v>50</v>
       </c>
       <c r="U9" s="6">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="V9" s="38"/>
       <c r="W9" s="21">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>74.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79.674999999999997</v>
+      </c>
+      <c r="Y9" s="79"/>
+    </row>
+    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="46">
+        <v>2</v>
+      </c>
+      <c r="E10" s="47">
         <v>2</v>
       </c>
       <c r="F10" s="46">
         <v>2</v>
       </c>
-      <c r="G10" s="46">
-        <v>2</v>
-      </c>
-      <c r="H10" s="46">
-        <v>2</v>
-      </c>
-      <c r="I10" s="46">
-        <v>2</v>
-      </c>
-      <c r="J10" s="46">
+      <c r="G10" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="47">
+        <v>2</v>
+      </c>
+      <c r="I10" s="47">
+        <v>2</v>
+      </c>
+      <c r="J10" s="47">
         <v>2</v>
       </c>
       <c r="K10" s="40">
@@ -2189,53 +2281,54 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(A$1-K10)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="M10" s="14">
         <v>100</v>
       </c>
       <c r="N10" s="69">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O10" s="74">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P10" s="68">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
         <f>SUM(M10:O10)/(3-P10)</f>
-        <v>91.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="R10" s="14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="16">
         <f>SUM(R10:S10)/1</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U10" s="6">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="V10" s="38"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>70.916666666666671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.1</f>
+        <v>79.45</v>
+      </c>
+      <c r="Y10" s="79"/>
+    </row>
+    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D11" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="46">
         <v>2</v>
@@ -2250,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J11" s="46">
         <v>2</v>
@@ -2260,81 +2353,82 @@
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>100</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M11" s="14">
         <v>100</v>
       </c>
       <c r="N11" s="69">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O11" s="74">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P11" s="68">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
         <f>SUM(M11:O11)/(3-P11)</f>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R11" s="14">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="16">
         <f>SUM(R11:S11)/1</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="U11" s="6">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="V11" s="38"/>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
+        <v>74.05</v>
+      </c>
+      <c r="Y11" s="79"/>
+    </row>
+    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="45">
-        <v>2</v>
-      </c>
-      <c r="E12" s="46">
-        <v>2</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="46">
-        <v>2</v>
-      </c>
-      <c r="H12" s="46">
-        <v>2</v>
-      </c>
-      <c r="I12" s="46">
-        <v>2</v>
-      </c>
-      <c r="J12" s="46">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="I12" s="47">
+        <v>2</v>
+      </c>
+      <c r="J12" s="47">
+        <v>0.5</v>
       </c>
       <c r="K12" s="40">
         <v>0</v>
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>116.66666666666667</v>
+        <v>35</v>
       </c>
       <c r="M12" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="69">
         <v>100</v>
@@ -2347,37 +2441,38 @@
       </c>
       <c r="Q12" s="16">
         <f>SUM(M12:O12)/(3-P12)</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="R12" s="14">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="16">
         <f>SUM(R12:S12)/1</f>
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="U12" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V12" s="38"/>
       <c r="W12" s="21">
         <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
-        <v>66.833333333333343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73.666666666666671</v>
+      </c>
+      <c r="Y12" s="79"/>
+    </row>
+    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D13" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="46">
         <v>2</v>
@@ -2392,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J13" s="46">
         <v>2</v>
@@ -2402,81 +2497,82 @@
       </c>
       <c r="L13" s="16">
         <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>115.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="M13" s="14">
         <v>100</v>
       </c>
       <c r="N13" s="69">
+        <v>80</v>
+      </c>
+      <c r="O13" s="74">
         <v>95</v>
-      </c>
-      <c r="O13" s="74">
-        <v>100</v>
       </c>
       <c r="P13" s="68">
         <v>0</v>
       </c>
       <c r="Q13" s="16">
         <f>SUM(M13:O13)/(3-P13)</f>
-        <v>98.333333333333329</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="R13" s="14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="16">
         <f>SUM(R13:S13)/1</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="U13" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V13" s="38"/>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <v>71.516666666666666</v>
+      </c>
+      <c r="Y13" s="79"/>
+    </row>
+    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="48">
-        <v>0</v>
-      </c>
-      <c r="E14" s="47">
-        <v>0</v>
-      </c>
-      <c r="F14" s="47">
-        <v>0</v>
-      </c>
-      <c r="G14" s="47">
-        <v>0</v>
-      </c>
-      <c r="H14" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="I14" s="47">
-        <v>2</v>
-      </c>
-      <c r="J14" s="47">
-        <v>0.5</v>
+        <v>103</v>
+      </c>
+      <c r="D14" s="45">
+        <v>2</v>
+      </c>
+      <c r="E14" s="46">
+        <v>2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2</v>
+      </c>
+      <c r="H14" s="46">
+        <v>2</v>
+      </c>
+      <c r="I14" s="46">
+        <v>2</v>
+      </c>
+      <c r="J14" s="46">
+        <v>2</v>
       </c>
       <c r="K14" s="40">
         <v>0</v>
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>35</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M14" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="69">
         <v>100</v>
@@ -2489,108 +2585,110 @@
       </c>
       <c r="Q14" s="16">
         <f>SUM(M14:O14)/(3-P14)</f>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="R14" s="14">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="16">
         <f>SUM(R14:S14)/1</f>
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="U14" s="6">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="V14" s="38"/>
       <c r="W14" s="21">
         <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>61.666666666666671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70.13333333333334</v>
+      </c>
+      <c r="Y14" s="79"/>
+    </row>
+    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="48">
-        <v>0</v>
-      </c>
-      <c r="E15" s="47">
-        <v>2</v>
-      </c>
-      <c r="F15" s="47">
-        <v>2</v>
-      </c>
-      <c r="G15" s="47">
-        <v>2</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="47">
-        <v>0</v>
-      </c>
-      <c r="J15" s="47">
+        <v>100</v>
+      </c>
+      <c r="D15" s="45">
+        <v>2</v>
+      </c>
+      <c r="E15" s="46">
+        <v>2</v>
+      </c>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="I15" s="46">
+        <v>2</v>
+      </c>
+      <c r="J15" s="46">
         <v>2</v>
       </c>
       <c r="K15" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="M15" s="14">
-        <v>80</v>
-      </c>
-      <c r="N15" s="69" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="N15" s="69">
+        <v>95</v>
       </c>
       <c r="O15" s="74">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P15" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="16">
         <f>SUM(M15:O15)/(3-P15)</f>
-        <v>80</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R15" s="14">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="16">
         <f>SUM(R15:S15)/1</f>
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="U15" s="6">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="V15" s="38"/>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67.73333333333332</v>
+      </c>
+      <c r="Y15" s="79"/>
+    </row>
+    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D16" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="46">
         <v>2</v>
@@ -2601,8 +2699,8 @@
       <c r="G16" s="46">
         <v>2</v>
       </c>
-      <c r="H16" s="46" t="s">
-        <v>129</v>
+      <c r="H16" s="46">
+        <v>2</v>
       </c>
       <c r="I16" s="46">
         <v>2</v>
@@ -2611,54 +2709,55 @@
         <v>2</v>
       </c>
       <c r="K16" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(A$1-K16)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M16" s="14">
-        <v>100</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="N16" s="69">
+        <v>100</v>
       </c>
       <c r="O16" s="74">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P16" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <f>SUM(M16:O16)/(3-P16)</f>
-        <v>92.5</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R16" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="16">
         <f>SUM(R16:S16)/1</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="U16" s="6">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="V16" s="38"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>61.125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65.066666666666663</v>
+      </c>
+      <c r="Y16" s="79"/>
+    </row>
+    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D17" s="45">
         <v>2</v>
@@ -2689,20 +2788,20 @@
         <v>116.66666666666667</v>
       </c>
       <c r="M17" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N17" s="69">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O17" s="74">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P17" s="68">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
         <f>SUM(M17:O17)/(3-P17)</f>
-        <v>98.333333333333329</v>
+        <v>80</v>
       </c>
       <c r="R17" s="14">
         <v>-25</v>
@@ -2713,23 +2812,24 @@
         <v>-25</v>
       </c>
       <c r="U17" s="6">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="V17" s="38"/>
       <c r="W17" s="21">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>59.666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
+        <v>64.38333333333334</v>
+      </c>
+      <c r="Y17" s="79"/>
+    </row>
+    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D18" s="45">
         <v>2</v>
@@ -2744,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I18" s="46">
         <v>2</v>
@@ -2757,23 +2857,23 @@
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(A$1-K18)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M18" s="14">
         <v>100</v>
       </c>
       <c r="N18" s="69">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O18" s="74">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P18" s="68">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
         <f>SUM(M18:O18)/(3-P18)</f>
-        <v>98.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R18" s="14">
         <v>-25</v>
@@ -2784,26 +2884,27 @@
         <v>-25</v>
       </c>
       <c r="U18" s="6">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="V18" s="38"/>
       <c r="W18" s="21">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>59.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64.25</v>
+      </c>
+      <c r="Y18" s="79"/>
+    </row>
+    <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D19" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="46">
         <v>2</v>
@@ -2814,8 +2915,8 @@
       <c r="G19" s="46">
         <v>2</v>
       </c>
-      <c r="H19" s="46">
-        <v>2</v>
+      <c r="H19" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I19" s="46">
         <v>2</v>
@@ -2824,117 +2925,119 @@
         <v>2</v>
       </c>
       <c r="K19" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M19" s="14">
         <v>100</v>
       </c>
-      <c r="N19" s="69">
-        <v>80</v>
+      <c r="N19" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O19" s="74">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="16">
         <f>SUM(M19:O19)/(3-P19)</f>
-        <v>86.666666666666671</v>
+        <v>92.5</v>
       </c>
       <c r="R19" s="14">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="16">
         <f>SUM(R19:S19)/1</f>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="U19" s="6">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="V19" s="38"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>56.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <v>63.524999999999999</v>
+      </c>
+      <c r="Y19" s="79"/>
+    </row>
+    <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="45">
-        <v>2</v>
-      </c>
-      <c r="E20" s="46">
-        <v>2</v>
-      </c>
-      <c r="F20" s="46">
-        <v>2</v>
-      </c>
-      <c r="G20" s="46">
-        <v>2</v>
-      </c>
-      <c r="H20" s="46">
-        <v>2</v>
-      </c>
-      <c r="I20" s="46">
-        <v>2</v>
-      </c>
-      <c r="J20" s="46">
+        <v>28</v>
+      </c>
+      <c r="D20" s="48">
+        <v>0</v>
+      </c>
+      <c r="E20" s="47">
+        <v>2</v>
+      </c>
+      <c r="F20" s="47">
+        <v>2</v>
+      </c>
+      <c r="G20" s="47">
+        <v>2</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="47">
+        <v>0</v>
+      </c>
+      <c r="J20" s="47">
         <v>2</v>
       </c>
       <c r="K20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="16">
         <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>116.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="M20" s="14">
         <v>80</v>
       </c>
-      <c r="N20" s="69">
-        <v>80</v>
+      <c r="N20" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="O20" s="74">
         <v>80</v>
       </c>
       <c r="P20" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="16">
         <f>SUM(M20:O20)/(3-P20)</f>
         <v>80</v>
       </c>
       <c r="R20" s="14">
-        <v>-25</v>
+        <v>30</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="16">
         <f>SUM(R20:S20)/1</f>
-        <v>-25</v>
+        <v>30</v>
       </c>
       <c r="U20" s="6">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V20" s="38"/>
       <c r="W20" s="21">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
-        <v>55.083333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62.4</v>
+      </c>
+      <c r="Y20" s="79"/>
+    </row>
+    <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>66</v>
       </c>
@@ -2997,15 +3100,16 @@
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="V21" s="38"/>
       <c r="W21" s="21">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
-        <v>51.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58.266666666666666</v>
+      </c>
+      <c r="Y21" s="79"/>
+    </row>
+    <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
@@ -3068,15 +3172,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V22" s="38"/>
       <c r="W22" s="21">
         <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.1</f>
-        <v>51.333333333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50.13333333333334</v>
+      </c>
+      <c r="Y22" s="79"/>
+    </row>
+    <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>69</v>
       </c>
@@ -3139,15 +3244,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="21">
         <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>43.733333333333334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47.633333333333333</v>
+      </c>
+      <c r="Y23" s="79"/>
+    </row>
+    <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>120</v>
       </c>
@@ -3210,15 +3316,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="6">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="V24" s="38"/>
       <c r="W24" s="21">
         <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>41.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="Y24" s="79"/>
+    </row>
+    <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>15</v>
       </c>
@@ -3281,43 +3388,44 @@
         <v>2</v>
       </c>
       <c r="U25" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="V25" s="38"/>
       <c r="W25" s="21">
         <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
-        <v>34.333333333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36.13333333333334</v>
+      </c>
+      <c r="Y25" s="79"/>
+    </row>
+    <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="48">
-        <v>0</v>
-      </c>
-      <c r="E26" s="47">
-        <v>0</v>
-      </c>
-      <c r="F26" s="47">
-        <v>2</v>
-      </c>
-      <c r="G26" s="47">
-        <v>2</v>
-      </c>
-      <c r="H26" s="47">
-        <v>0</v>
-      </c>
-      <c r="I26" s="47">
-        <v>0</v>
-      </c>
-      <c r="J26" s="47">
+        <v>80</v>
+      </c>
+      <c r="D26" s="45">
+        <v>0</v>
+      </c>
+      <c r="E26" s="46">
+        <v>0</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="46">
+        <v>2</v>
+      </c>
+      <c r="H26" s="46">
+        <v>0</v>
+      </c>
+      <c r="I26" s="46">
+        <v>2</v>
+      </c>
+      <c r="J26" s="46">
         <v>0</v>
       </c>
       <c r="K26" s="40">
@@ -3325,10 +3433,10 @@
       </c>
       <c r="L26" s="16">
         <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>33.333333333333336</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="M26" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" s="69">
         <v>0</v>
@@ -3341,7 +3449,7 @@
       </c>
       <c r="Q26" s="16">
         <f>SUM(M26:O26)/(3-P26)</f>
-        <v>33.333333333333336</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="R26" s="14">
         <v>0</v>
@@ -3352,43 +3460,44 @@
         <v>0</v>
       </c>
       <c r="U26" s="6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V26" s="38"/>
       <c r="W26" s="21">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
+        <v>32.833333333333336</v>
+      </c>
+      <c r="Y26" s="79"/>
+    </row>
+    <row r="27" spans="1:25" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="45">
-        <v>0</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0</v>
-      </c>
-      <c r="F27" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="G27" s="46">
-        <v>2</v>
-      </c>
-      <c r="H27" s="46">
-        <v>0</v>
-      </c>
-      <c r="I27" s="46">
-        <v>2</v>
-      </c>
-      <c r="J27" s="46">
+        <v>3</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0</v>
+      </c>
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+      <c r="F27" s="47">
+        <v>2</v>
+      </c>
+      <c r="G27" s="47">
+        <v>2</v>
+      </c>
+      <c r="H27" s="47">
+        <v>0</v>
+      </c>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="47">
         <v>0</v>
       </c>
       <c r="K27" s="40">
@@ -3396,10 +3505,10 @@
       </c>
       <c r="L27" s="16">
         <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>45.833333333333336</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M27" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" s="69">
         <v>0</v>
@@ -3412,7 +3521,7 @@
       </c>
       <c r="Q27" s="16">
         <f>SUM(M27:O27)/(3-P27)</f>
-        <v>16.666666666666668</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R27" s="14">
         <v>0</v>
@@ -3423,171 +3532,192 @@
         <v>0</v>
       </c>
       <c r="U27" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="21">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
-        <v>31.333333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.1</f>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="Y27" s="79"/>
+    </row>
+    <row r="28" spans="1:25" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="16">
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="16">
+        <f>SUM(M28:P28)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="6">
+        <v>36</v>
+      </c>
+      <c r="V28" s="38"/>
+      <c r="W28" s="21">
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="Y28" s="79"/>
+    </row>
+    <row r="29" spans="1:25" s="64" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="16">
+        <f>SUM(M29:P29)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="6">
+        <v>35</v>
+      </c>
+      <c r="V29" s="38"/>
+      <c r="W29" s="21">
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.1</f>
+        <v>10.5</v>
+      </c>
+      <c r="Y29" s="79"/>
+    </row>
+    <row r="30" spans="1:25" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="16">
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="16">
+        <f>SUM(M30:P30)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="6">
+        <v>32</v>
+      </c>
+      <c r="V30" s="38"/>
+      <c r="W30" s="21">
+        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.1</f>
+        <v>9.6</v>
+      </c>
+      <c r="Y30" s="79"/>
+    </row>
+    <row r="31" spans="1:25" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="16">
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="16">
+        <f>SUM(M31:P31)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="6">
+        <v>31</v>
+      </c>
+      <c r="V31" s="38"/>
+      <c r="W31" s="21">
+        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.1</f>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B32" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C32" s="54" t="s">
         <v>5</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="62">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="64" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58">
-        <f>SUM(D29:J29)*50/(A$1-K29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="62">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="62">
-        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58">
-        <f>SUM(D31:J31)*50/(A$1-K31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="59"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="62">
-        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>14</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="56"/>
@@ -3618,13 +3748,13 @@
     </row>
     <row r="33" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="56"/>
@@ -3655,13 +3785,13 @@
     </row>
     <row r="34" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
@@ -3692,13 +3822,13 @@
     </row>
     <row r="35" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="56"/>
@@ -3716,10 +3846,7 @@
       <c r="N35" s="70"/>
       <c r="O35" s="75"/>
       <c r="P35" s="68"/>
-      <c r="Q35" s="58">
-        <f>SUM(M35:P35)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q35" s="58"/>
       <c r="R35" s="59"/>
       <c r="S35" s="59"/>
       <c r="T35" s="58"/>
@@ -3732,13 +3859,13 @@
     </row>
     <row r="36" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="56"/>
@@ -3756,10 +3883,7 @@
       <c r="N36" s="70"/>
       <c r="O36" s="75"/>
       <c r="P36" s="68"/>
-      <c r="Q36" s="58">
-        <f>SUM(M36:P36)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q36" s="58"/>
       <c r="R36" s="59"/>
       <c r="S36" s="59"/>
       <c r="T36" s="58"/>
@@ -3772,13 +3896,13 @@
     </row>
     <row r="37" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="56"/>
@@ -3796,10 +3920,7 @@
       <c r="N37" s="70"/>
       <c r="O37" s="75"/>
       <c r="P37" s="68"/>
-      <c r="Q37" s="58">
-        <f>SUM(M37:P37)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q37" s="58"/>
       <c r="R37" s="59"/>
       <c r="S37" s="59"/>
       <c r="T37" s="58"/>
@@ -3812,13 +3933,13 @@
     </row>
     <row r="38" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="56"/>
@@ -3836,29 +3957,26 @@
       <c r="N38" s="70"/>
       <c r="O38" s="75"/>
       <c r="P38" s="68"/>
-      <c r="Q38" s="58">
-        <f>SUM(M38:P38)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q38" s="58"/>
       <c r="R38" s="59"/>
       <c r="S38" s="59"/>
       <c r="T38" s="58"/>
       <c r="U38" s="60"/>
       <c r="V38" s="61"/>
       <c r="W38" s="62">
-        <f>L38*0.2+Q38*0.25+T38*0.25+U38*0.3+V38*0.1</f>
+        <f>L38*0.2+Q38*0.25+T38*0.25+U38*0.3+V38*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="56"/>
@@ -3886,19 +4004,19 @@
       <c r="U39" s="60"/>
       <c r="V39" s="61"/>
       <c r="W39" s="62">
-        <f>L39*0.2+Q39*0.25+T39*0.25+U39*0.3+V39*0.1</f>
+        <f>L39*0.2+Q39*0.25+T39*0.25+U39*0.3+V39*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="56"/>
@@ -3926,27 +4044,27 @@
       <c r="U40" s="60"/>
       <c r="V40" s="61"/>
       <c r="W40" s="62">
-        <f>L40*0.2+Q40*0.25+T40*0.25+U40*0.3+V40*0.1</f>
+        <f>L40*0.2+Q40*0.25+T40*0.25+U40*0.3+V40*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
+        <v>45</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="57"/>
       <c r="L41" s="58">
         <f>SUM(D41:J41)*50/(A$1-K41)</f>
@@ -3971,32 +4089,41 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="74"/>
+      <c r="A42" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="58">
+        <f>SUM(D42:J42)*50/(A$1-K42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="59"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="75"/>
       <c r="P42" s="68"/>
-      <c r="Q42" s="16">
+      <c r="Q42" s="58">
         <f>SUM(M42:P42)/A$1</f>
         <v>0</v>
       </c>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="21">
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="62">
         <f>L42*0.2+Q42*0.25+T42*0.25+U42*0.3+V42*0.1</f>
         <v>0</v>
       </c>
@@ -4473,47 +4600,47 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:O42 U3:V42">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S42">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -8017,14 +8144,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I42">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8071,18 +8198,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O42">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8130,18 +8257,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q42">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1605,7 +1605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3532,12 +3532,12 @@
         <v>0</v>
       </c>
       <c r="U27" s="6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V27" s="38"/>
       <c r="W27" s="21">
         <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.1</f>
-        <v>15.000000000000002</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="Y27" s="79"/>
     </row>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -1535,7 +1535,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4695,8 +4695,8 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X18" sqref="X18"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4830,7 +4830,9 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>100</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -4861,7 +4863,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>100</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -4892,7 +4896,9 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>75</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -4923,7 +4929,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>100</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -4954,7 +4962,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>100</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -4985,7 +4995,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>50</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5016,7 +5028,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>100</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5047,7 +5061,9 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -5078,7 +5094,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>100</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -5109,7 +5127,9 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -5140,7 +5160,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>100</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -5171,7 +5193,9 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>100</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -5195,14 +5219,16 @@
         <v>67.73333333333332</v>
       </c>
       <c r="E15" s="29">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>100</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -5226,14 +5252,16 @@
         <v>65.066666666666663</v>
       </c>
       <c r="E16" s="29">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>100</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -5264,7 +5292,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="12">
+        <v>100</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -5295,7 +5325,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="12">
+        <v>100</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -5326,7 +5358,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -5357,7 +5391,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>50</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -5388,7 +5424,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -5419,7 +5457,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>100</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -5450,7 +5490,9 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>75</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -5474,14 +5516,16 @@
         <v>37.549999999999997</v>
       </c>
       <c r="E24" s="29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>50</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -5512,7 +5556,9 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>100</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -5543,7 +5589,9 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -5574,7 +5622,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -5605,7 +5655,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -5636,7 +5688,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -5667,7 +5721,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -5698,7 +5754,9 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -5729,7 +5787,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -5760,7 +5820,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -5791,7 +5853,9 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -5822,7 +5886,9 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -5853,7 +5919,9 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -5884,7 +5952,9 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -5915,7 +5985,9 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -5946,7 +6018,9 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -5977,7 +6051,9 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -6008,7 +6084,9 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="12"/>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -6039,7 +6117,9 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="54"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
   <si>
     <t>Adı</t>
   </si>
@@ -501,7 +501,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +564,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -860,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1032,6 +1039,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,7 +1554,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1673,13 +1692,13 @@
     </row>
     <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D3" s="41">
         <v>2</v>
@@ -1694,11 +1713,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="42">
+        <v>2</v>
+      </c>
+      <c r="I3" s="42">
         <v>1.9</v>
       </c>
-      <c r="I3" s="42">
-        <v>2</v>
-      </c>
       <c r="J3" s="42">
         <v>2</v>
       </c>
@@ -1706,14 +1725,14 @@
         <v>0</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L28" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
+        <f>SUM(D3:J3)*50/(A$1-K3)</f>
         <v>115.83333333333333</v>
       </c>
       <c r="M3" s="12">
         <v>100</v>
       </c>
       <c r="N3" s="65">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O3" s="70">
         <v>100</v>
@@ -1722,39 +1741,41 @@
         <v>0</v>
       </c>
       <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q27" si="1">SUM(M3:O3)/(3-P3)</f>
-        <v>96.666666666666671</v>
+        <f>SUM(M3:O3)/(3-P3)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R3" s="12">
+        <v>20</v>
+      </c>
+      <c r="S3" s="12">
         <v>70</v>
       </c>
-      <c r="S3" s="12"/>
       <c r="T3" s="13">
-        <f t="shared" ref="T3:T27" si="2">SUM(R3:S3)/1</f>
-        <v>70</v>
+        <f>SUM(R3:S3)/2</f>
+        <v>45</v>
       </c>
       <c r="U3" s="6">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="V3" s="34"/>
       <c r="W3" s="18">
-        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>93.333333333333343</v>
+        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.1</f>
+        <v>84.8</v>
       </c>
       <c r="Y3" s="72"/>
     </row>
     <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D4" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="42">
         <v>2</v>
@@ -1766,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I4" s="42">
         <v>2</v>
@@ -1778,14 +1799,14 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <v>115.83333333333333</v>
       </c>
       <c r="M4" s="12">
         <v>100</v>
       </c>
       <c r="N4" s="65">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O4" s="70">
         <v>100</v>
@@ -1794,108 +1815,110 @@
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <f>SUM(M4:O4)/(3-P4)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R4" s="12">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="13">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f>SUM(R4:S4)/2</f>
+        <v>35</v>
       </c>
       <c r="U4" s="6">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="V4" s="34"/>
       <c r="W4" s="18">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>91.033333333333331</v>
+        <v>84.583333333333343</v>
       </c>
       <c r="Y4" s="72"/>
     </row>
     <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D5" s="41">
         <v>2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="43">
         <v>2</v>
       </c>
       <c r="F5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="42">
-        <v>2</v>
-      </c>
-      <c r="I5" s="42">
-        <v>2</v>
-      </c>
-      <c r="J5" s="42">
+      <c r="G5" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="43">
+        <v>2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>2</v>
+      </c>
+      <c r="J5" s="43">
         <v>2</v>
       </c>
       <c r="K5" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <v>112.5</v>
       </c>
       <c r="M5" s="12">
         <v>100</v>
       </c>
       <c r="N5" s="65">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O5" s="70">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P5" s="64">
         <v>0</v>
       </c>
       <c r="Q5" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(M5:O5)/(3-P5)</f>
+        <v>95</v>
       </c>
       <c r="R5" s="12">
-        <v>61</v>
-      </c>
-      <c r="S5" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="S5" s="12">
+        <v>70</v>
+      </c>
       <c r="T5" s="13">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f>SUM(R5:S5)/2</f>
+        <v>60</v>
       </c>
       <c r="U5" s="6">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="V5" s="34"/>
       <c r="W5" s="18">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>88.25</v>
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.1</f>
+        <v>81.95</v>
       </c>
       <c r="Y5" s="72"/>
     </row>
     <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D6" s="41">
         <v>2</v>
@@ -1906,11 +1929,11 @@
       <c r="F6" s="42">
         <v>2</v>
       </c>
-      <c r="G6" s="42">
-        <v>2</v>
+      <c r="G6" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="H6" s="42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I6" s="42">
         <v>2</v>
@@ -1919,58 +1942,58 @@
         <v>2</v>
       </c>
       <c r="K6" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="13">
-        <f t="shared" si="0"/>
-        <v>115.83333333333333</v>
+        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <v>120</v>
       </c>
       <c r="M6" s="12">
         <v>100</v>
       </c>
       <c r="N6" s="65">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O6" s="70">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P6" s="64">
         <v>0</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>SUM(M6:O6)/(3-P6)</f>
+        <v>100</v>
       </c>
       <c r="R6" s="12">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="13">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R6:S6)/2</f>
+        <v>30.5</v>
       </c>
       <c r="U6" s="6">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="V6" s="34"/>
       <c r="W6" s="18">
         <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>84.8</v>
+        <v>80.625</v>
       </c>
       <c r="Y6" s="72"/>
     </row>
     <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D7" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="42">
         <v>2</v>
@@ -1994,55 +2017,55 @@
         <v>0</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <v>100</v>
       </c>
       <c r="M7" s="12">
+        <v>100</v>
+      </c>
+      <c r="N7" s="65">
+        <v>95</v>
+      </c>
+      <c r="O7" s="70">
+        <v>100</v>
+      </c>
+      <c r="P7" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>SUM(M7:O7)/(3-P7)</f>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="R7" s="12">
         <v>85</v>
-      </c>
-      <c r="N7" s="65">
-        <v>100</v>
-      </c>
-      <c r="O7" s="70">
-        <v>100</v>
-      </c>
-      <c r="P7" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="R7" s="12">
-        <v>45</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="13">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f>SUM(R7:S7)/2</f>
+        <v>42.5</v>
       </c>
       <c r="U7" s="6">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V7" s="34"/>
       <c r="W7" s="18">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.1</f>
-        <v>84.433333333333337</v>
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <v>80.408333333333331</v>
       </c>
       <c r="Y7" s="72"/>
     </row>
     <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D8" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="42">
         <v>2</v>
@@ -2066,52 +2089,52 @@
         <v>0</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M8" s="12">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N8" s="65">
         <v>100</v>
       </c>
       <c r="O8" s="70">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P8" s="64">
         <v>0</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" si="1"/>
-        <v>96.666666666666671</v>
+        <f>SUM(M8:O8)/(3-P8)</f>
+        <v>95</v>
       </c>
       <c r="R8" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="13">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>SUM(R8:S8)/2</f>
+        <v>22.5</v>
       </c>
       <c r="U8" s="6">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V8" s="34"/>
       <c r="W8" s="18">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>79.866666666666674</v>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
+        <v>78.808333333333337</v>
       </c>
       <c r="Y8" s="72"/>
     </row>
     <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="41">
         <v>2</v>
@@ -2126,98 +2149,98 @@
         <v>2</v>
       </c>
       <c r="H9" s="42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I9" s="42">
         <v>2</v>
       </c>
-      <c r="J9" s="42" t="s">
-        <v>129</v>
+      <c r="J9" s="42">
+        <v>2</v>
       </c>
       <c r="K9" s="36">
         <v>0</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D9:J9)*50/(A$1-K9)</f>
+        <v>115.83333333333333</v>
       </c>
       <c r="M9" s="12">
         <v>100</v>
       </c>
       <c r="N9" s="65">
-        <v>95</v>
-      </c>
-      <c r="O9" s="70" t="s">
-        <v>129</v>
+        <v>90</v>
+      </c>
+      <c r="O9" s="70">
+        <v>90</v>
       </c>
       <c r="P9" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="13">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
+        <f>SUM(M9:O9)/(3-P9)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R9" s="12">
         <v>50</v>
       </c>
       <c r="S9" s="12"/>
       <c r="T9" s="13">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R9:S9)/2</f>
+        <v>25</v>
       </c>
       <c r="U9" s="6">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V9" s="34"/>
       <c r="W9" s="18">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>79.674999999999997</v>
+        <v>78.55</v>
       </c>
       <c r="Y9" s="72"/>
     </row>
     <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D10" s="41">
-        <v>2</v>
-      </c>
-      <c r="E10" s="43">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
         <v>2</v>
       </c>
       <c r="F10" s="42">
         <v>2</v>
       </c>
-      <c r="G10" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="43">
-        <v>2</v>
-      </c>
-      <c r="I10" s="43">
-        <v>2</v>
-      </c>
-      <c r="J10" s="43">
+      <c r="G10" s="42">
+        <v>2</v>
+      </c>
+      <c r="H10" s="42">
+        <v>2</v>
+      </c>
+      <c r="I10" s="42">
+        <v>2</v>
+      </c>
+      <c r="J10" s="42">
         <v>2</v>
       </c>
       <c r="K10" s="36">
         <v>0</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
+        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <v>100</v>
       </c>
       <c r="M10" s="12">
         <v>100</v>
       </c>
       <c r="N10" s="65">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O10" s="70">
         <v>90</v>
@@ -2226,36 +2249,36 @@
         <v>0</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>SUM(M10:O10)/(3-P10)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="R10" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="13">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R10:S10)/2</f>
+        <v>15</v>
       </c>
       <c r="U10" s="6">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="V10" s="34"/>
       <c r="W10" s="18">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.1</f>
-        <v>79.45</v>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <v>76.116666666666674</v>
       </c>
       <c r="Y10" s="72"/>
     </row>
     <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D11" s="41">
         <v>2</v>
@@ -2273,17 +2296,17 @@
         <v>2</v>
       </c>
       <c r="I11" s="42">
-        <v>1.9</v>
-      </c>
-      <c r="J11" s="42">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="K11" s="36">
         <v>0</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>115.83333333333333</v>
+        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <v>100</v>
       </c>
       <c r="M11" s="12">
         <v>100</v>
@@ -2291,74 +2314,74 @@
       <c r="N11" s="65">
         <v>95</v>
       </c>
-      <c r="O11" s="70">
-        <v>100</v>
+      <c r="O11" s="70" t="s">
+        <v>129</v>
       </c>
       <c r="P11" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <f>SUM(M11:O11)/(3-P11)</f>
+        <v>97.5</v>
       </c>
       <c r="R11" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="13">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>SUM(R11:S11)/2</f>
+        <v>25</v>
       </c>
       <c r="U11" s="6">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="V11" s="34"/>
       <c r="W11" s="18">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.1</f>
-        <v>78.55</v>
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>73.424999999999997</v>
       </c>
       <c r="Y11" s="72"/>
     </row>
     <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="44">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43">
-        <v>1.7</v>
-      </c>
-      <c r="I12" s="43">
-        <v>2</v>
-      </c>
-      <c r="J12" s="43">
-        <v>0.5</v>
+        <v>103</v>
+      </c>
+      <c r="D12" s="41">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42">
+        <v>2</v>
+      </c>
+      <c r="F12" s="42">
+        <v>2</v>
+      </c>
+      <c r="G12" s="42">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42">
+        <v>2</v>
+      </c>
+      <c r="I12" s="42">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
+        <v>2</v>
       </c>
       <c r="K12" s="36">
         <v>0</v>
       </c>
       <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M12" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="65">
         <v>100</v>
@@ -2370,39 +2393,39 @@
         <v>0</v>
       </c>
       <c r="Q12" s="13">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <f>SUM(M12:O12)/(3-P12)</f>
+        <v>100</v>
       </c>
       <c r="R12" s="12">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="S12" s="12"/>
       <c r="T12" s="13">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>SUM(R12:S12)/2</f>
+        <v>5</v>
       </c>
       <c r="U12" s="6">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="V12" s="34"/>
       <c r="W12" s="18">
         <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
-        <v>73.666666666666671</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="Y12" s="72"/>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D13" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="42">
         <v>2</v>
@@ -2414,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I13" s="42">
         <v>2</v>
@@ -2426,83 +2449,83 @@
         <v>0</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <v>115</v>
       </c>
       <c r="M13" s="12">
         <v>100</v>
       </c>
       <c r="N13" s="65">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O13" s="70">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P13" s="64">
         <v>0</v>
       </c>
       <c r="Q13" s="13">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
+        <f>SUM(M13:O13)/(3-P13)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="R13" s="12">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="13">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>SUM(R13:S13)/2</f>
+        <v>-12.5</v>
       </c>
       <c r="U13" s="6">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="V13" s="34"/>
       <c r="W13" s="18">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
-        <v>71.516666666666666</v>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
+        <v>70.85833333333332</v>
       </c>
       <c r="Y13" s="72"/>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="41">
-        <v>2</v>
-      </c>
-      <c r="E14" s="42">
-        <v>2</v>
-      </c>
-      <c r="F14" s="42">
-        <v>2</v>
-      </c>
-      <c r="G14" s="42">
-        <v>2</v>
-      </c>
-      <c r="H14" s="42">
-        <v>2</v>
-      </c>
-      <c r="I14" s="42">
-        <v>2</v>
-      </c>
-      <c r="J14" s="42">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0</v>
+      </c>
+      <c r="H14" s="43">
+        <v>1.7</v>
+      </c>
+      <c r="I14" s="43">
+        <v>2</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0.5</v>
       </c>
       <c r="K14" s="36">
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <v>35</v>
       </c>
       <c r="M14" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="65">
         <v>100</v>
@@ -2514,36 +2537,38 @@
         <v>0</v>
       </c>
       <c r="Q14" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(M14:O14)/(3-P14)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="R14" s="12">
-        <v>2</v>
-      </c>
-      <c r="S14" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="S14" s="12">
+        <v>40</v>
+      </c>
       <c r="T14" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(R14:S14)/2</f>
+        <v>60</v>
       </c>
       <c r="U14" s="6">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="V14" s="34"/>
       <c r="W14" s="18">
         <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>70.13333333333334</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="Y14" s="72"/>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D15" s="41">
         <v>2</v>
@@ -2558,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I15" s="42">
         <v>2</v>
@@ -2570,14 +2595,14 @@
         <v>0</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(D15:J15)*50/(A$1-K15)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M15" s="12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N15" s="65">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O15" s="70">
         <v>100</v>
@@ -2586,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M15:O15)/(3-P15)</f>
         <v>98.333333333333329</v>
       </c>
       <c r="R15" s="12">
@@ -2594,28 +2619,28 @@
       </c>
       <c r="S15" s="12"/>
       <c r="T15" s="13">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R15:S15)/2</f>
+        <v>-12.5</v>
       </c>
       <c r="U15" s="6">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="V15" s="34"/>
       <c r="W15" s="18">
-        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
-        <v>67.73333333333332</v>
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
+        <v>68.191666666666663</v>
       </c>
       <c r="Y15" s="72"/>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D16" s="41">
         <v>2</v>
@@ -2642,49 +2667,49 @@
         <v>0</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:J16)*50/(A$1-K16)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M16" s="12">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N16" s="65">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O16" s="70">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P16" s="64">
         <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <f>SUM(M16:O16)/(3-P16)</f>
+        <v>80</v>
       </c>
       <c r="R16" s="12">
         <v>-25</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" s="13">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R16:S16)/2</f>
+        <v>-12.5</v>
       </c>
       <c r="U16" s="6">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="V16" s="34"/>
       <c r="W16" s="18">
-        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>65.066666666666663</v>
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
+        <v>67.50833333333334</v>
       </c>
       <c r="Y16" s="72"/>
     </row>
     <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>114</v>
@@ -2714,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/(A$1-K17)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M17" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N17" s="65">
         <v>80</v>
@@ -2730,39 +2755,39 @@
         <v>0</v>
       </c>
       <c r="Q17" s="13">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(M17:O17)/(3-P17)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R17" s="12">
         <v>-25</v>
       </c>
       <c r="S17" s="12"/>
       <c r="T17" s="13">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R17:S17)/2</f>
+        <v>-12.5</v>
       </c>
       <c r="U17" s="6">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="V17" s="34"/>
       <c r="W17" s="18">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
-        <v>64.38333333333334</v>
+        <v>67.375</v>
       </c>
       <c r="Y17" s="72"/>
     </row>
     <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D18" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="42">
         <v>2</v>
@@ -2786,8 +2811,8 @@
         <v>0</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D18:J18)*50/(A$1-K18)</f>
+        <v>100</v>
       </c>
       <c r="M18" s="12">
         <v>100</v>
@@ -2796,174 +2821,176 @@
         <v>80</v>
       </c>
       <c r="O18" s="70">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P18" s="64">
         <v>0</v>
       </c>
       <c r="Q18" s="13">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(M18:O18)/(3-P18)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R18" s="12">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="13">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R18:S18)/2</f>
+        <v>20</v>
       </c>
       <c r="U18" s="6">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="V18" s="34"/>
       <c r="W18" s="18">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>64.25</v>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
+        <v>66.516666666666666</v>
       </c>
       <c r="Y18" s="72"/>
     </row>
     <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="41">
-        <v>0</v>
-      </c>
-      <c r="E19" s="42">
-        <v>2</v>
-      </c>
-      <c r="F19" s="42">
-        <v>2</v>
-      </c>
-      <c r="G19" s="42">
-        <v>2</v>
-      </c>
-      <c r="H19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
+        <v>2</v>
+      </c>
+      <c r="F19" s="43">
+        <v>2</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2</v>
+      </c>
+      <c r="H19" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="42">
-        <v>2</v>
-      </c>
-      <c r="J19" s="42">
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="43">
         <v>2</v>
       </c>
       <c r="K19" s="36">
         <v>1</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D19:J19)*50/(A$1-K19)</f>
+        <v>80</v>
       </c>
       <c r="M19" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N19" s="65" t="s">
         <v>129</v>
       </c>
       <c r="O19" s="70">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P19" s="64">
         <v>1</v>
       </c>
       <c r="Q19" s="13">
-        <f t="shared" si="1"/>
-        <v>92.5</v>
+        <f>SUM(M19:O19)/(3-P19)</f>
+        <v>80</v>
       </c>
       <c r="R19" s="12">
-        <v>0</v>
-      </c>
-      <c r="S19" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="S19" s="12">
+        <v>40</v>
+      </c>
       <c r="T19" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R19:S19)/2</f>
+        <v>35</v>
       </c>
       <c r="U19" s="6">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="V19" s="34"/>
       <c r="W19" s="18">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
-        <v>63.524999999999999</v>
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
+        <v>63.65</v>
       </c>
       <c r="Y19" s="72"/>
     </row>
     <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="44">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
-        <v>2</v>
-      </c>
-      <c r="F20" s="43">
-        <v>2</v>
-      </c>
-      <c r="G20" s="43">
-        <v>2</v>
-      </c>
-      <c r="H20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
+        <v>2</v>
+      </c>
+      <c r="F20" s="42">
+        <v>2</v>
+      </c>
+      <c r="G20" s="42">
+        <v>2</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="43">
-        <v>0</v>
-      </c>
-      <c r="J20" s="43">
+      <c r="I20" s="42">
+        <v>2</v>
+      </c>
+      <c r="J20" s="42">
         <v>2</v>
       </c>
       <c r="K20" s="36">
         <v>1</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <v>100</v>
       </c>
       <c r="M20" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N20" s="65" t="s">
         <v>129</v>
       </c>
       <c r="O20" s="70">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P20" s="64">
         <v>1</v>
       </c>
       <c r="Q20" s="13">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(M20:O20)/(3-P20)</f>
+        <v>92.5</v>
       </c>
       <c r="R20" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="13">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>SUM(R20:S20)/2</f>
+        <v>0</v>
       </c>
       <c r="U20" s="6">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V20" s="34"/>
       <c r="W20" s="18">
-        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
-        <v>62.4</v>
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
+        <v>63.524999999999999</v>
       </c>
       <c r="Y20" s="72"/>
     </row>
@@ -3002,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:J21)*50/(A$1-K21)</f>
         <v>60</v>
       </c>
       <c r="M21" s="12">
@@ -3018,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:O21)/(3-P21)</f>
         <v>86.666666666666671</v>
       </c>
       <c r="R21" s="12">
@@ -3026,7 +3053,7 @@
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(R21:S21)/2</f>
         <v>0</v>
       </c>
       <c r="U21" s="6">
@@ -3074,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(A$1-K22)</f>
         <v>100</v>
       </c>
       <c r="M22" s="12">
@@ -3090,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:O22)/(3-P22)</f>
         <v>53.333333333333336</v>
       </c>
       <c r="R22" s="12">
@@ -3098,7 +3125,7 @@
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(R22:S22)/2</f>
         <v>0</v>
       </c>
       <c r="U22" s="6">
@@ -3146,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(A$1-K23)</f>
         <v>86.999999999999986</v>
       </c>
       <c r="M23" s="12">
@@ -3162,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:O23)/(3-P23)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R23" s="12">
@@ -3170,7 +3197,7 @@
       </c>
       <c r="S23" s="12"/>
       <c r="T23" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(R23:S23)/2</f>
         <v>0</v>
       </c>
       <c r="U23" s="6">
@@ -3218,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(A$1-K24)</f>
         <v>50</v>
       </c>
       <c r="M24" s="12">
@@ -3234,16 +3261,18 @@
         <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:O24)/(3-P24)</f>
         <v>55</v>
       </c>
       <c r="R24" s="12">
         <v>0</v>
       </c>
-      <c r="S24" s="12"/>
+      <c r="S24" s="12">
+        <v>40</v>
+      </c>
       <c r="T24" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R24:S24)/2</f>
+        <v>20</v>
       </c>
       <c r="U24" s="6">
         <v>46</v>
@@ -3251,7 +3280,7 @@
       <c r="V24" s="34"/>
       <c r="W24" s="18">
         <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>37.549999999999997</v>
+        <v>42.55</v>
       </c>
       <c r="Y24" s="72"/>
     </row>
@@ -3290,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(A$1-K25)</f>
         <v>58.333333333333336</v>
       </c>
       <c r="M25" s="12">
@@ -3306,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:O25)/(3-P25)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="R25" s="12">
@@ -3314,8 +3343,8 @@
       </c>
       <c r="S25" s="12"/>
       <c r="T25" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(R25:S25)/2</f>
+        <v>1</v>
       </c>
       <c r="U25" s="6">
         <v>66</v>
@@ -3323,7 +3352,7 @@
       <c r="V25" s="34"/>
       <c r="W25" s="18">
         <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
-        <v>36.13333333333334</v>
+        <v>35.88333333333334</v>
       </c>
       <c r="Y25" s="72"/>
     </row>
@@ -3362,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(A$1-K26)</f>
         <v>45.833333333333336</v>
       </c>
       <c r="M26" s="12">
@@ -3378,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:O26)/(3-P26)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="R26" s="12">
@@ -3386,7 +3415,7 @@
       </c>
       <c r="S26" s="12"/>
       <c r="T26" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)/2</f>
         <v>0</v>
       </c>
       <c r="U26" s="6">
@@ -3434,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(A$1-K27)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="M27" s="12">
@@ -3450,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:O27)/(3-P27)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R27" s="12">
@@ -3458,7 +3487,7 @@
       </c>
       <c r="S27" s="12"/>
       <c r="T27" s="13">
-        <f t="shared" si="2"/>
+        <f>SUM(R27:S27)/2</f>
         <v>0</v>
       </c>
       <c r="U27" s="6">
@@ -3490,7 +3519,7 @@
       <c r="J28" s="42"/>
       <c r="K28" s="36"/>
       <c r="L28" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(A$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="12"/>
@@ -3573,7 +3602,7 @@
       <c r="J30" s="42"/>
       <c r="K30" s="36"/>
       <c r="L30" s="13">
-        <f t="shared" ref="L30:L42" si="3">SUM(D30:J30)*50/(A$1-K30)</f>
+        <f>SUM(D30:J30)*50/(A$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="12"/>
@@ -3616,7 +3645,7 @@
       <c r="J31" s="42"/>
       <c r="K31" s="36"/>
       <c r="L31" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(D31:J31)*50/(A$1-K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="12"/>
@@ -3658,7 +3687,7 @@
       <c r="J32" s="52"/>
       <c r="K32" s="53"/>
       <c r="L32" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D32:J32)*50/(A$1-K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="55"/>
@@ -3672,7 +3701,7 @@
       <c r="U32" s="56"/>
       <c r="V32" s="57"/>
       <c r="W32" s="58">
-        <f t="shared" ref="W32:W40" si="4">L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
+        <f>L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +3724,7 @@
       <c r="J33" s="52"/>
       <c r="K33" s="53"/>
       <c r="L33" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D33:J33)*50/(A$1-K33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="55"/>
@@ -3709,7 +3738,7 @@
       <c r="U33" s="56"/>
       <c r="V33" s="57"/>
       <c r="W33" s="58">
-        <f t="shared" si="4"/>
+        <f>L33*0.2+Q33*0.25+T33*0.25+U33*0.3+V33*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3732,7 +3761,7 @@
       <c r="J34" s="52"/>
       <c r="K34" s="53"/>
       <c r="L34" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D34:J34)*50/(A$1-K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="55"/>
@@ -3746,7 +3775,7 @@
       <c r="U34" s="56"/>
       <c r="V34" s="57"/>
       <c r="W34" s="58">
-        <f t="shared" si="4"/>
+        <f>L34*0.2+Q34*0.25+T34*0.25+U34*0.3+V34*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3769,7 +3798,7 @@
       <c r="J35" s="52"/>
       <c r="K35" s="53"/>
       <c r="L35" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D35:J35)*50/(A$1-K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="55"/>
@@ -3783,7 +3812,7 @@
       <c r="U35" s="56"/>
       <c r="V35" s="57"/>
       <c r="W35" s="58">
-        <f t="shared" si="4"/>
+        <f>L35*0.2+Q35*0.25+T35*0.25+U35*0.3+V35*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3835,7 @@
       <c r="J36" s="52"/>
       <c r="K36" s="53"/>
       <c r="L36" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D36:J36)*50/(A$1-K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="55"/>
@@ -3820,7 +3849,7 @@
       <c r="U36" s="56"/>
       <c r="V36" s="57"/>
       <c r="W36" s="58">
-        <f t="shared" si="4"/>
+        <f>L36*0.2+Q36*0.25+T36*0.25+U36*0.3+V36*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3872,7 @@
       <c r="J37" s="52"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D37:J37)*50/(A$1-K37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="55"/>
@@ -3857,7 +3886,7 @@
       <c r="U37" s="56"/>
       <c r="V37" s="57"/>
       <c r="W37" s="58">
-        <f t="shared" si="4"/>
+        <f>L37*0.2+Q37*0.25+T37*0.25+U37*0.3+V37*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3880,7 +3909,7 @@
       <c r="J38" s="52"/>
       <c r="K38" s="53"/>
       <c r="L38" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D38:J38)*50/(A$1-K38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="55"/>
@@ -3894,7 +3923,7 @@
       <c r="U38" s="56"/>
       <c r="V38" s="57"/>
       <c r="W38" s="58">
-        <f t="shared" si="4"/>
+        <f>L38*0.2+Q38*0.25+T38*0.25+U38*0.3+V38*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3917,7 +3946,7 @@
       <c r="J39" s="52"/>
       <c r="K39" s="53"/>
       <c r="L39" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D39:J39)*50/(A$1-K39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="55"/>
@@ -3934,7 +3963,7 @@
       <c r="U39" s="56"/>
       <c r="V39" s="57"/>
       <c r="W39" s="58">
-        <f t="shared" si="4"/>
+        <f>L39*0.2+Q39*0.25+T39*0.25+U39*0.3+V39*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3957,7 +3986,7 @@
       <c r="J40" s="52"/>
       <c r="K40" s="53"/>
       <c r="L40" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D40:J40)*50/(A$1-K40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="55"/>
@@ -3974,7 +4003,7 @@
       <c r="U40" s="56"/>
       <c r="V40" s="57"/>
       <c r="W40" s="58">
-        <f t="shared" si="4"/>
+        <f>L40*0.2+Q40*0.25+T40*0.25+U40*0.3+V40*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3997,7 +4026,7 @@
       <c r="J41" s="52"/>
       <c r="K41" s="53"/>
       <c r="L41" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D41:J41)*50/(A$1-K41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="55"/>
@@ -4037,7 +4066,7 @@
       <c r="J42" s="62"/>
       <c r="K42" s="53"/>
       <c r="L42" s="54">
-        <f t="shared" si="3"/>
+        <f>SUM(D42:J42)*50/(A$1-K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="55"/>
@@ -4692,11 +4721,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4708,19 +4737,19 @@
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.77734375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.77734375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
       <c r="B1" s="15"/>
       <c r="C1" s="26"/>
       <c r="D1" s="30"/>
@@ -4731,26 +4760,32 @@
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="73" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="79">
+        <v>1</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="74"/>
       <c r="M1" s="74"/>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="69" t="s">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="79">
+        <v>1</v>
+      </c>
+      <c r="S1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -4778,49 +4813,55 @@
       <c r="I2" s="22">
         <v>12</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21">
+      <c r="L2" s="21">
         <v>8</v>
       </c>
-      <c r="L2" s="22">
+      <c r="M2" s="22">
         <v>9</v>
       </c>
-      <c r="M2" s="22">
+      <c r="N2" s="22">
         <v>10</v>
       </c>
-      <c r="N2" s="22">
+      <c r="O2" s="22">
         <v>11</v>
       </c>
-      <c r="O2" s="22">
+      <c r="P2" s="22">
         <v>12</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D3" s="18">
-        <v>93.333333333333343</v>
+        <v>84.8</v>
       </c>
       <c r="E3" s="29">
         <v>2</v>
@@ -4829,31 +4870,42 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12">
-        <v>100</v>
-      </c>
-      <c r="L3" s="6"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="13">
+        <f>SUM(E3:I3)*50/(K$1-J3)</f>
+        <v>100</v>
+      </c>
+      <c r="L3" s="12">
+        <v>100</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="13">
+        <f>SUM(L3:P3)/(R$1-Q3)</f>
+        <v>100</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="18">
+        <f>K3*0.2+R3*0.3+S3*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D4" s="18">
-        <v>91.033333333333331</v>
+        <v>84.583333333333343</v>
       </c>
       <c r="E4" s="29">
         <v>2</v>
@@ -4862,64 +4914,90 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12">
-        <v>100</v>
-      </c>
-      <c r="L4" s="6"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K42" si="0">SUM(E4:I4)*50/(K$1-J4)</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="12">
+        <v>100</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="13">
+        <f t="shared" ref="R4:R42" si="1">SUM(L4:P4)/(R$1-Q4)</f>
+        <v>100</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="18">
+        <f t="shared" ref="T4:T42" si="2">K4*0.2+R4*0.3+S4*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D5" s="18">
-        <v>88.25</v>
-      </c>
-      <c r="E5" s="29">
-        <v>2</v>
+        <v>81.95</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12">
-        <v>75</v>
-      </c>
-      <c r="L5" s="6"/>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>129</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="36">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D6" s="18">
-        <v>84.8</v>
+        <v>80.625</v>
       </c>
       <c r="E6" s="29">
         <v>2</v>
@@ -4928,31 +5006,42 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12">
-        <v>100</v>
-      </c>
-      <c r="L6" s="6"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="12">
+        <v>75</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="18">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D7" s="18">
-        <v>84.433333333333337</v>
+        <v>80.408333333333331</v>
       </c>
       <c r="E7" s="29">
         <v>2</v>
@@ -4961,31 +5050,42 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12">
-        <v>100</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="12">
+        <v>100</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D8" s="18">
-        <v>79.866666666666674</v>
+        <v>78.808333333333337</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
@@ -4994,31 +5094,42 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12">
-        <v>50</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L8" s="12">
+        <v>100</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="18">
-        <v>79.674999999999997</v>
+        <v>78.55</v>
       </c>
       <c r="E9" s="29">
         <v>2</v>
@@ -5027,64 +5138,86 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12">
-        <v>100</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="12">
+        <v>100</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18">
-        <v>79.45</v>
+        <v>76.116666666666674</v>
       </c>
       <c r="E10" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="12">
+        <v>50</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="18">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18">
-        <v>78.55</v>
+        <v>73.424999999999997</v>
       </c>
       <c r="E11" s="29">
         <v>2</v>
@@ -5093,130 +5226,174 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12">
-        <v>100</v>
-      </c>
-      <c r="L11" s="6"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L11" s="12">
+        <v>100</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D12" s="18">
-        <v>73.666666666666671</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E12" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="12">
+        <v>100</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D13" s="18">
-        <v>71.516666666666666</v>
+        <v>70.85833333333332</v>
       </c>
       <c r="E13" s="29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12">
-        <v>100</v>
-      </c>
-      <c r="L13" s="6"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="L13" s="12">
+        <v>100</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="18">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D14" s="18">
-        <v>70.13333333333334</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="E14" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12">
-        <v>100</v>
-      </c>
-      <c r="L14" s="6"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D15" s="18">
-        <v>67.73333333333332</v>
+        <v>68.191666666666663</v>
       </c>
       <c r="E15" s="29">
         <v>1.9</v>
@@ -5225,64 +5402,86 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12">
-        <v>100</v>
-      </c>
-      <c r="L15" s="6"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="L15" s="12">
+        <v>100</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="18">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D16" s="18">
-        <v>65.066666666666663</v>
+        <v>67.50833333333334</v>
       </c>
       <c r="E16" s="29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12">
-        <v>100</v>
-      </c>
-      <c r="L16" s="6"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L16" s="12">
+        <v>100</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="18">
-        <v>64.38333333333334</v>
+        <v>67.375</v>
       </c>
       <c r="E17" s="29">
         <v>2</v>
@@ -5291,31 +5490,42 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12">
-        <v>100</v>
-      </c>
-      <c r="L17" s="6"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="12">
+        <v>100</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D18" s="18">
-        <v>64.25</v>
+        <v>66.516666666666666</v>
       </c>
       <c r="E18" s="29">
         <v>2</v>
@@ -5324,86 +5534,119 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12">
-        <v>100</v>
-      </c>
-      <c r="L18" s="6"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L18" s="12">
+        <v>100</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D19" s="18">
-        <v>63.524999999999999</v>
+        <v>63.65</v>
       </c>
       <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L19" s="12">
+        <v>50</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="18">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D20" s="18">
-        <v>62.4</v>
+        <v>63.524999999999999</v>
       </c>
       <c r="E20" s="29">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="32"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12">
-        <v>50</v>
-      </c>
-      <c r="L20" s="6"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>66</v>
       </c>
@@ -5423,20 +5666,31 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>110</v>
       </c>
@@ -5456,20 +5710,31 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12">
-        <v>100</v>
-      </c>
-      <c r="L22" s="6"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L22" s="12">
+        <v>100</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U22" s="18"/>
+    </row>
+    <row r="23" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>69</v>
       </c>
@@ -5489,20 +5754,31 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12">
+      <c r="J23" s="36"/>
+      <c r="K23" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L23" s="12">
         <v>75</v>
       </c>
-      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="18">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>120</v>
       </c>
@@ -5513,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="18">
-        <v>37.549999999999997</v>
+        <v>42.55</v>
       </c>
       <c r="E24" s="29">
         <v>1.5</v>
@@ -5522,20 +5798,31 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12">
+      <c r="J24" s="36"/>
+      <c r="K24" s="13">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L24" s="12">
         <v>50</v>
       </c>
-      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="18">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
@@ -5546,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="18">
-        <v>36.13333333333334</v>
+        <v>35.88333333333334</v>
       </c>
       <c r="E25" s="29">
         <v>2</v>
@@ -5555,20 +5842,31 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12">
-        <v>100</v>
-      </c>
-      <c r="L25" s="6"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L25" s="12">
+        <v>100</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>78</v>
       </c>
@@ -5588,20 +5886,31 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>128</v>
       </c>
@@ -5621,27 +5930,38 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="18">
@@ -5654,27 +5974,38 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="18">
@@ -5687,27 +6018,38 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="18">
@@ -5720,27 +6062,38 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="P30" s="6"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="18">
@@ -5753,20 +6106,31 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>64</v>
       </c>
@@ -5776,9 +6140,7 @@
       <c r="C32" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="18">
-        <v>0</v>
-      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="29">
         <v>0</v>
       </c>
@@ -5786,20 +6148,31 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-    </row>
-    <row r="33" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>2</v>
       </c>
@@ -5809,9 +6182,7 @@
       <c r="C33" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="29">
         <v>0</v>
       </c>
@@ -5819,20 +6190,31 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-    </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>4</v>
       </c>
@@ -5842,9 +6224,7 @@
       <c r="C34" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="18">
-        <v>0</v>
-      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="29">
         <v>0</v>
       </c>
@@ -5852,20 +6232,31 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-    </row>
-    <row r="35" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="6"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>9</v>
       </c>
@@ -5875,9 +6266,7 @@
       <c r="C35" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="18">
-        <v>0</v>
-      </c>
+      <c r="D35" s="18"/>
       <c r="E35" s="29">
         <v>0</v>
       </c>
@@ -5885,20 +6274,31 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-    </row>
-    <row r="36" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="6"/>
+      <c r="T35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>12</v>
       </c>
@@ -5908,9 +6308,7 @@
       <c r="C36" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="18">
-        <v>0</v>
-      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="29">
         <v>0</v>
       </c>
@@ -5918,20 +6316,31 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="6"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>72</v>
       </c>
@@ -5941,9 +6350,7 @@
       <c r="C37" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="29">
         <v>0</v>
       </c>
@@ -5951,20 +6358,31 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-    </row>
-    <row r="38" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="6"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>75</v>
       </c>
@@ -5974,9 +6392,7 @@
       <c r="C38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="18">
-        <v>0</v>
-      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="29">
         <v>0</v>
       </c>
@@ -5984,20 +6400,31 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-    </row>
-    <row r="39" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="6"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
@@ -6007,9 +6434,7 @@
       <c r="C39" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="18">
-        <v>0</v>
-      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="29">
         <v>0</v>
       </c>
@@ -6017,20 +6442,31 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -6040,9 +6476,7 @@
       <c r="C40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="18">
-        <v>0</v>
-      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="29">
         <v>0</v>
       </c>
@@ -6050,20 +6484,31 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-    </row>
-    <row r="41" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>118</v>
       </c>
@@ -6073,9 +6518,7 @@
       <c r="C41" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="18">
-        <v>0</v>
-      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="29">
         <v>0</v>
       </c>
@@ -6083,20 +6526,31 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-    </row>
-    <row r="42" spans="1:19" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="T41" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>122</v>
       </c>
@@ -6106,9 +6560,7 @@
       <c r="C42" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="58">
-        <v>0</v>
-      </c>
+      <c r="D42" s="58"/>
       <c r="E42" s="29">
         <v>0</v>
       </c>
@@ -6116,20 +6568,31 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-    </row>
-    <row r="43" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="6"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="56"/>
+      <c r="T42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="58"/>
+    </row>
+    <row r="43" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6146,8 +6609,10 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6164,8 +6629,10 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6182,8 +6649,10 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6200,8 +6669,10 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6218,8 +6689,10 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6236,8 +6709,10 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6254,8 +6729,10 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6272,8 +6749,10 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6290,8 +6769,10 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6308,8 +6789,10 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6326,8 +6809,10 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6344,8 +6829,10 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-    </row>
-    <row r="55" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+    </row>
+    <row r="55" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6362,8 +6849,10 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6380,8 +6869,10 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6398,8 +6889,10 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-    </row>
-    <row r="58" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6416,8 +6909,10 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-    </row>
-    <row r="59" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6434,8 +6929,10 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-    </row>
-    <row r="60" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6452,8 +6949,10 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-    </row>
-    <row r="61" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6470,8 +6969,10 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-    </row>
-    <row r="62" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6488,8 +6989,10 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
-    </row>
-    <row r="63" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6506,8 +7009,10 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-    </row>
-    <row r="64" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+    </row>
+    <row r="64" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6524,8 +7029,10 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-    </row>
-    <row r="65" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+    </row>
+    <row r="65" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6542,8 +7049,10 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-    </row>
-    <row r="66" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+    </row>
+    <row r="66" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6560,8 +7069,10 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-    </row>
-    <row r="67" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6578,8 +7089,10 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-    </row>
-    <row r="68" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+    </row>
+    <row r="68" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6596,8 +7109,10 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-    </row>
-    <row r="69" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+    </row>
+    <row r="69" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6614,8 +7129,10 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-    </row>
-    <row r="70" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+    </row>
+    <row r="70" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6632,8 +7149,10 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-    </row>
-    <row r="71" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+    </row>
+    <row r="71" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6650,8 +7169,10 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-    </row>
-    <row r="72" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+    </row>
+    <row r="72" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6668,8 +7189,10 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+    </row>
+    <row r="73" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6686,8 +7209,10 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+    </row>
+    <row r="74" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6704,8 +7229,10 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+    </row>
+    <row r="75" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6722,8 +7249,10 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
-    </row>
-    <row r="76" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6740,8 +7269,10 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
-    </row>
-    <row r="77" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+    </row>
+    <row r="77" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6758,8 +7289,10 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+    </row>
+    <row r="78" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6776,8 +7309,10 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-    </row>
-    <row r="79" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+    </row>
+    <row r="79" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6794,8 +7329,10 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-    </row>
-    <row r="80" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+    </row>
+    <row r="80" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6812,8 +7349,10 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-    </row>
-    <row r="81" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+    </row>
+    <row r="81" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6830,14 +7369,16 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:S33">
-    <sortCondition descending="1" ref="S3"/>
+  <sortState ref="A3:S42">
+    <sortCondition descending="1" ref="D3"/>
   </sortState>
   <mergeCells count="2">
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I42">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
@@ -6851,7 +7392,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J42">
+  <conditionalFormatting sqref="K3:K42">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -6865,7 +7406,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P42">
+  <conditionalFormatting sqref="R3:R42">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -6879,7 +7420,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R42">
+  <conditionalFormatting sqref="T3:T42">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -6893,7 +7434,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:O42">
+  <conditionalFormatting sqref="L3:P42">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6910,7 +7451,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S42">
+  <conditionalFormatting sqref="U3:U42">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6952,7 +7493,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q42">
+  <conditionalFormatting sqref="S3:S42">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6997,7 +7538,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:J42</xm:sqref>
+          <xm:sqref>K3:K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
@@ -7008,7 +7549,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P3:P42</xm:sqref>
+          <xm:sqref>R3:R42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -7019,7 +7560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R42</xm:sqref>
+          <xm:sqref>T3:T42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -7030,7 +7571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S42</xm:sqref>
+          <xm:sqref>U3:U42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="133">
   <si>
     <t>Adı</t>
   </si>
@@ -196,9 +196,6 @@
     <t>NOT</t>
   </si>
   <si>
-    <t>SINAV (%30)</t>
-  </si>
-  <si>
     <t>YILDIRIM</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>LAB ÇALIŞMALARI (%25)</t>
   </si>
   <si>
-    <t>ÖDEVLER (%25)</t>
-  </si>
-  <si>
     <t>FİNAL</t>
   </si>
   <si>
@@ -491,6 +485,12 @@
   </si>
   <si>
     <t>SÖNMEZ</t>
+  </si>
+  <si>
+    <t>ÖDEVLER (%15)</t>
+  </si>
+  <si>
+    <t>SINAV (%40)</t>
   </si>
 </sst>
 </file>
@@ -1031,15 +1031,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,6 +1042,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,11 +1550,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1572,54 +1572,53 @@
     <col min="15" max="15" width="2.77734375" style="47" customWidth="1"/>
     <col min="16" max="16" width="2.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>6</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="16" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="79"/>
+      <c r="T1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>30</v>
@@ -1666,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>30</v>
@@ -1674,31 +1673,28 @@
       <c r="R2" s="21">
         <v>1</v>
       </c>
-      <c r="S2" s="22">
-        <v>2</v>
-      </c>
-      <c r="T2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D3" s="41">
         <v>2</v>
@@ -1713,10 +1709,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I3" s="42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J3" s="42">
         <v>2</v>
@@ -1732,7 +1728,7 @@
         <v>100</v>
       </c>
       <c r="N3" s="65">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O3" s="70">
         <v>100</v>
@@ -1742,40 +1738,37 @@
       </c>
       <c r="Q3" s="13">
         <f>SUM(M3:O3)/(3-P3)</f>
-        <v>98.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="R3" s="12">
-        <v>20</v>
-      </c>
-      <c r="S3" s="12">
         <v>70</v>
       </c>
-      <c r="T3" s="13">
-        <f>SUM(R3:S3)/2</f>
-        <v>45</v>
-      </c>
-      <c r="U3" s="6">
-        <v>86</v>
-      </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="18">
-        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.1</f>
-        <v>84.8</v>
-      </c>
-      <c r="Y3" s="72"/>
-    </row>
-    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="13">
+        <f>SUM(R3:R3)/1</f>
+        <v>70</v>
+      </c>
+      <c r="T3" s="6">
+        <v>95</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="18">
+        <f>L3*0.2+Q3*0.25+S3*0.15+T3*0.4+U3*0.15</f>
+        <v>95.833333333333343</v>
+      </c>
+      <c r="X3" s="72"/>
+    </row>
+    <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D4" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="42">
         <v>2</v>
@@ -1787,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="42">
         <v>2</v>
@@ -1800,13 +1793,13 @@
       </c>
       <c r="L4" s="13">
         <f>SUM(D4:J4)*50/(A$1-K4)</f>
-        <v>115.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="M4" s="12">
         <v>100</v>
       </c>
       <c r="N4" s="65">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O4" s="70">
         <v>100</v>
@@ -1816,109 +1809,105 @@
       </c>
       <c r="Q4" s="13">
         <f>SUM(M4:O4)/(3-P4)</f>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R4" s="12">
-        <v>70</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13">
-        <f>SUM(R4:S4)/2</f>
-        <v>35</v>
-      </c>
-      <c r="U4" s="6">
-        <v>95</v>
-      </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="18">
-        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>84.583333333333343</v>
-      </c>
-      <c r="Y4" s="72"/>
-    </row>
-    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="S4" s="13">
+        <f>SUM(R4:R4)/1</f>
+        <v>85</v>
+      </c>
+      <c r="T4" s="6">
+        <v>84</v>
+      </c>
+      <c r="U4" s="34"/>
+      <c r="V4" s="18">
+        <f>L4*0.2+Q4*0.25+S4*0.15+T4*0.4+U4*0.15</f>
+        <v>90.933333333333337</v>
+      </c>
+      <c r="X4" s="72"/>
+    </row>
+    <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D5" s="41">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>2</v>
       </c>
       <c r="F5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="43">
-        <v>2</v>
-      </c>
-      <c r="I5" s="43">
-        <v>2</v>
-      </c>
-      <c r="J5" s="43">
+      <c r="G5" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="42">
+        <v>2</v>
+      </c>
+      <c r="I5" s="42">
+        <v>2</v>
+      </c>
+      <c r="J5" s="42">
         <v>2</v>
       </c>
       <c r="K5" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="13">
         <f>SUM(D5:J5)*50/(A$1-K5)</f>
-        <v>112.5</v>
+        <v>120</v>
       </c>
       <c r="M5" s="12">
         <v>100</v>
       </c>
       <c r="N5" s="65">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O5" s="70">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P5" s="64">
         <v>0</v>
       </c>
       <c r="Q5" s="13">
         <f>SUM(M5:O5)/(3-P5)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R5" s="12">
-        <v>50</v>
-      </c>
-      <c r="S5" s="12">
-        <v>70</v>
-      </c>
-      <c r="T5" s="13">
-        <f>SUM(R5:S5)/2</f>
-        <v>60</v>
-      </c>
-      <c r="U5" s="6">
-        <v>69</v>
-      </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="18">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.1</f>
-        <v>81.95</v>
-      </c>
-      <c r="Y5" s="72"/>
-    </row>
-    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="S5" s="13">
+        <f>SUM(R5:R5)/1</f>
+        <v>61</v>
+      </c>
+      <c r="T5" s="6">
+        <v>80</v>
+      </c>
+      <c r="U5" s="34"/>
+      <c r="V5" s="18">
+        <f>L5*0.2+Q5*0.25+S5*0.15+T5*0.4+U5*0.15</f>
+        <v>90.15</v>
+      </c>
+      <c r="X5" s="72"/>
+    </row>
+    <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D6" s="41">
         <v>2</v>
@@ -1929,8 +1918,8 @@
       <c r="F6" s="42">
         <v>2</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>129</v>
+      <c r="G6" s="42">
+        <v>2</v>
       </c>
       <c r="H6" s="42">
         <v>2</v>
@@ -1942,14 +1931,14 @@
         <v>2</v>
       </c>
       <c r="K6" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13">
         <f>SUM(D6:J6)*50/(A$1-K6)</f>
-        <v>120</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M6" s="12">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N6" s="65">
         <v>100</v>
@@ -1962,38 +1951,37 @@
       </c>
       <c r="Q6" s="13">
         <f>SUM(M6:O6)/(3-P6)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R6" s="12">
-        <v>61</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13">
-        <f>SUM(R6:S6)/2</f>
-        <v>30.5</v>
-      </c>
-      <c r="U6" s="6">
-        <v>80</v>
-      </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="18">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>80.625</v>
-      </c>
-      <c r="Y6" s="72"/>
-    </row>
-    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S6" s="13">
+        <f>SUM(R6:R6)/1</f>
+        <v>45</v>
+      </c>
+      <c r="T6" s="6">
+        <v>87</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="18">
+        <f>L6*0.2+Q6*0.25+S6*0.15+T6*0.4+U6*0.15</f>
+        <v>88.63333333333334</v>
+      </c>
+      <c r="X6" s="72"/>
+    </row>
+    <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D7" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="42">
         <v>2</v>
@@ -2005,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I7" s="42">
         <v>2</v>
@@ -2018,54 +2006,53 @@
       </c>
       <c r="L7" s="13">
         <f>SUM(D7:J7)*50/(A$1-K7)</f>
-        <v>100</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="M7" s="12">
         <v>100</v>
       </c>
       <c r="N7" s="65">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O7" s="70">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P7" s="64">
         <v>0</v>
       </c>
       <c r="Q7" s="13">
         <f>SUM(M7:O7)/(3-P7)</f>
-        <v>98.333333333333329</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R7" s="12">
-        <v>85</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13">
-        <f>SUM(R7:S7)/2</f>
-        <v>42.5</v>
-      </c>
-      <c r="U7" s="6">
-        <v>84</v>
-      </c>
-      <c r="V7" s="34"/>
-      <c r="W7" s="18">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>80.408333333333331</v>
-      </c>
-      <c r="Y7" s="72"/>
-    </row>
-    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="S7" s="13">
+        <f>SUM(R7:R7)/1</f>
+        <v>50</v>
+      </c>
+      <c r="T7" s="6">
+        <v>86</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="18">
+        <f>L7*0.2+Q7*0.25+S7*0.15+T7*0.4+U7*0.15</f>
+        <v>88.4</v>
+      </c>
+      <c r="X7" s="72"/>
+    </row>
+    <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D8" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="42">
         <v>2</v>
@@ -2090,52 +2077,51 @@
       </c>
       <c r="L8" s="13">
         <f>SUM(D8:J8)*50/(A$1-K8)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M8" s="12">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N8" s="65">
         <v>100</v>
       </c>
       <c r="O8" s="70">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P8" s="64">
         <v>0</v>
       </c>
       <c r="Q8" s="13">
         <f>SUM(M8:O8)/(3-P8)</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="R8" s="12">
+        <v>30</v>
+      </c>
+      <c r="S8" s="13">
+        <f>SUM(R8:R8)/1</f>
+        <v>30</v>
+      </c>
+      <c r="T8" s="6">
+        <v>94</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="V8" s="18">
+        <f>L8*0.2+Q8*0.25+S8*0.15+T8*0.4+U8*0.15</f>
+        <v>86.26666666666668</v>
+      </c>
+      <c r="X8" s="72"/>
+    </row>
+    <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="12">
-        <v>45</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13">
-        <f>SUM(R8:S8)/2</f>
-        <v>22.5</v>
-      </c>
-      <c r="U8" s="6">
-        <v>87</v>
-      </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="18">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.1</f>
-        <v>78.808333333333337</v>
-      </c>
-      <c r="Y8" s="72"/>
-    </row>
-    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D9" s="41">
         <v>2</v>
       </c>
@@ -2149,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="42">
+        <v>2</v>
+      </c>
+      <c r="I9" s="42">
         <v>1.9</v>
-      </c>
-      <c r="I9" s="42">
-        <v>2</v>
       </c>
       <c r="J9" s="42">
         <v>2</v>
@@ -2168,48 +2154,47 @@
         <v>100</v>
       </c>
       <c r="N9" s="65">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O9" s="70">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P9" s="64">
         <v>0</v>
       </c>
       <c r="Q9" s="13">
         <f>SUM(M9:O9)/(3-P9)</f>
-        <v>93.333333333333329</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R9" s="12">
-        <v>50</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13">
-        <f>SUM(R9:S9)/2</f>
-        <v>25</v>
-      </c>
-      <c r="U9" s="6">
+        <v>20</v>
+      </c>
+      <c r="S9" s="13">
+        <f>SUM(R9:R9)/1</f>
+        <v>20</v>
+      </c>
+      <c r="T9" s="6">
         <v>86</v>
       </c>
-      <c r="V9" s="34"/>
-      <c r="W9" s="18">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>78.55</v>
-      </c>
-      <c r="Y9" s="72"/>
-    </row>
-    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="34"/>
+      <c r="V9" s="18">
+        <f>L9*0.2+Q9*0.25+S9*0.15+T9*0.4+U9*0.15</f>
+        <v>85.15</v>
+      </c>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="42">
         <v>2</v>
@@ -2226,8 +2211,8 @@
       <c r="I10" s="42">
         <v>2</v>
       </c>
-      <c r="J10" s="42">
-        <v>2</v>
+      <c r="J10" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="K10" s="36">
         <v>0</v>
@@ -2240,73 +2225,72 @@
         <v>100</v>
       </c>
       <c r="N10" s="65">
-        <v>100</v>
-      </c>
-      <c r="O10" s="70">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="P10" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="13">
         <f>SUM(M10:O10)/(3-P10)</f>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
       <c r="R10" s="12">
-        <v>30</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13">
-        <f>SUM(R10:S10)/2</f>
-        <v>15</v>
-      </c>
-      <c r="U10" s="6">
-        <v>94</v>
-      </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="18">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>76.116666666666674</v>
-      </c>
-      <c r="Y10" s="72"/>
-    </row>
-    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="S10" s="13">
+        <f>SUM(R10:R10)/1</f>
+        <v>50</v>
+      </c>
+      <c r="T10" s="6">
+        <v>76</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="18">
+        <f>L10*0.2+Q10*0.25+S10*0.15+T10*0.4+U10*0.15</f>
+        <v>82.275000000000006</v>
+      </c>
+      <c r="X10" s="72"/>
+    </row>
+    <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D11" s="41">
         <v>2</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="43">
         <v>2</v>
       </c>
       <c r="F11" s="42">
         <v>2</v>
       </c>
-      <c r="G11" s="42">
-        <v>2</v>
-      </c>
-      <c r="H11" s="42">
-        <v>2</v>
-      </c>
-      <c r="I11" s="42">
-        <v>2</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>129</v>
+      <c r="G11" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="43">
+        <v>2</v>
+      </c>
+      <c r="I11" s="43">
+        <v>2</v>
+      </c>
+      <c r="J11" s="43">
+        <v>2</v>
       </c>
       <c r="K11" s="36">
         <v>0</v>
       </c>
       <c r="L11" s="13">
         <f>SUM(D11:J11)*50/(A$1-K11)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="M11" s="12">
         <v>100</v>
@@ -2314,43 +2298,42 @@
       <c r="N11" s="65">
         <v>95</v>
       </c>
-      <c r="O11" s="70" t="s">
-        <v>129</v>
+      <c r="O11" s="70">
+        <v>90</v>
       </c>
       <c r="P11" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="13">
         <f>SUM(M11:O11)/(3-P11)</f>
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="R11" s="12">
         <v>50</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13">
-        <f>SUM(R11:S11)/2</f>
-        <v>25</v>
-      </c>
-      <c r="U11" s="6">
-        <v>76</v>
-      </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="18">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
-        <v>73.424999999999997</v>
-      </c>
-      <c r="Y11" s="72"/>
-    </row>
-    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="13">
+        <f>SUM(R11:R11)/1</f>
+        <v>50</v>
+      </c>
+      <c r="T11" s="6">
+        <v>69</v>
+      </c>
+      <c r="U11" s="34"/>
+      <c r="V11" s="18">
+        <f>L11*0.2+Q11*0.25+S11*0.15+T11*0.4+U11*0.15</f>
+        <v>81.349999999999994</v>
+      </c>
+      <c r="X11" s="72"/>
+    </row>
+    <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="41">
         <v>2</v>
@@ -2365,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I12" s="42">
         <v>2</v>
@@ -2378,13 +2361,13 @@
       </c>
       <c r="L12" s="13">
         <f>SUM(D12:J12)*50/(A$1-K12)</f>
-        <v>116.66666666666667</v>
+        <v>115</v>
       </c>
       <c r="M12" s="12">
         <v>100</v>
       </c>
       <c r="N12" s="65">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O12" s="70">
         <v>100</v>
@@ -2394,35 +2377,34 @@
       </c>
       <c r="Q12" s="13">
         <f>SUM(M12:O12)/(3-P12)</f>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R12" s="12">
-        <v>10</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13">
-        <f>SUM(R12:S12)/2</f>
-        <v>5</v>
-      </c>
-      <c r="U12" s="6">
-        <v>71</v>
-      </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="18">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.1</f>
-        <v>70.88333333333334</v>
-      </c>
-      <c r="Y12" s="72"/>
-    </row>
-    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-25</v>
+      </c>
+      <c r="S12" s="13">
+        <f>SUM(R12:R12)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="T12" s="6">
+        <v>88</v>
+      </c>
+      <c r="U12" s="34"/>
+      <c r="V12" s="18">
+        <f>L12*0.2+Q12*0.25+S12*0.15+T12*0.4+U12*0.15</f>
+        <v>79.033333333333331</v>
+      </c>
+      <c r="X12" s="72"/>
+    </row>
+    <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="41">
         <v>2</v>
@@ -2437,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I13" s="42">
         <v>2</v>
@@ -2450,13 +2432,13 @@
       </c>
       <c r="L13" s="13">
         <f>SUM(D13:J13)*50/(A$1-K13)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M13" s="12">
         <v>100</v>
       </c>
       <c r="N13" s="65">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O13" s="70">
         <v>100</v>
@@ -2466,140 +2448,136 @@
       </c>
       <c r="Q13" s="13">
         <f>SUM(M13:O13)/(3-P13)</f>
-        <v>98.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="R13" s="12">
-        <v>-25</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="13">
-        <f>SUM(R13:S13)/2</f>
-        <v>-12.5</v>
-      </c>
-      <c r="U13" s="6">
-        <v>88</v>
-      </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="18">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
-        <v>70.85833333333332</v>
-      </c>
-      <c r="Y13" s="72"/>
-    </row>
-    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="S13" s="13">
+        <f>SUM(R13:R13)/1</f>
+        <v>10</v>
+      </c>
+      <c r="T13" s="6">
+        <v>71</v>
+      </c>
+      <c r="U13" s="34"/>
+      <c r="V13" s="18">
+        <f>L13*0.2+Q13*0.25+S13*0.15+T13*0.4+U13*0.15</f>
+        <v>78.233333333333334</v>
+      </c>
+      <c r="X13" s="72"/>
+    </row>
+    <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="44">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-      <c r="H14" s="43">
-        <v>1.7</v>
-      </c>
-      <c r="I14" s="43">
-        <v>2</v>
-      </c>
-      <c r="J14" s="43">
-        <v>0.5</v>
+        <v>112</v>
+      </c>
+      <c r="D14" s="41">
+        <v>2</v>
+      </c>
+      <c r="E14" s="42">
+        <v>2</v>
+      </c>
+      <c r="F14" s="42">
+        <v>2</v>
+      </c>
+      <c r="G14" s="42">
+        <v>2</v>
+      </c>
+      <c r="H14" s="42">
+        <v>2</v>
+      </c>
+      <c r="I14" s="42">
+        <v>2</v>
+      </c>
+      <c r="J14" s="42">
+        <v>2</v>
       </c>
       <c r="K14" s="36">
         <v>0</v>
       </c>
       <c r="L14" s="13">
         <f>SUM(D14:J14)*50/(A$1-K14)</f>
-        <v>35</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M14" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N14" s="65">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O14" s="70">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P14" s="64">
         <v>0</v>
       </c>
       <c r="Q14" s="13">
         <f>SUM(M14:O14)/(3-P14)</f>
-        <v>66.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="R14" s="12">
-        <v>80</v>
-      </c>
-      <c r="S14" s="12">
-        <v>40</v>
-      </c>
-      <c r="T14" s="13">
-        <f>SUM(R14:S14)/2</f>
+        <v>-25</v>
+      </c>
+      <c r="S14" s="13">
+        <f>SUM(R14:R14)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="T14" s="6">
+        <v>91</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="18">
+        <f>L14*0.2+Q14*0.25+S14*0.15+T14*0.4+U14*0.15</f>
+        <v>75.983333333333334</v>
+      </c>
+      <c r="X14" s="72"/>
+    </row>
+    <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="6">
-        <v>100</v>
-      </c>
-      <c r="V14" s="34"/>
-      <c r="W14" s="18">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>68.666666666666671</v>
-      </c>
-      <c r="Y14" s="72"/>
-    </row>
-    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="41">
-        <v>2</v>
-      </c>
-      <c r="E15" s="42">
-        <v>2</v>
-      </c>
-      <c r="F15" s="42">
-        <v>2</v>
-      </c>
-      <c r="G15" s="42">
-        <v>2</v>
-      </c>
-      <c r="H15" s="42">
-        <v>2</v>
-      </c>
-      <c r="I15" s="42">
-        <v>2</v>
-      </c>
-      <c r="J15" s="42">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>1.7</v>
+      </c>
+      <c r="I15" s="43">
+        <v>2</v>
+      </c>
+      <c r="J15" s="43">
+        <v>0.5</v>
       </c>
       <c r="K15" s="36">
         <v>0</v>
       </c>
       <c r="L15" s="13">
         <f>SUM(D15:J15)*50/(A$1-K15)</f>
-        <v>116.66666666666667</v>
+        <v>35</v>
       </c>
       <c r="M15" s="12">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N15" s="65">
         <v>100</v>
@@ -2612,35 +2590,34 @@
       </c>
       <c r="Q15" s="13">
         <f>SUM(M15:O15)/(3-P15)</f>
-        <v>98.333333333333329</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="R15" s="12">
-        <v>-25</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="13">
-        <f>SUM(R15:S15)/2</f>
-        <v>-12.5</v>
-      </c>
-      <c r="U15" s="6">
-        <v>78</v>
-      </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="18">
-        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>68.191666666666663</v>
-      </c>
-      <c r="Y15" s="72"/>
-    </row>
-    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="S15" s="13">
+        <f>SUM(R15:R15)/1</f>
+        <v>80</v>
+      </c>
+      <c r="T15" s="6">
+        <v>100</v>
+      </c>
+      <c r="U15" s="34"/>
+      <c r="V15" s="18">
+        <f>L15*0.2+Q15*0.25+S15*0.15+T15*0.4+U15*0.15</f>
+        <v>75.666666666666671</v>
+      </c>
+      <c r="X15" s="72"/>
+    </row>
+    <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D16" s="41">
         <v>2</v>
@@ -2671,48 +2648,47 @@
         <v>116.66666666666667</v>
       </c>
       <c r="M16" s="12">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N16" s="65">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O16" s="70">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P16" s="64">
         <v>0</v>
       </c>
       <c r="Q16" s="13">
         <f>SUM(M16:O16)/(3-P16)</f>
-        <v>80</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="R16" s="12">
         <v>-25</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13">
-        <f>SUM(R16:S16)/2</f>
-        <v>-12.5</v>
-      </c>
-      <c r="U16" s="6">
-        <v>91</v>
-      </c>
-      <c r="V16" s="34"/>
-      <c r="W16" s="18">
-        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
-        <v>67.50833333333334</v>
-      </c>
-      <c r="Y16" s="72"/>
-    </row>
-    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="13">
+        <f>SUM(R16:R16)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="T16" s="6">
+        <v>78</v>
+      </c>
+      <c r="U16" s="34"/>
+      <c r="V16" s="18">
+        <f>L16*0.2+Q16*0.25+S16*0.15+T16*0.4+U16*0.15</f>
+        <v>75.366666666666674</v>
+      </c>
+      <c r="X16" s="72"/>
+    </row>
+    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="41">
         <v>2</v>
@@ -2761,30 +2737,29 @@
       <c r="R17" s="12">
         <v>-25</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="13">
-        <f>SUM(R17:S17)/2</f>
-        <v>-12.5</v>
-      </c>
-      <c r="U17" s="6">
+      <c r="S17" s="13">
+        <f>SUM(R17:R17)/1</f>
+        <v>-25</v>
+      </c>
+      <c r="T17" s="6">
         <v>85</v>
       </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="18">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.1</f>
-        <v>67.375</v>
-      </c>
-      <c r="Y17" s="72"/>
-    </row>
-    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="34"/>
+      <c r="V17" s="18">
+        <f>L17*0.2+Q17*0.25+S17*0.15+T17*0.4+U17*0.15</f>
+        <v>75.25</v>
+      </c>
+      <c r="X17" s="72"/>
+    </row>
+    <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="41">
         <v>0</v>
@@ -2833,50 +2808,49 @@
       <c r="R18" s="12">
         <v>40</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13">
-        <f>SUM(R18:S18)/2</f>
-        <v>20</v>
-      </c>
-      <c r="U18" s="6">
+      <c r="S18" s="13">
+        <f>SUM(R18:R18)/1</f>
+        <v>40</v>
+      </c>
+      <c r="T18" s="6">
         <v>62</v>
       </c>
-      <c r="V18" s="34"/>
-      <c r="W18" s="18">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
-        <v>66.516666666666666</v>
-      </c>
-      <c r="Y18" s="72"/>
-    </row>
-    <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="34"/>
+      <c r="V18" s="18">
+        <f>L18*0.2+Q18*0.25+S18*0.15+T18*0.4+U18*0.15</f>
+        <v>73.716666666666669</v>
+      </c>
+      <c r="X18" s="72"/>
+    </row>
+    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="44">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43">
-        <v>2</v>
-      </c>
-      <c r="F19" s="43">
-        <v>2</v>
-      </c>
-      <c r="G19" s="43">
-        <v>2</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="43">
+        <v>56</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <v>2</v>
+      </c>
+      <c r="F19" s="42">
+        <v>2</v>
+      </c>
+      <c r="G19" s="42">
+        <v>2</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="42">
+        <v>2</v>
+      </c>
+      <c r="J19" s="42">
         <v>2</v>
       </c>
       <c r="K19" s="36">
@@ -2884,53 +2858,50 @@
       </c>
       <c r="L19" s="13">
         <f>SUM(D19:J19)*50/(A$1-K19)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M19" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N19" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O19" s="70">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" s="64">
         <v>1</v>
       </c>
       <c r="Q19" s="13">
         <f>SUM(M19:O19)/(3-P19)</f>
-        <v>80</v>
+        <v>92.5</v>
       </c>
       <c r="R19" s="12">
-        <v>30</v>
-      </c>
-      <c r="S19" s="12">
-        <v>40</v>
-      </c>
-      <c r="T19" s="13">
-        <f>SUM(R19:S19)/2</f>
-        <v>35</v>
-      </c>
-      <c r="U19" s="6">
-        <v>63</v>
-      </c>
-      <c r="V19" s="34"/>
-      <c r="W19" s="18">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>63.65</v>
-      </c>
-      <c r="Y19" s="72"/>
-    </row>
-    <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <f>SUM(R19:R19)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>68</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="V19" s="18">
+        <f>L19*0.2+Q19*0.25+S19*0.15+T19*0.4+U19*0.15</f>
+        <v>70.325000000000003</v>
+      </c>
+      <c r="X19" s="72"/>
+    </row>
+    <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D20" s="41">
         <v>0</v>
@@ -2942,13 +2913,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="42">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I20" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="42">
         <v>2</v>
@@ -2958,123 +2929,121 @@
       </c>
       <c r="L20" s="13">
         <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="M20" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N20" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O20" s="70">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P20" s="64">
         <v>1</v>
       </c>
       <c r="Q20" s="13">
         <f>SUM(M20:O20)/(3-P20)</f>
-        <v>92.5</v>
+        <v>80</v>
       </c>
       <c r="R20" s="12">
         <v>0</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13">
-        <f>SUM(R20:S20)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>68</v>
-      </c>
-      <c r="V20" s="34"/>
-      <c r="W20" s="18">
-        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
-        <v>63.524999999999999</v>
-      </c>
-      <c r="Y20" s="72"/>
-    </row>
-    <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="13">
+        <f>SUM(R20:R20)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>82</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="18">
+        <f>L20*0.2+Q20*0.25+S20*0.15+T20*0.4+U20*0.15</f>
+        <v>67.2</v>
+      </c>
+      <c r="X20" s="72"/>
+    </row>
+    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
-        <v>2</v>
-      </c>
-      <c r="F21" s="42">
-        <v>2</v>
-      </c>
-      <c r="G21" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42">
+        <v>28</v>
+      </c>
+      <c r="D21" s="44">
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <v>2</v>
+      </c>
+      <c r="F21" s="43">
+        <v>2</v>
+      </c>
+      <c r="G21" s="43">
+        <v>2</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="43">
+        <v>0</v>
+      </c>
+      <c r="J21" s="43">
         <v>2</v>
       </c>
       <c r="K21" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="13">
         <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M21" s="12">
         <v>80</v>
       </c>
-      <c r="N21" s="65">
-        <v>100</v>
+      <c r="N21" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="O21" s="70">
         <v>80</v>
       </c>
       <c r="P21" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="13">
         <f>SUM(M21:O21)/(3-P21)</f>
-        <v>86.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="R21" s="12">
-        <v>0</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="13">
-        <f>SUM(R21:S21)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>82</v>
-      </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="18">
-        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
-        <v>58.266666666666666</v>
-      </c>
-      <c r="Y21" s="72"/>
-    </row>
-    <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="S21" s="13">
+        <f>SUM(R21:R21)/1</f>
+        <v>30</v>
+      </c>
+      <c r="T21" s="6">
+        <v>63</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="V21" s="18">
+        <f>L21*0.2+Q21*0.25+S21*0.15+T21*0.4+U21*0.15</f>
+        <v>65.7</v>
+      </c>
+      <c r="X21" s="72"/>
+    </row>
+    <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="41">
         <v>2</v>
@@ -3123,30 +3092,29 @@
       <c r="R22" s="12">
         <v>0</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13">
-        <f>SUM(R22:S22)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="S22" s="13">
+        <f>SUM(R22:R22)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
         <v>56</v>
       </c>
-      <c r="V22" s="34"/>
-      <c r="W22" s="18">
-        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.1</f>
-        <v>50.13333333333334</v>
-      </c>
-      <c r="Y22" s="72"/>
-    </row>
-    <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="34"/>
+      <c r="V22" s="18">
+        <f>L22*0.2+Q22*0.25+S22*0.15+T22*0.4+U22*0.15</f>
+        <v>55.733333333333334</v>
+      </c>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D23" s="41">
         <v>2</v>
@@ -3161,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I23" s="42">
         <v>2</v>
@@ -3195,64 +3163,63 @@
       <c r="R23" s="12">
         <v>0</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="13">
-        <f>SUM(R23:S23)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
+      <c r="S23" s="13">
+        <f>SUM(R23:R23)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
         <v>73</v>
       </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="18">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>47.633333333333333</v>
-      </c>
-      <c r="Y23" s="72"/>
-    </row>
-    <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="34"/>
+      <c r="V23" s="18">
+        <f>L23*0.2+Q23*0.25+S23*0.15+T23*0.4+U23*0.15</f>
+        <v>54.933333333333337</v>
+      </c>
+      <c r="X23" s="72"/>
+    </row>
+    <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="44">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0</v>
-      </c>
-      <c r="F24" s="43">
-        <v>2</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="43">
-        <v>2</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="43">
+        <v>17</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="42">
+        <v>2</v>
+      </c>
+      <c r="F24" s="42">
+        <v>1</v>
+      </c>
+      <c r="G24" s="42">
+        <v>2</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0</v>
+      </c>
+      <c r="I24" s="42">
+        <v>2</v>
+      </c>
+      <c r="J24" s="42">
         <v>0</v>
       </c>
       <c r="K24" s="36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="13">
         <f>SUM(D24:J24)*50/(A$1-K24)</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="M24" s="12">
         <v>50</v>
       </c>
-      <c r="M24" s="12">
-        <v>80</v>
-      </c>
       <c r="N24" s="65">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O24" s="70">
         <v>0</v>
@@ -3262,71 +3229,68 @@
       </c>
       <c r="Q24" s="13">
         <f>SUM(M24:O24)/(3-P24)</f>
-        <v>55</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="R24" s="12">
-        <v>0</v>
-      </c>
-      <c r="S24" s="12">
-        <v>40</v>
-      </c>
-      <c r="T24" s="13">
-        <f>SUM(R24:S24)/2</f>
-        <v>20</v>
-      </c>
-      <c r="U24" s="6">
-        <v>46</v>
-      </c>
-      <c r="V24" s="34"/>
-      <c r="W24" s="18">
-        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.1</f>
-        <v>42.55</v>
-      </c>
-      <c r="Y24" s="72"/>
-    </row>
-    <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="S24" s="13">
+        <f>SUM(R24:R24)/1</f>
+        <v>2</v>
+      </c>
+      <c r="T24" s="6">
+        <v>66</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="V24" s="18">
+        <f>L24*0.2+Q24*0.25+S24*0.15+T24*0.4+U24*0.15</f>
+        <v>42.533333333333339</v>
+      </c>
+      <c r="X24" s="72"/>
+    </row>
+    <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="41">
-        <v>0</v>
-      </c>
-      <c r="E25" s="42">
-        <v>2</v>
-      </c>
-      <c r="F25" s="42">
-        <v>1</v>
-      </c>
-      <c r="G25" s="42">
-        <v>2</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>2</v>
-      </c>
-      <c r="J25" s="42">
+        <v>6</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>2</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="43">
+        <v>2</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="43">
         <v>0</v>
       </c>
       <c r="K25" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="13">
         <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>58.333333333333336</v>
+        <v>50</v>
       </c>
       <c r="M25" s="12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N25" s="65">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O25" s="70">
         <v>0</v>
@@ -3336,35 +3300,34 @@
       </c>
       <c r="Q25" s="13">
         <f>SUM(M25:O25)/(3-P25)</f>
-        <v>16.666666666666668</v>
+        <v>55</v>
       </c>
       <c r="R25" s="12">
-        <v>2</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="13">
-        <f>SUM(R25:S25)/2</f>
-        <v>1</v>
-      </c>
-      <c r="U25" s="6">
-        <v>66</v>
-      </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="18">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
-        <v>35.88333333333334</v>
-      </c>
-      <c r="Y25" s="72"/>
-    </row>
-    <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <f>SUM(R25:R25)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>46</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="V25" s="18">
+        <f>L25*0.2+Q25*0.25+S25*0.15+T25*0.4+U25*0.15</f>
+        <v>42.150000000000006</v>
+      </c>
+      <c r="X25" s="72"/>
+    </row>
+    <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="41">
         <v>0</v>
@@ -3413,27 +3376,26 @@
       <c r="R26" s="12">
         <v>0</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="13">
-        <f>SUM(R26:S26)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
+      <c r="S26" s="13">
+        <f>SUM(R26:R26)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
         <v>65</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="18">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
-        <v>32.833333333333336</v>
-      </c>
-      <c r="Y26" s="72"/>
-    </row>
-    <row r="27" spans="1:25" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="34"/>
+      <c r="V26" s="18">
+        <f>L26*0.2+Q26*0.25+S26*0.15+T26*0.4+U26*0.15</f>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="X26" s="72"/>
+    </row>
+    <row r="27" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
@@ -3485,30 +3447,29 @@
       <c r="R27" s="12">
         <v>0</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="13">
-        <f>SUM(R27:S27)/2</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="S27" s="13">
+        <f>SUM(R27:R27)/1</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
         <v>23</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="18">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.1</f>
-        <v>21.900000000000002</v>
-      </c>
-      <c r="Y27" s="72"/>
-    </row>
-    <row r="28" spans="1:25" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="34"/>
+      <c r="V27" s="18">
+        <f>L27*0.2+Q27*0.25+S27*0.15+T27*0.4+U27*0.15</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="X27" s="72"/>
+    </row>
+    <row r="28" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42"/>
@@ -3531,27 +3492,26 @@
         <v>0</v>
       </c>
       <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="6">
+      <c r="S28" s="13"/>
+      <c r="T28" s="6">
         <v>36</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="18">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="Y28" s="72"/>
-    </row>
-    <row r="29" spans="1:25" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="34"/>
+      <c r="V28" s="18">
+        <f>L28*0.2+Q28*0.25+S28*0.15+T28*0.4+U28*0.15</f>
+        <v>14.4</v>
+      </c>
+      <c r="X28" s="72"/>
+    </row>
+    <row r="29" spans="1:24" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="43"/>
@@ -3571,27 +3531,26 @@
         <v>0</v>
       </c>
       <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="6">
+      <c r="S29" s="13"/>
+      <c r="T29" s="6">
         <v>35</v>
       </c>
-      <c r="V29" s="34"/>
-      <c r="W29" s="18">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.1</f>
-        <v>10.5</v>
-      </c>
-      <c r="Y29" s="72"/>
-    </row>
-    <row r="30" spans="1:25" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="34"/>
+      <c r="V29" s="18">
+        <f>L29*0.2+Q29*0.25+S29*0.15+T29*0.4+U29*0.15</f>
+        <v>14</v>
+      </c>
+      <c r="X29" s="72"/>
+    </row>
+    <row r="30" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42"/>
@@ -3614,21 +3573,20 @@
         <v>0</v>
       </c>
       <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="6">
+      <c r="S30" s="13"/>
+      <c r="T30" s="6">
         <v>32</v>
       </c>
-      <c r="V30" s="34"/>
-      <c r="W30" s="18">
-        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.1</f>
-        <v>9.6</v>
-      </c>
-      <c r="Y30" s="72"/>
-    </row>
-    <row r="31" spans="1:25" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="34"/>
+      <c r="V30" s="18">
+        <f>L30*0.2+Q30*0.25+S30*0.15+T30*0.4+U30*0.15</f>
+        <v>12.8</v>
+      </c>
+      <c r="X30" s="72"/>
+    </row>
+    <row r="31" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
@@ -3657,23 +3615,22 @@
         <v>0</v>
       </c>
       <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="6">
+      <c r="S31" s="13"/>
+      <c r="T31" s="6">
         <v>31</v>
       </c>
-      <c r="V31" s="34"/>
-      <c r="W31" s="18">
-        <f>L31*0.2+Q31*0.25+T31*0.25+U31*0.3+V31*0.1</f>
-        <v>9.2999999999999989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="34"/>
+      <c r="V31" s="18">
+        <f>L31*0.2+Q31*0.25+S31*0.15+T31*0.4+U31*0.15</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="50" t="s">
         <v>5</v>
@@ -3696,21 +3653,20 @@
       <c r="P32" s="64"/>
       <c r="Q32" s="54"/>
       <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="58">
-        <f>L32*0.2+Q32*0.25+T32*0.25+U32*0.3+V32*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="54"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="18">
+        <f>L32*0.2+Q32*0.25+S32*0.15+T32*0.4+U32*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>3</v>
@@ -3733,16 +3689,15 @@
       <c r="P33" s="64"/>
       <c r="Q33" s="54"/>
       <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="58">
-        <f>L33*0.2+Q33*0.25+T33*0.25+U33*0.3+V33*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="54"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="18">
+        <f>L33*0.2+Q33*0.25+S33*0.15+T33*0.4+U33*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>4</v>
       </c>
@@ -3770,16 +3725,15 @@
       <c r="P34" s="64"/>
       <c r="Q34" s="54"/>
       <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="58">
-        <f>L34*0.2+Q34*0.25+T34*0.25+U34*0.3+V34*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="54"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="18">
+        <f>L34*0.2+Q34*0.25+S34*0.15+T34*0.4+U34*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>9</v>
       </c>
@@ -3807,16 +3761,15 @@
       <c r="P35" s="64"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="58">
-        <f>L35*0.2+Q35*0.25+T35*0.25+U35*0.3+V35*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="54"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="18">
+        <f>L35*0.2+Q35*0.25+S35*0.15+T35*0.4+U35*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>12</v>
       </c>
@@ -3844,24 +3797,23 @@
       <c r="P36" s="64"/>
       <c r="Q36" s="54"/>
       <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="58">
-        <f>L36*0.2+Q36*0.25+T36*0.25+U36*0.3+V36*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="54"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="18">
+        <f>L36*0.2+Q36*0.25+S36*0.15+T36*0.4+U36*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
@@ -3881,24 +3833,23 @@
       <c r="P37" s="64"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="58">
-        <f>L37*0.2+Q37*0.25+T37*0.25+U37*0.3+V37*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="54"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="18">
+        <f>L37*0.2+Q37*0.25+S37*0.15+T37*0.4+U37*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
@@ -3918,16 +3869,15 @@
       <c r="P38" s="64"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="58">
-        <f>L38*0.2+Q38*0.25+T38*0.25+U38*0.3+V38*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="54"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="18">
+        <f>L38*0.2+Q38*0.25+S38*0.15+T38*0.4+U38*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
@@ -3958,16 +3908,15 @@
         <v>0</v>
       </c>
       <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="58">
-        <f>L39*0.2+Q39*0.25+T39*0.25+U39*0.3+V39*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="54"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="18">
+        <f>L39*0.2+Q39*0.25+S39*0.15+T39*0.4+U39*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -3998,24 +3947,23 @@
         <v>0</v>
       </c>
       <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="58">
-        <f>L40*0.2+Q40*0.25+T40*0.25+U40*0.3+V40*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="54"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="18">
+        <f>L40*0.2+Q40*0.25+S40*0.15+T40*0.4+U40*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
@@ -4038,24 +3986,23 @@
         <v>0</v>
       </c>
       <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="58">
-        <f>L41*0.2+Q41*0.25+T41*0.25+U41*0.3+V41*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="54"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="18">
+        <f>L41*0.2+Q41*0.25+S41*0.15+T41*0.4+U41*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>124</v>
       </c>
       <c r="D42" s="61"/>
       <c r="E42" s="62"/>
@@ -4078,16 +4025,15 @@
         <v>0</v>
       </c>
       <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="58">
-        <f>L42*0.2+Q42*0.25+T42*0.25+U42*0.3+V42*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="54"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="18">
+        <f>L42*0.2+Q42*0.25+S42*0.15+T42*0.4+U42*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4107,9 +4053,8 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-    </row>
-    <row r="44" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4129,9 +4074,8 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-    </row>
-    <row r="45" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4151,9 +4095,8 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-    </row>
-    <row r="46" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4173,9 +4116,8 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-    </row>
-    <row r="47" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4195,9 +4137,8 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-    </row>
-    <row r="48" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4217,9 +4158,8 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-    </row>
-    <row r="49" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4239,9 +4179,8 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-    </row>
-    <row r="50" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4261,9 +4200,8 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-    </row>
-    <row r="51" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4283,9 +4221,8 @@
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-    </row>
-    <row r="52" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4305,9 +4242,8 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-    </row>
-    <row r="53" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4327,9 +4263,8 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-    </row>
-    <row r="54" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4349,9 +4284,8 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-    </row>
-    <row r="55" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4371,9 +4305,8 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-    </row>
-    <row r="56" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4393,9 +4326,8 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-    </row>
-    <row r="57" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4415,9 +4347,8 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-    </row>
-    <row r="58" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4437,9 +4368,8 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-    </row>
-    <row r="59" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4459,9 +4389,8 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-    </row>
-    <row r="60" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4481,9 +4410,8 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-    </row>
-    <row r="61" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4503,9 +4431,8 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-    </row>
-    <row r="62" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4525,9 +4452,8 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-    </row>
-    <row r="63" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4547,14 +4473,13 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:W42">
-    <sortCondition descending="1" ref="W3"/>
+  <sortState ref="A3:V42">
+    <sortCondition descending="1" ref="V3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
@@ -4570,7 +4495,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:O42 U3:V42">
+  <conditionalFormatting sqref="M3:O42 T3:U42">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4587,7 +4512,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:S42">
+  <conditionalFormatting sqref="R3:R42">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4632,7 +4557,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T42">
+  <conditionalFormatting sqref="S3:S42">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
@@ -4646,7 +4571,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W42">
+  <conditionalFormatting sqref="V3:V42">
     <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
@@ -4697,7 +4622,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T3:T42</xm:sqref>
+          <xm:sqref>S3:S42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4708,7 +4633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>W3:W42</xm:sqref>
+          <xm:sqref>V3:V42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4725,7 +4650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4753,36 +4678,36 @@
       <c r="B1" s="15"/>
       <c r="C1" s="26"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="79">
-        <v>1</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="79">
-        <v>1</v>
+      <c r="E1" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76">
+        <v>2</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="76">
+        <v>2</v>
       </c>
       <c r="S1" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,8 +4738,8 @@
       <c r="I2" s="22">
         <v>12</v>
       </c>
-      <c r="J2" s="76" t="s">
-        <v>129</v>
+      <c r="J2" s="73" t="s">
+        <v>127</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>30</v>
@@ -4834,8 +4759,8 @@
       <c r="P2" s="22">
         <v>12</v>
       </c>
-      <c r="Q2" s="76" t="s">
-        <v>129</v>
+      <c r="Q2" s="73" t="s">
+        <v>127</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>30</v>
@@ -4852,21 +4777,23 @@
     </row>
     <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D3" s="18">
-        <v>84.8</v>
+        <v>95.833333333333343</v>
       </c>
       <c r="E3" s="29">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4878,1217 +4805,1327 @@
       <c r="L3" s="12">
         <v>100</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>90</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="13">
         <f>SUM(L3:P3)/(R$1-Q3)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="18">
         <f>K3*0.2+R3*0.3+S3*0.5</f>
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18">
-        <v>84.583333333333343</v>
+        <v>90.933333333333337</v>
       </c>
       <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="13">
-        <f t="shared" ref="K4:K42" si="0">SUM(E4:I4)*50/(K$1-J4)</f>
-        <v>100</v>
+        <f>SUM(E4:I4)*50/(K$1-J4)</f>
+        <v>50</v>
       </c>
       <c r="L4" s="12">
         <v>100</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="13">
-        <f t="shared" ref="R4:R42" si="1">SUM(L4:P4)/(R$1-Q4)</f>
-        <v>100</v>
+        <f>SUM(L4:P4)/(R$1-Q4)</f>
+        <v>50</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="18">
-        <f t="shared" ref="T4:T42" si="2">K4*0.2+R4*0.3+S4*0.5</f>
-        <v>50</v>
+        <f>K4*0.2+R4*0.3+S4*0.5</f>
+        <v>25</v>
       </c>
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D5" s="18">
-        <v>81.95</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>90.15</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="6"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="13">
+        <f>SUM(E5:I5)*50/(K$1-J5)</f>
+        <v>100</v>
+      </c>
+      <c r="L5" s="12">
+        <v>75</v>
+      </c>
+      <c r="M5" s="6">
+        <v>100</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="36">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="13">
+        <f>SUM(L5:P5)/(R$1-Q5)</f>
+        <v>87.5</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="T5" s="18">
+        <f>K5*0.2+R5*0.3+S5*0.5</f>
+        <v>46.25</v>
       </c>
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D6" s="18">
-        <v>80.625</v>
+        <v>88.63333333333334</v>
       </c>
       <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="36"/>
       <c r="K6" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:I6)*50/(K$1-J6)</f>
         <v>100</v>
       </c>
       <c r="L6" s="12">
-        <v>75</v>
-      </c>
-      <c r="M6" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="6">
+        <v>100</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="13">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(L6:P6)/(R$1-Q6)</f>
+        <v>100</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="18">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+        <f>K6*0.2+R6*0.3+S6*0.5</f>
+        <v>50</v>
       </c>
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
-        <v>80.408333333333331</v>
+        <v>88.4</v>
       </c>
       <c r="E7" s="29">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="36"/>
       <c r="K7" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:I7)*50/(K$1-J7)</f>
         <v>100</v>
       </c>
       <c r="L7" s="12">
         <v>100</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>90</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L7:P7)/(R$1-Q7)</f>
+        <v>95</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K7*0.2+R7*0.3+S7*0.5</f>
+        <v>48.5</v>
       </c>
       <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D8" s="18">
-        <v>78.808333333333337</v>
+        <v>86.26666666666668</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="36"/>
       <c r="K8" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E8:I8)*50/(K$1-J8)</f>
         <v>100</v>
       </c>
       <c r="L8" s="12">
-        <v>100</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="M8" s="6">
+        <v>95</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L8:P8)/(R$1-Q8)</f>
+        <v>72.5</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K8*0.2+R8*0.3+S8*0.5</f>
+        <v>41.75</v>
       </c>
       <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D9" s="18">
-        <v>78.55</v>
+        <v>85.15</v>
       </c>
       <c r="E9" s="29">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="36"/>
       <c r="K9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E9:I9)*50/(K$1-J9)</f>
         <v>100</v>
       </c>
       <c r="L9" s="12">
         <v>100</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>100</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L9:P9)/(R$1-Q9)</f>
         <v>100</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="18">
-        <f t="shared" si="2"/>
+        <f>K9*0.2+R9*0.3+S9*0.5</f>
         <v>50</v>
       </c>
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="18">
-        <v>76.116666666666674</v>
+        <v>82.275000000000006</v>
       </c>
       <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="36"/>
       <c r="K10" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:I10)*50/(K$1-J10)</f>
         <v>100</v>
       </c>
       <c r="L10" s="12">
-        <v>50</v>
-      </c>
-      <c r="M10" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M10" s="6">
+        <v>95</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(L10:P10)/(R$1-Q10)</f>
+        <v>97.5</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>K10*0.2+R10*0.3+S10*0.5</f>
+        <v>49.25</v>
       </c>
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18">
-        <v>73.424999999999997</v>
-      </c>
-      <c r="E11" s="29">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>81.349999999999994</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
       <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L11" s="12">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6"/>
+        <f>SUM(E11:I11)*50/(K$1-J11)</f>
+        <v>100</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="6">
+        <v>100</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="36">
+        <v>1</v>
+      </c>
       <c r="R11" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L11:P11)/(R$1-Q11)</f>
         <v>100</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="18">
-        <f t="shared" si="2"/>
+        <f>K11*0.2+R11*0.3+S11*0.5</f>
         <v>50</v>
       </c>
       <c r="U11" s="18"/>
     </row>
     <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="18">
-        <v>70.88333333333334</v>
+        <v>79.033333333333331</v>
       </c>
       <c r="E12" s="29">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="36"/>
       <c r="K12" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E12:I12)*50/(K$1-J12)</f>
+        <v>97.5</v>
       </c>
       <c r="L12" s="12">
         <v>100</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>60</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L12:P12)/(R$1-Q12)</f>
+        <v>80</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K12*0.2+R12*0.3+S12*0.5</f>
+        <v>43.5</v>
       </c>
       <c r="U12" s="18"/>
     </row>
     <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="18">
-        <v>70.85833333333332</v>
+        <v>78.233333333333334</v>
       </c>
       <c r="E13" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="36"/>
       <c r="K13" s="13">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f>SUM(E13:I13)*50/(K$1-J13)</f>
+        <v>100</v>
       </c>
       <c r="L13" s="12">
         <v>100</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>100</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L13:P13)/(R$1-Q13)</f>
         <v>100</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="18">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f>K13*0.2+R13*0.3+S13*0.5</f>
+        <v>50</v>
       </c>
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D14" s="18">
-        <v>68.666666666666671</v>
+        <v>75.983333333333334</v>
       </c>
       <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="36"/>
       <c r="K14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E14:I14)*50/(K$1-J14)</f>
+        <v>100</v>
       </c>
       <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="6">
+        <v>95</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L14:P14)/(R$1-Q14)</f>
+        <v>97.5</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>K14*0.2+R14*0.3+S14*0.5</f>
+        <v>49.25</v>
       </c>
       <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
-        <v>68.191666666666663</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="E15" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="36"/>
       <c r="K15" s="13">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f>SUM(E15:I15)*50/(K$1-J15)</f>
+        <v>50</v>
       </c>
       <c r="L15" s="12">
-        <v>100</v>
-      </c>
-      <c r="M15" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>85</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L15:P15)/(R$1-Q15)</f>
+        <v>42.5</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="18">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f>K15*0.2+R15*0.3+S15*0.5</f>
+        <v>22.75</v>
       </c>
       <c r="U15" s="18"/>
     </row>
     <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D16" s="18">
-        <v>67.50833333333334</v>
+        <v>75.366666666666674</v>
       </c>
       <c r="E16" s="29">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="36"/>
       <c r="K16" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E16:I16)*50/(K$1-J16)</f>
+        <v>97.5</v>
       </c>
       <c r="L16" s="12">
         <v>100</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>100</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L16:P16)/(R$1-Q16)</f>
         <v>100</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K16*0.2+R16*0.3+S16*0.5</f>
+        <v>49.5</v>
       </c>
       <c r="U16" s="18"/>
     </row>
     <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="18">
-        <v>67.375</v>
+        <v>75.25</v>
       </c>
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="36"/>
       <c r="K17" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E17:I17)*50/(K$1-J17)</f>
+        <v>50</v>
       </c>
       <c r="L17" s="12">
         <v>100</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L17:P17)/(R$1-Q17)</f>
+        <v>50</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K17*0.2+R17*0.3+S17*0.5</f>
+        <v>25</v>
       </c>
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="18">
-        <v>66.516666666666666</v>
+        <v>73.716666666666669</v>
       </c>
       <c r="E18" s="29">
         <v>2</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="36"/>
       <c r="K18" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E18:I18)*50/(K$1-J18)</f>
         <v>100</v>
       </c>
       <c r="L18" s="12">
         <v>100</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <v>100</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L18:P18)/(R$1-Q18)</f>
         <v>100</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="18">
-        <f t="shared" si="2"/>
+        <f>K18*0.2+R18*0.3+S18*0.5</f>
         <v>50</v>
       </c>
       <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18">
-        <v>63.65</v>
+        <v>70.325000000000003</v>
       </c>
       <c r="E19" s="29">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>2</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="36"/>
       <c r="K19" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E19:I19)*50/(K$1-J19)</f>
+        <v>50</v>
       </c>
       <c r="L19" s="12">
-        <v>50</v>
-      </c>
-      <c r="M19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>60</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(L19:P19)/(R$1-Q19)</f>
+        <v>30</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>K19*0.2+R19*0.3+S19*0.5</f>
+        <v>19</v>
       </c>
       <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D20" s="18">
-        <v>63.524999999999999</v>
+        <v>67</v>
       </c>
       <c r="E20" s="29">
         <v>0</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="7">
+        <v>1.7</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="36"/>
       <c r="K20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E20:I20)*50/(K$1-J20)</f>
+        <v>42.5</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>60</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L20:P20)/(R$1-Q20)</f>
+        <v>30</v>
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>K20*0.2+R20*0.3+S20*0.5</f>
+        <v>17.5</v>
       </c>
       <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D21" s="18">
-        <v>58.266666666666666</v>
+        <v>65.7</v>
       </c>
       <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="36"/>
       <c r="K21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E21:I21)*50/(K$1-J21)</f>
+        <v>50</v>
       </c>
       <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L21:P21)/(R$1-Q21)</f>
+        <v>25</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>K21*0.2+R21*0.3+S21*0.5</f>
+        <v>17.5</v>
       </c>
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="18">
-        <v>50.13333333333334</v>
+        <v>55.733333333333334</v>
       </c>
       <c r="E22" s="29">
         <v>2</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="36"/>
       <c r="K22" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E22:I22)*50/(K$1-J22)</f>
         <v>100</v>
       </c>
       <c r="L22" s="12">
         <v>100</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <v>60</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L22:P22)/(R$1-Q22)</f>
+        <v>80</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K22*0.2+R22*0.3+S22*0.5</f>
+        <v>44</v>
       </c>
       <c r="U22" s="18"/>
     </row>
     <row r="23" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="18">
-        <v>47.633333333333333</v>
+        <v>54.933333333333337</v>
       </c>
       <c r="E23" s="29">
         <v>2</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="36"/>
       <c r="K23" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E23:I23)*50/(K$1-J23)</f>
+        <v>50</v>
       </c>
       <c r="L23" s="12">
         <v>75</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="13">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(L23:P23)/(R$1-Q23)</f>
+        <v>37.5</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="18">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+        <f>K23*0.2+R23*0.3+S23*0.5</f>
+        <v>21.25</v>
       </c>
       <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D24" s="18">
-        <v>42.55</v>
+        <v>42.533333333333339</v>
       </c>
       <c r="E24" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="36"/>
       <c r="K24" s="13">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(E24:I24)*50/(K$1-J24)</f>
+        <v>100</v>
       </c>
       <c r="L24" s="12">
-        <v>50</v>
-      </c>
-      <c r="M24" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M24" s="6">
+        <v>95</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(L24:P24)/(R$1-Q24)</f>
+        <v>97.5</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="18">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>K24*0.2+R24*0.3+S24*0.5</f>
+        <v>49.25</v>
       </c>
       <c r="U24" s="18"/>
     </row>
     <row r="25" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D25" s="18">
-        <v>35.88333333333334</v>
+        <v>42.150000000000006</v>
       </c>
       <c r="E25" s="29">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="36"/>
       <c r="K25" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E25:I25)*50/(K$1-J25)</f>
+        <v>37.5</v>
       </c>
       <c r="L25" s="12">
-        <v>100</v>
-      </c>
-      <c r="M25" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L25:P25)/(R$1-Q25)</f>
+        <v>25</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="18">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>K25*0.2+R25*0.3+S25*0.5</f>
+        <v>15</v>
       </c>
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D26" s="18">
-        <v>32.833333333333336</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="E26" s="29">
         <v>0</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="36"/>
       <c r="K26" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E26:I26)*50/(K$1-J26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:P26)/(R$1-Q26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="18">
-        <f t="shared" si="2"/>
+        <f>K26*0.2+R26*0.3+S26*0.5</f>
         <v>0</v>
       </c>
       <c r="U26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="18">
-        <v>21.900000000000002</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="E27" s="29">
         <v>0</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="36"/>
       <c r="K27" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E27:I27)*50/(K$1-J27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:P27)/(R$1-Q27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="18">
-        <f t="shared" si="2"/>
+        <f>K27*0.2+R27*0.3+S27*0.5</f>
         <v>0</v>
       </c>
       <c r="U27" s="18"/>
     </row>
     <row r="28" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="D28" s="18">
-        <v>10.799999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="E28" s="29">
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="36"/>
       <c r="K28" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E28:I28)*50/(K$1-J28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="36"/>
       <c r="R28" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:P28)/(R$1-Q28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="18">
-        <f t="shared" si="2"/>
+        <f>K28*0.2+R28*0.3+S28*0.5</f>
         <v>0</v>
       </c>
       <c r="U28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="D29" s="18">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="E29" s="29">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="36"/>
       <c r="K29" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E29:I29)*50/(K$1-J29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="12">
         <v>0</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:P29)/(R$1-Q29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="18">
-        <f t="shared" si="2"/>
+        <f>K29*0.2+R29*0.3+S29*0.5</f>
         <v>0</v>
       </c>
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="D30" s="18">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="E30" s="29">
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="36"/>
       <c r="K30" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E30:I30)*50/(K$1-J30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="12">
         <v>0</v>
       </c>
-      <c r="M30" s="6"/>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:P30)/(R$1-Q30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="18">
-        <f t="shared" si="2"/>
+        <f>K30*0.2+R30*0.3+S30*0.5</f>
         <v>0</v>
       </c>
       <c r="U30" s="18"/>
     </row>
     <row r="31" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
@@ -6097,45 +6134,49 @@
         <v>8</v>
       </c>
       <c r="D31" s="18">
-        <v>9.2999999999999989</v>
+        <v>12.4</v>
       </c>
       <c r="E31" s="29">
         <v>0</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="36"/>
       <c r="K31" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E31:I31)*50/(K$1-J31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="12">
         <v>0</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:P31)/(R$1-Q31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="18">
-        <f t="shared" si="2"/>
+        <f>K31*0.2+R31*0.3+S31*0.5</f>
         <v>0</v>
       </c>
       <c r="U31" s="18"/>
     </row>
     <row r="32" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="50" t="s">
         <v>5</v>
@@ -6144,30 +6185,34 @@
       <c r="E32" s="29">
         <v>0</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="36"/>
       <c r="K32" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E32:I32)*50/(K$1-J32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="12">
         <v>0</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:P32)/(R$1-Q32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="18">
-        <f t="shared" si="2"/>
+        <f>K32*0.2+R32*0.3+S32*0.5</f>
         <v>0</v>
       </c>
       <c r="U32" s="18"/>
@@ -6177,7 +6222,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>3</v>
@@ -6186,30 +6231,34 @@
       <c r="E33" s="29">
         <v>0</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="36"/>
       <c r="K33" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E33:I33)*50/(K$1-J33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="12">
         <v>0</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:P33)/(R$1-Q33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="18">
-        <f t="shared" si="2"/>
+        <f>K33*0.2+R33*0.3+S33*0.5</f>
         <v>0</v>
       </c>
       <c r="U33" s="18"/>
@@ -6228,30 +6277,34 @@
       <c r="E34" s="29">
         <v>0</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="36"/>
       <c r="K34" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E34:I34)*50/(K$1-J34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="12">
         <v>0</v>
       </c>
-      <c r="M34" s="6"/>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L34:P34)/(R$1-Q34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="18">
-        <f t="shared" si="2"/>
+        <f>K34*0.2+R34*0.3+S34*0.5</f>
         <v>0</v>
       </c>
       <c r="U34" s="18"/>
@@ -6270,30 +6323,34 @@
       <c r="E35" s="29">
         <v>0</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="36"/>
       <c r="K35" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E35:I35)*50/(K$1-J35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
       </c>
-      <c r="M35" s="6"/>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L35:P35)/(R$1-Q35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="18">
-        <f t="shared" si="2"/>
+        <f>K35*0.2+R35*0.3+S35*0.5</f>
         <v>0</v>
       </c>
       <c r="U35" s="18"/>
@@ -6312,114 +6369,126 @@
       <c r="E36" s="29">
         <v>0</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="36"/>
       <c r="K36" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E36:I36)*50/(K$1-J36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
       </c>
-      <c r="M36" s="6"/>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L36:P36)/(R$1-Q36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="18">
-        <f t="shared" si="2"/>
+        <f>K36*0.2+R36*0.3+S36*0.5</f>
         <v>0</v>
       </c>
       <c r="U36" s="18"/>
     </row>
     <row r="37" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="29">
         <v>0</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="36"/>
       <c r="K37" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E37:I37)*50/(K$1-J37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
       </c>
-      <c r="M37" s="6"/>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L37:P37)/(R$1-Q37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="18">
-        <f t="shared" si="2"/>
+        <f>K37*0.2+R37*0.3+S37*0.5</f>
         <v>0</v>
       </c>
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="29">
         <v>0</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="36"/>
       <c r="K38" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E38:I38)*50/(K$1-J38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="12">
         <v>0</v>
       </c>
-      <c r="M38" s="6"/>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L38:P38)/(R$1-Q38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="18">
-        <f t="shared" si="2"/>
+        <f>K38*0.2+R38*0.3+S38*0.5</f>
         <v>0</v>
       </c>
       <c r="U38" s="18"/>
@@ -6438,30 +6507,34 @@
       <c r="E39" s="29">
         <v>0</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="36"/>
       <c r="K39" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E39:I39)*50/(K$1-J39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="12">
         <v>0</v>
       </c>
-      <c r="M39" s="6"/>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L39:P39)/(R$1-Q39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="18">
-        <f t="shared" si="2"/>
+        <f>K39*0.2+R39*0.3+S39*0.5</f>
         <v>0</v>
       </c>
       <c r="U39" s="18"/>
@@ -6480,114 +6553,126 @@
       <c r="E40" s="29">
         <v>0</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="36"/>
       <c r="K40" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E40:I40)*50/(K$1-J40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="12">
         <v>0</v>
       </c>
-      <c r="M40" s="6"/>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L40:P40)/(R$1-Q40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="18">
-        <f t="shared" si="2"/>
+        <f>K40*0.2+R40*0.3+S40*0.5</f>
         <v>0</v>
       </c>
       <c r="U40" s="18"/>
     </row>
     <row r="41" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="29">
         <v>0</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="36"/>
       <c r="K41" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E41:I41)*50/(K$1-J41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="12">
         <v>0</v>
       </c>
-      <c r="M41" s="6"/>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L41:P41)/(R$1-Q41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="18">
-        <f t="shared" si="2"/>
+        <f>K41*0.2+R41*0.3+S41*0.5</f>
         <v>0</v>
       </c>
       <c r="U41" s="18"/>
     </row>
     <row r="42" spans="1:21" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>124</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="29">
         <v>0</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="36"/>
       <c r="K42" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(E42:I42)*50/(K$1-J42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="12">
         <v>0</v>
       </c>
-      <c r="M42" s="6"/>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(L42:P42)/(R$1-Q42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="56"/>
       <c r="T42" s="18">
-        <f t="shared" si="2"/>
+        <f>K42*0.2+R42*0.3+S42*0.5</f>
         <v>0</v>
       </c>
       <c r="U42" s="58"/>
@@ -7373,7 +7458,7 @@
       <c r="R81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:S42">
+  <sortState ref="A3:U42">
     <sortCondition descending="1" ref="D3"/>
   </sortState>
   <mergeCells count="2">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,6 @@
           </rPr>
           <t xml:space="preserve">Hafta Sayısı
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sari, Ozkan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Herkese +23 puan verildi</t>
         </r>
       </text>
     </comment>
@@ -501,7 +477,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,19 +527,6 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1040,16 +1003,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1552,9 +1515,9 @@
   </sheetPr>
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1589,25 +1552,25 @@
       <c r="D1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="78"/>
       <c r="M1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="78"/>
       <c r="R1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="78"/>
       <c r="T1" s="14" t="s">
         <v>132</v>
       </c>
@@ -1721,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="13">
-        <f>SUM(D3:J3)*50/(A$1-K3)</f>
+        <f t="shared" ref="L3:L28" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
         <v>115.83333333333333</v>
       </c>
       <c r="M3" s="12">
@@ -1737,14 +1700,14 @@
         <v>0</v>
       </c>
       <c r="Q3" s="13">
-        <f>SUM(M3:O3)/(3-P3)</f>
+        <f t="shared" ref="Q3:Q27" si="1">SUM(M3:O3)/(3-P3)</f>
         <v>96.666666666666671</v>
       </c>
       <c r="R3" s="12">
         <v>70</v>
       </c>
       <c r="S3" s="13">
-        <f>SUM(R3:R3)/1</f>
+        <f t="shared" ref="S3:S27" si="2">SUM(R3:R3)/1</f>
         <v>70</v>
       </c>
       <c r="T3" s="6">
@@ -1752,7 +1715,7 @@
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="18">
-        <f>L3*0.2+Q3*0.25+S3*0.15+T3*0.4+U3*0.15</f>
+        <f t="shared" ref="V3:V42" si="3">L3*0.2+Q3*0.25+S3*0.15+T3*0.4+U3*0.15</f>
         <v>95.833333333333343</v>
       </c>
       <c r="X3" s="72"/>
@@ -1792,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M4" s="12">
@@ -1808,14 +1771,14 @@
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f>SUM(M4:O4)/(3-P4)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R4" s="12">
         <v>85</v>
       </c>
       <c r="S4" s="13">
-        <f>SUM(R4:R4)/1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="T4" s="6">
@@ -1823,7 +1786,7 @@
       </c>
       <c r="U4" s="34"/>
       <c r="V4" s="18">
-        <f>L4*0.2+Q4*0.25+S4*0.15+T4*0.4+U4*0.15</f>
+        <f t="shared" si="3"/>
         <v>90.933333333333337</v>
       </c>
       <c r="X4" s="72"/>
@@ -1863,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="13">
-        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="M5" s="12">
@@ -1879,14 +1842,14 @@
         <v>0</v>
       </c>
       <c r="Q5" s="13">
-        <f>SUM(M5:O5)/(3-P5)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R5" s="12">
         <v>61</v>
       </c>
       <c r="S5" s="13">
-        <f>SUM(R5:R5)/1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="T5" s="6">
@@ -1894,7 +1857,7 @@
       </c>
       <c r="U5" s="34"/>
       <c r="V5" s="18">
-        <f>L5*0.2+Q5*0.25+S5*0.15+T5*0.4+U5*0.15</f>
+        <f t="shared" si="3"/>
         <v>90.15</v>
       </c>
       <c r="X5" s="72"/>
@@ -1934,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="13">
-        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M6" s="12">
@@ -1950,14 +1913,14 @@
         <v>0</v>
       </c>
       <c r="Q6" s="13">
-        <f>SUM(M6:O6)/(3-P6)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R6" s="12">
         <v>45</v>
       </c>
       <c r="S6" s="13">
-        <f>SUM(R6:R6)/1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="T6" s="6">
@@ -1965,7 +1928,7 @@
       </c>
       <c r="U6" s="34"/>
       <c r="V6" s="18">
-        <f>L6*0.2+Q6*0.25+S6*0.15+T6*0.4+U6*0.15</f>
+        <f t="shared" si="3"/>
         <v>88.63333333333334</v>
       </c>
       <c r="X6" s="72"/>
@@ -2005,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="13">
-        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
       <c r="M7" s="12">
@@ -2021,14 +1984,14 @@
         <v>0</v>
       </c>
       <c r="Q7" s="13">
-        <f>SUM(M7:O7)/(3-P7)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R7" s="12">
         <v>50</v>
       </c>
       <c r="S7" s="13">
-        <f>SUM(R7:R7)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T7" s="6">
@@ -2036,7 +1999,7 @@
       </c>
       <c r="U7" s="34"/>
       <c r="V7" s="18">
-        <f>L7*0.2+Q7*0.25+S7*0.15+T7*0.4+U7*0.15</f>
+        <f t="shared" si="3"/>
         <v>88.4</v>
       </c>
       <c r="X7" s="72"/>
@@ -2076,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="13">
-        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M8" s="12">
@@ -2092,14 +2055,14 @@
         <v>0</v>
       </c>
       <c r="Q8" s="13">
-        <f>SUM(M8:O8)/(3-P8)</f>
+        <f t="shared" si="1"/>
         <v>96.666666666666671</v>
       </c>
       <c r="R8" s="12">
         <v>30</v>
       </c>
       <c r="S8" s="13">
-        <f>SUM(R8:R8)/1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T8" s="6">
@@ -2107,7 +2070,7 @@
       </c>
       <c r="U8" s="34"/>
       <c r="V8" s="18">
-        <f>L8*0.2+Q8*0.25+S8*0.15+T8*0.4+U8*0.15</f>
+        <f t="shared" si="3"/>
         <v>86.26666666666668</v>
       </c>
       <c r="X8" s="72"/>
@@ -2147,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="13">
-        <f>SUM(D9:J9)*50/(A$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
       <c r="M9" s="12">
@@ -2163,14 +2126,14 @@
         <v>0</v>
       </c>
       <c r="Q9" s="13">
-        <f>SUM(M9:O9)/(3-P9)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R9" s="12">
         <v>20</v>
       </c>
       <c r="S9" s="13">
-        <f>SUM(R9:R9)/1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="T9" s="6">
@@ -2178,7 +2141,7 @@
       </c>
       <c r="U9" s="34"/>
       <c r="V9" s="18">
-        <f>L9*0.2+Q9*0.25+S9*0.15+T9*0.4+U9*0.15</f>
+        <f t="shared" si="3"/>
         <v>85.15</v>
       </c>
       <c r="X9" s="72"/>
@@ -2218,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="13">
-        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M10" s="12">
@@ -2234,14 +2197,14 @@
         <v>1</v>
       </c>
       <c r="Q10" s="13">
-        <f>SUM(M10:O10)/(3-P10)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="R10" s="12">
         <v>50</v>
       </c>
       <c r="S10" s="13">
-        <f>SUM(R10:R10)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T10" s="6">
@@ -2249,7 +2212,7 @@
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="18">
-        <f>L10*0.2+Q10*0.25+S10*0.15+T10*0.4+U10*0.15</f>
+        <f t="shared" si="3"/>
         <v>82.275000000000006</v>
       </c>
       <c r="X10" s="72"/>
@@ -2289,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="13">
-        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
       <c r="M11" s="12">
@@ -2305,14 +2268,14 @@
         <v>0</v>
       </c>
       <c r="Q11" s="13">
-        <f>SUM(M11:O11)/(3-P11)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R11" s="12">
         <v>50</v>
       </c>
       <c r="S11" s="13">
-        <f>SUM(R11:R11)/1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T11" s="6">
@@ -2320,7 +2283,7 @@
       </c>
       <c r="U11" s="34"/>
       <c r="V11" s="18">
-        <f>L11*0.2+Q11*0.25+S11*0.15+T11*0.4+U11*0.15</f>
+        <f t="shared" si="3"/>
         <v>81.349999999999994</v>
       </c>
       <c r="X11" s="72"/>
@@ -2360,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="13">
-        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M12" s="12">
@@ -2376,14 +2339,14 @@
         <v>0</v>
       </c>
       <c r="Q12" s="13">
-        <f>SUM(M12:O12)/(3-P12)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R12" s="12">
         <v>-25</v>
       </c>
       <c r="S12" s="13">
-        <f>SUM(R12:R12)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="T12" s="6">
@@ -2391,7 +2354,7 @@
       </c>
       <c r="U12" s="34"/>
       <c r="V12" s="18">
-        <f>L12*0.2+Q12*0.25+S12*0.15+T12*0.4+U12*0.15</f>
+        <f t="shared" si="3"/>
         <v>79.033333333333331</v>
       </c>
       <c r="X12" s="72"/>
@@ -2431,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="13">
-        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M13" s="12">
@@ -2447,14 +2410,14 @@
         <v>0</v>
       </c>
       <c r="Q13" s="13">
-        <f>SUM(M13:O13)/(3-P13)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R13" s="12">
         <v>10</v>
       </c>
       <c r="S13" s="13">
-        <f>SUM(R13:R13)/1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="T13" s="6">
@@ -2462,7 +2425,7 @@
       </c>
       <c r="U13" s="34"/>
       <c r="V13" s="18">
-        <f>L13*0.2+Q13*0.25+S13*0.15+T13*0.4+U13*0.15</f>
+        <f t="shared" si="3"/>
         <v>78.233333333333334</v>
       </c>
       <c r="X13" s="72"/>
@@ -2502,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M14" s="12">
@@ -2518,14 +2481,14 @@
         <v>0</v>
       </c>
       <c r="Q14" s="13">
-        <f>SUM(M14:O14)/(3-P14)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R14" s="12">
         <v>-25</v>
       </c>
       <c r="S14" s="13">
-        <f>SUM(R14:R14)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="T14" s="6">
@@ -2533,7 +2496,7 @@
       </c>
       <c r="U14" s="34"/>
       <c r="V14" s="18">
-        <f>L14*0.2+Q14*0.25+S14*0.15+T14*0.4+U14*0.15</f>
+        <f t="shared" si="3"/>
         <v>75.983333333333334</v>
       </c>
       <c r="X14" s="72"/>
@@ -2573,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="13">
-        <f>SUM(D15:J15)*50/(A$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M15" s="12">
@@ -2589,14 +2552,14 @@
         <v>0</v>
       </c>
       <c r="Q15" s="13">
-        <f>SUM(M15:O15)/(3-P15)</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="R15" s="12">
         <v>80</v>
       </c>
       <c r="S15" s="13">
-        <f>SUM(R15:R15)/1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="T15" s="6">
@@ -2604,7 +2567,7 @@
       </c>
       <c r="U15" s="34"/>
       <c r="V15" s="18">
-        <f>L15*0.2+Q15*0.25+S15*0.15+T15*0.4+U15*0.15</f>
+        <f t="shared" si="3"/>
         <v>75.666666666666671</v>
       </c>
       <c r="X15" s="72"/>
@@ -2644,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="13">
-        <f>SUM(D16:J16)*50/(A$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M16" s="12">
@@ -2660,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <f>SUM(M16:O16)/(3-P16)</f>
+        <f t="shared" si="1"/>
         <v>98.333333333333329</v>
       </c>
       <c r="R16" s="12">
         <v>-25</v>
       </c>
       <c r="S16" s="13">
-        <f>SUM(R16:R16)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="T16" s="6">
@@ -2675,7 +2638,7 @@
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="18">
-        <f>L16*0.2+Q16*0.25+S16*0.15+T16*0.4+U16*0.15</f>
+        <f t="shared" si="3"/>
         <v>75.366666666666674</v>
       </c>
       <c r="X16" s="72"/>
@@ -2715,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <f>SUM(D17:J17)*50/(A$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M17" s="12">
@@ -2731,14 +2694,14 @@
         <v>0</v>
       </c>
       <c r="Q17" s="13">
-        <f>SUM(M17:O17)/(3-P17)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R17" s="12">
         <v>-25</v>
       </c>
       <c r="S17" s="13">
-        <f>SUM(R17:R17)/1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="T17" s="6">
@@ -2746,7 +2709,7 @@
       </c>
       <c r="U17" s="34"/>
       <c r="V17" s="18">
-        <f>L17*0.2+Q17*0.25+S17*0.15+T17*0.4+U17*0.15</f>
+        <f t="shared" si="3"/>
         <v>75.25</v>
       </c>
       <c r="X17" s="72"/>
@@ -2786,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="13">
-        <f>SUM(D18:J18)*50/(A$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M18" s="12">
@@ -2802,14 +2765,14 @@
         <v>0</v>
       </c>
       <c r="Q18" s="13">
-        <f>SUM(M18:O18)/(3-P18)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="R18" s="12">
         <v>40</v>
       </c>
       <c r="S18" s="13">
-        <f>SUM(R18:R18)/1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="T18" s="6">
@@ -2817,7 +2780,7 @@
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="18">
-        <f>L18*0.2+Q18*0.25+S18*0.15+T18*0.4+U18*0.15</f>
+        <f t="shared" si="3"/>
         <v>73.716666666666669</v>
       </c>
       <c r="X18" s="72"/>
@@ -2857,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="13">
-        <f>SUM(D19:J19)*50/(A$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M19" s="12">
@@ -2873,14 +2836,14 @@
         <v>1</v>
       </c>
       <c r="Q19" s="13">
-        <f>SUM(M19:O19)/(3-P19)</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="R19" s="12">
         <v>0</v>
       </c>
       <c r="S19" s="13">
-        <f>SUM(R19:R19)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="6">
@@ -2888,7 +2851,7 @@
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="18">
-        <f>L19*0.2+Q19*0.25+S19*0.15+T19*0.4+U19*0.15</f>
+        <f t="shared" si="3"/>
         <v>70.325000000000003</v>
       </c>
       <c r="X19" s="72"/>
@@ -2928,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="13">
-        <f>SUM(D20:J20)*50/(A$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="M20" s="12">
@@ -2944,14 +2907,14 @@
         <v>1</v>
       </c>
       <c r="Q20" s="13">
-        <f>SUM(M20:O20)/(3-P20)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R20" s="12">
         <v>0</v>
       </c>
       <c r="S20" s="13">
-        <f>SUM(R20:R20)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="6">
@@ -2959,7 +2922,7 @@
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="18">
-        <f>L20*0.2+Q20*0.25+S20*0.15+T20*0.4+U20*0.15</f>
+        <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
       <c r="X20" s="72"/>
@@ -2999,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="13">
-        <f>SUM(D21:J21)*50/(A$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="M21" s="12">
@@ -3015,14 +2978,14 @@
         <v>1</v>
       </c>
       <c r="Q21" s="13">
-        <f>SUM(M21:O21)/(3-P21)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R21" s="12">
         <v>30</v>
       </c>
       <c r="S21" s="13">
-        <f>SUM(R21:R21)/1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T21" s="6">
@@ -3030,7 +2993,7 @@
       </c>
       <c r="U21" s="34"/>
       <c r="V21" s="18">
-        <f>L21*0.2+Q21*0.25+S21*0.15+T21*0.4+U21*0.15</f>
+        <f t="shared" si="3"/>
         <v>65.7</v>
       </c>
       <c r="X21" s="72"/>
@@ -3070,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="13">
-        <f>SUM(D22:J22)*50/(A$1-K22)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M22" s="12">
@@ -3086,14 +3049,14 @@
         <v>0</v>
       </c>
       <c r="Q22" s="13">
-        <f>SUM(M22:O22)/(3-P22)</f>
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
       <c r="R22" s="12">
         <v>0</v>
       </c>
       <c r="S22" s="13">
-        <f>SUM(R22:R22)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="6">
@@ -3101,7 +3064,7 @@
       </c>
       <c r="U22" s="34"/>
       <c r="V22" s="18">
-        <f>L22*0.2+Q22*0.25+S22*0.15+T22*0.4+U22*0.15</f>
+        <f t="shared" si="3"/>
         <v>55.733333333333334</v>
       </c>
       <c r="X22" s="72"/>
@@ -3141,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="13">
-        <f>SUM(D23:J23)*50/(A$1-K23)</f>
+        <f t="shared" si="0"/>
         <v>86.999999999999986</v>
       </c>
       <c r="M23" s="12">
@@ -3157,14 +3120,14 @@
         <v>0</v>
       </c>
       <c r="Q23" s="13">
-        <f>SUM(M23:O23)/(3-P23)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R23" s="12">
         <v>0</v>
       </c>
       <c r="S23" s="13">
-        <f>SUM(R23:R23)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="6">
@@ -3172,7 +3135,7 @@
       </c>
       <c r="U23" s="34"/>
       <c r="V23" s="18">
-        <f>L23*0.2+Q23*0.25+S23*0.15+T23*0.4+U23*0.15</f>
+        <f t="shared" si="3"/>
         <v>54.933333333333337</v>
       </c>
       <c r="X23" s="72"/>
@@ -3212,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="13">
-        <f>SUM(D24:J24)*50/(A$1-K24)</f>
+        <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
       <c r="M24" s="12">
@@ -3228,14 +3191,14 @@
         <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <f>SUM(M24:O24)/(3-P24)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="R24" s="12">
         <v>2</v>
       </c>
       <c r="S24" s="13">
-        <f>SUM(R24:R24)/1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T24" s="6">
@@ -3243,7 +3206,7 @@
       </c>
       <c r="U24" s="34"/>
       <c r="V24" s="18">
-        <f>L24*0.2+Q24*0.25+S24*0.15+T24*0.4+U24*0.15</f>
+        <f t="shared" si="3"/>
         <v>42.533333333333339</v>
       </c>
       <c r="X24" s="72"/>
@@ -3283,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="13">
-        <f>SUM(D25:J25)*50/(A$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M25" s="12">
@@ -3299,14 +3262,14 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13">
-        <f>SUM(M25:O25)/(3-P25)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="R25" s="12">
         <v>0</v>
       </c>
       <c r="S25" s="13">
-        <f>SUM(R25:R25)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="6">
@@ -3314,7 +3277,7 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="18">
-        <f>L25*0.2+Q25*0.25+S25*0.15+T25*0.4+U25*0.15</f>
+        <f t="shared" si="3"/>
         <v>42.150000000000006</v>
       </c>
       <c r="X25" s="72"/>
@@ -3354,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="13">
-        <f>SUM(D26:J26)*50/(A$1-K26)</f>
+        <f t="shared" si="0"/>
         <v>45.833333333333336</v>
       </c>
       <c r="M26" s="12">
@@ -3370,14 +3333,14 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13">
-        <f>SUM(M26:O26)/(3-P26)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="R26" s="12">
         <v>0</v>
       </c>
       <c r="S26" s="13">
-        <f>SUM(R26:R26)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="6">
@@ -3385,7 +3348,7 @@
       </c>
       <c r="U26" s="34"/>
       <c r="V26" s="18">
-        <f>L26*0.2+Q26*0.25+S26*0.15+T26*0.4+U26*0.15</f>
+        <f t="shared" si="3"/>
         <v>39.333333333333336</v>
       </c>
       <c r="X26" s="72"/>
@@ -3425,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="13">
-        <f>SUM(D27:J27)*50/(A$1-K27)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="M27" s="12">
@@ -3441,14 +3404,14 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13">
-        <f>SUM(M27:O27)/(3-P27)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R27" s="12">
         <v>0</v>
       </c>
       <c r="S27" s="13">
-        <f>SUM(R27:R27)/1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="6">
@@ -3456,7 +3419,7 @@
       </c>
       <c r="U27" s="34"/>
       <c r="V27" s="18">
-        <f>L27*0.2+Q27*0.25+S27*0.15+T27*0.4+U27*0.15</f>
+        <f t="shared" si="3"/>
         <v>24.200000000000003</v>
       </c>
       <c r="X27" s="72"/>
@@ -3480,7 +3443,7 @@
       <c r="J28" s="42"/>
       <c r="K28" s="36"/>
       <c r="L28" s="13">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="12"/>
@@ -3498,7 +3461,7 @@
       </c>
       <c r="U28" s="34"/>
       <c r="V28" s="18">
-        <f>L28*0.2+Q28*0.25+S28*0.15+T28*0.4+U28*0.15</f>
+        <f t="shared" si="3"/>
         <v>14.4</v>
       </c>
       <c r="X28" s="72"/>
@@ -3537,7 +3500,7 @@
       </c>
       <c r="U29" s="34"/>
       <c r="V29" s="18">
-        <f>L29*0.2+Q29*0.25+S29*0.15+T29*0.4+U29*0.15</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="X29" s="72"/>
@@ -3561,7 +3524,7 @@
       <c r="J30" s="42"/>
       <c r="K30" s="36"/>
       <c r="L30" s="13">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
+        <f t="shared" ref="L30:L42" si="4">SUM(D30:J30)*50/(A$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="12"/>
@@ -3579,7 +3542,7 @@
       </c>
       <c r="U30" s="34"/>
       <c r="V30" s="18">
-        <f>L30*0.2+Q30*0.25+S30*0.15+T30*0.4+U30*0.15</f>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
       <c r="X30" s="72"/>
@@ -3603,7 +3566,7 @@
       <c r="J31" s="42"/>
       <c r="K31" s="36"/>
       <c r="L31" s="13">
-        <f>SUM(D31:J31)*50/(A$1-K31)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="12"/>
@@ -3621,19 +3584,19 @@
       </c>
       <c r="U31" s="34"/>
       <c r="V31" s="18">
-        <f>L31*0.2+Q31*0.25+S31*0.15+T31*0.4+U31*0.15</f>
+        <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52"/>
@@ -3644,7 +3607,7 @@
       <c r="J32" s="52"/>
       <c r="K32" s="53"/>
       <c r="L32" s="54">
-        <f>SUM(D32:J32)*50/(A$1-K32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32" s="55"/>
@@ -3657,19 +3620,19 @@
       <c r="T32" s="56"/>
       <c r="U32" s="57"/>
       <c r="V32" s="18">
-        <f>L32*0.2+Q32*0.25+S32*0.15+T32*0.4+U32*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="52"/>
@@ -3680,7 +3643,7 @@
       <c r="J33" s="52"/>
       <c r="K33" s="53"/>
       <c r="L33" s="54">
-        <f>SUM(D33:J33)*50/(A$1-K33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33" s="55"/>
@@ -3693,19 +3656,19 @@
       <c r="T33" s="56"/>
       <c r="U33" s="57"/>
       <c r="V33" s="18">
-        <f>L33*0.2+Q33*0.25+S33*0.15+T33*0.4+U33*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
@@ -3716,32 +3679,35 @@
       <c r="J34" s="52"/>
       <c r="K34" s="53"/>
       <c r="L34" s="54">
-        <f>SUM(D34:J34)*50/(A$1-K34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M34" s="55"/>
       <c r="N34" s="66"/>
       <c r="O34" s="71"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="54"/>
+      <c r="Q34" s="54">
+        <f>SUM(M34:P34)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="R34" s="55"/>
       <c r="S34" s="54"/>
       <c r="T34" s="56"/>
       <c r="U34" s="57"/>
       <c r="V34" s="18">
-        <f>L34*0.2+Q34*0.25+S34*0.15+T34*0.4+U34*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
@@ -3752,32 +3718,35 @@
       <c r="J35" s="52"/>
       <c r="K35" s="53"/>
       <c r="L35" s="54">
-        <f>SUM(D35:J35)*50/(A$1-K35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="66"/>
       <c r="O35" s="71"/>
       <c r="P35" s="64"/>
-      <c r="Q35" s="54"/>
+      <c r="Q35" s="54">
+        <f>SUM(M35:P35)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="R35" s="55"/>
       <c r="S35" s="54"/>
       <c r="T35" s="56"/>
       <c r="U35" s="57"/>
       <c r="V35" s="18">
-        <f>L35*0.2+Q35*0.25+S35*0.15+T35*0.4+U35*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
@@ -3788,7 +3757,7 @@
       <c r="J36" s="52"/>
       <c r="K36" s="53"/>
       <c r="L36" s="54">
-        <f>SUM(D36:J36)*50/(A$1-K36)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36" s="55"/>
@@ -3801,19 +3770,19 @@
       <c r="T36" s="56"/>
       <c r="U36" s="57"/>
       <c r="V36" s="18">
-        <f>L36*0.2+Q36*0.25+S36*0.15+T36*0.4+U36*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
@@ -3824,7 +3793,7 @@
       <c r="J37" s="52"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54">
-        <f>SUM(D37:J37)*50/(A$1-K37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M37" s="55"/>
@@ -3837,55 +3806,58 @@
       <c r="T37" s="56"/>
       <c r="U37" s="57"/>
       <c r="V37" s="18">
-        <f>L37*0.2+Q37*0.25+S37*0.15+T37*0.4+U37*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
+        <v>122</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="53"/>
       <c r="L38" s="54">
-        <f>SUM(D38:J38)*50/(A$1-K38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M38" s="55"/>
       <c r="N38" s="66"/>
       <c r="O38" s="71"/>
       <c r="P38" s="64"/>
-      <c r="Q38" s="54"/>
+      <c r="Q38" s="54">
+        <f>SUM(M38:P38)/A$1</f>
+        <v>0</v>
+      </c>
       <c r="R38" s="55"/>
       <c r="S38" s="54"/>
       <c r="T38" s="56"/>
       <c r="U38" s="57"/>
       <c r="V38" s="18">
-        <f>L38*0.2+Q38*0.25+S38*0.15+T38*0.4+U38*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
@@ -3896,23 +3868,20 @@
       <c r="J39" s="52"/>
       <c r="K39" s="53"/>
       <c r="L39" s="54">
-        <f>SUM(D39:J39)*50/(A$1-K39)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M39" s="55"/>
       <c r="N39" s="66"/>
       <c r="O39" s="71"/>
       <c r="P39" s="64"/>
-      <c r="Q39" s="54">
-        <f>SUM(M39:P39)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q39" s="54"/>
       <c r="R39" s="55"/>
       <c r="S39" s="54"/>
       <c r="T39" s="56"/>
       <c r="U39" s="57"/>
       <c r="V39" s="18">
-        <f>L39*0.2+Q39*0.25+S39*0.15+T39*0.4+U39*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,7 +3904,7 @@
       <c r="J40" s="52"/>
       <c r="K40" s="53"/>
       <c r="L40" s="54">
-        <f>SUM(D40:J40)*50/(A$1-K40)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M40" s="55"/>
@@ -3951,19 +3920,19 @@
       <c r="T40" s="56"/>
       <c r="U40" s="57"/>
       <c r="V40" s="18">
-        <f>L40*0.2+Q40*0.25+S40*0.15+T40*0.4+U40*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
@@ -3974,62 +3943,56 @@
       <c r="J41" s="52"/>
       <c r="K41" s="53"/>
       <c r="L41" s="54">
-        <f>SUM(D41:J41)*50/(A$1-K41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="55"/>
       <c r="N41" s="66"/>
       <c r="O41" s="71"/>
       <c r="P41" s="64"/>
-      <c r="Q41" s="54">
-        <f>SUM(M41:P41)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q41" s="54"/>
       <c r="R41" s="55"/>
       <c r="S41" s="54"/>
       <c r="T41" s="56"/>
       <c r="U41" s="57"/>
       <c r="V41" s="18">
-        <f>L41*0.2+Q41*0.25+S41*0.15+T41*0.4+U41*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="53"/>
       <c r="L42" s="54">
-        <f>SUM(D42:J42)*50/(A$1-K42)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M42" s="55"/>
       <c r="N42" s="66"/>
       <c r="O42" s="71"/>
       <c r="P42" s="64"/>
-      <c r="Q42" s="54">
-        <f>SUM(M42:P42)/A$1</f>
-        <v>0</v>
-      </c>
+      <c r="Q42" s="54"/>
       <c r="R42" s="55"/>
       <c r="S42" s="54"/>
       <c r="T42" s="56"/>
       <c r="U42" s="57"/>
       <c r="V42" s="18">
-        <f>L42*0.2+Q42*0.25+S42*0.15+T42*0.4+U42*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4648,9 +4611,9 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4681,22 +4644,22 @@
       <c r="E1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="76">
         <v>2</v>
       </c>
       <c r="L1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="76">
         <v>2</v>
       </c>
@@ -4794,13 +4757,15 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>1.4</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="36"/>
       <c r="K3" s="13">
-        <f>SUM(E3:I3)*50/(K$1-J3)</f>
-        <v>100</v>
+        <f t="shared" ref="K3:K42" si="0">SUM(E3:I3)*50/(K$1-J3)</f>
+        <v>135</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -4813,13 +4778,13 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="13">
-        <f>SUM(L3:P3)/(R$1-Q3)</f>
+        <f t="shared" ref="R3:R42" si="1">SUM(L3:P3)/(R$1-Q3)</f>
         <v>95</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="18">
-        <f>K3*0.2+R3*0.3+S3*0.5</f>
-        <v>48.5</v>
+        <f t="shared" ref="T3:T42" si="2">K3*0.2+R3*0.3+S3*0.5</f>
+        <v>55.5</v>
       </c>
       <c r="U3" s="18"/>
     </row>
@@ -4842,13 +4807,15 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="36"/>
       <c r="K4" s="13">
-        <f>SUM(E4:I4)*50/(K$1-J4)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L4" s="12">
         <v>100</v>
@@ -4861,13 +4828,13 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="13">
-        <f>SUM(L4:P4)/(R$1-Q4)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="18">
-        <f>K4*0.2+R4*0.3+S4*0.5</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="U4" s="18"/>
     </row>
@@ -4890,13 +4857,15 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1.3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="36"/>
       <c r="K5" s="13">
-        <f>SUM(E5:I5)*50/(K$1-J5)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>132.5</v>
       </c>
       <c r="L5" s="12">
         <v>75</v>
@@ -4909,13 +4878,13 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="13">
-        <f>SUM(L5:P5)/(R$1-Q5)</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="18">
-        <f>K5*0.2+R5*0.3+S5*0.5</f>
-        <v>46.25</v>
+        <f t="shared" si="2"/>
+        <v>52.75</v>
       </c>
       <c r="U5" s="18"/>
     </row>
@@ -4938,13 +4907,15 @@
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1.3</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="36"/>
       <c r="K6" s="13">
-        <f>SUM(E6:I6)*50/(K$1-J6)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>132.5</v>
       </c>
       <c r="L6" s="12">
         <v>100</v>
@@ -4957,13 +4928,13 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="13">
-        <f>SUM(L6:P6)/(R$1-Q6)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="18">
-        <f>K6*0.2+R6*0.3+S6*0.5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>56.5</v>
       </c>
       <c r="U6" s="18"/>
     </row>
@@ -4986,13 +4957,15 @@
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>1.4</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="36"/>
       <c r="K7" s="13">
-        <f>SUM(E7:I7)*50/(K$1-J7)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="L7" s="12">
         <v>100</v>
@@ -5005,13 +4978,13 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="13">
-        <f>SUM(L7:P7)/(R$1-Q7)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="18">
-        <f>K7*0.2+R7*0.3+S7*0.5</f>
-        <v>48.5</v>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
       </c>
       <c r="U7" s="18"/>
     </row>
@@ -5034,13 +5007,15 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="36"/>
       <c r="K8" s="13">
-        <f>SUM(E8:I8)*50/(K$1-J8)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="L8" s="12">
         <v>50</v>
@@ -5053,13 +5028,13 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="13">
-        <f>SUM(L8:P8)/(R$1-Q8)</f>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="18">
-        <f>K8*0.2+R8*0.3+S8*0.5</f>
-        <v>41.75</v>
+        <f t="shared" si="2"/>
+        <v>51.75</v>
       </c>
       <c r="U8" s="18"/>
     </row>
@@ -5082,13 +5057,15 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1.8</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="36"/>
       <c r="K9" s="13">
-        <f>SUM(E9:I9)*50/(K$1-J9)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
       <c r="L9" s="12">
         <v>100</v>
@@ -5101,13 +5078,13 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="13">
-        <f>SUM(L9:P9)/(R$1-Q9)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="18">
-        <f>K9*0.2+R9*0.3+S9*0.5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="U9" s="18"/>
     </row>
@@ -5130,13 +5107,15 @@
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="36"/>
       <c r="K10" s="13">
-        <f>SUM(E10:I10)*50/(K$1-J10)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="L10" s="12">
         <v>100</v>
@@ -5149,13 +5128,13 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="13">
-        <f>SUM(L10:P10)/(R$1-Q10)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="18">
-        <f>K10*0.2+R10*0.3+S10*0.5</f>
-        <v>49.25</v>
+        <f t="shared" si="2"/>
+        <v>54.25</v>
       </c>
       <c r="U10" s="18"/>
     </row>
@@ -5178,15 +5157,17 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1.7</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="36">
         <v>1</v>
       </c>
       <c r="K11" s="13">
-        <f>SUM(E11:I11)*50/(K$1-J11)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>185</v>
       </c>
       <c r="L11" s="75" t="s">
         <v>127</v>
@@ -5201,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="R11" s="13">
-        <f>SUM(L11:P11)/(R$1-Q11)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="18">
-        <f>K11*0.2+R11*0.3+S11*0.5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="U11" s="18"/>
     </row>
@@ -5230,13 +5211,15 @@
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>1.8</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="36"/>
       <c r="K12" s="13">
-        <f>SUM(E12:I12)*50/(K$1-J12)</f>
-        <v>97.5</v>
+        <f t="shared" si="0"/>
+        <v>142.5</v>
       </c>
       <c r="L12" s="12">
         <v>100</v>
@@ -5249,13 +5232,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="13">
-        <f>SUM(L12:P12)/(R$1-Q12)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="18">
-        <f>K12*0.2+R12*0.3+S12*0.5</f>
-        <v>43.5</v>
+        <f t="shared" si="2"/>
+        <v>52.5</v>
       </c>
       <c r="U12" s="18"/>
     </row>
@@ -5278,13 +5261,15 @@
       <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>1.8</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="36"/>
       <c r="K13" s="13">
-        <f>SUM(E13:I13)*50/(K$1-J13)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
       <c r="L13" s="12">
         <v>100</v>
@@ -5297,13 +5282,13 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="13">
-        <f>SUM(L13:P13)/(R$1-Q13)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="18">
-        <f>K13*0.2+R13*0.3+S13*0.5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="U13" s="18"/>
     </row>
@@ -5326,12 +5311,14 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="36"/>
       <c r="K14" s="13">
-        <f>SUM(E14:I14)*50/(K$1-J14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L14" s="12">
@@ -5345,12 +5332,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="13">
-        <f>SUM(L14:P14)/(R$1-Q14)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="18">
-        <f>K14*0.2+R14*0.3+S14*0.5</f>
+        <f t="shared" si="2"/>
         <v>49.25</v>
       </c>
       <c r="U14" s="18"/>
@@ -5374,12 +5361,14 @@
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="36"/>
       <c r="K15" s="13">
-        <f>SUM(E15:I15)*50/(K$1-J15)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L15" s="12">
@@ -5393,12 +5382,12 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="13">
-        <f>SUM(L15:P15)/(R$1-Q15)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="18">
-        <f>K15*0.2+R15*0.3+S15*0.5</f>
+        <f t="shared" si="2"/>
         <v>22.75</v>
       </c>
       <c r="U15" s="18"/>
@@ -5422,13 +5411,15 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>1.8</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="36"/>
       <c r="K16" s="13">
-        <f>SUM(E16:I16)*50/(K$1-J16)</f>
-        <v>97.5</v>
+        <f t="shared" si="0"/>
+        <v>142.5</v>
       </c>
       <c r="L16" s="12">
         <v>100</v>
@@ -5441,13 +5432,13 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="13">
-        <f>SUM(L16:P16)/(R$1-Q16)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="18">
-        <f>K16*0.2+R16*0.3+S16*0.5</f>
-        <v>49.5</v>
+        <f t="shared" si="2"/>
+        <v>58.5</v>
       </c>
       <c r="U16" s="18"/>
     </row>
@@ -5470,12 +5461,14 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="36"/>
       <c r="K17" s="13">
-        <f>SUM(E17:I17)*50/(K$1-J17)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L17" s="12">
@@ -5489,12 +5482,12 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="13">
-        <f>SUM(L17:P17)/(R$1-Q17)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="18">
-        <f>K17*0.2+R17*0.3+S17*0.5</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U17" s="18"/>
@@ -5518,13 +5511,15 @@
       <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="36"/>
       <c r="K18" s="13">
-        <f>SUM(E18:I18)*50/(K$1-J18)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="L18" s="12">
         <v>100</v>
@@ -5537,13 +5532,13 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="13">
-        <f>SUM(L18:P18)/(R$1-Q18)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="18">
-        <f>K18*0.2+R18*0.3+S18*0.5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="U18" s="18"/>
     </row>
@@ -5566,12 +5561,14 @@
       <c r="F19" s="32">
         <v>2</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="36"/>
       <c r="K19" s="13">
-        <f>SUM(E19:I19)*50/(K$1-J19)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L19" s="12">
@@ -5585,12 +5582,12 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="13">
-        <f>SUM(L19:P19)/(R$1-Q19)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="18">
-        <f>K19*0.2+R19*0.3+S19*0.5</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="U19" s="18"/>
@@ -5614,13 +5611,15 @@
       <c r="F20" s="7">
         <v>1.7</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="36"/>
       <c r="K20" s="13">
-        <f>SUM(E20:I20)*50/(K$1-J20)</f>
-        <v>42.5</v>
+        <f t="shared" si="0"/>
+        <v>92.5</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
@@ -5633,13 +5632,13 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="13">
-        <f>SUM(L20:P20)/(R$1-Q20)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="18">
-        <f>K20*0.2+R20*0.3+S20*0.5</f>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>27.5</v>
       </c>
       <c r="U20" s="18"/>
     </row>
@@ -5662,12 +5661,14 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="36"/>
       <c r="K21" s="13">
-        <f>SUM(E21:I21)*50/(K$1-J21)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L21" s="12">
@@ -5681,12 +5682,12 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="13">
-        <f>SUM(L21:P21)/(R$1-Q21)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="18">
-        <f>K21*0.2+R21*0.3+S21*0.5</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="U21" s="18"/>
@@ -5710,12 +5711,14 @@
       <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="36"/>
       <c r="K22" s="13">
-        <f>SUM(E22:I22)*50/(K$1-J22)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L22" s="12">
@@ -5729,12 +5732,12 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="13">
-        <f>SUM(L22:P22)/(R$1-Q22)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="18">
-        <f>K22*0.2+R22*0.3+S22*0.5</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="U22" s="18"/>
@@ -5758,13 +5761,15 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="36"/>
       <c r="K23" s="13">
-        <f>SUM(E23:I23)*50/(K$1-J23)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>87.5</v>
       </c>
       <c r="L23" s="12">
         <v>75</v>
@@ -5777,13 +5782,13 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="13">
-        <f>SUM(L23:P23)/(R$1-Q23)</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="18">
-        <f>K23*0.2+R23*0.3+S23*0.5</f>
-        <v>21.25</v>
+        <f t="shared" si="2"/>
+        <v>28.75</v>
       </c>
       <c r="U23" s="18"/>
     </row>
@@ -5806,13 +5811,15 @@
       <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1.8</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="36"/>
       <c r="K24" s="13">
-        <f>SUM(E24:I24)*50/(K$1-J24)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
       <c r="L24" s="12">
         <v>100</v>
@@ -5825,13 +5832,13 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="13">
-        <f>SUM(L24:P24)/(R$1-Q24)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="18">
-        <f>K24*0.2+R24*0.3+S24*0.5</f>
-        <v>49.25</v>
+        <f t="shared" si="2"/>
+        <v>58.25</v>
       </c>
       <c r="U24" s="18"/>
     </row>
@@ -5854,12 +5861,14 @@
       <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="36"/>
       <c r="K25" s="13">
-        <f>SUM(E25:I25)*50/(K$1-J25)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="L25" s="12">
@@ -5873,12 +5882,12 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="13">
-        <f>SUM(L25:P25)/(R$1-Q25)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="18">
-        <f>K25*0.2+R25*0.3+S25*0.5</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U25" s="18"/>
@@ -5902,12 +5911,14 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="36"/>
       <c r="K26" s="13">
-        <f>SUM(E26:I26)*50/(K$1-J26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="12">
@@ -5921,12 +5932,12 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="13">
-        <f>SUM(L26:P26)/(R$1-Q26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="18">
-        <f>K26*0.2+R26*0.3+S26*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="18"/>
@@ -5950,12 +5961,14 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="36"/>
       <c r="K27" s="13">
-        <f>SUM(E27:I27)*50/(K$1-J27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="12">
@@ -5969,12 +5982,12 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="13">
-        <f>SUM(L27:P27)/(R$1-Q27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="18">
-        <f>K27*0.2+R27*0.3+S27*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="18"/>
@@ -5998,12 +6011,14 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="36"/>
       <c r="K28" s="13">
-        <f>SUM(E28:I28)*50/(K$1-J28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="12">
@@ -6017,12 +6032,12 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="36"/>
       <c r="R28" s="13">
-        <f>SUM(L28:P28)/(R$1-Q28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="18">
-        <f>K28*0.2+R28*0.3+S28*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="18"/>
@@ -6046,12 +6061,14 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="36"/>
       <c r="K29" s="13">
-        <f>SUM(E29:I29)*50/(K$1-J29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="12">
@@ -6065,12 +6082,12 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="13">
-        <f>SUM(L29:P29)/(R$1-Q29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="18">
-        <f>K29*0.2+R29*0.3+S29*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="18"/>
@@ -6094,12 +6111,14 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="36"/>
       <c r="K30" s="13">
-        <f>SUM(E30:I30)*50/(K$1-J30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="12">
@@ -6113,12 +6132,12 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="13">
-        <f>SUM(L30:P30)/(R$1-Q30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="18">
-        <f>K30*0.2+R30*0.3+S30*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="18"/>
@@ -6142,12 +6161,14 @@
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="36"/>
       <c r="K31" s="13">
-        <f>SUM(E31:I31)*50/(K$1-J31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="12">
@@ -6161,12 +6182,12 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="13">
-        <f>SUM(L31:P31)/(R$1-Q31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="18">
-        <f>K31*0.2+R31*0.3+S31*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U31" s="18"/>
@@ -6188,12 +6209,14 @@
       <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="36"/>
       <c r="K32" s="13">
-        <f>SUM(E32:I32)*50/(K$1-J32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="12">
@@ -6207,12 +6230,12 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="13">
-        <f>SUM(L32:P32)/(R$1-Q32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="18">
-        <f>K32*0.2+R32*0.3+S32*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U32" s="18"/>
@@ -6234,12 +6257,14 @@
       <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="36"/>
       <c r="K33" s="13">
-        <f>SUM(E33:I33)*50/(K$1-J33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="12">
@@ -6253,12 +6278,12 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="13">
-        <f>SUM(L33:P33)/(R$1-Q33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="18">
-        <f>K33*0.2+R33*0.3+S33*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U33" s="18"/>
@@ -6280,12 +6305,14 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="36"/>
       <c r="K34" s="13">
-        <f>SUM(E34:I34)*50/(K$1-J34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="12">
@@ -6299,12 +6326,12 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="13">
-        <f>SUM(L34:P34)/(R$1-Q34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="18">
-        <f>K34*0.2+R34*0.3+S34*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U34" s="18"/>
@@ -6326,12 +6353,14 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="36"/>
       <c r="K35" s="13">
-        <f>SUM(E35:I35)*50/(K$1-J35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L35" s="12">
@@ -6345,12 +6374,12 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="13">
-        <f>SUM(L35:P35)/(R$1-Q35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="18">
-        <f>K35*0.2+R35*0.3+S35*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U35" s="18"/>
@@ -6372,12 +6401,14 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="36"/>
       <c r="K36" s="13">
-        <f>SUM(E36:I36)*50/(K$1-J36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L36" s="12">
@@ -6391,12 +6422,12 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="13">
-        <f>SUM(L36:P36)/(R$1-Q36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="18">
-        <f>K36*0.2+R36*0.3+S36*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U36" s="18"/>
@@ -6418,12 +6449,14 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="36"/>
       <c r="K37" s="13">
-        <f>SUM(E37:I37)*50/(K$1-J37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L37" s="12">
@@ -6437,12 +6470,12 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="13">
-        <f>SUM(L37:P37)/(R$1-Q37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="18">
-        <f>K37*0.2+R37*0.3+S37*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U37" s="18"/>
@@ -6464,12 +6497,14 @@
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="36"/>
       <c r="K38" s="13">
-        <f>SUM(E38:I38)*50/(K$1-J38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L38" s="12">
@@ -6483,12 +6518,12 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="13">
-        <f>SUM(L38:P38)/(R$1-Q38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="18">
-        <f>K38*0.2+R38*0.3+S38*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U38" s="18"/>
@@ -6510,12 +6545,14 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="36"/>
       <c r="K39" s="13">
-        <f>SUM(E39:I39)*50/(K$1-J39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L39" s="12">
@@ -6529,12 +6566,12 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="13">
-        <f>SUM(L39:P39)/(R$1-Q39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="18">
-        <f>K39*0.2+R39*0.3+S39*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U39" s="18"/>
@@ -6556,12 +6593,14 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="36"/>
       <c r="K40" s="13">
-        <f>SUM(E40:I40)*50/(K$1-J40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L40" s="12">
@@ -6575,12 +6614,12 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="13">
-        <f>SUM(L40:P40)/(R$1-Q40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="18">
-        <f>K40*0.2+R40*0.3+S40*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U40" s="18"/>
@@ -6602,12 +6641,14 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="36"/>
       <c r="K41" s="13">
-        <f>SUM(E41:I41)*50/(K$1-J41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L41" s="12">
@@ -6621,12 +6662,12 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="13">
-        <f>SUM(L41:P41)/(R$1-Q41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="18">
-        <f>K41*0.2+R41*0.3+S41*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U41" s="18"/>
@@ -6648,12 +6689,14 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="36"/>
       <c r="K42" s="13">
-        <f>SUM(E42:I42)*50/(K$1-J42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L42" s="12">
@@ -6667,12 +6710,12 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="13">
-        <f>SUM(L42:P42)/(R$1-Q42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S42" s="56"/>
       <c r="T42" s="18">
-        <f>K42*0.2+R42*0.3+S42*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U42" s="58"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
   <si>
     <t>Adı</t>
   </si>
@@ -1515,9 +1515,9 @@
   </sheetPr>
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4609,11 +4609,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4624,20 +4624,21 @@
     <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="5.77734375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25">
+        <v>4</v>
+      </c>
       <c r="B1" s="15"/>
       <c r="C1" s="26"/>
       <c r="D1" s="30"/>
@@ -4648,32 +4649,28 @@
       <c r="G1" s="79"/>
       <c r="H1" s="79"/>
       <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="76">
-        <v>2</v>
-      </c>
-      <c r="L1" s="77" t="s">
+      <c r="J1" s="76">
+        <v>4</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>41</v>
       </c>
+      <c r="L1" s="79"/>
       <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="76">
-        <v>2</v>
-      </c>
-      <c r="S1" s="69" t="s">
+      <c r="N1" s="76">
+        <v>2</v>
+      </c>
+      <c r="O1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -4698,47 +4695,35 @@
       <c r="H2" s="22">
         <v>11</v>
       </c>
-      <c r="I2" s="22">
-        <v>12</v>
-      </c>
-      <c r="J2" s="73" t="s">
+      <c r="I2" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="21">
+      <c r="K2" s="21">
         <v>8</v>
       </c>
-      <c r="M2" s="22">
+      <c r="L2" s="22">
         <v>9</v>
       </c>
-      <c r="N2" s="22">
-        <v>10</v>
-      </c>
-      <c r="O2" s="22">
-        <v>11</v>
-      </c>
-      <c r="P2" s="22">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="73" t="s">
+      <c r="M2" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>46</v>
       </c>
@@ -4760,503 +4745,513 @@
       <c r="G3" s="7">
         <v>1.4</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:K42" si="0">SUM(E3:I3)*50/(K$1-J3)</f>
-        <v>135</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="13">
+        <f>SUM(E3:H3)*50/(J$1-I3)</f>
+        <v>92.5</v>
+      </c>
+      <c r="K3" s="12">
         <v>100</v>
       </c>
-      <c r="M3" s="6">
+      <c r="L3" s="6">
         <v>90</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="13">
+        <f>SUM(K3:L3)/(N$1-M3)</f>
+        <v>95</v>
+      </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="13">
-        <f t="shared" ref="R3:R42" si="1">SUM(L3:P3)/(R$1-Q3)</f>
+      <c r="P3" s="18">
+        <f>J3*0.2+N3*0.3+O3*0.5</f>
+        <v>47</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>D3*0.4+P3*0.6</f>
+        <v>66.533333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="18">
+        <v>88.63333333333334</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="13">
+        <f>SUM(E4:H4)*50/(J$1-I4)</f>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="K4" s="12">
+        <v>100</v>
+      </c>
+      <c r="L4" s="6">
+        <v>100</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="13">
+        <f>SUM(K4:L4)/(N$1-M4)</f>
+        <v>100</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="18">
+        <f>J4*0.2+N4*0.3+O4*0.5</f>
+        <v>48</v>
+      </c>
+      <c r="Q4" s="18">
+        <f>D4*0.4+P4*0.6</f>
+        <v>64.25333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="18">
-        <f t="shared" ref="T3:T42" si="2">K3*0.2+R3*0.3+S3*0.5</f>
-        <v>55.5</v>
-      </c>
-      <c r="U3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="18">
-        <v>90.933333333333337</v>
-      </c>
-      <c r="E4" s="29">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="13">
-        <f t="shared" si="0"/>
+      <c r="D5" s="18">
+        <v>85.15</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="13">
+        <f>SUM(E5:H5)*50/(J$1-I5)</f>
+        <v>96.249999999999986</v>
+      </c>
+      <c r="K5" s="12">
         <v>100</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L5" s="6">
         <v>100</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="13">
-        <f t="shared" si="1"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="13">
+        <f>SUM(K5:L5)/(N$1-M5)</f>
+        <v>100</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="18">
+        <f>J5*0.2+N5*0.3+O5*0.5</f>
+        <v>49.25</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>D5*0.4+P5*0.6</f>
+        <v>63.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="18">
+        <v>88.4</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="13">
+        <f>SUM(E6:H6)*50/(J$1-I6)</f>
+        <v>92.5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>100</v>
+      </c>
+      <c r="L6" s="6">
+        <v>90</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="13">
+        <f>SUM(K6:L6)/(N$1-M6)</f>
+        <v>95</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="18">
+        <f>J6*0.2+N6*0.3+O6*0.5</f>
+        <v>47</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>D6*0.4+P6*0.6</f>
+        <v>63.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I7" s="36">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <f>SUM(E7:H7)*50/(J$1-I7)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
+      <c r="M7" s="36">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <f>SUM(K7:L7)/(N$1-M7)</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="18">
+        <f>J7*0.2+N7*0.3+O7*0.5</f>
+        <v>48.666666666666671</v>
+      </c>
+      <c r="Q7" s="18">
+        <f>D7*0.4+P7*0.6</f>
+        <v>61.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="18">
+        <v>90.15</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="13">
+        <f>SUM(E8:H8)*50/(J$1-I8)</f>
+        <v>81.25</v>
+      </c>
+      <c r="K8" s="12">
+        <v>75</v>
+      </c>
+      <c r="L8" s="6">
+        <v>100</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="13">
+        <f>SUM(K8:L8)/(N$1-M8)</f>
+        <v>87.5</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="18">
+        <f>J8*0.2+N8*0.3+O8*0.5</f>
+        <v>42.5</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>D8*0.4+P8*0.6</f>
+        <v>61.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="18">
+        <v>82.275000000000006</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="13">
+        <f>SUM(E9:H9)*50/(J$1-I9)</f>
+        <v>87.5</v>
+      </c>
+      <c r="K9" s="12">
+        <v>100</v>
+      </c>
+      <c r="L9" s="6">
+        <v>95</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="13">
+        <f>SUM(K9:L9)/(N$1-M9)</f>
+        <v>97.5</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="18">
+        <f>J9*0.2+N9*0.3+O9*0.5</f>
+        <v>46.75</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>D9*0.4+P9*0.6</f>
+        <v>60.960000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="18">
+        <v>78.233333333333334</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="13">
+        <f>SUM(E10:H10)*50/(J$1-I10)</f>
+        <v>88.75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>100</v>
+      </c>
+      <c r="L10" s="6">
+        <v>100</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="13">
+        <f>SUM(K10:L10)/(N$1-M10)</f>
+        <v>100</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="18">
+        <f>J10*0.2+N10*0.3+O10*0.5</f>
+        <v>47.75</v>
+      </c>
+      <c r="Q10" s="18">
+        <f>D10*0.4+P10*0.6</f>
+        <v>59.943333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="18">
+        <v>86.26666666666668</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="13">
+        <f>SUM(E11:H11)*50/(J$1-I11)</f>
+        <v>100</v>
+      </c>
+      <c r="K11" s="12">
         <v>50</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="18">
-        <v>90.15</v>
-      </c>
-      <c r="E5" s="29">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="13">
-        <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-      <c r="L5" s="12">
-        <v>75</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L11" s="6">
+        <v>95</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="13">
+        <f>SUM(K11:L11)/(N$1-M11)</f>
+        <v>72.5</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="18">
+        <f>J11*0.2+N11*0.3+O11*0.5</f>
+        <v>41.75</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>D11*0.4+P11*0.6</f>
+        <v>59.556666666666672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="18">
+        <v>73.716666666666669</v>
+      </c>
+      <c r="E12" s="29">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="13">
+        <f>SUM(E12:H12)*50/(J$1-I12)</f>
         <v>100</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="13">
-        <f t="shared" si="1"/>
-        <v>87.5</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="18">
-        <f t="shared" si="2"/>
-        <v>52.75</v>
-      </c>
-      <c r="U5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="18">
-        <v>88.63333333333334</v>
-      </c>
-      <c r="E6" s="29">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="13">
-        <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K12" s="12">
         <v>100</v>
       </c>
-      <c r="M6" s="6">
+      <c r="L12" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="13">
-        <f t="shared" si="1"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="13">
+        <f>SUM(K12:L12)/(N$1-M12)</f>
         <v>100</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="18">
-        <f t="shared" si="2"/>
-        <v>56.5</v>
-      </c>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="18">
-        <v>88.4</v>
-      </c>
-      <c r="E7" s="29">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="L7" s="12">
-        <v>100</v>
-      </c>
-      <c r="M7" s="6">
-        <v>90</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="13">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="18">
-        <f t="shared" si="2"/>
-        <v>55.5</v>
-      </c>
-      <c r="U7" s="18"/>
-    </row>
-    <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="18">
-        <v>86.26666666666668</v>
-      </c>
-      <c r="E8" s="29">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="O12" s="6"/>
+      <c r="P12" s="18">
+        <f>J12*0.2+N12*0.3+O12*0.5</f>
         <v>50</v>
       </c>
-      <c r="M8" s="6">
-        <v>95</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="13">
-        <f t="shared" si="1"/>
-        <v>72.5</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="18">
-        <f t="shared" si="2"/>
-        <v>51.75</v>
-      </c>
-      <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="18">
-        <v>85.15</v>
-      </c>
-      <c r="E9" s="29">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="13">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="L9" s="12">
-        <v>100</v>
-      </c>
-      <c r="M9" s="6">
-        <v>100</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="18">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="U9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="18">
-        <v>82.275000000000006</v>
-      </c>
-      <c r="E10" s="29">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="13">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L10" s="12">
-        <v>100</v>
-      </c>
-      <c r="M10" s="6">
-        <v>95</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="13">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="18">
-        <f t="shared" si="2"/>
-        <v>54.25</v>
-      </c>
-      <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="18">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="L11" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="6">
-        <v>100</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="36">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="18">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="18">
-        <v>79.033333333333331</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="Q12" s="18">
+        <f>D12*0.4+P12*0.6</f>
+        <v>59.486666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="18">
+        <v>75.366666666666674</v>
+      </c>
+      <c r="E13" s="29">
         <v>1.9</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="13">
-        <f t="shared" si="0"/>
-        <v>142.5</v>
-      </c>
-      <c r="L12" s="12">
-        <v>100</v>
-      </c>
-      <c r="M12" s="6">
-        <v>60</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="13">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="18">
-        <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="18">
-        <v>78.233333333333334</v>
-      </c>
-      <c r="E13" s="29">
-        <v>2</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -5264,35 +5259,36 @@
       <c r="G13" s="7">
         <v>1.8</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="13">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="H13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="13">
+        <f>SUM(E13:H13)*50/(J$1-I13)</f>
+        <v>78.75</v>
+      </c>
+      <c r="K13" s="12">
         <v>100</v>
       </c>
-      <c r="M13" s="6">
+      <c r="L13" s="6">
         <v>100</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="13">
+        <f>SUM(K13:L13)/(N$1-M13)</f>
+        <v>100</v>
+      </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="18">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="U13" s="18"/>
-    </row>
-    <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="18">
+        <f>J13*0.2+N13*0.3+O13*0.5</f>
+        <v>45.75</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>D13*0.4+P13*0.6</f>
+        <v>57.596666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>110</v>
       </c>
@@ -5314,435 +5310,446 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="13">
-        <f t="shared" si="0"/>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="13">
+        <f>SUM(E14:H14)*50/(J$1-I14)</f>
+        <v>75</v>
+      </c>
+      <c r="K14" s="12">
         <v>100</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="6">
+        <v>95</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="13">
+        <f>SUM(K14:L14)/(N$1-M14)</f>
+        <v>97.5</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="18">
+        <f>J14*0.2+N14*0.3+O14*0.5</f>
+        <v>44.25</v>
+      </c>
+      <c r="Q14" s="18">
+        <f>D14*0.4+P14*0.6</f>
+        <v>56.943333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="18">
+        <v>79.033333333333331</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="13">
+        <f>SUM(E15:H15)*50/(J$1-I15)</f>
+        <v>71.25</v>
+      </c>
+      <c r="K15" s="12">
         <v>100</v>
       </c>
-      <c r="M14" s="6">
+      <c r="L15" s="6">
+        <v>60</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="13">
+        <f>SUM(K15:L15)/(N$1-M15)</f>
+        <v>80</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="18">
+        <f>J15*0.2+N15*0.3+O15*0.5</f>
+        <v>38.25</v>
+      </c>
+      <c r="Q15" s="18">
+        <f>D15*0.4+P15*0.6</f>
+        <v>54.563333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18">
+        <v>90.933333333333337</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="13">
+        <f>SUM(E16:H16)*50/(J$1-I16)</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="12">
+        <v>100</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="13">
+        <f>SUM(K16:L16)/(N$1-M16)</f>
+        <v>50</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="18">
+        <f>J16*0.2+N16*0.3+O16*0.5</f>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="18">
+        <f>D16*0.4+P16*0.6</f>
+        <v>54.373333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="18">
+        <v>42.533333333333339</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="13">
+        <f>SUM(E17:H17)*50/(J$1-I17)</f>
+        <v>97.5</v>
+      </c>
+      <c r="K17" s="12">
+        <v>100</v>
+      </c>
+      <c r="L17" s="6">
         <v>95</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="13">
-        <f t="shared" si="1"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="13">
+        <f>SUM(K17:L17)/(N$1-M17)</f>
         <v>97.5</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="18">
-        <f t="shared" si="2"/>
-        <v>49.25</v>
-      </c>
-      <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="O17" s="6"/>
+      <c r="P17" s="18">
+        <f>J17*0.2+N17*0.3+O17*0.5</f>
+        <v>48.75</v>
+      </c>
+      <c r="Q17" s="18">
+        <f>D17*0.4+P17*0.6</f>
+        <v>46.263333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="18">
+        <v>55.733333333333334</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="13">
+        <f>SUM(E18:H18)*50/(J$1-I18)</f>
+        <v>68.75</v>
+      </c>
+      <c r="K18" s="12">
+        <v>100</v>
+      </c>
+      <c r="L18" s="6">
+        <v>60</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="13">
+        <f>SUM(K18:L18)/(N$1-M18)</f>
+        <v>80</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="18">
+        <f>J18*0.2+N18*0.3+O18*0.5</f>
+        <v>37.75</v>
+      </c>
+      <c r="Q18" s="18">
+        <f>D18*0.4+P18*0.6</f>
+        <v>44.943333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="18">
+        <v>75.25</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="13">
+        <f>SUM(E19:H19)*50/(J$1-I19)</f>
+        <v>43.75</v>
+      </c>
+      <c r="K19" s="12">
+        <v>100</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="13">
+        <f>SUM(K19:L19)/(N$1-M19)</f>
+        <v>50</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="18">
+        <f>J19*0.2+N19*0.3+O19*0.5</f>
+        <v>23.75</v>
+      </c>
+      <c r="Q19" s="18">
+        <f>D19*0.4+P19*0.6</f>
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D20" s="18">
         <v>75.666666666666671</v>
       </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="13">
+        <f>SUM(E20:H20)*50/(J$1-I20)</f>
+        <v>40</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
         <v>85</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="13">
-        <f t="shared" si="1"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="13">
+        <f>SUM(K20:L20)/(N$1-M20)</f>
         <v>42.5</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="18">
-        <f t="shared" si="2"/>
-        <v>22.75</v>
-      </c>
-      <c r="U15" s="18"/>
-    </row>
-    <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="18">
-        <v>75.366666666666674</v>
-      </c>
-      <c r="E16" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="13">
-        <f t="shared" si="0"/>
-        <v>142.5</v>
-      </c>
-      <c r="L16" s="12">
-        <v>100</v>
-      </c>
-      <c r="M16" s="6">
-        <v>100</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="18">
-        <f t="shared" si="2"/>
-        <v>58.5</v>
-      </c>
-      <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="18">
-        <v>75.25</v>
-      </c>
-      <c r="E17" s="29">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L17" s="12">
-        <v>100</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="18">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="U17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="18">
-        <v>73.716666666666669</v>
-      </c>
-      <c r="E18" s="29">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="13">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L18" s="12">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
-        <v>100</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="18">
-        <f t="shared" si="2"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="18">
+        <f>J20*0.2+N20*0.3+O20*0.5</f>
+        <v>20.75</v>
+      </c>
+      <c r="Q20" s="18">
+        <f>D20*0.4+P20*0.6</f>
+        <v>42.716666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="18">
+        <v>70.325000000000003</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <f>SUM(E21:H21)*50/(J$1-I21)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
         <v>60</v>
       </c>
-      <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="18">
-        <v>70.325000000000003</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="M21" s="36"/>
+      <c r="N21" s="13">
+        <f>SUM(K21:L21)/(N$1-M21)</f>
+        <v>30</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="18">
+        <f>J21*0.2+N21*0.3+O21*0.5</f>
+        <v>22.333333333333336</v>
+      </c>
+      <c r="Q21" s="18">
+        <f>D21*0.4+P21*0.6</f>
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="18">
+        <v>67</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="13">
+        <f>SUM(E22:H22)*50/(J$1-I22)</f>
+        <v>61.250000000000007</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>60</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="13">
-        <f t="shared" si="1"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="13">
+        <f>SUM(K22:L22)/(N$1-M22)</f>
         <v>30</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="18">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="18">
-        <v>67</v>
-      </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="13">
-        <f t="shared" si="0"/>
-        <v>92.5</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>60</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="13">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="18">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="U20" s="18"/>
-    </row>
-    <row r="21" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="18">
-        <v>65.7</v>
-      </c>
-      <c r="E21" s="29">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L21" s="12">
-        <v>50</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="13">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="18">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="18">
-        <v>55.733333333333334</v>
-      </c>
-      <c r="E22" s="29">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L22" s="12">
-        <v>100</v>
-      </c>
-      <c r="M22" s="6">
-        <v>60</v>
-      </c>
-      <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="13">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="18">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="U22" s="18"/>
-    </row>
-    <row r="23" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="18">
+        <f>J22*0.2+N22*0.3+O22*0.5</f>
+        <v>21.25</v>
+      </c>
+      <c r="Q22" s="18">
+        <f>D22*0.4+P22*0.6</f>
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>67</v>
       </c>
@@ -5764,85 +5771,89 @@
       <c r="G23" s="7">
         <v>1.5</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="13">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="L23" s="12">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="13">
+        <f>SUM(E23:H23)*50/(J$1-I23)</f>
+        <v>56.25</v>
+      </c>
+      <c r="K23" s="12">
         <v>75</v>
       </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6"/>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="36"/>
+      <c r="N23" s="13">
+        <f>SUM(K23:L23)/(N$1-M23)</f>
+        <v>37.5</v>
+      </c>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="13">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="18">
-        <f t="shared" si="2"/>
-        <v>28.75</v>
-      </c>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="18">
+        <f>J23*0.2+N23*0.3+O23*0.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q23" s="18">
+        <f>D23*0.4+P23*0.6</f>
+        <v>35.473333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D24" s="18">
-        <v>42.533333333333339</v>
+        <v>65.7</v>
       </c>
       <c r="E24" s="29">
         <v>2</v>
       </c>
       <c r="F24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="13">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="L24" s="12">
-        <v>100</v>
-      </c>
-      <c r="M24" s="6">
-        <v>95</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="36">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <f>SUM(E24:H24)*50/(J$1-I24)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K24" s="12">
+        <v>50</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36"/>
+      <c r="N24" s="13">
+        <f>SUM(K24:L24)/(N$1-M24)</f>
+        <v>25</v>
+      </c>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="13">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="18">
-        <f t="shared" si="2"/>
-        <v>58.25</v>
-      </c>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="18">
+        <f>J24*0.2+N24*0.3+O24*0.5</f>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="Q24" s="18">
+        <f>D24*0.4+P24*0.6</f>
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>118</v>
       </c>
@@ -5864,35 +5875,36 @@
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="13">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="L25" s="12">
+      <c r="H25" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="13">
+        <f>SUM(E25:H25)*50/(J$1-I25)</f>
+        <v>33.75</v>
+      </c>
+      <c r="K25" s="12">
         <v>50</v>
       </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6"/>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="13">
+        <f>SUM(K25:L25)/(N$1-M25)</f>
+        <v>25</v>
+      </c>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="13">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="18">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="18">
+        <f>J25*0.2+N25*0.3+O25*0.5</f>
+        <v>14.25</v>
+      </c>
+      <c r="Q25" s="18">
+        <f>D25*0.4+P25*0.6</f>
+        <v>25.410000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -5914,35 +5926,36 @@
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6"/>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="13">
+        <f>SUM(E26:H26)*50/(J$1-I26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="13">
+        <f>SUM(K26:L26)/(N$1-M26)</f>
+        <v>0</v>
+      </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="18">
+        <f>J26*0.2+N26*0.3+O26*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="18">
+        <f>D26*0.4+P26*0.6</f>
+        <v>15.733333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>126</v>
       </c>
@@ -5964,35 +5977,36 @@
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6"/>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="13">
+        <f>SUM(E27:H27)*50/(J$1-I27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="13">
+        <f>SUM(K27:L27)/(N$1-M27)</f>
+        <v>0</v>
+      </c>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="18">
+        <f>J27*0.2+N27*0.3+O27*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
+        <f>D27*0.4+P27*0.6</f>
+        <v>9.6800000000000015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>88</v>
       </c>
@@ -6014,35 +6028,36 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6"/>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="13">
+        <f>SUM(E28:H28)*50/(J$1-I28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="13">
+        <f>SUM(K28:L28)/(N$1-M28)</f>
+        <v>0</v>
+      </c>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="18"/>
-    </row>
-    <row r="29" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="18">
+        <f>J28*0.2+N28*0.3+O28*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <f>D28*0.4+P28*0.6</f>
+        <v>5.7600000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>128</v>
       </c>
@@ -6064,35 +6079,36 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6"/>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="13">
+        <f>SUM(E29:H29)*50/(J$1-I29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="13">
+        <f>SUM(K29:L29)/(N$1-M29)</f>
+        <v>0</v>
+      </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="18">
+        <f>J29*0.2+N29*0.3+O29*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <f>D29*0.4+P29*0.6</f>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>102</v>
       </c>
@@ -6114,35 +6130,36 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6"/>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="36"/>
+      <c r="J30" s="13">
+        <f>SUM(E30:H30)*50/(J$1-I30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="13">
+        <f>SUM(K30:L30)/(N$1-M30)</f>
+        <v>0</v>
+      </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="18">
+        <f>J30*0.2+N30*0.3+O30*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
+        <f>D30*0.4+P30*0.6</f>
+        <v>5.120000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>109</v>
       </c>
@@ -6164,35 +6181,36 @@
       <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="12">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6"/>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="13">
+        <f>SUM(E31:H31)*50/(J$1-I31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="13">
+        <f>SUM(K31:L31)/(N$1-M31)</f>
+        <v>0</v>
+      </c>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="18">
+        <f>J31*0.2+N31*0.3+O31*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>D31*0.4+P31*0.6</f>
+        <v>4.9600000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>62</v>
       </c>
@@ -6212,35 +6230,36 @@
       <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="12">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6"/>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="13">
+        <f>SUM(E32:H32)*50/(J$1-I32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="13">
+        <f>SUM(K32:L32)/(N$1-M32)</f>
+        <v>0</v>
+      </c>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="18">
+        <f>J32*0.2+N32*0.3+O32*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="18">
+        <f>D32*0.4+P32*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>2</v>
       </c>
@@ -6260,35 +6279,36 @@
       <c r="G33" s="7">
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="12">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6"/>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="J33" s="13">
+        <f>SUM(E33:H33)*50/(J$1-I33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="36"/>
+      <c r="N33" s="13">
+        <f>SUM(K33:L33)/(N$1-M33)</f>
+        <v>0</v>
+      </c>
       <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="18">
+        <f>J33*0.2+N33*0.3+O33*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="18">
+        <f>D33*0.4+P33*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>4</v>
       </c>
@@ -6308,35 +6328,36 @@
       <c r="G34" s="7">
         <v>0</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="12">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6"/>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="13">
+        <f>SUM(E34:H34)*50/(J$1-I34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="36"/>
+      <c r="N34" s="13">
+        <f>SUM(K34:L34)/(N$1-M34)</f>
+        <v>0</v>
+      </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="18"/>
-    </row>
-    <row r="35" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="18">
+        <f>J34*0.2+N34*0.3+O34*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <f>D34*0.4+P34*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>9</v>
       </c>
@@ -6356,35 +6377,36 @@
       <c r="G35" s="7">
         <v>0</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="12">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6"/>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="13">
+        <f>SUM(E35:H35)*50/(J$1-I35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="13">
+        <f>SUM(K35:L35)/(N$1-M35)</f>
+        <v>0</v>
+      </c>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="18"/>
-    </row>
-    <row r="36" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="18">
+        <f>J35*0.2+N35*0.3+O35*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="18">
+        <f>D35*0.4+P35*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>12</v>
       </c>
@@ -6404,35 +6426,36 @@
       <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="12">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6"/>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="13">
+        <f>SUM(E36:H36)*50/(J$1-I36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="N36" s="13">
+        <f>SUM(K36:L36)/(N$1-M36)</f>
+        <v>0</v>
+      </c>
       <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="18"/>
-    </row>
-    <row r="37" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="18">
+        <f>J36*0.2+N36*0.3+O36*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18">
+        <f>D36*0.4+P36*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>70</v>
       </c>
@@ -6452,35 +6475,36 @@
       <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="12">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6"/>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="13">
+        <f>SUM(E37:H37)*50/(J$1-I37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="N37" s="13">
+        <f>SUM(K37:L37)/(N$1-M37)</f>
+        <v>0</v>
+      </c>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="18"/>
-    </row>
-    <row r="38" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="18">
+        <f>J37*0.2+N37*0.3+O37*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="18">
+        <f>D37*0.4+P37*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6500,35 +6524,36 @@
       <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="12">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6"/>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="13">
+        <f>SUM(E38:H38)*50/(J$1-I38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="36"/>
+      <c r="N38" s="13">
+        <f>SUM(K38:L38)/(N$1-M38)</f>
+        <v>0</v>
+      </c>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="18"/>
-    </row>
-    <row r="39" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="18">
+        <f>J38*0.2+N38*0.3+O38*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="18">
+        <f>D38*0.4+P38*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
@@ -6548,35 +6573,36 @@
       <c r="G39" s="7">
         <v>0</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="12">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6"/>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="13">
+        <f>SUM(E39:H39)*50/(J$1-I39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="36"/>
+      <c r="N39" s="13">
+        <f>SUM(K39:L39)/(N$1-M39)</f>
+        <v>0</v>
+      </c>
       <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="18"/>
-    </row>
-    <row r="40" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="18">
+        <f>J39*0.2+N39*0.3+O39*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="18">
+        <f>D39*0.4+P39*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -6596,35 +6622,36 @@
       <c r="G40" s="7">
         <v>0</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="12">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6"/>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="36"/>
+      <c r="J40" s="13">
+        <f>SUM(E40:H40)*50/(J$1-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="13">
+        <f>SUM(K40:L40)/(N$1-M40)</f>
+        <v>0</v>
+      </c>
       <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="18"/>
-    </row>
-    <row r="41" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="18">
+        <f>J40*0.2+N40*0.3+O40*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="18">
+        <f>D40*0.4+P40*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>116</v>
       </c>
@@ -6644,35 +6671,36 @@
       <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="12">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6"/>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="13">
+        <f>SUM(E41:H41)*50/(J$1-I41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="36"/>
+      <c r="N41" s="13">
+        <f>SUM(K41:L41)/(N$1-M41)</f>
+        <v>0</v>
+      </c>
       <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="18"/>
-    </row>
-    <row r="42" spans="1:21" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="18">
+        <f>J41*0.2+N41*0.3+O41*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18">
+        <f>D41*0.4+P41*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>120</v>
       </c>
@@ -6692,35 +6720,36 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="12">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="56"/>
-      <c r="T42" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="58"/>
-    </row>
-    <row r="43" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="36"/>
+      <c r="J42" s="13">
+        <f>SUM(E42:H42)*50/(J$1-I42)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="36"/>
+      <c r="N42" s="13">
+        <f>SUM(K42:L42)/(N$1-M42)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="56"/>
+      <c r="P42" s="18">
+        <f>J42*0.2+N42*0.3+O42*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18">
+        <f>D42*0.4+P42*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6735,12 +6764,8 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6755,12 +6780,8 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-    </row>
-    <row r="45" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6775,12 +6796,8 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-    </row>
-    <row r="46" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6795,12 +6812,8 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-    </row>
-    <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6815,12 +6828,8 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-    </row>
-    <row r="48" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6835,12 +6844,8 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-    </row>
-    <row r="49" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6855,12 +6860,8 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-    </row>
-    <row r="50" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6875,12 +6876,8 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-    </row>
-    <row r="51" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6895,12 +6892,8 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-    </row>
-    <row r="52" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6915,12 +6908,8 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-    </row>
-    <row r="53" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6935,12 +6924,8 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-    </row>
-    <row r="54" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6955,12 +6940,8 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-    </row>
-    <row r="55" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6975,12 +6956,8 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-    </row>
-    <row r="56" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6995,12 +6972,8 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-    </row>
-    <row r="57" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -7015,12 +6988,8 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-    </row>
-    <row r="58" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7035,12 +7004,8 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-    </row>
-    <row r="59" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7055,12 +7020,8 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-    </row>
-    <row r="60" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7075,12 +7036,8 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-    </row>
-    <row r="61" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7095,12 +7052,8 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-    </row>
-    <row r="62" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7115,12 +7068,8 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-    </row>
-    <row r="63" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7135,12 +7084,8 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-    </row>
-    <row r="64" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7155,12 +7100,8 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-    </row>
-    <row r="65" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7175,12 +7116,8 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-    </row>
-    <row r="66" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7195,12 +7132,8 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-    </row>
-    <row r="67" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7215,12 +7148,8 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-    </row>
-    <row r="68" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7235,12 +7164,8 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-    </row>
-    <row r="69" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7255,12 +7180,8 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-    </row>
-    <row r="70" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7275,12 +7196,8 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-    </row>
-    <row r="71" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7295,12 +7212,8 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-    </row>
-    <row r="72" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7315,12 +7228,8 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-    </row>
-    <row r="73" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7335,12 +7244,8 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-    </row>
-    <row r="74" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7355,12 +7260,8 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-    </row>
-    <row r="75" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7375,12 +7276,8 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-    </row>
-    <row r="76" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7395,12 +7292,8 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-    </row>
-    <row r="77" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7415,12 +7308,8 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-    </row>
-    <row r="78" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7435,12 +7324,8 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-    </row>
-    <row r="79" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7455,12 +7340,8 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-    </row>
-    <row r="80" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7475,12 +7356,8 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-    </row>
-    <row r="81" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7495,20 +7372,16 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:U42">
-    <sortCondition descending="1" ref="D3"/>
+  <sortState ref="A3:Q42">
+    <sortCondition descending="1" ref="Q3"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:I42">
+  <conditionalFormatting sqref="E3:H42">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
@@ -7520,7 +7393,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K42">
+  <conditionalFormatting sqref="J3:J42">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -7534,7 +7407,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R42">
+  <conditionalFormatting sqref="N3:N42">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -7548,7 +7421,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T42">
+  <conditionalFormatting sqref="P3:P42">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -7562,7 +7435,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:P42">
+  <conditionalFormatting sqref="K3:L42">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -7579,7 +7452,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U42">
+  <conditionalFormatting sqref="Q3:Q42">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -7621,7 +7494,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S42">
+  <conditionalFormatting sqref="O3:O42">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -7666,7 +7539,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K42</xm:sqref>
+          <xm:sqref>J3:J42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
@@ -7677,7 +7550,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R42</xm:sqref>
+          <xm:sqref>N3:N42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -7688,7 +7561,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T3:T42</xm:sqref>
+          <xm:sqref>P3:P42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -7699,7 +7572,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U42</xm:sqref>
+          <xm:sqref>Q3:Q42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
   <si>
     <t>Adı</t>
   </si>
@@ -181,9 +181,6 @@
     <t>LAB ÇALIŞMALARI (%25)</t>
   </si>
   <si>
-    <t>FİNAL</t>
-  </si>
-  <si>
     <t>DERS NOTU</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>BONUS (%15)</t>
   </si>
   <si>
-    <t>LAB ÇALIŞMALARI (%30)</t>
-  </si>
-  <si>
-    <t>SINAV (%50)</t>
-  </si>
-  <si>
     <t>ŞAHİN</t>
   </si>
   <si>
@@ -467,6 +458,21 @@
   </si>
   <si>
     <t>SINAV (%40)</t>
+  </si>
+  <si>
+    <t>Bütünleme</t>
+  </si>
+  <si>
+    <t>Geçti</t>
+  </si>
+  <si>
+    <t>SINAV (%55)</t>
+  </si>
+  <si>
+    <t>Kaldı</t>
+  </si>
+  <si>
+    <t>FİNAL (+14 bonus)</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1568,14 +1612,14 @@
       <c r="P1" s="79"/>
       <c r="Q1" s="78"/>
       <c r="R1" s="77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S1" s="78"/>
       <c r="T1" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>31</v>
@@ -1613,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>30</v>
@@ -1628,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>30</v>
@@ -1643,7 +1687,7 @@
         <v>33</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>32</v>
@@ -1651,13 +1695,13 @@
     </row>
     <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="41">
         <v>2</v>
@@ -1722,10 +1766,10 @@
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>34</v>
@@ -1793,13 +1837,13 @@
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="41">
         <v>2</v>
@@ -1811,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="42">
         <v>2</v>
@@ -1864,13 +1908,13 @@
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="41">
         <v>2</v>
@@ -1935,13 +1979,13 @@
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="41">
         <v>2</v>
@@ -2006,13 +2050,13 @@
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="41">
         <v>0</v>
@@ -2077,13 +2121,13 @@
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="41">
         <v>2</v>
@@ -2148,13 +2192,13 @@
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="41">
         <v>2</v>
@@ -2175,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K10" s="36">
         <v>0</v>
@@ -2191,7 +2235,7 @@
         <v>95</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P10" s="64">
         <v>1</v>
@@ -2219,10 +2263,10 @@
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>25</v>
@@ -2290,13 +2334,13 @@
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="41">
         <v>2</v>
@@ -2361,13 +2405,13 @@
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="41">
         <v>2</v>
@@ -2432,13 +2476,13 @@
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="41">
         <v>2</v>
@@ -2503,13 +2547,13 @@
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="44">
         <v>0</v>
@@ -2574,13 +2618,13 @@
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="41">
         <v>2</v>
@@ -2645,13 +2689,13 @@
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="41">
         <v>2</v>
@@ -2716,13 +2760,13 @@
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="41">
         <v>0</v>
@@ -2787,13 +2831,13 @@
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="41">
         <v>0</v>
@@ -2808,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I19" s="42">
         <v>2</v>
@@ -2827,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="N19" s="65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O19" s="70">
         <v>85</v>
@@ -2858,13 +2902,13 @@
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="41">
         <v>0</v>
@@ -2879,7 +2923,7 @@
         <v>1.2</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I20" s="42">
         <v>0</v>
@@ -2898,7 +2942,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O20" s="70">
         <v>80</v>
@@ -2950,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I21" s="43">
         <v>0</v>
@@ -2969,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O21" s="70">
         <v>80</v>
@@ -3000,13 +3044,13 @@
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="41">
         <v>2</v>
@@ -3071,13 +3115,13 @@
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="41">
         <v>2</v>
@@ -3092,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I23" s="42">
         <v>2</v>
@@ -3213,10 +3257,10 @@
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>6</v>
@@ -3231,13 +3275,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H25" s="43">
         <v>2</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J25" s="43">
         <v>0</v>
@@ -3284,13 +3328,13 @@
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="41">
         <v>0</v>
@@ -3355,10 +3399,10 @@
     </row>
     <row r="27" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
@@ -3426,13 +3470,13 @@
     </row>
     <row r="28" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42"/>
@@ -3468,13 +3512,13 @@
     </row>
     <row r="29" spans="1:24" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="43"/>
@@ -3507,13 +3551,13 @@
     </row>
     <row r="30" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42"/>
@@ -3549,7 +3593,7 @@
     </row>
     <row r="31" spans="1:24" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
@@ -3626,13 +3670,13 @@
     </row>
     <row r="33" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="52"/>
@@ -3662,13 +3706,13 @@
     </row>
     <row r="34" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
@@ -3743,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="50" t="s">
         <v>3</v>
@@ -3812,13 +3856,13 @@
     </row>
     <row r="38" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
@@ -3926,10 +3970,10 @@
     </row>
     <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>5</v>
@@ -3962,13 +4006,13 @@
     </row>
     <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
@@ -4447,47 +4491,47 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:O42 T3:U42">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R42">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4609,11 +4653,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4635,7 +4679,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>4</v>
       </c>
@@ -4653,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L1" s="79"/>
       <c r="M1" s="79"/>
@@ -4661,16 +4705,16 @@
         <v>2</v>
       </c>
       <c r="O1" s="69" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="P1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -4696,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>30</v>
@@ -4708,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>30</v>
@@ -4723,18 +4767,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" s="18">
-        <v>95.833333333333343</v>
+        <v>82.275000000000006</v>
       </c>
       <c r="E3" s="29">
         <v>2</v>
@@ -4743,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="7">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
         <v>2</v>
@@ -4751,41 +4795,46 @@
       <c r="I3" s="36"/>
       <c r="J3" s="13">
         <f>SUM(E3:H3)*50/(J$1-I3)</f>
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
       <c r="K3" s="12">
         <v>100</v>
       </c>
       <c r="L3" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="13">
         <f>SUM(K3:L3)/(N$1-M3)</f>
-        <v>95</v>
-      </c>
-      <c r="O3" s="6"/>
+        <v>97.5</v>
+      </c>
+      <c r="O3" s="6">
+        <v>80</v>
+      </c>
       <c r="P3" s="18">
-        <f>J3*0.2+N3*0.3+O3*0.5</f>
-        <v>47</v>
+        <f>J3*0.2+N3*0.25+O3*0.55+14</f>
+        <v>99.875</v>
       </c>
       <c r="Q3" s="18">
         <f>D3*0.4+P3*0.6</f>
-        <v>66.533333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92.835000000000008</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D4" s="18">
-        <v>88.63333333333334</v>
+        <v>95.833333333333343</v>
       </c>
       <c r="E4" s="29">
         <v>2</v>
@@ -4794,49 +4843,54 @@
         <v>2</v>
       </c>
       <c r="G4" s="7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H4" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="13">
         <f>SUM(E4:H4)*50/(J$1-I4)</f>
-        <v>89.999999999999986</v>
+        <v>92.5</v>
       </c>
       <c r="K4" s="12">
         <v>100</v>
       </c>
       <c r="L4" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M4" s="36"/>
       <c r="N4" s="13">
         <f>SUM(K4:L4)/(N$1-M4)</f>
-        <v>100</v>
-      </c>
-      <c r="O4" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="O4" s="6">
+        <v>54</v>
+      </c>
       <c r="P4" s="18">
-        <f>J4*0.2+N4*0.3+O4*0.5</f>
-        <v>48</v>
+        <f>J4*0.2+N4*0.25+O4*0.55+14</f>
+        <v>85.95</v>
       </c>
       <c r="Q4" s="18">
         <f>D4*0.4+P4*0.6</f>
-        <v>64.25333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89.903333333333336</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D5" s="18">
-        <v>85.15</v>
+        <v>88.63333333333334</v>
       </c>
       <c r="E5" s="29">
         <v>2</v>
@@ -4845,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H5" s="7">
         <v>1.9</v>
@@ -4853,7 +4907,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="13">
         <f>SUM(E5:H5)*50/(J$1-I5)</f>
-        <v>96.249999999999986</v>
+        <v>89.999999999999986</v>
       </c>
       <c r="K5" s="12">
         <v>100</v>
@@ -4866,37 +4920,42 @@
         <f>SUM(K5:L5)/(N$1-M5)</f>
         <v>100</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>53</v>
+      </c>
       <c r="P5" s="18">
-        <f>J5*0.2+N5*0.3+O5*0.5</f>
-        <v>49.25</v>
+        <f>J5*0.2+N5*0.25+O5*0.55+14</f>
+        <v>86.15</v>
       </c>
       <c r="Q5" s="18">
         <f>D5*0.4+P5*0.6</f>
-        <v>63.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87.143333333333345</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D6" s="18">
-        <v>88.4</v>
+        <v>90.933333333333337</v>
       </c>
       <c r="E6" s="29">
         <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4904,96 +4963,102 @@
       <c r="I6" s="36"/>
       <c r="J6" s="13">
         <f>SUM(E6:H6)*50/(J$1-I6)</f>
-        <v>92.5</v>
+        <v>75</v>
       </c>
       <c r="K6" s="12">
         <v>100</v>
       </c>
       <c r="L6" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="13">
         <f>SUM(K6:L6)/(N$1-M6)</f>
-        <v>95</v>
-      </c>
-      <c r="O6" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="O6" s="6">
+        <v>71</v>
+      </c>
       <c r="P6" s="18">
-        <f>J6*0.2+N6*0.3+O6*0.5</f>
-        <v>47</v>
+        <f>J6*0.2+N6*0.25+O6*0.55+14</f>
+        <v>80.550000000000011</v>
       </c>
       <c r="Q6" s="18">
         <f>D6*0.4+P6*0.6</f>
-        <v>63.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84.703333333333347</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D7" s="18">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>127</v>
+        <v>73.716666666666669</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
       <c r="G7" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="I7" s="36">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" s="36"/>
       <c r="J7" s="13">
         <f>SUM(E7:H7)*50/(J$1-I7)</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="K7" s="75" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="K7" s="12">
+        <v>100</v>
       </c>
       <c r="L7" s="6">
         <v>100</v>
       </c>
-      <c r="M7" s="36">
-        <v>1</v>
-      </c>
+      <c r="M7" s="36"/>
       <c r="N7" s="13">
         <f>SUM(K7:L7)/(N$1-M7)</f>
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>60</v>
+      </c>
       <c r="P7" s="18">
-        <f>J7*0.2+N7*0.3+O7*0.5</f>
-        <v>48.666666666666671</v>
+        <f>J7*0.2+N7*0.25+O7*0.55+14</f>
+        <v>92</v>
       </c>
       <c r="Q7" s="18">
         <f>D7*0.4+P7*0.6</f>
-        <v>61.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84.686666666666667</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
-        <v>90.15</v>
+        <v>86.26666666666668</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
@@ -5002,49 +5067,54 @@
         <v>2</v>
       </c>
       <c r="G8" s="7">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="13">
         <f>SUM(E8:H8)*50/(J$1-I8)</f>
-        <v>81.25</v>
+        <v>100</v>
       </c>
       <c r="K8" s="12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L8" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M8" s="36"/>
       <c r="N8" s="13">
         <f>SUM(K8:L8)/(N$1-M8)</f>
-        <v>87.5</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>72.5</v>
+      </c>
+      <c r="O8" s="6">
+        <v>37</v>
+      </c>
       <c r="P8" s="18">
-        <f>J8*0.2+N8*0.3+O8*0.5</f>
-        <v>42.5</v>
+        <f>J8*0.2+N8*0.25+O8*0.55+14</f>
+        <v>72.474999999999994</v>
       </c>
       <c r="Q8" s="18">
         <f>D8*0.4+P8*0.6</f>
-        <v>61.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.991666666666674</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D9" s="18">
-        <v>82.275000000000006</v>
+        <v>85.15</v>
       </c>
       <c r="E9" s="29">
         <v>2</v>
@@ -5053,49 +5123,54 @@
         <v>2</v>
       </c>
       <c r="G9" s="7">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="13">
         <f>SUM(E9:H9)*50/(J$1-I9)</f>
-        <v>87.5</v>
+        <v>96.249999999999986</v>
       </c>
       <c r="K9" s="12">
         <v>100</v>
       </c>
       <c r="L9" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="13">
         <f>SUM(K9:L9)/(N$1-M9)</f>
-        <v>97.5</v>
-      </c>
-      <c r="O9" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="6">
+        <v>26</v>
+      </c>
       <c r="P9" s="18">
-        <f>J9*0.2+N9*0.3+O9*0.5</f>
-        <v>46.75</v>
+        <f>J9*0.2+N9*0.25+O9*0.55+14</f>
+        <v>72.55</v>
       </c>
       <c r="Q9" s="18">
         <f>D9*0.4+P9*0.6</f>
-        <v>60.960000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.59</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D10" s="18">
-        <v>78.233333333333334</v>
+        <v>90.15</v>
       </c>
       <c r="E10" s="29">
         <v>2</v>
@@ -5104,18 +5179,18 @@
         <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H10" s="7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="13">
         <f>SUM(E10:H10)*50/(J$1-I10)</f>
-        <v>88.75</v>
+        <v>81.25</v>
       </c>
       <c r="K10" s="12">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L10" s="6">
         <v>100</v>
@@ -5123,81 +5198,95 @@
       <c r="M10" s="36"/>
       <c r="N10" s="13">
         <f>SUM(K10:L10)/(N$1-M10)</f>
-        <v>100</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>87.5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>31</v>
+      </c>
       <c r="P10" s="18">
-        <f>J10*0.2+N10*0.3+O10*0.5</f>
-        <v>47.75</v>
+        <f>J10*0.2+N10*0.25+O10*0.55+14</f>
+        <v>69.174999999999997</v>
       </c>
       <c r="Q10" s="18">
         <f>D10*0.4+P10*0.6</f>
-        <v>59.943333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.564999999999998</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18">
-        <v>86.26666666666668</v>
-      </c>
-      <c r="E11" s="29">
-        <v>2</v>
+        <v>81.349999999999994</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="36"/>
+        <v>1.9</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
       <c r="J11" s="13">
         <f>SUM(E11:H11)*50/(J$1-I11)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K11" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="6">
         <v>100</v>
       </c>
-      <c r="K11" s="12">
-        <v>50</v>
-      </c>
-      <c r="L11" s="6">
-        <v>95</v>
-      </c>
-      <c r="M11" s="36"/>
+      <c r="M11" s="36">
+        <v>1</v>
+      </c>
       <c r="N11" s="13">
         <f>SUM(K11:L11)/(N$1-M11)</f>
-        <v>72.5</v>
-      </c>
-      <c r="O11" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O11" s="6">
+        <v>31</v>
+      </c>
       <c r="P11" s="18">
-        <f>J11*0.2+N11*0.3+O11*0.5</f>
-        <v>41.75</v>
+        <f>J11*0.2+N11*0.25+O11*0.55+14</f>
+        <v>74.716666666666669</v>
       </c>
       <c r="Q11" s="18">
         <f>D11*0.4+P11*0.6</f>
-        <v>59.556666666666672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.37</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D12" s="18">
-        <v>73.716666666666669</v>
+        <v>88.4</v>
       </c>
       <c r="E12" s="29">
         <v>2</v>
@@ -5206,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5214,44 +5303,49 @@
       <c r="I12" s="36"/>
       <c r="J12" s="13">
         <f>SUM(E12:H12)*50/(J$1-I12)</f>
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="K12" s="12">
         <v>100</v>
       </c>
       <c r="L12" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M12" s="36"/>
       <c r="N12" s="13">
         <f>SUM(K12:L12)/(N$1-M12)</f>
-        <v>100</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="O12" s="6">
+        <v>24</v>
+      </c>
       <c r="P12" s="18">
-        <f>J12*0.2+N12*0.3+O12*0.5</f>
-        <v>50</v>
+        <f>J12*0.2+N12*0.25+O12*0.55+14</f>
+        <v>69.45</v>
       </c>
       <c r="Q12" s="18">
         <f>D12*0.4+P12*0.6</f>
-        <v>59.486666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.03</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D13" s="18">
-        <v>75.366666666666674</v>
+        <v>78.233333333333334</v>
       </c>
       <c r="E13" s="29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -5260,12 +5354,12 @@
         <v>1.8</v>
       </c>
       <c r="H13" s="7">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="13">
         <f>SUM(E13:H13)*50/(J$1-I13)</f>
-        <v>78.75</v>
+        <v>88.75</v>
       </c>
       <c r="K13" s="12">
         <v>100</v>
@@ -5278,181 +5372,201 @@
         <f>SUM(K13:L13)/(N$1-M13)</f>
         <v>100</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>34</v>
+      </c>
       <c r="P13" s="18">
-        <f>J13*0.2+N13*0.3+O13*0.5</f>
-        <v>45.75</v>
+        <f>J13*0.2+N13*0.25+O13*0.55+14</f>
+        <v>75.45</v>
       </c>
       <c r="Q13" s="18">
         <f>D13*0.4+P13*0.6</f>
-        <v>57.596666666666671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76.563333333333333</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D14" s="18">
-        <v>75.983333333333334</v>
+        <v>79.033333333333331</v>
       </c>
       <c r="E14" s="29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="13">
         <f>SUM(E14:H14)*50/(J$1-I14)</f>
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="K14" s="12">
         <v>100</v>
       </c>
       <c r="L14" s="6">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="13">
         <f>SUM(K14:L14)/(N$1-M14)</f>
-        <v>97.5</v>
-      </c>
-      <c r="O14" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="O14" s="6">
+        <v>46</v>
+      </c>
       <c r="P14" s="18">
-        <f>J14*0.2+N14*0.3+O14*0.5</f>
-        <v>44.25</v>
+        <f>J14*0.2+N14*0.25+O14*0.55+14</f>
+        <v>73.55</v>
       </c>
       <c r="Q14" s="18">
         <f>D14*0.4+P14*0.6</f>
-        <v>56.943333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75.743333333333325</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
-        <v>79.033333333333331</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="E15" s="29">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
       </c>
       <c r="G15" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="13">
         <f>SUM(E15:H15)*50/(J$1-I15)</f>
-        <v>71.25</v>
+        <v>40</v>
       </c>
       <c r="K15" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="13">
         <f>SUM(K15:L15)/(N$1-M15)</f>
-        <v>80</v>
-      </c>
-      <c r="O15" s="6"/>
+        <v>42.5</v>
+      </c>
+      <c r="O15" s="6">
+        <v>75</v>
+      </c>
       <c r="P15" s="18">
-        <f>J15*0.2+N15*0.3+O15*0.5</f>
-        <v>38.25</v>
+        <f>J15*0.2+N15*0.25+O15*0.55+14</f>
+        <v>73.875</v>
       </c>
       <c r="Q15" s="18">
         <f>D15*0.4+P15*0.6</f>
-        <v>54.563333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74.591666666666669</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D16" s="18">
-        <v>90.933333333333337</v>
+        <v>75.366666666666674</v>
       </c>
       <c r="E16" s="29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="13">
         <f>SUM(E16:H16)*50/(J$1-I16)</f>
-        <v>75</v>
+        <v>78.75</v>
       </c>
       <c r="K16" s="12">
         <v>100</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="13">
         <f>SUM(K16:L16)/(N$1-M16)</f>
-        <v>50</v>
-      </c>
-      <c r="O16" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O16" s="6">
+        <v>25</v>
+      </c>
       <c r="P16" s="18">
-        <f>J16*0.2+N16*0.3+O16*0.5</f>
-        <v>30</v>
+        <f>J16*0.2+N16*0.25+O16*0.55+14</f>
+        <v>68.5</v>
       </c>
       <c r="Q16" s="18">
         <f>D16*0.4+P16*0.6</f>
-        <v>54.373333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71.24666666666667</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D17" s="18">
-        <v>42.533333333333339</v>
+        <v>75.983333333333334</v>
       </c>
       <c r="E17" s="29">
         <v>2</v>
@@ -5461,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5469,7 +5583,7 @@
       <c r="I17" s="36"/>
       <c r="J17" s="13">
         <f>SUM(E17:H17)*50/(J$1-I17)</f>
-        <v>97.5</v>
+        <v>75</v>
       </c>
       <c r="K17" s="12">
         <v>100</v>
@@ -5482,34 +5596,39 @@
         <f>SUM(K17:L17)/(N$1-M17)</f>
         <v>97.5</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>23</v>
+      </c>
       <c r="P17" s="18">
-        <f>J17*0.2+N17*0.3+O17*0.5</f>
-        <v>48.75</v>
+        <f>J17*0.2+N17*0.25+O17*0.55+14</f>
+        <v>66.025000000000006</v>
       </c>
       <c r="Q17" s="18">
         <f>D17*0.4+P17*0.6</f>
-        <v>46.263333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70.00833333333334</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="18">
-        <v>55.733333333333334</v>
+        <v>75.25</v>
       </c>
       <c r="E18" s="29">
         <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5520,47 +5639,52 @@
       <c r="I18" s="36"/>
       <c r="J18" s="13">
         <f>SUM(E18:H18)*50/(J$1-I18)</f>
-        <v>68.75</v>
+        <v>43.75</v>
       </c>
       <c r="K18" s="12">
         <v>100</v>
       </c>
       <c r="L18" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="13">
         <f>SUM(K18:L18)/(N$1-M18)</f>
-        <v>80</v>
-      </c>
-      <c r="O18" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="O18" s="6">
+        <v>44</v>
+      </c>
       <c r="P18" s="18">
-        <f>J18*0.2+N18*0.3+O18*0.5</f>
-        <v>37.75</v>
+        <f>J18*0.2+N18*0.25+O18*0.55+14</f>
+        <v>59.45</v>
       </c>
       <c r="Q18" s="18">
         <f>D18*0.4+P18*0.6</f>
-        <v>44.943333333333335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65.77000000000001</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D19" s="18">
-        <v>75.25</v>
+        <v>55.733333333333334</v>
       </c>
       <c r="E19" s="29">
         <v>2</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5571,111 +5695,121 @@
       <c r="I19" s="36"/>
       <c r="J19" s="13">
         <f>SUM(E19:H19)*50/(J$1-I19)</f>
-        <v>43.75</v>
+        <v>68.75</v>
       </c>
       <c r="K19" s="12">
         <v>100</v>
       </c>
       <c r="L19" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="13">
         <f>SUM(K19:L19)/(N$1-M19)</f>
-        <v>50</v>
-      </c>
-      <c r="O19" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="O19" s="6">
+        <v>32</v>
+      </c>
       <c r="P19" s="18">
-        <f>J19*0.2+N19*0.3+O19*0.5</f>
-        <v>23.75</v>
+        <f>J19*0.2+N19*0.25+O19*0.55+14</f>
+        <v>65.349999999999994</v>
       </c>
       <c r="Q19" s="18">
         <f>D19*0.4+P19*0.6</f>
-        <v>44.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61.50333333333333</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D20" s="18">
-        <v>75.666666666666671</v>
+        <v>70.325000000000003</v>
       </c>
       <c r="E20" s="29">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
+      <c r="F20" s="32">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="H20" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I20" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="36">
+        <v>1</v>
+      </c>
       <c r="J20" s="13">
         <f>SUM(E20:H20)*50/(J$1-I20)</f>
-        <v>40</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="6">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="13">
         <f>SUM(K20:L20)/(N$1-M20)</f>
-        <v>42.5</v>
-      </c>
-      <c r="O20" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="O20" s="6">
+        <v>36</v>
+      </c>
       <c r="P20" s="18">
-        <f>J20*0.2+N20*0.3+O20*0.5</f>
-        <v>20.75</v>
+        <f>J20*0.2+N20*0.25+O20*0.55+14</f>
+        <v>54.63333333333334</v>
       </c>
       <c r="Q20" s="18">
         <f>D20*0.4+P20*0.6</f>
-        <v>42.716666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60.910000000000004</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D21" s="18">
-        <v>70.325000000000003</v>
+        <v>67</v>
       </c>
       <c r="E21" s="29">
         <v>0</v>
       </c>
-      <c r="F21" s="32">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>127</v>
+      <c r="F21" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="36">
-        <v>1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="I21" s="36"/>
       <c r="J21" s="13">
         <f>SUM(E21:H21)*50/(J$1-I21)</f>
-        <v>66.666666666666671</v>
+        <v>61.250000000000007</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
@@ -5688,76 +5822,86 @@
         <f>SUM(K21:L21)/(N$1-M21)</f>
         <v>30</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>40</v>
+      </c>
       <c r="P21" s="18">
-        <f>J21*0.2+N21*0.3+O21*0.5</f>
-        <v>22.333333333333336</v>
+        <f>J21*0.2+N21*0.25+O21*0.55+14</f>
+        <v>55.75</v>
       </c>
       <c r="Q21" s="18">
         <f>D21*0.4+P21*0.6</f>
-        <v>41.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60.25</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D22" s="18">
-        <v>67</v>
+        <v>42.533333333333339</v>
       </c>
       <c r="E22" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H22" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="13">
         <f>SUM(E22:H22)*50/(J$1-I22)</f>
-        <v>61.250000000000007</v>
+        <v>97.5</v>
       </c>
       <c r="K22" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M22" s="36"/>
       <c r="N22" s="13">
         <f>SUM(K22:L22)/(N$1-M22)</f>
-        <v>30</v>
-      </c>
-      <c r="O22" s="6"/>
+        <v>97.5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>25</v>
+      </c>
       <c r="P22" s="18">
-        <f>J22*0.2+N22*0.3+O22*0.5</f>
-        <v>21.25</v>
+        <f>J22*0.2+N22*0.25+O22*0.55+14</f>
+        <v>71.625</v>
       </c>
       <c r="Q22" s="18">
         <f>D22*0.4+P22*0.6</f>
-        <v>39.549999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59.988333333333337</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="18">
         <v>54.933333333333337</v>
@@ -5790,17 +5934,22 @@
         <f>SUM(K23:L23)/(N$1-M23)</f>
         <v>37.5</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6">
+        <v>21</v>
+      </c>
       <c r="P23" s="18">
-        <f>J23*0.2+N23*0.3+O23*0.5</f>
-        <v>22.5</v>
+        <f>J23*0.2+N23*0.25+O23*0.55+14</f>
+        <v>46.174999999999997</v>
       </c>
       <c r="Q23" s="18">
         <f>D23*0.4+P23*0.6</f>
-        <v>35.473333333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49.678333333333335</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
@@ -5823,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I24" s="36">
         <v>1</v>
@@ -5843,31 +5992,36 @@
         <f>SUM(K24:L24)/(N$1-M24)</f>
         <v>25</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
       <c r="P24" s="18">
-        <f>J24*0.2+N24*0.3+O24*0.5</f>
-        <v>14.166666666666668</v>
+        <f>J24*0.2+N24*0.25+O24*0.55+14</f>
+        <v>27.466666666666669</v>
       </c>
       <c r="Q24" s="18">
         <f>D24*0.4+P24*0.6</f>
-        <v>34.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42.760000000000005</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D25" s="18">
-        <v>42.150000000000006</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="E25" s="29">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -5876,15 +6030,15 @@
         <v>0</v>
       </c>
       <c r="H25" s="7">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="13">
         <f>SUM(E25:H25)*50/(J$1-I25)</f>
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -5892,33 +6046,38 @@
       <c r="M25" s="36"/>
       <c r="N25" s="13">
         <f>SUM(K25:L25)/(N$1-M25)</f>
-        <v>25</v>
-      </c>
-      <c r="O25" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>31</v>
+      </c>
       <c r="P25" s="18">
-        <f>J25*0.2+N25*0.3+O25*0.5</f>
-        <v>14.25</v>
+        <f>J25*0.2+N25*0.25+O25*0.55+14</f>
+        <v>31.05</v>
       </c>
       <c r="Q25" s="18">
         <f>D25*0.4+P25*0.6</f>
-        <v>25.410000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34.36333333333333</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D26" s="18">
-        <v>39.333333333333336</v>
+        <v>42.150000000000006</v>
       </c>
       <c r="E26" s="29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -5927,15 +6086,15 @@
         <v>0</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="13">
         <f>SUM(E26:H26)*50/(J$1-I26)</f>
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="K26" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -5943,24 +6102,29 @@
       <c r="M26" s="36"/>
       <c r="N26" s="13">
         <f>SUM(K26:L26)/(N$1-M26)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
       <c r="P26" s="18">
-        <f>J26*0.2+N26*0.3+O26*0.5</f>
-        <v>0</v>
+        <f>J26*0.2+N26*0.25+O26*0.55+14</f>
+        <v>27</v>
       </c>
       <c r="Q26" s="18">
         <f>D26*0.4+P26*0.6</f>
-        <v>15.733333333333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33.06</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
@@ -5996,25 +6160,29 @@
         <f>SUM(K27:L27)/(N$1-M27)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
       <c r="P27" s="18">
-        <f>J27*0.2+N27*0.3+O27*0.5</f>
         <v>0</v>
       </c>
       <c r="Q27" s="18">
         <f>D27*0.4+P27*0.6</f>
         <v>9.6800000000000015</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="18">
         <v>14.4</v>
@@ -6047,25 +6215,29 @@
         <f>SUM(K28:L28)/(N$1-M28)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
       <c r="P28" s="18">
-        <f>J28*0.2+N28*0.3+O28*0.5</f>
         <v>0</v>
       </c>
       <c r="Q28" s="18">
         <f>D28*0.4+P28*0.6</f>
         <v>5.7600000000000007</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29" s="18">
         <v>14</v>
@@ -6098,25 +6270,29 @@
         <f>SUM(K29:L29)/(N$1-M29)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
       <c r="P29" s="18">
-        <f>J29*0.2+N29*0.3+O29*0.5</f>
         <v>0</v>
       </c>
       <c r="Q29" s="18">
         <f>D29*0.4+P29*0.6</f>
         <v>5.6000000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="18">
         <v>12.8</v>
@@ -6149,19 +6325,23 @@
         <f>SUM(K30:L30)/(N$1-M30)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
       <c r="P30" s="18">
-        <f>J30*0.2+N30*0.3+O30*0.5</f>
         <v>0</v>
       </c>
       <c r="Q30" s="18">
         <f>D30*0.4+P30*0.6</f>
         <v>5.120000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
@@ -6200,25 +6380,29 @@
         <f>SUM(K31:L31)/(N$1-M31)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
       <c r="P31" s="18">
-        <f>J31*0.2+N31*0.3+O31*0.5</f>
         <v>0</v>
       </c>
       <c r="Q31" s="18">
         <f>D31*0.4+P31*0.6</f>
         <v>4.9600000000000009</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="29">
@@ -6249,25 +6433,29 @@
         <f>SUM(K32:L32)/(N$1-M32)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
       <c r="P32" s="18">
-        <f>J32*0.2+N32*0.3+O32*0.5</f>
         <v>0</v>
       </c>
       <c r="Q32" s="18">
         <f>D32*0.4+P32*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="29">
@@ -6298,25 +6486,29 @@
         <f>SUM(K33:L33)/(N$1-M33)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="6"/>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
       <c r="P33" s="18">
-        <f>J33*0.2+N33*0.3+O33*0.5</f>
         <v>0</v>
       </c>
       <c r="Q33" s="18">
         <f>D33*0.4+P33*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="29">
@@ -6347,25 +6539,29 @@
         <f>SUM(K34:L34)/(N$1-M34)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
       <c r="P34" s="18">
-        <f>J34*0.2+N34*0.3+O34*0.5</f>
         <v>0</v>
       </c>
       <c r="Q34" s="18">
         <f>D34*0.4+P34*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="29">
@@ -6396,25 +6592,29 @@
         <f>SUM(K35:L35)/(N$1-M35)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="6"/>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
       <c r="P35" s="18">
-        <f>J35*0.2+N35*0.3+O35*0.5</f>
         <v>0</v>
       </c>
       <c r="Q35" s="18">
         <f>D35*0.4+P35*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="29">
@@ -6445,25 +6645,29 @@
         <f>SUM(K36:L36)/(N$1-M36)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
       <c r="P36" s="18">
-        <f>J36*0.2+N36*0.3+O36*0.5</f>
         <v>0</v>
       </c>
       <c r="Q36" s="18">
         <f>D36*0.4+P36*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="29">
@@ -6494,27 +6698,31 @@
         <f>SUM(K37:L37)/(N$1-M37)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
       <c r="P37" s="18">
-        <f>J37*0.2+N37*0.3+O37*0.5</f>
         <v>0</v>
       </c>
       <c r="Q37" s="18">
         <f>D37*0.4+P37*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="D38" s="58"/>
       <c r="E38" s="29">
         <v>0</v>
       </c>
@@ -6543,25 +6751,29 @@
         <f>SUM(K38:L38)/(N$1-M38)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
       <c r="P38" s="18">
-        <f>J38*0.2+N38*0.3+O38*0.5</f>
         <v>0</v>
       </c>
       <c r="Q38" s="18">
         <f>D38*0.4+P38*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="29">
@@ -6592,17 +6804,21 @@
         <f>SUM(K39:L39)/(N$1-M39)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="6"/>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
       <c r="P39" s="18">
-        <f>J39*0.2+N39*0.3+O39*0.5</f>
         <v>0</v>
       </c>
       <c r="Q39" s="18">
         <f>D39*0.4+P39*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -6641,25 +6857,29 @@
         <f>SUM(K40:L40)/(N$1-M40)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="6"/>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
       <c r="P40" s="18">
-        <f>J40*0.2+N40*0.3+O40*0.5</f>
         <v>0</v>
       </c>
       <c r="Q40" s="18">
         <f>D40*0.4+P40*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="29">
@@ -6690,27 +6910,31 @@
         <f>SUM(K41:L41)/(N$1-M41)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
       <c r="P41" s="18">
-        <f>J41*0.2+N41*0.3+O41*0.5</f>
         <v>0</v>
       </c>
       <c r="Q41" s="18">
         <f>D41*0.4+P41*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="58"/>
+        <v>72</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="29">
         <v>0</v>
       </c>
@@ -6739,17 +6963,21 @@
         <f>SUM(K42:L42)/(N$1-M42)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="56"/>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
       <c r="P42" s="18">
-        <f>J42*0.2+N42*0.3+O42*0.5</f>
         <v>0</v>
       </c>
       <c r="Q42" s="18">
         <f>D42*0.4+P42*0.6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6765,7 +6993,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6781,7 +7009,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6797,7 +7025,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6813,7 +7041,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6829,7 +7057,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7374,7 +7602,7 @@
       <c r="N81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Q42">
+  <sortState ref="A3:R42">
     <sortCondition descending="1" ref="Q3"/>
   </sortState>
   <mergeCells count="2">
@@ -7382,14 +7610,14 @@
     <mergeCell ref="E1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H42">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7436,18 +7664,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L42">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7495,18 +7723,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O42">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="137">
   <si>
     <t>Adı</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>FİNAL (+14 bonus)</t>
+  </si>
+  <si>
+    <t>BÜT. SINAVI</t>
+  </si>
+  <si>
+    <t>BÜT NOTU</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -832,11 +838,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1021,49 +1053,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4491,47 +4491,47 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J42">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:O42 T3:U42">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R42">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -4653,11 +4653,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W24" sqref="W24:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4676,10 +4676,12 @@
     <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="5.77734375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="18" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>4</v>
       </c>
@@ -4713,8 +4715,17 @@
       <c r="Q1" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -4766,8 +4777,11 @@
       <c r="Q2" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>48</v>
       </c>
@@ -4794,7 +4808,7 @@
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="13">
-        <f>SUM(E3:H3)*50/(J$1-I3)</f>
+        <f t="shared" ref="J3:J42" si="0">SUM(E3:H3)*50/(J$1-I3)</f>
         <v>87.5</v>
       </c>
       <c r="K3" s="12">
@@ -4805,25 +4819,28 @@
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="13">
-        <f>SUM(K3:L3)/(N$1-M3)</f>
+        <f t="shared" ref="N3:N42" si="1">SUM(K3:L3)/(N$1-M3)</f>
         <v>97.5</v>
       </c>
       <c r="O3" s="6">
         <v>80</v>
       </c>
       <c r="P3" s="18">
-        <f>J3*0.2+N3*0.25+O3*0.55+14</f>
+        <f t="shared" ref="P3:P26" si="2">J3*0.2+N3*0.25+O3*0.55+14</f>
         <v>99.875</v>
       </c>
       <c r="Q3" s="18">
-        <f>D3*0.4+P3*0.6</f>
+        <f t="shared" ref="Q3:Q42" si="3">D3*0.4+P3*0.6</f>
         <v>92.835000000000008</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4867,7 @@
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="13">
-        <f>SUM(E4:H4)*50/(J$1-I4)</f>
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="K4" s="12">
@@ -4861,25 +4878,28 @@
       </c>
       <c r="M4" s="36"/>
       <c r="N4" s="13">
-        <f>SUM(K4:L4)/(N$1-M4)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="O4" s="6">
         <v>54</v>
       </c>
       <c r="P4" s="18">
-        <f>J4*0.2+N4*0.25+O4*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>85.95</v>
       </c>
       <c r="Q4" s="18">
-        <f>D4*0.4+P4*0.6</f>
+        <f t="shared" si="3"/>
         <v>89.903333333333336</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>102</v>
       </c>
@@ -4906,7 +4926,7 @@
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="13">
-        <f>SUM(E5:H5)*50/(J$1-I5)</f>
+        <f t="shared" si="0"/>
         <v>89.999999999999986</v>
       </c>
       <c r="K5" s="12">
@@ -4917,25 +4937,28 @@
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="13">
-        <f>SUM(K5:L5)/(N$1-M5)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O5" s="6">
         <v>53</v>
       </c>
       <c r="P5" s="18">
-        <f>J5*0.2+N5*0.25+O5*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>86.15</v>
       </c>
       <c r="Q5" s="18">
-        <f>D5*0.4+P5*0.6</f>
+        <f t="shared" si="3"/>
         <v>87.143333333333345</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>88</v>
       </c>
@@ -4962,7 +4985,7 @@
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="13">
-        <f>SUM(E6:H6)*50/(J$1-I6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K6" s="12">
@@ -4973,25 +4996,28 @@
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="13">
-        <f>SUM(K6:L6)/(N$1-M6)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="O6" s="6">
         <v>71</v>
       </c>
       <c r="P6" s="18">
-        <f>J6*0.2+N6*0.25+O6*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>80.550000000000011</v>
       </c>
       <c r="Q6" s="18">
-        <f>D6*0.4+P6*0.6</f>
+        <f t="shared" si="3"/>
         <v>84.703333333333347</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5044,7 @@
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="13">
-        <f>SUM(E7:H7)*50/(J$1-I7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K7" s="12">
@@ -5029,25 +5055,28 @@
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="13">
-        <f>SUM(K7:L7)/(N$1-M7)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O7" s="6">
         <v>60</v>
       </c>
       <c r="P7" s="18">
-        <f>J7*0.2+N7*0.25+O7*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="Q7" s="18">
-        <f>D7*0.4+P7*0.6</f>
+        <f t="shared" si="3"/>
         <v>84.686666666666667</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
@@ -5074,7 +5103,7 @@
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="13">
-        <f>SUM(E8:H8)*50/(J$1-I8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K8" s="12">
@@ -5085,14 +5114,14 @@
       </c>
       <c r="M8" s="36"/>
       <c r="N8" s="13">
-        <f>SUM(K8:L8)/(N$1-M8)</f>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="O8" s="6">
         <v>37</v>
       </c>
       <c r="P8" s="18">
-        <f>J8*0.2+N8*0.25+O8*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>72.474999999999994</v>
       </c>
       <c r="Q8" s="18">
@@ -5102,8 +5131,11 @@
       <c r="R8" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>90</v>
       </c>
@@ -5130,7 +5162,7 @@
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="13">
-        <f>SUM(E9:H9)*50/(J$1-I9)</f>
+        <f t="shared" si="0"/>
         <v>96.249999999999986</v>
       </c>
       <c r="K9" s="12">
@@ -5141,25 +5173,28 @@
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="13">
-        <f>SUM(K9:L9)/(N$1-M9)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O9" s="6">
         <v>26</v>
       </c>
       <c r="P9" s="18">
-        <f>J9*0.2+N9*0.25+O9*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>72.55</v>
       </c>
       <c r="Q9" s="18">
-        <f>D9*0.4+P9*0.6</f>
+        <f t="shared" si="3"/>
         <v>77.59</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
@@ -5186,7 +5221,7 @@
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="13">
-        <f>SUM(E10:H10)*50/(J$1-I10)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K10" s="12">
@@ -5197,25 +5232,28 @@
       </c>
       <c r="M10" s="36"/>
       <c r="N10" s="13">
-        <f>SUM(K10:L10)/(N$1-M10)</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="O10" s="6">
         <v>31</v>
       </c>
       <c r="P10" s="18">
-        <f>J10*0.2+N10*0.25+O10*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>69.174999999999997</v>
       </c>
       <c r="Q10" s="18">
-        <f>D10*0.4+P10*0.6</f>
+        <f t="shared" si="3"/>
         <v>77.564999999999998</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>120</v>
       </c>
@@ -5244,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="13">
-        <f>SUM(E11:H11)*50/(J$1-I11)</f>
+        <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
       <c r="K11" s="75" t="s">
@@ -5257,25 +5295,28 @@
         <v>1</v>
       </c>
       <c r="N11" s="13">
-        <f>SUM(K11:L11)/(N$1-M11)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O11" s="6">
         <v>31</v>
       </c>
       <c r="P11" s="18">
-        <f>J11*0.2+N11*0.25+O11*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>74.716666666666669</v>
       </c>
       <c r="Q11" s="18">
-        <f>D11*0.4+P11*0.6</f>
+        <f t="shared" si="3"/>
         <v>77.37</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
@@ -5302,7 +5343,7 @@
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="13">
-        <f>SUM(E12:H12)*50/(J$1-I12)</f>
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="K12" s="12">
@@ -5313,25 +5354,28 @@
       </c>
       <c r="M12" s="36"/>
       <c r="N12" s="13">
-        <f>SUM(K12:L12)/(N$1-M12)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="O12" s="6">
         <v>24</v>
       </c>
       <c r="P12" s="18">
-        <f>J12*0.2+N12*0.25+O12*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>69.45</v>
       </c>
       <c r="Q12" s="18">
-        <f>D12*0.4+P12*0.6</f>
+        <f t="shared" si="3"/>
         <v>77.03</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>96</v>
       </c>
@@ -5358,7 +5402,7 @@
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="13">
-        <f>SUM(E13:H13)*50/(J$1-I13)</f>
+        <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
       <c r="K13" s="12">
@@ -5369,25 +5413,28 @@
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="13">
-        <f>SUM(K13:L13)/(N$1-M13)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O13" s="6">
         <v>34</v>
       </c>
       <c r="P13" s="18">
-        <f>J13*0.2+N13*0.25+O13*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>75.45</v>
       </c>
       <c r="Q13" s="18">
-        <f>D13*0.4+P13*0.6</f>
+        <f t="shared" si="3"/>
         <v>76.563333333333333</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>93</v>
       </c>
@@ -5414,7 +5461,7 @@
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="13">
-        <f>SUM(E14:H14)*50/(J$1-I14)</f>
+        <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
       <c r="K14" s="12">
@@ -5425,25 +5472,28 @@
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="13">
-        <f>SUM(K14:L14)/(N$1-M14)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="O14" s="6">
         <v>46</v>
       </c>
       <c r="P14" s="18">
-        <f>J14*0.2+N14*0.25+O14*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>73.55</v>
       </c>
       <c r="Q14" s="18">
-        <f>D14*0.4+P14*0.6</f>
+        <f t="shared" si="3"/>
         <v>75.743333333333325</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>56</v>
       </c>
@@ -5470,7 +5520,7 @@
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="13">
-        <f>SUM(E15:H15)*50/(J$1-I15)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K15" s="12">
@@ -5481,25 +5531,28 @@
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="13">
-        <f>SUM(K15:L15)/(N$1-M15)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="O15" s="6">
         <v>75</v>
       </c>
       <c r="P15" s="18">
-        <f>J15*0.2+N15*0.25+O15*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>73.875</v>
       </c>
       <c r="Q15" s="18">
-        <f>D15*0.4+P15*0.6</f>
+        <f t="shared" si="3"/>
         <v>74.591666666666669</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>82</v>
       </c>
@@ -5526,7 +5579,7 @@
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="13">
-        <f>SUM(E16:H16)*50/(J$1-I16)</f>
+        <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
       <c r="K16" s="12">
@@ -5537,25 +5590,28 @@
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="13">
-        <f>SUM(K16:L16)/(N$1-M16)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O16" s="6">
         <v>25</v>
       </c>
       <c r="P16" s="18">
-        <f>J16*0.2+N16*0.25+O16*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
       <c r="Q16" s="18">
-        <f>D16*0.4+P16*0.6</f>
+        <f t="shared" si="3"/>
         <v>71.24666666666667</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>107</v>
       </c>
@@ -5582,7 +5638,7 @@
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="13">
-        <f>SUM(E17:H17)*50/(J$1-I17)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K17" s="12">
@@ -5593,25 +5649,28 @@
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="13">
-        <f>SUM(K17:L17)/(N$1-M17)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="O17" s="6">
         <v>23</v>
       </c>
       <c r="P17" s="18">
-        <f>J17*0.2+N17*0.25+O17*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>66.025000000000006</v>
       </c>
       <c r="Q17" s="18">
-        <f>D17*0.4+P17*0.6</f>
+        <f t="shared" si="3"/>
         <v>70.00833333333334</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>110</v>
       </c>
@@ -5638,7 +5697,7 @@
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="13">
-        <f>SUM(E18:H18)*50/(J$1-I18)</f>
+        <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
       <c r="K18" s="12">
@@ -5649,25 +5708,28 @@
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="13">
-        <f>SUM(K18:L18)/(N$1-M18)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="O18" s="6">
         <v>44</v>
       </c>
       <c r="P18" s="18">
-        <f>J18*0.2+N18*0.25+O18*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>59.45</v>
       </c>
       <c r="Q18" s="18">
-        <f>D18*0.4+P18*0.6</f>
+        <f t="shared" si="3"/>
         <v>65.77000000000001</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>105</v>
       </c>
@@ -5694,7 +5756,7 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="13">
-        <f>SUM(E19:H19)*50/(J$1-I19)</f>
+        <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
       <c r="K19" s="12">
@@ -5705,25 +5767,28 @@
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="13">
-        <f>SUM(K19:L19)/(N$1-M19)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="O19" s="6">
         <v>32</v>
       </c>
       <c r="P19" s="18">
-        <f>J19*0.2+N19*0.25+O19*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>65.349999999999994</v>
       </c>
       <c r="Q19" s="18">
-        <f>D19*0.4+P19*0.6</f>
+        <f t="shared" si="3"/>
         <v>61.50333333333333</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>51</v>
       </c>
@@ -5752,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="13">
-        <f>SUM(E20:H20)*50/(J$1-I20)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="K20" s="12">
@@ -5763,25 +5828,28 @@
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="13">
-        <f>SUM(K20:L20)/(N$1-M20)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="O20" s="6">
         <v>36</v>
       </c>
       <c r="P20" s="18">
-        <f>J20*0.2+N20*0.25+O20*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>54.63333333333334</v>
       </c>
       <c r="Q20" s="18">
-        <f>D20*0.4+P20*0.6</f>
+        <f t="shared" si="3"/>
         <v>60.910000000000004</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>61</v>
       </c>
@@ -5808,7 +5876,7 @@
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="13">
-        <f>SUM(E21:H21)*50/(J$1-I21)</f>
+        <f t="shared" si="0"/>
         <v>61.250000000000007</v>
       </c>
       <c r="K21" s="12">
@@ -5819,25 +5887,28 @@
       </c>
       <c r="M21" s="36"/>
       <c r="N21" s="13">
-        <f>SUM(K21:L21)/(N$1-M21)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="O21" s="6">
         <v>40</v>
       </c>
       <c r="P21" s="18">
-        <f>J21*0.2+N21*0.25+O21*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>55.75</v>
       </c>
       <c r="Q21" s="18">
-        <f>D21*0.4+P21*0.6</f>
+        <f t="shared" si="3"/>
         <v>60.25</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
@@ -5864,7 +5935,7 @@
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="13">
-        <f>SUM(E22:H22)*50/(J$1-I22)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="K22" s="12">
@@ -5875,25 +5946,28 @@
       </c>
       <c r="M22" s="36"/>
       <c r="N22" s="13">
-        <f>SUM(K22:L22)/(N$1-M22)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="O22" s="6">
         <v>25</v>
       </c>
       <c r="P22" s="18">
-        <f>J22*0.2+N22*0.25+O22*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>71.625</v>
       </c>
       <c r="Q22" s="18">
-        <f>D22*0.4+P22*0.6</f>
+        <f t="shared" si="3"/>
         <v>59.988333333333337</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>64</v>
       </c>
@@ -5920,7 +5994,7 @@
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="13">
-        <f>SUM(E23:H23)*50/(J$1-I23)</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="K23" s="12">
@@ -5931,25 +6005,36 @@
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="13">
-        <f>SUM(K23:L23)/(N$1-M23)</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="O23" s="6">
         <v>21</v>
       </c>
       <c r="P23" s="18">
-        <f>J23*0.2+N23*0.25+O23*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>46.174999999999997</v>
       </c>
       <c r="Q23" s="18">
-        <f>D23*0.4+P23*0.6</f>
+        <f t="shared" si="3"/>
         <v>49.678333333333335</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="18">
+        <v>78</v>
+      </c>
+      <c r="U23" s="18">
+        <f>T23+22</f>
+        <v>100</v>
+      </c>
+      <c r="V23" s="18">
+        <f>D23*0.4+U23*0.6</f>
+        <v>81.973333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
@@ -5978,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="13">
-        <f>SUM(E24:H24)*50/(J$1-I24)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="K24" s="12">
@@ -5989,25 +6074,36 @@
       </c>
       <c r="M24" s="36"/>
       <c r="N24" s="13">
-        <f>SUM(K24:L24)/(N$1-M24)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O24" s="6">
         <v>1</v>
       </c>
       <c r="P24" s="18">
-        <f>J24*0.2+N24*0.25+O24*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>27.466666666666669</v>
       </c>
       <c r="Q24" s="18">
-        <f>D24*0.4+P24*0.6</f>
+        <f t="shared" si="3"/>
         <v>42.760000000000005</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="18">
+        <v>35</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" ref="U24:U26" si="4">T24+22</f>
+        <v>57</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" ref="V24:V26" si="5">D24*0.4+U24*0.6</f>
+        <v>60.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>73</v>
       </c>
@@ -6034,7 +6130,7 @@
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="13">
-        <f>SUM(E25:H25)*50/(J$1-I25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="12">
@@ -6045,25 +6141,36 @@
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="13">
-        <f>SUM(K25:L25)/(N$1-M25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O25" s="6">
         <v>31</v>
       </c>
       <c r="P25" s="18">
-        <f>J25*0.2+N25*0.25+O25*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>31.05</v>
       </c>
       <c r="Q25" s="18">
-        <f>D25*0.4+P25*0.6</f>
+        <f t="shared" si="3"/>
         <v>34.36333333333333</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="18">
+        <v>52</v>
+      </c>
+      <c r="U25" s="18">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" si="5"/>
+        <v>60.133333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>115</v>
       </c>
@@ -6090,7 +6197,7 @@
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="13">
-        <f>SUM(E26:H26)*50/(J$1-I26)</f>
+        <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
       <c r="K26" s="12">
@@ -6101,25 +6208,36 @@
       </c>
       <c r="M26" s="36"/>
       <c r="N26" s="13">
-        <f>SUM(K26:L26)/(N$1-M26)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O26" s="6">
         <v>0</v>
       </c>
       <c r="P26" s="18">
-        <f>J26*0.2+N26*0.25+O26*0.55+14</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="Q26" s="18">
-        <f>D26*0.4+P26*0.6</f>
+        <f t="shared" si="3"/>
         <v>33.06</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="18">
+        <v>15</v>
+      </c>
+      <c r="U26" s="18">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" si="5"/>
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>123</v>
       </c>
@@ -6146,7 +6264,7 @@
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="13">
-        <f>SUM(E27:H27)*50/(J$1-I27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="12">
@@ -6157,7 +6275,7 @@
       </c>
       <c r="M27" s="36"/>
       <c r="N27" s="13">
-        <f>SUM(K27:L27)/(N$1-M27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="6">
@@ -6167,14 +6285,17 @@
         <v>0</v>
       </c>
       <c r="Q27" s="18">
-        <f>D27*0.4+P27*0.6</f>
+        <f t="shared" si="3"/>
         <v>9.6800000000000015</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+    </row>
+    <row r="28" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>85</v>
       </c>
@@ -6201,7 +6322,7 @@
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="13">
-        <f>SUM(E28:H28)*50/(J$1-I28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="12">
@@ -6212,7 +6333,7 @@
       </c>
       <c r="M28" s="36"/>
       <c r="N28" s="13">
-        <f>SUM(K28:L28)/(N$1-M28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="6">
@@ -6222,14 +6343,17 @@
         <v>0</v>
       </c>
       <c r="Q28" s="18">
-        <f>D28*0.4+P28*0.6</f>
+        <f t="shared" si="3"/>
         <v>5.7600000000000007</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>125</v>
       </c>
@@ -6256,7 +6380,7 @@
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="13">
-        <f>SUM(E29:H29)*50/(J$1-I29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="12">
@@ -6267,7 +6391,7 @@
       </c>
       <c r="M29" s="36"/>
       <c r="N29" s="13">
-        <f>SUM(K29:L29)/(N$1-M29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="6">
@@ -6277,14 +6401,17 @@
         <v>0</v>
       </c>
       <c r="Q29" s="18">
-        <f>D29*0.4+P29*0.6</f>
+        <f t="shared" si="3"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="30" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>99</v>
       </c>
@@ -6311,7 +6438,7 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="13">
-        <f>SUM(E30:H30)*50/(J$1-I30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="12">
@@ -6322,7 +6449,7 @@
       </c>
       <c r="M30" s="36"/>
       <c r="N30" s="13">
-        <f>SUM(K30:L30)/(N$1-M30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="6">
@@ -6332,14 +6459,17 @@
         <v>0</v>
       </c>
       <c r="Q30" s="18">
-        <f>D30*0.4+P30*0.6</f>
+        <f t="shared" si="3"/>
         <v>5.120000000000001</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>106</v>
       </c>
@@ -6366,7 +6496,7 @@
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="13">
-        <f>SUM(E31:H31)*50/(J$1-I31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="12">
@@ -6377,7 +6507,7 @@
       </c>
       <c r="M31" s="36"/>
       <c r="N31" s="13">
-        <f>SUM(K31:L31)/(N$1-M31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="6">
@@ -6387,14 +6517,17 @@
         <v>0</v>
       </c>
       <c r="Q31" s="18">
-        <f>D31*0.4+P31*0.6</f>
+        <f t="shared" si="3"/>
         <v>4.9600000000000009</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>4</v>
       </c>
@@ -6419,7 +6552,7 @@
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="13">
-        <f>SUM(E32:H32)*50/(J$1-I32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="12">
@@ -6430,7 +6563,7 @@
       </c>
       <c r="M32" s="36"/>
       <c r="N32" s="13">
-        <f>SUM(K32:L32)/(N$1-M32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32" s="6">
@@ -6440,14 +6573,17 @@
         <v>0</v>
       </c>
       <c r="Q32" s="18">
-        <f>D32*0.4+P32*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>67</v>
       </c>
@@ -6472,7 +6608,7 @@
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="13">
-        <f>SUM(E33:H33)*50/(J$1-I33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="12">
@@ -6483,7 +6619,7 @@
       </c>
       <c r="M33" s="36"/>
       <c r="N33" s="13">
-        <f>SUM(K33:L33)/(N$1-M33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="6">
@@ -6493,14 +6629,17 @@
         <v>0</v>
       </c>
       <c r="Q33" s="18">
-        <f>D33*0.4+P33*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+    </row>
+    <row r="34" spans="1:22" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>113</v>
       </c>
@@ -6525,7 +6664,7 @@
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="13">
-        <f>SUM(E34:H34)*50/(J$1-I34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="12">
@@ -6536,7 +6675,7 @@
       </c>
       <c r="M34" s="36"/>
       <c r="N34" s="13">
-        <f>SUM(K34:L34)/(N$1-M34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="6">
@@ -6546,14 +6685,17 @@
         <v>0</v>
       </c>
       <c r="Q34" s="18">
-        <f>D34*0.4+P34*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+    </row>
+    <row r="35" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>18</v>
       </c>
@@ -6578,7 +6720,7 @@
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="13">
-        <f>SUM(E35:H35)*50/(J$1-I35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="12">
@@ -6589,7 +6731,7 @@
       </c>
       <c r="M35" s="36"/>
       <c r="N35" s="13">
-        <f>SUM(K35:L35)/(N$1-M35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O35" s="6">
@@ -6599,14 +6741,17 @@
         <v>0</v>
       </c>
       <c r="Q35" s="18">
-        <f>D35*0.4+P35*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+    </row>
+    <row r="36" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>2</v>
       </c>
@@ -6631,7 +6776,7 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="13">
-        <f>SUM(E36:H36)*50/(J$1-I36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="12">
@@ -6642,7 +6787,7 @@
       </c>
       <c r="M36" s="36"/>
       <c r="N36" s="13">
-        <f>SUM(K36:L36)/(N$1-M36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O36" s="6">
@@ -6652,14 +6797,17 @@
         <v>0</v>
       </c>
       <c r="Q36" s="18">
-        <f>D36*0.4+P36*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+    </row>
+    <row r="37" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>12</v>
       </c>
@@ -6684,7 +6832,7 @@
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="13">
-        <f>SUM(E37:H37)*50/(J$1-I37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="12">
@@ -6695,7 +6843,7 @@
       </c>
       <c r="M37" s="36"/>
       <c r="N37" s="13">
-        <f>SUM(K37:L37)/(N$1-M37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="6">
@@ -6705,14 +6853,17 @@
         <v>0</v>
       </c>
       <c r="Q37" s="18">
-        <f>D37*0.4+P37*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+    </row>
+    <row r="38" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>117</v>
       </c>
@@ -6737,7 +6888,7 @@
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="13">
-        <f>SUM(E38:H38)*50/(J$1-I38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="12">
@@ -6748,7 +6899,7 @@
       </c>
       <c r="M38" s="36"/>
       <c r="N38" s="13">
-        <f>SUM(K38:L38)/(N$1-M38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="6">
@@ -6758,14 +6909,17 @@
         <v>0</v>
       </c>
       <c r="Q38" s="18">
-        <f>D38*0.4+P38*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+    </row>
+    <row r="39" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>9</v>
       </c>
@@ -6790,7 +6944,7 @@
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="13">
-        <f>SUM(E39:H39)*50/(J$1-I39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="12">
@@ -6801,7 +6955,7 @@
       </c>
       <c r="M39" s="36"/>
       <c r="N39" s="13">
-        <f>SUM(K39:L39)/(N$1-M39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O39" s="6">
@@ -6811,14 +6965,17 @@
         <v>0</v>
       </c>
       <c r="Q39" s="18">
-        <f>D39*0.4+P39*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+    </row>
+    <row r="40" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>22</v>
       </c>
@@ -6843,7 +7000,7 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="13">
-        <f>SUM(E40:H40)*50/(J$1-I40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="12">
@@ -6854,7 +7011,7 @@
       </c>
       <c r="M40" s="36"/>
       <c r="N40" s="13">
-        <f>SUM(K40:L40)/(N$1-M40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="6">
@@ -6864,14 +7021,17 @@
         <v>0</v>
       </c>
       <c r="Q40" s="18">
-        <f>D40*0.4+P40*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+    </row>
+    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>59</v>
       </c>
@@ -6896,7 +7056,7 @@
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="13">
-        <f>SUM(E41:H41)*50/(J$1-I41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="12">
@@ -6907,7 +7067,7 @@
       </c>
       <c r="M41" s="36"/>
       <c r="N41" s="13">
-        <f>SUM(K41:L41)/(N$1-M41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O41" s="6">
@@ -6917,14 +7077,17 @@
         <v>0</v>
       </c>
       <c r="Q41" s="18">
-        <f>D41*0.4+P41*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+    </row>
+    <row r="42" spans="1:22" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>70</v>
       </c>
@@ -6949,7 +7112,7 @@
       </c>
       <c r="I42" s="36"/>
       <c r="J42" s="13">
-        <f>SUM(E42:H42)*50/(J$1-I42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="12">
@@ -6960,7 +7123,7 @@
       </c>
       <c r="M42" s="36"/>
       <c r="N42" s="13">
-        <f>SUM(K42:L42)/(N$1-M42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O42" s="6">
@@ -6970,14 +7133,17 @@
         <v>0</v>
       </c>
       <c r="Q42" s="18">
-        <f>D42*0.4+P42*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+    </row>
+    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6993,7 +7159,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -7009,7 +7175,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -7025,7 +7191,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -7041,7 +7207,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -7057,7 +7223,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7605,24 +7771,27 @@
   <sortState ref="A3:R42">
     <sortCondition descending="1" ref="Q3"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H42">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J42">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7636,7 +7805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N42">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7650,7 +7819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P42">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7664,24 +7833,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L42">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q42">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7695,7 +7864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D42">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7709,7 +7878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7723,22 +7892,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O42">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FBFD3138-A411-4617-8521-8BAF80CABA15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:U42">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D297A08-03A7-4397-8AF4-BE5C27B10917}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V42">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7747,7 +7944,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FBFD3138-A411-4617-8521-8BAF80CABA15}</x14:id>
+          <x14:id>{FEA06955-EE07-432E-BCEF-CBD74AEA7127}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7837,6 +8034,28 @@
           </x14:cfRule>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D297A08-03A7-4397-8AF4-BE5C27B10917}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T3:U42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FEA06955-EE07-432E-BCEF-CBD74AEA7127}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V3:V42</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -3128,7 +3128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="31"/>
@@ -3286,12 +3286,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="42"/>
       <c r="M3" s="14">
         <f t="shared" ref="M3:M30" si="0">SUM(E3:K3)*50/(A$1-L3)</f>
-        <v>50</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="14">
@@ -3301,11 +3301,11 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="18">
         <f t="shared" ref="Q3:Q30" si="2">MIN(100,M3*(0.2+0.25)+O3*(0.25+0.1)+P3*(0.55+0.15))</f>
-        <v>22.5</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="R3" s="18">
         <f t="shared" ref="R3:R30" si="3">ROUND(D3,2)*0.4+Q3*0.6</f>
-        <v>53.5</v>
+        <v>55.428571428571431</v>
       </c>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -3342,12 +3342,12 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="42"/>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>60.833333333333336</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="14">
@@ -3357,11 +3357,11 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="18">
         <f t="shared" si="2"/>
-        <v>27.375</v>
+        <v>29.892857142857146</v>
       </c>
       <c r="R4" s="18">
         <f t="shared" si="3"/>
-        <v>55.021000000000001</v>
+        <v>56.531714285714287</v>
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
@@ -3398,12 +3398,12 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="14">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="14">
@@ -3413,11 +3413,11 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="18">
         <f t="shared" si="2"/>
-        <v>7.5000000000000009</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="R5" s="18">
         <f t="shared" si="3"/>
-        <v>38.580000000000005</v>
+        <v>41.794285714285721</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
@@ -3459,7 +3459,7 @@
       <c r="L6" s="42"/>
       <c r="M6" s="14">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="14">
@@ -3469,11 +3469,11 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="18">
         <f t="shared" si="2"/>
-        <v>15.000000000000002</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="R6" s="18">
         <f t="shared" si="3"/>
-        <v>42.760000000000005</v>
+        <v>41.47428571428572</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
@@ -3571,7 +3571,7 @@
       <c r="L8" s="42"/>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="14">
@@ -3581,11 +3581,11 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="18">
         <f t="shared" si="2"/>
-        <v>3.7500000000000004</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="R8" s="18">
         <f t="shared" si="3"/>
-        <v>33.33</v>
+        <v>33.008571428571429</v>
       </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
@@ -3622,12 +3622,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="14">
@@ -3637,11 +3637,11 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="18">
         <f t="shared" si="2"/>
-        <v>11.25</v>
+        <v>15.107142857142856</v>
       </c>
       <c r="R9" s="18">
         <f t="shared" si="3"/>
-        <v>33.67</v>
+        <v>35.984285714285718</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
@@ -3683,7 +3683,7 @@
       <c r="L10" s="42"/>
       <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="14">
@@ -3693,11 +3693,11 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="18">
         <f t="shared" si="2"/>
-        <v>18.75</v>
+        <v>16.071428571428573</v>
       </c>
       <c r="R10" s="18">
         <f t="shared" si="3"/>
-        <v>37.85</v>
+        <v>36.242857142857147</v>
       </c>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
@@ -3795,7 +3795,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="14">
@@ -3805,11 +3805,11 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="18">
         <f t="shared" si="2"/>
-        <v>3.7500000000000004</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="R12" s="18">
         <f t="shared" si="3"/>
-        <v>23.69</v>
+        <v>23.368571428571428</v>
       </c>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
@@ -4070,12 +4070,12 @@
         <v>2</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>56.428571428571431</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="14">
@@ -4085,11 +4085,11 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="18">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>25.392857142857146</v>
       </c>
       <c r="R17" s="18">
         <f t="shared" si="3"/>
-        <v>26.923999999999999</v>
+        <v>28.659714285714287</v>
       </c>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
@@ -4187,7 +4187,7 @@
       <c r="L19" s="42"/>
       <c r="M19" s="14">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="14">
@@ -4197,11 +4197,11 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="18">
         <f t="shared" si="2"/>
-        <v>7.5000000000000009</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="R19" s="18">
         <f t="shared" si="3"/>
-        <v>5.2519999999999998</v>
+        <v>4.6091428571428574</v>
       </c>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Adı</t>
   </si>
@@ -113,18 +113,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>DEVAM DURUMU 
-(%20+%25 bonus)</t>
-  </si>
-  <si>
-    <t>ODEV 
-(%25+%10 bonus)</t>
-  </si>
-  <si>
-    <t>PROJE
-(%55+%15 bonus)</t>
   </si>
   <si>
     <t>BÜT PROJESİ</t>
@@ -237,6 +225,21 @@
   <si>
     <t>FURKAN BERAT</t>
   </si>
+  <si>
+    <t>ODEV 
+(yok)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU 
+(%40)</t>
+  </si>
+  <si>
+    <t>FINAL SINAVI
+(%60 + 13puan)</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -469,49 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -620,19 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -693,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -713,19 +660,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,31 +684,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -805,16 +745,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -834,13 +773,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,10 +791,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1309,7 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" style="1" customWidth="1"/>
@@ -1381,80 +1320,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="40">
+      <c r="A1" s="24"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="33">
         <v>4</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="16" t="s">
+      <c r="K1" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>21</v>
+      <c r="A2" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>2</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="21">
         <v>3</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="21">
         <v>4</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="37">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
@@ -1468,38 +1407,38 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="38">
         <v>2</v>
       </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="35">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J27" si="0">SUM(D3:H3)*50/(J$1-I3)</f>
         <v>125</v>
       </c>
       <c r="K3" s="6">
         <v>86</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="35">
         <v>14</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="32">
         <f t="shared" ref="M3:M19" si="1">K3+L3</f>
         <v>100</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <f t="shared" ref="N3:N19" si="2">MIN(100,J3*0.3+M3*0.7+M3*0.1)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -1513,33 +1452,33 @@
       <c r="G4" s="7">
         <v>1.5</v>
       </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>65.625</v>
       </c>
       <c r="K4" s="6">
         <v>82</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="35">
         <v>14</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="32">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f t="shared" si="2"/>
         <v>96.487499999999983</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1560,27 +1499,27 @@
       <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="38">
         <v>2</v>
       </c>
-      <c r="I5" s="42">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K5" s="6">
         <v>55</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="35">
         <v>14</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <f t="shared" si="2"/>
         <v>85.2</v>
       </c>
@@ -1589,12 +1528,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1608,38 +1547,38 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="38">
         <v>2</v>
       </c>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K6" s="6">
         <v>54</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="35">
         <v>14</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="32">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f t="shared" si="2"/>
         <v>84.399999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -1653,38 +1592,38 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="38">
         <v>2</v>
       </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K7" s="6">
         <v>59</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="35">
         <v>14</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f t="shared" si="2"/>
         <v>80.899999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -1698,38 +1637,38 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="38">
         <v>2</v>
       </c>
-      <c r="I8" s="42">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K8" s="6">
         <v>55</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="35">
         <v>14</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f t="shared" si="2"/>
         <v>77.7</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="12">
         <v>2</v>
@@ -1743,38 +1682,38 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K9" s="6">
         <v>42</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="35">
         <v>14</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="32">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f t="shared" si="2"/>
         <v>67.3</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -1788,38 +1727,38 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="38">
         <v>2</v>
       </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K10" s="6">
         <v>41</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="35">
         <v>14</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="32">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -1833,38 +1772,38 @@
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="38">
         <v>2</v>
       </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="K11" s="6">
         <v>48</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="35">
         <v>14</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="32">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <f t="shared" si="2"/>
         <v>60.85</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -1881,35 +1820,35 @@
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="42">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="6">
         <v>53</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="35">
         <v>14</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="32">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f t="shared" si="2"/>
         <v>53.6</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -1926,35 +1865,35 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="6">
         <v>33</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="35">
         <v>14</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="32">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <f t="shared" si="2"/>
         <v>37.6</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -1971,35 +1910,35 @@
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="35">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>29</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="35">
         <v>14</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="32">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2016,35 +1955,35 @@
       <c r="H15" s="12">
         <v>0</v>
       </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="6">
         <v>24</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="35">
         <v>14</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="32">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <f t="shared" si="2"/>
         <v>30.4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="41" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:15" s="34" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -2061,36 +2000,36 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="6">
         <v>13</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="35">
         <v>14</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="32">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <f t="shared" si="2"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="O16" s="58"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2104,43 +2043,43 @@
       <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="48">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>71.875</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="35">
         <v>14</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <f t="shared" si="2"/>
         <v>33.5625</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="41">
         <v>0</v>
       </c>
       <c r="F18" s="12">
@@ -2149,34 +2088,34 @@
       <c r="G18" s="12">
         <v>2</v>
       </c>
-      <c r="H18" s="48">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="39">
+      <c r="L18" s="35"/>
+      <c r="M18" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2190,220 +2129,220 @@
       <c r="G19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="48">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="39">
+      <c r="L19" s="35"/>
+      <c r="M19" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <f t="shared" si="2"/>
         <v>1.875</v>
       </c>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54">
-        <v>0</v>
-      </c>
-      <c r="J20" s="55">
+    <row r="20" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47">
+        <v>0</v>
+      </c>
+      <c r="J20" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="18">
+      <c r="K20" s="63"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="17">
         <f t="shared" ref="N20:N27" si="3">J20*0.3+L20*0.7+M20*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54">
-        <v>0</v>
-      </c>
-      <c r="J21" s="55">
+    <row r="21" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="18">
+      <c r="K21" s="63"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55">
+    <row r="22" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47">
+        <v>0</v>
+      </c>
+      <c r="J22" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="18">
+      <c r="K22" s="63"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55">
+    <row r="23" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47">
+        <v>0</v>
+      </c>
+      <c r="J23" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="18">
+      <c r="K23" s="63"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55">
+    <row r="24" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47">
+        <v>0</v>
+      </c>
+      <c r="J24" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="18">
+      <c r="K24" s="63"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54">
-        <v>0</v>
-      </c>
-      <c r="J25" s="55">
+    <row r="25" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47">
+        <v>0</v>
+      </c>
+      <c r="J25" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="18">
+      <c r="K25" s="63"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54">
-        <v>0</v>
-      </c>
-      <c r="J26" s="55">
+    <row r="26" spans="1:15" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47">
+        <v>0</v>
+      </c>
+      <c r="J26" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="18">
+      <c r="K26" s="63"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="59" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55">
+    <row r="27" spans="1:15" s="52" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="18">
+      <c r="K27" s="63"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="58"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -2413,7 +2352,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="46"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2426,7 +2365,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2439,7 +2378,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2452,7 +2391,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="46"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2465,7 +2404,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="46"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2478,7 +2417,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="46"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2491,7 +2430,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="46"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2504,7 +2443,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="46"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2517,7 +2456,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="46"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2530,7 +2469,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="46"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2543,7 +2482,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="46"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2556,7 +2495,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="46"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2569,7 +2508,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="46"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2582,7 +2521,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="46"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -2595,7 +2534,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="46"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -2608,7 +2547,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="46"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -2621,7 +2560,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="46"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -2634,7 +2573,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="46"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2647,7 +2586,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="46"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2660,7 +2599,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="46"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2673,7 +2612,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="46"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2686,7 +2625,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="46"/>
+      <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2699,7 +2638,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="46"/>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2712,7 +2651,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="46"/>
+      <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2725,7 +2664,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="46"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2738,7 +2677,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="46"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2751,7 +2690,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="46"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -2764,7 +2703,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="46"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -2777,7 +2716,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="46"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2790,7 +2729,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="46"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -2803,7 +2742,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="46"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2816,7 +2755,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="46"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -2829,7 +2768,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="46"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -2842,7 +2781,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="46"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -2855,7 +2794,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="46"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2868,7 +2807,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="46"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -2881,7 +2820,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="46"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -2894,7 +2833,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="46"/>
+      <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -2907,7 +2846,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="46"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -2920,7 +2859,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="46"/>
+      <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -2933,7 +2872,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="46"/>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -2946,7 +2885,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="46"/>
+      <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -2959,7 +2898,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="46"/>
+      <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2972,7 +2911,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="46"/>
+      <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -2985,7 +2924,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="46"/>
+      <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2998,7 +2937,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="46"/>
+      <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -3124,11 +3063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3075,7 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="57" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.44140625" style="2" customWidth="1"/>
@@ -3147,127 +3086,127 @@
     <col min="15" max="15" width="4.77734375" style="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="5.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" style="69" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" style="61" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="1"/>
     <col min="21" max="23" width="5.77734375" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="71"/>
+      <c r="P1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="59"/>
+      <c r="U1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78" t="s">
+      <c r="V1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="30" t="s">
+      <c r="W1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="28">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21">
+        <v>8</v>
+      </c>
+      <c r="H2" s="21">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21">
+        <v>10</v>
+      </c>
+      <c r="J2" s="21">
         <v>11</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="K2" s="21">
         <v>12</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="U1" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="80" t="s">
+      <c r="L2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="60"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+    </row>
+    <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="34">
-        <v>6</v>
-      </c>
-      <c r="F2" s="24">
-        <v>7</v>
-      </c>
-      <c r="G2" s="24">
-        <v>8</v>
-      </c>
-      <c r="H2" s="24">
-        <v>9</v>
-      </c>
-      <c r="I2" s="24">
-        <v>10</v>
-      </c>
-      <c r="J2" s="24">
-        <v>11</v>
-      </c>
-      <c r="K2" s="24">
-        <v>12</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="24">
-        <v>1</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="68"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-    </row>
-    <row r="3" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="62">
+        <v>35</v>
+      </c>
+      <c r="D3" s="55">
         <f>Vize!N3</f>
         <v>100</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="29">
         <v>0</v>
       </c>
       <c r="F3" s="7">
@@ -3288,42 +3227,44 @@
       <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3:M30" si="0">SUM(E3:K3)*50/(A$1-L3)</f>
+      <c r="L3" s="35"/>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M19" si="0">SUM(E3:K3)*50/(A$1-L3)</f>
         <v>57.142857142857146</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="14">
-        <f t="shared" ref="O3:O30" si="1">N3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="18">
-        <f t="shared" ref="Q3:Q30" si="2">MIN(100,M3*(0.2+0.25)+O3*(0.25+0.1)+P3*(0.55+0.15))</f>
-        <v>25.714285714285715</v>
-      </c>
-      <c r="R3" s="18">
-        <f t="shared" ref="R3:R30" si="3">ROUND(D3,2)*0.4+Q3*0.6</f>
-        <v>55.428571428571431</v>
-      </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="O3" s="13">
+        <f t="shared" ref="O3:O19" si="1">N3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="17">
+        <f>MIN(100,M3*(0.4+0.1)+O3*(0)+(P3+13)*(0.6+0.15))</f>
+        <v>92.321428571428569</v>
+      </c>
+      <c r="R3" s="17">
+        <f t="shared" ref="R3:R19" si="2">ROUND(D3,2)*0.4+Q3*0.6</f>
+        <v>95.392857142857139</v>
+      </c>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="62">
+        <v>25</v>
+      </c>
+      <c r="D4" s="55">
         <f>Vize!N4</f>
         <v>96.487499999999983</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="29">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -3344,42 +3285,44 @@
       <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="14">
+      <c r="L4" s="35"/>
+      <c r="M4" s="13">
         <f t="shared" si="0"/>
         <v>66.428571428571431</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="18">
+      <c r="P4" s="6">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" ref="Q4:Q19" si="3">MIN(100,M4*(0.4+0.1)+O4*(0)+(P4+13)*(0.6+0.15))</f>
+        <v>100</v>
+      </c>
+      <c r="R4" s="17">
         <f t="shared" si="2"/>
-        <v>29.892857142857146</v>
-      </c>
-      <c r="R4" s="18">
-        <f t="shared" si="3"/>
-        <v>56.531714285714287</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+        <v>98.596000000000004</v>
+      </c>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="55">
         <f>Vize!N5</f>
         <v>85.2</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="29">
         <v>0</v>
       </c>
       <c r="F5" s="7">
@@ -3400,42 +3343,44 @@
       <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="14">
+      <c r="L5" s="35"/>
+      <c r="M5" s="13">
         <f t="shared" si="0"/>
         <v>28.571428571428573</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="18">
+      <c r="P5" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="3"/>
+        <v>48.035714285714285</v>
+      </c>
+      <c r="R5" s="17">
         <f t="shared" si="2"/>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="R5" s="18">
-        <f t="shared" si="3"/>
-        <v>41.794285714285721</v>
-      </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+        <v>62.901428571428575</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="62">
+        <v>27</v>
+      </c>
+      <c r="D6" s="55">
         <f>Vize!N6</f>
         <v>84.399999999999991</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="29">
         <v>0</v>
       </c>
       <c r="F6" s="7">
@@ -3456,42 +3401,44 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="14">
+      <c r="L6" s="35"/>
+      <c r="M6" s="13">
         <f t="shared" si="0"/>
         <v>28.571428571428573</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="18">
+      <c r="P6" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="3"/>
+        <v>55.535714285714285</v>
+      </c>
+      <c r="R6" s="17">
         <f t="shared" si="2"/>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="R6" s="18">
-        <f t="shared" si="3"/>
-        <v>41.47428571428572</v>
-      </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+        <v>67.081428571428575</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="62">
+        <v>32</v>
+      </c>
+      <c r="D7" s="55">
         <f>Vize!N7</f>
         <v>80.899999999999991</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="29">
         <v>0</v>
       </c>
       <c r="F7" s="7">
@@ -3512,42 +3459,44 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="14">
+      <c r="L7" s="35"/>
+      <c r="M7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="18">
+      <c r="P7" s="6">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="3"/>
+        <v>38.25</v>
+      </c>
+      <c r="R7" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <f t="shared" si="3"/>
-        <v>32.360000000000007</v>
-      </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+        <v>55.31</v>
+      </c>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="62">
+        <v>30</v>
+      </c>
+      <c r="D8" s="55">
         <f>Vize!N8</f>
         <v>77.7</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="29">
         <v>0</v>
       </c>
       <c r="F8" s="7">
@@ -3568,42 +3517,44 @@
       <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="14">
+      <c r="L8" s="35"/>
+      <c r="M8" s="13">
         <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="18">
+      <c r="P8" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="3"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="R8" s="17">
         <f t="shared" si="2"/>
-        <v>3.2142857142857144</v>
-      </c>
-      <c r="R8" s="18">
-        <f t="shared" si="3"/>
-        <v>33.008571428571429</v>
-      </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+        <v>53.022857142857141</v>
+      </c>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="62">
+        <v>50</v>
+      </c>
+      <c r="D9" s="55">
         <f>Vize!N9</f>
         <v>67.3</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="29">
         <v>0</v>
       </c>
       <c r="F9" s="7">
@@ -3624,42 +3575,44 @@
       <c r="K9" s="7">
         <v>1.7</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="14">
+      <c r="L9" s="35"/>
+      <c r="M9" s="13">
         <f t="shared" si="0"/>
         <v>33.571428571428569</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="18">
+      <c r="P9" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="3"/>
+        <v>56.535714285714285</v>
+      </c>
+      <c r="R9" s="17">
         <f t="shared" si="2"/>
-        <v>15.107142857142856</v>
-      </c>
-      <c r="R9" s="18">
-        <f t="shared" si="3"/>
-        <v>35.984285714285718</v>
-      </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+        <v>60.841428571428573</v>
+      </c>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="62">
+        <v>29</v>
+      </c>
+      <c r="D10" s="55">
         <f>Vize!N10</f>
         <v>66.5</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="29">
         <v>0</v>
       </c>
       <c r="F10" s="7">
@@ -3680,42 +3633,44 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="14">
+      <c r="L10" s="35"/>
+      <c r="M10" s="13">
         <f t="shared" si="0"/>
         <v>35.714285714285715</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="18">
+      <c r="P10" s="6">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="3"/>
+        <v>58.357142857142861</v>
+      </c>
+      <c r="R10" s="17">
         <f t="shared" si="2"/>
-        <v>16.071428571428573</v>
-      </c>
-      <c r="R10" s="18">
-        <f t="shared" si="3"/>
-        <v>36.242857142857147</v>
-      </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+        <v>61.614285714285714</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="62">
+        <v>23</v>
+      </c>
+      <c r="D11" s="55">
         <f>Vize!N11</f>
         <v>60.85</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="29">
         <v>0</v>
       </c>
       <c r="F11" s="7">
@@ -3736,42 +3691,43 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="14">
+      <c r="L11" s="35"/>
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="18">
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <f t="shared" si="3"/>
         <v>24.340000000000003</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
     </row>
     <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="62">
+        <v>45</v>
+      </c>
+      <c r="D12" s="55">
         <f>Vize!N12</f>
         <v>53.6</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="29">
         <v>0</v>
       </c>
       <c r="F12" s="7">
@@ -3792,45 +3748,47 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="14">
+      <c r="L12" s="35"/>
+      <c r="M12" s="13">
         <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="18">
+      <c r="P12" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="3"/>
+        <v>30.571428571428573</v>
+      </c>
+      <c r="R12" s="17">
         <f t="shared" si="2"/>
-        <v>3.2142857142857144</v>
-      </c>
-      <c r="R12" s="18">
-        <f t="shared" si="3"/>
-        <v>23.368571428571428</v>
-      </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+        <v>39.782857142857139</v>
+      </c>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="62">
+        <v>42</v>
+      </c>
+      <c r="D13" s="55">
         <f>Vize!N13</f>
         <v>37.6</v>
       </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
         <v>0</v>
       </c>
       <c r="G13" s="7">
@@ -3848,42 +3806,44 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="14">
+      <c r="L13" s="35"/>
+      <c r="M13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="18">
+      <c r="P13" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="3"/>
+        <v>12.75</v>
+      </c>
+      <c r="R13" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="18">
-        <f t="shared" si="3"/>
-        <v>15.040000000000001</v>
-      </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+        <v>22.69</v>
+      </c>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
     </row>
     <row r="14" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="62">
+        <v>39</v>
+      </c>
+      <c r="D14" s="55">
         <f>Vize!N14</f>
         <v>34.4</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="29">
         <v>0</v>
       </c>
       <c r="F14" s="7">
@@ -3904,42 +3864,44 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="14">
+      <c r="L14" s="35"/>
+      <c r="M14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="18">
+      <c r="P14" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="R14" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <f t="shared" si="3"/>
-        <v>13.76</v>
-      </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
+        <v>33.56</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="62">
+        <v>40</v>
+      </c>
+      <c r="D15" s="55">
         <f>Vize!N15</f>
         <v>30.4</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="29">
         <v>0</v>
       </c>
       <c r="F15" s="7">
@@ -3960,42 +3922,43 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="14">
+      <c r="L15" s="35"/>
+      <c r="M15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="18">
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="18">
-        <f t="shared" si="3"/>
         <v>12.16</v>
       </c>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="62">
+        <v>47</v>
+      </c>
+      <c r="D16" s="55">
         <f>Vize!N16</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="29">
         <v>0</v>
       </c>
       <c r="F16" s="7">
@@ -4016,42 +3979,44 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="14">
+      <c r="L16" s="35"/>
+      <c r="M16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="18">
+      <c r="P16" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="R16" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="18">
-        <f t="shared" si="3"/>
-        <v>8.64</v>
-      </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
+        <v>16.740000000000002</v>
+      </c>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="62">
+        <v>21</v>
+      </c>
+      <c r="D17" s="55">
         <f>Vize!N17</f>
         <v>33.5625</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="29">
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -4072,42 +4037,44 @@
       <c r="K17" s="7">
         <v>1.9</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="14">
+      <c r="L17" s="35"/>
+      <c r="M17" s="13">
         <f t="shared" si="0"/>
         <v>56.428571428571431</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="18">
+      <c r="P17" s="6">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="3"/>
+        <v>82.964285714285722</v>
+      </c>
+      <c r="R17" s="17">
         <f t="shared" si="2"/>
-        <v>25.392857142857146</v>
-      </c>
-      <c r="R17" s="18">
-        <f t="shared" si="3"/>
-        <v>28.659714285714287</v>
-      </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
+        <v>63.202571428571432</v>
+      </c>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="62">
+        <v>37</v>
+      </c>
+      <c r="D18" s="55">
         <f>Vize!N18</f>
         <v>7.5</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="29">
         <v>0</v>
       </c>
       <c r="F18" s="7">
@@ -4128,42 +4095,43 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="14">
+      <c r="L18" s="35"/>
+      <c r="M18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="18">
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="18">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="62">
+        <v>34</v>
+      </c>
+      <c r="D19" s="55">
         <f>Vize!N19</f>
         <v>1.875</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="29">
         <v>0</v>
       </c>
       <c r="F19" s="7">
@@ -4184,488 +4152,336 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="14">
+      <c r="L19" s="35"/>
+      <c r="M19" s="13">
         <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="18">
+      <c r="P19" s="6">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="3"/>
+        <v>53.642857142857146</v>
+      </c>
+      <c r="R19" s="17">
         <f t="shared" si="2"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="R19" s="18">
-        <f t="shared" si="3"/>
-        <v>4.6091428571428574</v>
-      </c>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
+        <v>32.937714285714286</v>
+      </c>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O20" s="13"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O21" s="13"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="35"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O22" s="13"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O23" s="13"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="35"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O24" s="13"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="35"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="12"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L25" s="35"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O25" s="13"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="35"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O26" s="13"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
     </row>
     <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="35"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O27" s="13"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
     </row>
     <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="35"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L28" s="35"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O28" s="13"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
     </row>
     <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="35"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O29" s="13"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
     </row>
     <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="35"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O30" s="13"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="1:23" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="S31" s="62"/>
     </row>
     <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="63"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -4673,14 +4489,15 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="S34" s="70"/>
-    </row>
-    <row r="35" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="63"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4692,11 +4509,11 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="63"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4708,11 +4525,11 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="63"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4724,11 +4541,11 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="63"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4740,11 +4557,11 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="63"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4756,11 +4573,11 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="63"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4772,11 +4589,11 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="63"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4788,11 +4605,11 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="63"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4804,11 +4621,11 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="63"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4820,11 +4637,11 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="63"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4836,11 +4653,11 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="63"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4852,11 +4669,11 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="63"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -4868,11 +4685,11 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="63"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4884,11 +4701,11 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="63"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -4904,7 +4721,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="63"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4920,7 +4737,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -4936,7 +4753,7 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="63"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4952,7 +4769,7 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="63"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -4968,7 +4785,7 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="63"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4984,7 +4801,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="63"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5000,7 +4817,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="63"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5016,7 +4833,7 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="63"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5032,7 +4849,7 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="63"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5048,7 +4865,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="63"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5064,7 +4881,7 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="63"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5080,7 +4897,7 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="63"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5096,7 +4913,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="63"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5112,7 +4929,7 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="63"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -5128,7 +4945,7 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="63"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -5144,7 +4961,7 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="63"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -5160,7 +4977,7 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="63"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -5176,7 +4993,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="63"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -5192,7 +5009,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="63"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5208,7 +5025,7 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="63"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -5224,7 +5041,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="63"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5240,7 +5057,7 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="63"/>
+      <c r="D70" s="56"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5256,7 +5073,7 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="63"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -5272,7 +5089,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="63"/>
+      <c r="D72" s="56"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -5288,7 +5105,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="63"/>
+      <c r="D73" s="56"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -5304,7 +5121,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="63"/>
+      <c r="D74" s="56"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -5320,7 +5137,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="63"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -5336,7 +5153,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="63"/>
+      <c r="D76" s="56"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -5352,7 +5169,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="63"/>
+      <c r="D77" s="56"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -5368,7 +5185,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="63"/>
+      <c r="D78" s="56"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -5379,54 +5196,6 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-    </row>
-    <row r="79" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-    </row>
-    <row r="81" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:S30">
@@ -5439,7 +5208,7 @@
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E31:L33 E3:K30">
+  <conditionalFormatting sqref="E3:K30">
     <cfRule type="cellIs" dxfId="10" priority="29" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
@@ -5451,49 +5220,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M33">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F325F88-05E0-41BA-AA33-7B854FBE8033}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O33">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22C9DC09-E768-4CCB-8C68-41B5A3538743}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N33">
+  <conditionalFormatting sqref="N3:N30">
     <cfRule type="cellIs" dxfId="7" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -5510,34 +5237,6 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R33">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2008DEFA-B118-4E92-B0F8-C5059B874A32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D33">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D7">
     <cfRule type="dataBar" priority="9">
       <dataBar>
@@ -5552,7 +5251,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P33">
+  <conditionalFormatting sqref="P3:P30">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -5582,8 +5281,78 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U33">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="M3:M30">
+    <cfRule type="dataBar" priority="348">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F325F88-05E0-41BA-AA33-7B854FBE8033}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O30">
+    <cfRule type="dataBar" priority="349">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22C9DC09-E768-4CCB-8C68-41B5A3538743}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q30">
+    <cfRule type="dataBar" priority="350">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R30">
+    <cfRule type="dataBar" priority="351">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2008DEFA-B118-4E92-B0F8-C5059B874A32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D30">
+    <cfRule type="dataBar" priority="352">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U30">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5596,8 +5365,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V33">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="V3:V30">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5610,8 +5379,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W33">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="W3:W30">
+    <cfRule type="dataBar" priority="355">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5630,61 +5399,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M3:M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O3:O33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q3:Q33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>R3:R33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D33</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -5710,6 +5424,61 @@
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O3:O30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q3:Q30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R3:R30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BF843C8A-B269-4D72-852C-A7007E8E7593}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -5718,7 +5487,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U33</xm:sqref>
+          <xm:sqref>U3:U30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}">
@@ -5729,7 +5498,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V33</xm:sqref>
+          <xm:sqref>V3:V30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}">
@@ -5740,7 +5509,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>W3:W33</xm:sqref>
+          <xm:sqref>W3:W30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Öğrenci No</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>Adı Soyadı</t>
+  </si>
+  <si>
+    <t>ZEYNEP SELİK</t>
+  </si>
+  <si>
+    <t>MURAT CEMAL AYGÜN</t>
+  </si>
+  <si>
+    <t>BUKET CAN</t>
+  </si>
+  <si>
+    <t>ARDA DEMİRTAŞ</t>
+  </si>
+  <si>
+    <t>MUHAMMED EMİN KAPTAN</t>
+  </si>
+  <si>
+    <t>MELİKE KARATAŞ</t>
+  </si>
+  <si>
+    <t>ÇAĞATAY MERCAN</t>
+  </si>
+  <si>
+    <t>EFKAN İDRİS CANDIR</t>
   </si>
 </sst>
 </file>
@@ -511,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -627,6 +651,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1155,53 +1186,54 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="11" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="29">
         <v>1</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
@@ -1229,23 +1261,28 @@
       <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1255,23 +1292,28 @@
       </c>
       <c r="I3" s="12">
         <f t="shared" ref="I3:I27" si="0">SUM(C3:G3)*50/(I$1-H3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="28">
-        <f t="shared" ref="L3:L19" si="1">J3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <f t="shared" ref="M3:M19" si="2">MIN(100,I3*0.3+L3*0.7+L3*0.1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28">
+        <f t="shared" ref="M3:M19" si="1">K3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N19" si="2">MIN(100,I3*0.3+M3*0.7+M3*0.1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1281,23 +1323,28 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="28">
+        <v>100</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="16">
+      <c r="N4" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1307,26 +1354,31 @@
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="28">
+        <v>100</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="16">
+      <c r="N5" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1336,23 +1388,28 @@
       </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="28">
+        <v>100</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="16">
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1362,23 +1419,28 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="28">
+        <v>100</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="16">
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1388,23 +1450,28 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="28">
+        <v>100</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="16">
+      <c r="N8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1414,23 +1481,28 @@
       </c>
       <c r="I9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="28">
+        <v>50</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="16">
+      <c r="N9" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1440,20 +1512,21 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="28">
+        <v>25</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="16">
+      <c r="N10" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="11"/>
@@ -1468,18 +1541,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="28">
+      <c r="J11" s="61"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="16">
+      <c r="N11" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="C12" s="11"/>
@@ -1494,18 +1568,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="28">
+      <c r="J12" s="61"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="16">
+      <c r="N12" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="3"/>
       <c r="C13" s="11"/>
@@ -1520,18 +1595,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="28">
+      <c r="J13" s="61"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="16">
+      <c r="N13" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="3"/>
       <c r="C14" s="11"/>
@@ -1546,18 +1622,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="28">
+      <c r="J14" s="61"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="16">
+      <c r="N14" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
       <c r="C15" s="11"/>
@@ -1572,18 +1649,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="28">
+      <c r="J15" s="61"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="16">
+      <c r="N15" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="30" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="30" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -1598,19 +1676,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="28">
+      <c r="J16" s="61"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="16">
+      <c r="N16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="46"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="46"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
@@ -1625,18 +1704,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="28">
+      <c r="J17" s="61"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="16">
+      <c r="N17" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
       <c r="C18" s="11"/>
@@ -1651,18 +1731,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="28">
+      <c r="J18" s="61"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="16">
+      <c r="N18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="11"/>
@@ -1677,21 +1758,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="28">
+      <c r="J19" s="61"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="16">
+      <c r="N19" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -1705,16 +1787,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="58"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="16">
-        <f t="shared" ref="M20:M27" si="3">I20*0.3+K20*0.7+L20*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="58"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20:N27" si="3">I20*0.3+L20*0.7+M20*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -1728,14 +1811,15 @@
         <v>0</v>
       </c>
       <c r="J21" s="58"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="16">
+      <c r="K21" s="58"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
@@ -1751,14 +1835,15 @@
         <v>0</v>
       </c>
       <c r="J22" s="58"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="16">
+      <c r="K22" s="58"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="40"/>
@@ -1774,14 +1859,15 @@
         <v>0</v>
       </c>
       <c r="J23" s="58"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="16">
+      <c r="K23" s="58"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="40"/>
@@ -1797,14 +1883,15 @@
         <v>0</v>
       </c>
       <c r="J24" s="58"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="16">
+      <c r="K24" s="58"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="40"/>
@@ -1820,14 +1907,15 @@
         <v>0</v>
       </c>
       <c r="J25" s="58"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="16">
+      <c r="K25" s="58"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
@@ -1843,14 +1931,15 @@
         <v>0</v>
       </c>
       <c r="J26" s="58"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="16">
+      <c r="K26" s="58"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40"/>
@@ -1866,15 +1955,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="58"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="16">
+      <c r="K27" s="58"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="46"/>
-    </row>
-    <row r="28" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1885,8 +1975,9 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1897,8 +1988,9 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1909,8 +2001,9 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1921,8 +2014,9 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1933,8 +2027,9 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1945,8 +2040,9 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1957,8 +2053,9 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1969,8 +2066,9 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1981,8 +2079,9 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1993,8 +2092,9 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2005,8 +2105,9 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2017,8 +2118,9 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2029,8 +2131,9 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2041,8 +2144,9 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2053,8 +2157,9 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2065,8 +2170,9 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2077,8 +2183,9 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2089,8 +2196,9 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2101,8 +2209,9 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2113,8 +2222,9 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2125,8 +2235,9 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2137,8 +2248,9 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2149,8 +2261,9 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2161,8 +2274,9 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2173,8 +2287,9 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2185,8 +2300,9 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2197,8 +2313,9 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2209,8 +2326,9 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2221,8 +2339,9 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2233,8 +2352,9 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2245,8 +2365,9 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2257,8 +2378,9 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2269,8 +2391,9 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2281,8 +2404,9 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2293,8 +2417,9 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2305,8 +2430,9 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2317,8 +2443,9 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2329,8 +2456,9 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2341,8 +2469,9 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2353,8 +2482,9 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2365,8 +2495,9 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2377,8 +2508,9 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2389,8 +2521,9 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2401,8 +2534,9 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2413,8 +2547,9 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2425,14 +2560,15 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:O27">
-    <sortCondition descending="1" ref="M2"/>
+  <sortState ref="A3:P27">
+    <sortCondition descending="1" ref="N2"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G27">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="between">
@@ -2446,7 +2582,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:L27 L3:L19">
+  <conditionalFormatting sqref="L20:M27 M3:M19">
     <cfRule type="cellIs" dxfId="18" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -2463,7 +2599,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J27 I3:I19">
+  <conditionalFormatting sqref="I20:K27 I3:J19">
     <cfRule type="dataBar" priority="301">
       <dataBar>
         <cfvo type="min"/>
@@ -2477,7 +2613,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M27">
+  <conditionalFormatting sqref="N3:N27">
     <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="min"/>
@@ -2491,7 +2627,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
+  <conditionalFormatting sqref="K3:K19">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -2523,7 +2659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I20:J27 I3:I19</xm:sqref>
+          <xm:sqref>I20:K27 I3:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -2534,7 +2670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M27</xm:sqref>
+          <xm:sqref>N3:N27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2551,7 +2687,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2581,21 +2717,21 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="48"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="66"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="23" t="s">
         <v>19</v>
       </c>
@@ -2606,13 +2742,13 @@
         <v>7</v>
       </c>
       <c r="R1" s="54"/>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="70" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2669,16 +2805,16 @@
         <v>3</v>
       </c>
       <c r="R2" s="55"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="3"/>
       <c r="C3" s="50">
-        <f>Vize!M3</f>
-        <v>0</v>
+        <f>Vize!N3</f>
+        <v>30</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="7"/>
@@ -2703,8 +2839,8 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q19" si="2">ROUND(C3,2)*0.4+P3*0.6</f>
-        <v>0</v>
+        <f>ROUND(C3,2)*0.4+P3*0.6</f>
+        <v>12</v>
       </c>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
@@ -2714,8 +2850,8 @@
       <c r="A4" s="15"/>
       <c r="B4" s="3"/>
       <c r="C4" s="50">
-        <f>Vize!M4</f>
-        <v>0</v>
+        <f>Vize!N4</f>
+        <v>30</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="7"/>
@@ -2736,12 +2872,12 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="16">
-        <f t="shared" ref="P4:P19" si="3">MIN(100,L4*(0.4+0.1)+N4*(0)+(O4)*(0.6+0.15))</f>
+        <f t="shared" ref="P4:P19" si="2">MIN(100,L4*(0.4+0.1)+N4*(0)+(O4)*(0.6+0.15))</f>
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="Q4:Q19" si="3">ROUND(C4,2)*0.4+P4*0.6</f>
+        <v>12</v>
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
@@ -2751,8 +2887,8 @@
       <c r="A5" s="15"/>
       <c r="B5" s="3"/>
       <c r="C5" s="50">
-        <f>Vize!M5</f>
-        <v>0</v>
+        <f>Vize!N5</f>
+        <v>30</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="7"/>
@@ -2773,12 +2909,12 @@
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -2788,8 +2924,8 @@
       <c r="A6" s="15"/>
       <c r="B6" s="3"/>
       <c r="C6" s="50">
-        <f>Vize!M6</f>
-        <v>0</v>
+        <f>Vize!N6</f>
+        <v>30</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="7"/>
@@ -2810,12 +2946,12 @@
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -2825,8 +2961,8 @@
       <c r="A7" s="15"/>
       <c r="B7" s="3"/>
       <c r="C7" s="50">
-        <f>Vize!M7</f>
-        <v>0</v>
+        <f>Vize!N7</f>
+        <v>30</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="7"/>
@@ -2847,12 +2983,12 @@
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -2862,8 +2998,8 @@
       <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="C8" s="50">
-        <f>Vize!M8</f>
-        <v>0</v>
+        <f>Vize!N8</f>
+        <v>30</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="7"/>
@@ -2884,12 +3020,12 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -2899,8 +3035,8 @@
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="C9" s="50">
-        <f>Vize!M9</f>
-        <v>0</v>
+        <f>Vize!N9</f>
+        <v>15</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="7"/>
@@ -2921,12 +3057,12 @@
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -2936,8 +3072,8 @@
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
       <c r="C10" s="50">
-        <f>Vize!M10</f>
-        <v>0</v>
+        <f>Vize!N10</f>
+        <v>7.5</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="7"/>
@@ -2958,12 +3094,12 @@
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -2973,7 +3109,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="50">
-        <f>Vize!M11</f>
+        <f>Vize!N11</f>
         <v>0</v>
       </c>
       <c r="D11" s="25"/>
@@ -2995,11 +3131,11 @@
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="16"/>
@@ -3010,7 +3146,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="C12" s="50">
-        <f>Vize!M12</f>
+        <f>Vize!N12</f>
         <v>0</v>
       </c>
       <c r="D12" s="25"/>
@@ -3032,11 +3168,11 @@
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="16"/>
@@ -3047,7 +3183,7 @@
       <c r="A13" s="15"/>
       <c r="B13" s="3"/>
       <c r="C13" s="50">
-        <f>Vize!M13</f>
+        <f>Vize!N13</f>
         <v>0</v>
       </c>
       <c r="D13" s="25"/>
@@ -3069,11 +3205,11 @@
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="16"/>
@@ -3084,7 +3220,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="3"/>
       <c r="C14" s="50">
-        <f>Vize!M14</f>
+        <f>Vize!N14</f>
         <v>0</v>
       </c>
       <c r="D14" s="25"/>
@@ -3106,11 +3242,11 @@
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="16"/>
@@ -3121,7 +3257,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
       <c r="C15" s="50">
-        <f>Vize!M15</f>
+        <f>Vize!N15</f>
         <v>0</v>
       </c>
       <c r="D15" s="25"/>
@@ -3143,11 +3279,11 @@
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="16"/>
@@ -3158,7 +3294,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
       <c r="C16" s="50">
-        <f>Vize!M16</f>
+        <f>Vize!N16</f>
         <v>0</v>
       </c>
       <c r="D16" s="25"/>
@@ -3180,11 +3316,11 @@
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="16"/>
@@ -3195,7 +3331,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="3"/>
       <c r="C17" s="50">
-        <f>Vize!M17</f>
+        <f>Vize!N17</f>
         <v>0</v>
       </c>
       <c r="D17" s="25"/>
@@ -3217,11 +3353,11 @@
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="16"/>
@@ -3232,7 +3368,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
       <c r="C18" s="50">
-        <f>Vize!M18</f>
+        <f>Vize!N18</f>
         <v>0</v>
       </c>
       <c r="D18" s="25"/>
@@ -3254,11 +3390,11 @@
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="16"/>
@@ -3269,7 +3405,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="50">
-        <f>Vize!M19</f>
+        <f>Vize!N19</f>
         <v>0</v>
       </c>
       <c r="D19" s="25"/>
@@ -3291,11 +3427,11 @@
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="16"/>

--- a/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
+++ b/SoftwareDevEnvAndTools/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Öğrenci No</t>
   </si>
@@ -112,12 +112,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>SINAV (%70)</t>
-  </si>
-  <si>
-    <t>DEVAM DURUMU (%30)</t>
-  </si>
-  <si>
     <t>ODEV 
 (yok)</t>
   </si>
@@ -154,10 +148,160 @@
     <t>MELİKE KARATAŞ</t>
   </si>
   <si>
-    <t>ÇAĞATAY MERCAN</t>
+    <t>EFKAN İDRİS CANDIR</t>
   </si>
   <si>
-    <t>EFKAN İDRİS CANDIR</t>
+    <t>BATUHAN KÖZ</t>
+  </si>
+  <si>
+    <t>MUSTAFA AKIN</t>
+  </si>
+  <si>
+    <t>CEREN YAĞMUR ÖKSEL</t>
+  </si>
+  <si>
+    <t>RIZA FURKAN ŞAHİN</t>
+  </si>
+  <si>
+    <t>HÜSEYİN CAN KARAKAYA</t>
+  </si>
+  <si>
+    <t>ENES KÖSE</t>
+  </si>
+  <si>
+    <t>AHMET FARUK KILIÇARSLAN</t>
+  </si>
+  <si>
+    <t>ELA NUR TÜRK</t>
+  </si>
+  <si>
+    <t>VOLKAN PEKTAŞ</t>
+  </si>
+  <si>
+    <t>ENES KABAEL</t>
+  </si>
+  <si>
+    <t>SONER PALTA</t>
+  </si>
+  <si>
+    <t>OĞULCAN ÖZDEMİR</t>
+  </si>
+  <si>
+    <t>ERTUĞRUL SÜEREN</t>
+  </si>
+  <si>
+    <t>CAN AKAY</t>
+  </si>
+  <si>
+    <t>BATUHAN AKKAYA</t>
+  </si>
+  <si>
+    <t>NESLİHAN CANBULAT</t>
+  </si>
+  <si>
+    <t>SINAV (%50)</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU (%15)</t>
+  </si>
+  <si>
+    <t>LAB (%15)</t>
+  </si>
+  <si>
+    <t>QUIZ (%20)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>SONUÇ9</t>
+  </si>
+  <si>
+    <t>TLAB</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>TSINAV</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>EMİNCAN ŞAHİN</t>
+  </si>
+  <si>
+    <t>ANIL OKUMUŞ</t>
+  </si>
+  <si>
+    <t>YUNUS EMRE GÜNDOĞDU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUHAMMED </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ÇAĞATAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MERCAN</t>
+    </r>
+  </si>
+  <si>
+    <t>NECMİ MURAT ÇAKIN</t>
+  </si>
+  <si>
+    <t>ULAŞ BERKAY AKSOY</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>EK</t>
   </si>
 </sst>
 </file>
@@ -252,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -513,9 +657,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -524,18 +666,102 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -593,12 +819,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,19 +833,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,28 +860,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -692,7 +947,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="172">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -771,33 +1057,44 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -904,6 +1201,2042 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -918,6 +3251,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X32" totalsRowShown="0" headerRowDxfId="171" tableBorderDxfId="170">
+  <autoFilter ref="A2:X32"/>
+  <sortState ref="A3:X32">
+    <sortCondition descending="1" ref="X2:X32"/>
+  </sortState>
+  <tableColumns count="24">
+    <tableColumn id="1" name="NO" dataDxfId="169"/>
+    <tableColumn id="2" name="Adı Soyadı" dataDxfId="168"/>
+    <tableColumn id="3" name="1" dataDxfId="167"/>
+    <tableColumn id="4" name="2" dataDxfId="166"/>
+    <tableColumn id="5" name="3" dataDxfId="165"/>
+    <tableColumn id="6" name="4" dataDxfId="164"/>
+    <tableColumn id="7" name="5" dataDxfId="163"/>
+    <tableColumn id="8" name="6" dataDxfId="162"/>
+    <tableColumn id="9" name="7" dataDxfId="161"/>
+    <tableColumn id="10" name="M" dataDxfId="160"/>
+    <tableColumn id="11" name="T" dataDxfId="159"/>
+    <tableColumn id="12" name="42" dataDxfId="158"/>
+    <tableColumn id="13" name="62" dataDxfId="157"/>
+    <tableColumn id="14" name="72" dataDxfId="156"/>
+    <tableColumn id="15" name="TLAB" dataDxfId="148">
+      <calculatedColumnFormula>SUM(L3:N3)/O$1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Q1" dataDxfId="155"/>
+    <tableColumn id="23" name="Q2" dataDxfId="154"/>
+    <tableColumn id="17" name="Q3" dataDxfId="153"/>
+    <tableColumn id="18" name="TQ" dataDxfId="152">
+      <calculatedColumnFormula>SUM(P3:R3)/S$1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="NOT" dataDxfId="151"/>
+    <tableColumn id="20" name="EKSTRA" dataDxfId="150"/>
+    <tableColumn id="21" name="TSINAV" dataDxfId="149">
+      <calculatedColumnFormula>T3+U3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="EK" dataDxfId="9"/>
+    <tableColumn id="22" name="SONUÇ9" dataDxfId="0">
+      <calculatedColumnFormula>MIN(100,K3*0.15+O3*0.15+S3*0.2+V3*0.5)+Table1[[#This Row],[EK]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,1421 +3563,3265 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="2.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="3.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="3.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.21875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="5.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="7" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="29">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="56">
+        <v>6</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="57">
+        <v>3</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="65">
+        <v>3</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="78"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="L2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I27" si="0">SUM(C3:G3)*50/(I$1-H3)</f>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32">
+        <v>2</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <f>SUM(C3:I3)*50/(K$1-J3)</f>
+        <v>114.16666666666667</v>
+      </c>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28">
-        <f t="shared" ref="M3:M19" si="1">K3+L3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <f t="shared" ref="N3:N19" si="2">MIN(100,I3*0.3+M3*0.7+M3*0.1)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="M3" s="6">
+        <v>100</v>
+      </c>
+      <c r="N3" s="6">
+        <v>100</v>
+      </c>
+      <c r="O3" s="48">
+        <f>SUM(L3:N3)/O$1</f>
+        <v>100</v>
+      </c>
+      <c r="P3" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>55</v>
+      </c>
+      <c r="R3" s="6">
+        <v>100</v>
+      </c>
+      <c r="S3" s="48">
+        <f>SUM(P3:R3)/S$1</f>
+        <v>85</v>
+      </c>
+      <c r="T3" s="6">
+        <v>77</v>
+      </c>
+      <c r="U3" s="30">
+        <v>18</v>
+      </c>
+      <c r="V3" s="28">
+        <f>T3+U3</f>
+        <v>95</v>
+      </c>
+      <c r="W3" s="30">
+        <v>3</v>
+      </c>
+      <c r="X3" s="28">
+        <f>MIN(100,K3*0.15+O3*0.15+S3*0.2+V3*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>99.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="0"/>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f>SUM(C4:I4)*50/(K$1-J4)</f>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="L4" s="6">
         <v>100</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="M4" s="6">
+        <v>100</v>
+      </c>
+      <c r="N4" s="6">
+        <v>100</v>
+      </c>
+      <c r="O4" s="48">
+        <f>SUM(L4:N4)/O$1</f>
+        <v>100</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>70</v>
+      </c>
+      <c r="R4" s="6">
+        <v>80</v>
+      </c>
+      <c r="S4" s="48">
+        <f>SUM(P4:R4)/S$1</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="T4" s="6">
+        <v>60</v>
+      </c>
+      <c r="U4" s="30">
+        <v>18</v>
+      </c>
+      <c r="V4" s="28">
+        <f>T4+U4</f>
+        <v>78</v>
+      </c>
+      <c r="W4" s="30">
+        <v>3</v>
+      </c>
+      <c r="X4" s="28">
+        <f>MIN(100,K4*0.15+O4*0.15+S4*0.2+V4*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>88.416666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="0"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>2</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f>SUM(C5:I5)*50/(K$1-J5)</f>
+        <v>75</v>
+      </c>
+      <c r="L5" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="M5" s="6">
+        <v>100</v>
+      </c>
+      <c r="N5" s="6">
+        <v>100</v>
+      </c>
+      <c r="O5" s="48">
+        <f>SUM(L5:N5)/O$1</f>
+        <v>100</v>
+      </c>
+      <c r="P5" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>35</v>
+      </c>
+      <c r="R5" s="6">
+        <v>50</v>
+      </c>
+      <c r="S5" s="48">
+        <f>SUM(P5:R5)/S$1</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="T5" s="6">
+        <v>70</v>
+      </c>
+      <c r="U5" s="30">
+        <v>18</v>
+      </c>
+      <c r="V5" s="28">
+        <f>T5+U5</f>
+        <v>88</v>
+      </c>
+      <c r="W5" s="30">
+        <v>3</v>
+      </c>
+      <c r="X5" s="28">
+        <f>MIN(100,K5*0.15+O5*0.15+S5*0.2+V5*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>85.583333333333343</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="0"/>
+      <c r="E6" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I6" s="32">
+        <v>2</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <f>SUM(C6:I6)*50/(K$1-J6)</f>
+        <v>95</v>
+      </c>
+      <c r="L6" s="6">
+        <v>75</v>
+      </c>
+      <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
+      <c r="O6" s="48">
+        <f>SUM(L6:N6)/O$1</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="P6" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>60</v>
+      </c>
+      <c r="R6" s="6">
+        <v>80</v>
+      </c>
+      <c r="S6" s="48">
+        <f>SUM(P6:R6)/S$1</f>
+        <v>55</v>
+      </c>
+      <c r="T6" s="6">
+        <v>67</v>
+      </c>
+      <c r="U6" s="30">
+        <v>18</v>
+      </c>
+      <c r="V6" s="28">
+        <f>T6+U6</f>
+        <v>85</v>
+      </c>
+      <c r="W6" s="30">
+        <v>3</v>
+      </c>
+      <c r="X6" s="28">
+        <f>MIN(100,K6*0.15+O6*0.15+S6*0.2+V6*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
+      <c r="D7" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <f>SUM(C7:I7)*50/(K$1-J7)</f>
+        <v>113.33333333333333</v>
+      </c>
+      <c r="L7" s="6">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="O7" s="48">
+        <f>SUM(L7:N7)/O$1</f>
+        <v>65</v>
+      </c>
+      <c r="P7" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>40</v>
+      </c>
+      <c r="R7" s="6">
+        <v>75</v>
+      </c>
+      <c r="S7" s="48">
+        <f>SUM(P7:R7)/S$1</f>
+        <v>55</v>
+      </c>
+      <c r="T7" s="6">
+        <v>52</v>
+      </c>
+      <c r="U7" s="30">
+        <v>18</v>
+      </c>
+      <c r="V7" s="28">
+        <f>T7+U7</f>
+        <v>70</v>
+      </c>
+      <c r="W7" s="30">
+        <v>3</v>
+      </c>
+      <c r="X7" s="28">
+        <f>MIN(100,K7*0.15+O7*0.15+S7*0.2+V7*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32">
+        <v>2</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <f>SUM(C8:I8)*50/(K$1-J8)</f>
         <v>100</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="2"/>
+      <c r="L8" s="6">
+        <v>95</v>
+      </c>
+      <c r="M8" s="6">
+        <v>100</v>
+      </c>
+      <c r="N8" s="6">
+        <v>100</v>
+      </c>
+      <c r="O8" s="48">
+        <f>SUM(L8:N8)/O$1</f>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>45</v>
+      </c>
+      <c r="R8" s="6">
+        <v>65</v>
+      </c>
+      <c r="S8" s="48">
+        <f>SUM(P8:R8)/S$1</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="T8" s="6">
+        <v>49</v>
+      </c>
+      <c r="U8" s="30">
+        <v>18</v>
+      </c>
+      <c r="V8" s="28">
+        <f>T8+U8</f>
+        <v>67</v>
+      </c>
+      <c r="W8" s="30">
+        <v>3</v>
+      </c>
+      <c r="X8" s="28">
+        <f>MIN(100,K8*0.15+O8*0.15+S8*0.2+V8*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>73.583333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>2</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <f>SUM(C9:I9)*50/(K$1-J9)</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="48">
+        <f>SUM(L9:N9)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>95</v>
+      </c>
+      <c r="S9" s="48">
+        <f>SUM(P9:R9)/S$1</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="T9" s="6">
+        <v>82</v>
+      </c>
+      <c r="U9" s="30">
+        <v>18</v>
+      </c>
+      <c r="V9" s="28">
+        <f>T9+U9</f>
+        <v>100</v>
+      </c>
+      <c r="W9" s="30">
+        <v>3</v>
+      </c>
+      <c r="X9" s="28">
+        <f>MIN(100,K9*0.15+O9*0.15+S9*0.2+V9*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>73.083333333333343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <f>SUM(C10:I10)*50/(K$1-J10)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="48">
+        <f>SUM(L10:N10)/O$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P10" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>50</v>
+      </c>
+      <c r="R10" s="6">
+        <v>100</v>
+      </c>
+      <c r="S10" s="48">
+        <f>SUM(P10:R10)/S$1</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="T10" s="67">
+        <v>59</v>
+      </c>
+      <c r="U10" s="30">
+        <v>18</v>
+      </c>
+      <c r="V10" s="28">
+        <f>T10+U10</f>
+        <v>77</v>
+      </c>
+      <c r="W10" s="30">
+        <v>3</v>
+      </c>
+      <c r="X10" s="28">
+        <f>MIN(100,K10*0.15+O10*0.15+S10*0.2+V10*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>72.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <f>SUM(C11:I11)*50/(K$1-J11)</f>
+        <v>72.499999999999986</v>
+      </c>
+      <c r="L11" s="6">
+        <v>95</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="48">
+        <f>SUM(L11:N11)/O$1</f>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>70</v>
+      </c>
+      <c r="S11" s="48">
+        <f>SUM(P11:R11)/S$1</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="T11" s="6">
+        <v>77</v>
+      </c>
+      <c r="U11" s="30">
+        <v>18</v>
+      </c>
+      <c r="V11" s="28">
+        <f>T11+U11</f>
+        <v>95</v>
+      </c>
+      <c r="W11" s="30">
+        <v>3</v>
+      </c>
+      <c r="X11" s="28">
+        <f>MIN(100,K11*0.15+O11*0.15+S11*0.2+V11*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>70.791666666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <f>SUM(C12:I12)*50/(K$1-J12)</f>
+        <v>47.499999999999993</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
+      <c r="O12" s="48">
+        <f>SUM(L12:N12)/O$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>40</v>
+      </c>
+      <c r="R12" s="6">
+        <v>100</v>
+      </c>
+      <c r="S12" s="48">
+        <f>SUM(P12:R12)/S$1</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="T12" s="67">
+        <v>73</v>
+      </c>
+      <c r="U12" s="30">
+        <v>18</v>
+      </c>
+      <c r="V12" s="28">
+        <f>T12+U12</f>
+        <v>91</v>
+      </c>
+      <c r="W12" s="30">
+        <v>3</v>
+      </c>
+      <c r="X12" s="28">
+        <f>MIN(100,K12*0.15+O12*0.15+S12*0.2+V12*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>69.958333333333343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <f>SUM(C13:I13)*50/(K$1-J13)</f>
+        <v>47.499999999999993</v>
+      </c>
+      <c r="L13" s="6">
+        <v>90</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="48">
+        <f>SUM(L13:N13)/O$1</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3" t="s">
+      <c r="P13" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>60</v>
+      </c>
+      <c r="S13" s="48">
+        <f>SUM(P13:R13)/S$1</f>
+        <v>45</v>
+      </c>
+      <c r="T13" s="67">
+        <v>67</v>
+      </c>
+      <c r="U13" s="30">
+        <v>18</v>
+      </c>
+      <c r="V13" s="28">
+        <f>T13+U13</f>
+        <v>85</v>
+      </c>
+      <c r="W13" s="30">
+        <v>3</v>
+      </c>
+      <c r="X13" s="28">
+        <f>MIN(100,K13*0.15+O13*0.15+S13*0.2+V13*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>66.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>2</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f>SUM(C14:I14)*50/(K$1-J14)</f>
+        <v>75</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
+      <c r="O14" s="48">
+        <f>SUM(L14:N14)/O$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P14" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>50</v>
+      </c>
+      <c r="S14" s="48">
+        <f>SUM(P14:R14)/S$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="T14" s="6">
+        <v>62</v>
+      </c>
+      <c r="U14" s="30">
+        <v>18</v>
+      </c>
+      <c r="V14" s="28">
+        <f>T14+U14</f>
+        <v>80</v>
+      </c>
+      <c r="W14" s="30">
+        <v>3</v>
+      </c>
+      <c r="X14" s="28">
+        <f>MIN(100,K14*0.15+O14*0.15+S14*0.2+V14*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>65.916666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <f>SUM(C15:I15)*50/(K$1-J15)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>100</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="48">
+        <f>SUM(L15:N15)/O$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P15" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>25</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="48">
+        <f>SUM(P15:R15)/S$1</f>
+        <v>25</v>
+      </c>
+      <c r="T15" s="67">
+        <v>66</v>
+      </c>
+      <c r="U15" s="30">
+        <v>18</v>
+      </c>
+      <c r="V15" s="28">
+        <f>T15+U15</f>
+        <v>84</v>
+      </c>
+      <c r="W15" s="30">
+        <v>3</v>
+      </c>
+      <c r="X15" s="28">
+        <f>MIN(100,K15*0.15+O15*0.15+S15*0.2+V15*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <f>SUM(C16:I16)*50/(K$1-J16)</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="48">
+        <f>SUM(L16:N16)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="48">
+        <f>SUM(P16:R16)/S$1</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="T16" s="67">
+        <v>66</v>
+      </c>
+      <c r="U16" s="30">
+        <v>18</v>
+      </c>
+      <c r="V16" s="28">
+        <f>T16+U16</f>
+        <v>84</v>
+      </c>
+      <c r="W16" s="30">
+        <v>3</v>
+      </c>
+      <c r="X16" s="28">
+        <f>MIN(100,K16*0.15+O16*0.15+S16*0.2+V16*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>54.833333333333336</v>
+      </c>
+      <c r="Y16" s="36"/>
+    </row>
+    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <f>SUM(C17:I17)*50/(K$1-J17)</f>
+        <v>25</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="48">
+        <f>SUM(L17:N17)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="48">
+        <f>SUM(P17:R17)/S$1</f>
+        <v>25</v>
+      </c>
+      <c r="T17" s="67">
+        <v>67</v>
+      </c>
+      <c r="U17" s="30">
+        <v>18</v>
+      </c>
+      <c r="V17" s="28">
+        <f>T17+U17</f>
+        <v>85</v>
+      </c>
+      <c r="W17" s="30">
+        <v>3</v>
+      </c>
+      <c r="X17" s="28">
+        <f>MIN(100,K17*0.15+O17*0.15+S17*0.2+V17*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <f>SUM(C18:I18)*50/(K$1-J18)</f>
+        <v>65.833333333333329</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="48">
+        <f>SUM(L18:N18)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="48">
+        <f>SUM(P18:R18)/S$1</f>
+        <v>25</v>
+      </c>
+      <c r="T18" s="6">
+        <v>51</v>
+      </c>
+      <c r="U18" s="30">
+        <v>18</v>
+      </c>
+      <c r="V18" s="28">
+        <f>T18+U18</f>
+        <v>69</v>
+      </c>
+      <c r="W18" s="30">
+        <v>3</v>
+      </c>
+      <c r="X18" s="28">
+        <f>MIN(100,K18*0.15+O18*0.15+S18*0.2+V18*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f>SUM(C19:I19)*50/(K$1-J19)</f>
+        <v>97.5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="48">
+        <f>SUM(L19:N19)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>70</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="48">
+        <f>SUM(P19:R19)/S$1</f>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="T19" s="6">
+        <v>29</v>
+      </c>
+      <c r="U19" s="30">
+        <v>18</v>
+      </c>
+      <c r="V19" s="28">
+        <f>T19+U19</f>
+        <v>47</v>
+      </c>
+      <c r="W19" s="30">
+        <v>3</v>
+      </c>
+      <c r="X19" s="28">
+        <f>MIN(100,K19*0.15+O19*0.15+S19*0.2+V19*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>50.791666666666671</v>
+      </c>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <f>SUM(C20:I20)*50/(K$1-J20)</f>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="48">
+        <f>SUM(L20:N20)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>60</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="48">
+        <f>SUM(P20:R20)/S$1</f>
+        <v>45</v>
+      </c>
+      <c r="T20" s="6">
+        <v>31</v>
+      </c>
+      <c r="U20" s="30">
+        <v>18</v>
+      </c>
+      <c r="V20" s="28">
+        <f>T20+U20</f>
+        <v>49</v>
+      </c>
+      <c r="W20" s="30">
+        <v>3</v>
+      </c>
+      <c r="X20" s="28">
+        <f>MIN(100,K20*0.15+O20*0.15+S20*0.2+V20*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <f>SUM(C21:I21)*50/(K$1-J21)</f>
+        <v>52.5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="48">
+        <f>SUM(L21:N21)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="48">
+        <f>SUM(P21:R21)/S$1</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="T21" s="67">
+        <v>53</v>
+      </c>
+      <c r="U21" s="30">
+        <v>18</v>
+      </c>
+      <c r="V21" s="28">
+        <f>T21+U21</f>
+        <v>71</v>
+      </c>
+      <c r="W21" s="30">
+        <v>3</v>
+      </c>
+      <c r="X21" s="28">
+        <f>MIN(100,K21*0.15+O21*0.15+S21*0.2+V21*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>48.041666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f>SUM(C22:I22)*50/(K$1-J22)</f>
+        <v>25</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="48">
+        <f>SUM(L22:N22)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="48">
+        <f>SUM(P22:R22)/S$1</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="T22" s="67">
+        <v>43</v>
+      </c>
+      <c r="U22" s="30">
+        <v>18</v>
+      </c>
+      <c r="V22" s="28">
+        <f>T22+U22</f>
+        <v>61</v>
+      </c>
+      <c r="W22" s="30">
+        <v>3</v>
+      </c>
+      <c r="X22" s="28">
+        <f>MIN(100,K22*0.15+O22*0.15+S22*0.2+V22*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>38.916666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <f>SUM(C23:I23)*50/(K$1-J23)</f>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="48">
+        <f>SUM(L23:N23)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
         <v>50</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="3" t="s">
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="48">
+        <f>SUM(P23:R23)/S$1</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="T23" s="67">
+        <v>32</v>
+      </c>
+      <c r="U23" s="30">
+        <v>18</v>
+      </c>
+      <c r="V23" s="28">
+        <f>T23+U23</f>
+        <v>50</v>
+      </c>
+      <c r="W23" s="30">
+        <v>3</v>
+      </c>
+      <c r="X23" s="28">
+        <f>MIN(100,K23*0.15+O23*0.15+S23*0.2+V23*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>38.583333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <f>SUM(C24:I24)*50/(K$1-J24)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="48">
+        <f>SUM(L24:N24)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="48">
+        <f>SUM(P24:R24)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="67">
+        <v>48</v>
+      </c>
+      <c r="U24" s="30">
+        <v>18</v>
+      </c>
+      <c r="V24" s="28">
+        <f>T24+U24</f>
+        <v>66</v>
+      </c>
+      <c r="W24" s="30">
+        <v>3</v>
+      </c>
+      <c r="X24" s="28">
+        <f>MIN(100,K24*0.15+O24*0.15+S24*0.2+V24*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <f>SUM(C25:I25)*50/(K$1-J25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="48">
+        <f>SUM(L25:N25)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="48">
+        <f>SUM(P25:R25)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="67">
+        <v>51</v>
+      </c>
+      <c r="U25" s="30">
+        <v>18</v>
+      </c>
+      <c r="V25" s="72">
+        <f>T25+U25</f>
+        <v>69</v>
+      </c>
+      <c r="W25" s="30">
+        <v>3</v>
+      </c>
+      <c r="X25" s="28">
+        <f>MIN(100,K25*0.15+O25*0.15+S25*0.2+V25*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="70"/>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="48">
+        <f>SUM(L26:N26)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="48">
+        <f>SUM(P26:R26)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="67">
+        <v>47</v>
+      </c>
+      <c r="U26" s="30">
+        <v>18</v>
+      </c>
+      <c r="V26" s="28">
+        <f>T26+U26</f>
+        <v>65</v>
+      </c>
+      <c r="W26" s="30">
+        <v>3</v>
+      </c>
+      <c r="X26" s="28">
+        <f>MIN(100,K26*0.15+O26*0.15+S26*0.2+V26*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="37" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="59">
+        <v>1</v>
+      </c>
+      <c r="D27" s="60">
+        <v>1.9</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
+      <c r="F27" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0</v>
+      </c>
+      <c r="I27" s="61">
+        <v>0</v>
+      </c>
+      <c r="J27" s="62">
+        <v>0</v>
+      </c>
+      <c r="K27" s="71">
+        <f>SUM(C27:I27)*50/(K$1-J27)</f>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="L27" s="63">
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
+        <v>0</v>
+      </c>
+      <c r="N27" s="63"/>
+      <c r="O27" s="48">
+        <f>SUM(L27:N27)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63">
+        <v>0</v>
+      </c>
+      <c r="R27" s="63">
+        <v>0</v>
+      </c>
+      <c r="S27" s="48">
+        <f>SUM(P27:R27)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="67">
+        <v>35</v>
+      </c>
+      <c r="U27" s="30">
+        <v>18</v>
+      </c>
+      <c r="V27" s="28">
+        <f>T27+U27</f>
+        <v>53</v>
+      </c>
+      <c r="W27" s="30">
+        <v>3</v>
+      </c>
+      <c r="X27" s="28">
+        <f>MIN(100,K27*0.15+O27*0.15+S27*0.2+V27*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>35</v>
+      </c>
+      <c r="Y27" s="36"/>
+    </row>
+    <row r="28" spans="1:25" s="37" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
+        <v>0</v>
+      </c>
+      <c r="K28" s="71">
+        <f>SUM(C28:I28)*50/(K$1-J28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="48">
+        <f>SUM(L28:N28)/O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="48">
+        <f>SUM(P28:R28)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="48">
+        <v>43</v>
+      </c>
+      <c r="U28" s="30">
+        <v>18</v>
+      </c>
+      <c r="V28" s="72">
+        <f>T28+U28</f>
+        <v>61</v>
+      </c>
+      <c r="W28" s="30">
+        <v>3</v>
+      </c>
+      <c r="X28" s="28">
+        <f>MIN(100,K28*0.15+O28*0.15+S28*0.2+V28*0.5)+Table1[[#This Row],[EK]]</f>
+        <v>33.5</v>
+      </c>
+      <c r="Y28" s="36"/>
+    </row>
+    <row r="29" spans="1:25" s="37" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="31">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="30" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="31">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="16">
-        <f t="shared" ref="N20:N27" si="3">I20*0.3+L20*0.7+M20*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42">
-        <v>0</v>
-      </c>
-      <c r="I22" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42">
-        <v>0</v>
-      </c>
-      <c r="I24" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="44"/>
- 